--- a/resources/map_editor.xlsx
+++ b/resources/map_editor.xlsx
@@ -4,11 +4,12 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24750" windowHeight="10400" activeTab="1"/>
+    <workbookView windowWidth="24750" windowHeight="10400" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="1f" sheetId="1" r:id="rId1"/>
     <sheet name="2f" sheetId="2" r:id="rId2"/>
+    <sheet name="End" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="507" uniqueCount="28">
   <si>
     <t>wall_2</t>
   </si>
@@ -106,6 +107,12 @@
   </si>
   <si>
     <t>door_1</t>
+  </si>
+  <si>
+    <t>black_0</t>
+  </si>
+  <si>
+    <t>white_0</t>
   </si>
 </sst>
 </file>
@@ -791,7 +798,7 @@
     <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="16">
+  <dxfs count="18">
     <dxf>
       <font>
         <color theme="0"/>
@@ -939,6 +946,26 @@
         <color rgb="FFFF0000"/>
       </font>
       <numFmt numFmtId="49" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1863,8 +1890,8 @@
   <sheetPr/>
   <dimension ref="A1:M13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:M13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.33636363636364" defaultRowHeight="50" customHeight="1"/>
@@ -2936,4 +2963,3730 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:M13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.33636363636364" defaultRowHeight="50" customHeight="1"/>
+  <sheetData>
+    <row r="1" customHeight="1" spans="1:13">
+      <c r="A1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" customHeight="1" spans="1:13">
+      <c r="A2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" customHeight="1" spans="1:13">
+      <c r="A3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" customHeight="1" spans="1:13">
+      <c r="A4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" customHeight="1" spans="1:13">
+      <c r="A5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" customHeight="1" spans="1:13">
+      <c r="A6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" customHeight="1" spans="1:13">
+      <c r="A7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" customHeight="1" spans="1:13">
+      <c r="A8" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" customHeight="1" spans="1:13">
+      <c r="A9" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" customHeight="1" spans="1:13">
+      <c r="A10" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" customHeight="1" spans="1:13">
+      <c r="A11" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="M11" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" customHeight="1" spans="1:13">
+      <c r="A12" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="M12" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" customHeight="1" spans="1:13">
+      <c r="A13" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="M13" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="A2:M2">
+    <cfRule type="containsText" dxfId="16" priority="2" operator="between" text="black_0">
+      <formula>NOT(ISERROR(SEARCH("black_0",A2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" priority="1" operator="between" text="white_0">
+      <formula>NOT(ISERROR(SEARCH("white_0",A2)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B3">
+    <cfRule type="cellIs" dxfId="14" priority="736" operator="equal">
+      <formula>"wall_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="735" operator="equal">
+      <formula>"wall_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="734" operator="equal">
+      <formula>"ground_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="11" priority="733" operator="equal">
+      <formula>"wall_1"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="732" operator="equal">
+      <formula>"door_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="731" operator="equal">
+      <formula>"door_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="730" operator="equal">
+      <formula>"key_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="729" operator="equal">
+      <formula>"key_1"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="728">
+      <formula>OR(LEFT(B3,5)="slime",LEFT(B3,3)="bat",LEFT(B3,8)="skeleton",LEFT(B3,5)="mummy",LEFT(B3,6)="wizard",LEFT(B3,6)="knight")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="727">
+      <formula>LEFT(B3,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="726">
+      <formula>LEFT(B3,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="5" priority="725">
+      <formula>LEFT(B3,3)="gem"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="724">
+      <formula>LEFT(B3,6)="potion"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="723">
+      <formula>LEFT(B3,3)="pos"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D3">
+    <cfRule type="cellIs" dxfId="14" priority="722" operator="equal">
+      <formula>"wall_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="721" operator="equal">
+      <formula>"wall_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="720" operator="equal">
+      <formula>"ground_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="11" priority="719" operator="equal">
+      <formula>"wall_1"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="718" operator="equal">
+      <formula>"door_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="717" operator="equal">
+      <formula>"door_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="716" operator="equal">
+      <formula>"key_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="715" operator="equal">
+      <formula>"key_1"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="714">
+      <formula>OR(LEFT(D3,5)="slime",LEFT(D3,3)="bat",LEFT(D3,8)="skeleton",LEFT(D3,5)="mummy",LEFT(D3,6)="wizard",LEFT(D3,6)="knight")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="713">
+      <formula>LEFT(D3,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="712">
+      <formula>LEFT(D3,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="5" priority="711">
+      <formula>LEFT(D3,3)="gem"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="710">
+      <formula>LEFT(D3,6)="potion"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="709">
+      <formula>LEFT(D3,3)="pos"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F3">
+    <cfRule type="cellIs" dxfId="14" priority="596" operator="equal">
+      <formula>"wall_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="595" operator="equal">
+      <formula>"wall_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="594" operator="equal">
+      <formula>"ground_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="11" priority="593" operator="equal">
+      <formula>"wall_1"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="592" operator="equal">
+      <formula>"door_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="591" operator="equal">
+      <formula>"door_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="590" operator="equal">
+      <formula>"key_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="589" operator="equal">
+      <formula>"key_1"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="588">
+      <formula>OR(LEFT(F3,5)="slime",LEFT(F3,3)="bat",LEFT(F3,8)="skeleton",LEFT(F3,5)="mummy",LEFT(F3,6)="wizard",LEFT(F3,6)="knight")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="587">
+      <formula>LEFT(F3,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="586">
+      <formula>LEFT(F3,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="5" priority="585">
+      <formula>LEFT(F3,3)="gem"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="584">
+      <formula>LEFT(F3,6)="potion"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="583">
+      <formula>LEFT(F3,3)="pos"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G3">
+    <cfRule type="cellIs" dxfId="14" priority="862" operator="equal">
+      <formula>"wall_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="861" operator="equal">
+      <formula>"wall_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="860" operator="equal">
+      <formula>"ground_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="11" priority="859" operator="equal">
+      <formula>"wall_1"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="858" operator="equal">
+      <formula>"door_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="857" operator="equal">
+      <formula>"door_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="856" operator="equal">
+      <formula>"key_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="855" operator="equal">
+      <formula>"key_1"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="854">
+      <formula>OR(LEFT(G3,5)="slime",LEFT(G3,3)="bat",LEFT(G3,8)="skeleton",LEFT(G3,5)="mummy",LEFT(G3,6)="wizard",LEFT(G3,6)="knight")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="853">
+      <formula>LEFT(G3,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="852">
+      <formula>LEFT(G3,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="5" priority="851">
+      <formula>LEFT(G3,3)="gem"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="850">
+      <formula>LEFT(G3,6)="potion"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="849">
+      <formula>LEFT(G3,3)="pos"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H3">
+    <cfRule type="cellIs" dxfId="14" priority="582" operator="equal">
+      <formula>"wall_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="581" operator="equal">
+      <formula>"wall_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="580" operator="equal">
+      <formula>"ground_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="11" priority="579" operator="equal">
+      <formula>"wall_1"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="578" operator="equal">
+      <formula>"door_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="577" operator="equal">
+      <formula>"door_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="576" operator="equal">
+      <formula>"key_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="575" operator="equal">
+      <formula>"key_1"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="574">
+      <formula>OR(LEFT(H3,5)="slime",LEFT(H3,3)="bat",LEFT(H3,8)="skeleton",LEFT(H3,5)="mummy",LEFT(H3,6)="wizard",LEFT(H3,6)="knight")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="573">
+      <formula>LEFT(H3,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="572">
+      <formula>LEFT(H3,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="5" priority="571">
+      <formula>LEFT(H3,3)="gem"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="570">
+      <formula>LEFT(H3,6)="potion"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="569">
+      <formula>LEFT(H3,3)="pos"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J3">
+    <cfRule type="cellIs" dxfId="14" priority="834" operator="equal">
+      <formula>"wall_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="833" operator="equal">
+      <formula>"wall_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="832" operator="equal">
+      <formula>"ground_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="11" priority="831" operator="equal">
+      <formula>"wall_1"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="830" operator="equal">
+      <formula>"door_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="829" operator="equal">
+      <formula>"door_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="828" operator="equal">
+      <formula>"key_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="827" operator="equal">
+      <formula>"key_1"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="826">
+      <formula>OR(LEFT(J3,5)="slime",LEFT(J3,3)="bat",LEFT(J3,8)="skeleton",LEFT(J3,5)="mummy",LEFT(J3,6)="wizard",LEFT(J3,6)="knight")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="825">
+      <formula>LEFT(J3,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="824">
+      <formula>LEFT(J3,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="5" priority="823">
+      <formula>LEFT(J3,3)="gem"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="822">
+      <formula>LEFT(J3,6)="potion"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="821">
+      <formula>LEFT(J3,3)="pos"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L3">
+    <cfRule type="cellIs" dxfId="14" priority="792" operator="equal">
+      <formula>"wall_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="791" operator="equal">
+      <formula>"wall_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="790" operator="equal">
+      <formula>"ground_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="11" priority="789" operator="equal">
+      <formula>"wall_1"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="788" operator="equal">
+      <formula>"door_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="787" operator="equal">
+      <formula>"door_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="786" operator="equal">
+      <formula>"key_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="785" operator="equal">
+      <formula>"key_1"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="784">
+      <formula>OR(LEFT(L3,5)="slime",LEFT(L3,3)="bat",LEFT(L3,8)="skeleton",LEFT(L3,5)="mummy",LEFT(L3,6)="wizard",LEFT(L3,6)="knight")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="783">
+      <formula>LEFT(L3,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="782">
+      <formula>LEFT(L3,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="5" priority="781">
+      <formula>LEFT(L3,3)="gem"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="780">
+      <formula>LEFT(L3,6)="potion"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="779">
+      <formula>LEFT(L3,3)="pos"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G4">
+    <cfRule type="cellIs" dxfId="14" priority="890" operator="equal">
+      <formula>"wall_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="889" operator="equal">
+      <formula>"wall_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="888" operator="equal">
+      <formula>"ground_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="11" priority="887" operator="equal">
+      <formula>"wall_1"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="886" operator="equal">
+      <formula>"door_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="885" operator="equal">
+      <formula>"door_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="884" operator="equal">
+      <formula>"key_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="883" operator="equal">
+      <formula>"key_1"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="882">
+      <formula>OR(LEFT(G4,5)="slime",LEFT(G4,3)="bat",LEFT(G4,8)="skeleton",LEFT(G4,5)="mummy",LEFT(G4,6)="wizard",LEFT(G4,6)="knight")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="881">
+      <formula>LEFT(G4,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="880">
+      <formula>LEFT(G4,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="5" priority="879">
+      <formula>LEFT(G4,3)="gem"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="878">
+      <formula>LEFT(G4,6)="potion"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="877">
+      <formula>LEFT(G4,3)="pos"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H4">
+    <cfRule type="cellIs" dxfId="14" priority="848" operator="equal">
+      <formula>"wall_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="847" operator="equal">
+      <formula>"wall_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="846" operator="equal">
+      <formula>"ground_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="11" priority="845" operator="equal">
+      <formula>"wall_1"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="844" operator="equal">
+      <formula>"door_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="843" operator="equal">
+      <formula>"door_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="842" operator="equal">
+      <formula>"key_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="841" operator="equal">
+      <formula>"key_1"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="840">
+      <formula>OR(LEFT(H4,5)="slime",LEFT(H4,3)="bat",LEFT(H4,8)="skeleton",LEFT(H4,5)="mummy",LEFT(H4,6)="wizard",LEFT(H4,6)="knight")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="839">
+      <formula>LEFT(H4,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="838">
+      <formula>LEFT(H4,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="5" priority="837">
+      <formula>LEFT(H4,3)="gem"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="836">
+      <formula>LEFT(H4,6)="potion"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="835">
+      <formula>LEFT(H4,3)="pos"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J4">
+    <cfRule type="cellIs" dxfId="14" priority="820" operator="equal">
+      <formula>"wall_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="819" operator="equal">
+      <formula>"wall_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="818" operator="equal">
+      <formula>"ground_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="11" priority="817" operator="equal">
+      <formula>"wall_1"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="816" operator="equal">
+      <formula>"door_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="815" operator="equal">
+      <formula>"door_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="814" operator="equal">
+      <formula>"key_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="813" operator="equal">
+      <formula>"key_1"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="812">
+      <formula>OR(LEFT(J4,5)="slime",LEFT(J4,3)="bat",LEFT(J4,8)="skeleton",LEFT(J4,5)="mummy",LEFT(J4,6)="wizard",LEFT(J4,6)="knight")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="811">
+      <formula>LEFT(J4,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="810">
+      <formula>LEFT(J4,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="5" priority="809">
+      <formula>LEFT(J4,3)="gem"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="808">
+      <formula>LEFT(J4,6)="potion"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="807">
+      <formula>LEFT(J4,3)="pos"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L4">
+    <cfRule type="cellIs" dxfId="14" priority="806" operator="equal">
+      <formula>"wall_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="805" operator="equal">
+      <formula>"wall_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="804" operator="equal">
+      <formula>"ground_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="11" priority="803" operator="equal">
+      <formula>"wall_1"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="802" operator="equal">
+      <formula>"door_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="801" operator="equal">
+      <formula>"door_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="800" operator="equal">
+      <formula>"key_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="799" operator="equal">
+      <formula>"key_1"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="798">
+      <formula>OR(LEFT(L4,5)="slime",LEFT(L4,3)="bat",LEFT(L4,8)="skeleton",LEFT(L4,5)="mummy",LEFT(L4,6)="wizard",LEFT(L4,6)="knight")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="797">
+      <formula>LEFT(L4,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="796">
+      <formula>LEFT(L4,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="5" priority="795">
+      <formula>LEFT(L4,3)="gem"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="794">
+      <formula>LEFT(L4,6)="potion"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="793">
+      <formula>LEFT(L4,3)="pos"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B5">
+    <cfRule type="cellIs" dxfId="14" priority="526" operator="equal">
+      <formula>"wall_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="525" operator="equal">
+      <formula>"wall_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="524" operator="equal">
+      <formula>"ground_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="11" priority="523" operator="equal">
+      <formula>"wall_1"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="522" operator="equal">
+      <formula>"door_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="521" operator="equal">
+      <formula>"door_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="520" operator="equal">
+      <formula>"key_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="519" operator="equal">
+      <formula>"key_1"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="518">
+      <formula>OR(LEFT(B5,5)="slime",LEFT(B5,3)="bat",LEFT(B5,8)="skeleton",LEFT(B5,5)="mummy",LEFT(B5,6)="wizard",LEFT(B5,6)="knight")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="517">
+      <formula>LEFT(B5,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="516">
+      <formula>LEFT(B5,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="5" priority="515">
+      <formula>LEFT(B5,3)="gem"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="514">
+      <formula>LEFT(B5,6)="potion"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="513">
+      <formula>LEFT(B5,3)="pos"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C5">
+    <cfRule type="cellIs" dxfId="14" priority="764" operator="equal">
+      <formula>"wall_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="763" operator="equal">
+      <formula>"wall_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="762" operator="equal">
+      <formula>"ground_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="11" priority="761" operator="equal">
+      <formula>"wall_1"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="760" operator="equal">
+      <formula>"door_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="759" operator="equal">
+      <formula>"door_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="758" operator="equal">
+      <formula>"key_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="757" operator="equal">
+      <formula>"key_1"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="756">
+      <formula>OR(LEFT(C5,5)="slime",LEFT(C5,3)="bat",LEFT(C5,8)="skeleton",LEFT(C5,5)="mummy",LEFT(C5,6)="wizard",LEFT(C5,6)="knight")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="755">
+      <formula>LEFT(C5,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="754">
+      <formula>LEFT(C5,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="5" priority="753">
+      <formula>LEFT(C5,3)="gem"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="752">
+      <formula>LEFT(C5,6)="potion"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="751">
+      <formula>LEFT(C5,3)="pos"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D5">
+    <cfRule type="cellIs" dxfId="14" priority="540" operator="equal">
+      <formula>"wall_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="539" operator="equal">
+      <formula>"wall_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="538" operator="equal">
+      <formula>"ground_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="11" priority="537" operator="equal">
+      <formula>"wall_1"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="536" operator="equal">
+      <formula>"door_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="535" operator="equal">
+      <formula>"door_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="534" operator="equal">
+      <formula>"key_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="533" operator="equal">
+      <formula>"key_1"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="532">
+      <formula>OR(LEFT(D5,5)="slime",LEFT(D5,3)="bat",LEFT(D5,8)="skeleton",LEFT(D5,5)="mummy",LEFT(D5,6)="wizard",LEFT(D5,6)="knight")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="531">
+      <formula>LEFT(D5,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="530">
+      <formula>LEFT(D5,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="5" priority="529">
+      <formula>LEFT(D5,3)="gem"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="528">
+      <formula>LEFT(D5,6)="potion"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="527">
+      <formula>LEFT(D5,3)="pos"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G5">
+    <cfRule type="cellIs" dxfId="14" priority="708" operator="equal">
+      <formula>"wall_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="707" operator="equal">
+      <formula>"wall_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="706" operator="equal">
+      <formula>"ground_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="11" priority="705" operator="equal">
+      <formula>"wall_1"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="704" operator="equal">
+      <formula>"door_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="703" operator="equal">
+      <formula>"door_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="702" operator="equal">
+      <formula>"key_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="701" operator="equal">
+      <formula>"key_1"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="700">
+      <formula>OR(LEFT(G5,5)="slime",LEFT(G5,3)="bat",LEFT(G5,8)="skeleton",LEFT(G5,5)="mummy",LEFT(G5,6)="wizard",LEFT(G5,6)="knight")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="699">
+      <formula>LEFT(G5,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="698">
+      <formula>LEFT(G5,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="5" priority="697">
+      <formula>LEFT(G5,3)="gem"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="696">
+      <formula>LEFT(G5,6)="potion"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="695">
+      <formula>LEFT(G5,3)="pos"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J5">
+    <cfRule type="cellIs" dxfId="14" priority="638" operator="equal">
+      <formula>"wall_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="637" operator="equal">
+      <formula>"wall_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="636" operator="equal">
+      <formula>"ground_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="11" priority="635" operator="equal">
+      <formula>"wall_1"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="634" operator="equal">
+      <formula>"door_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="633" operator="equal">
+      <formula>"door_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="632" operator="equal">
+      <formula>"key_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="631" operator="equal">
+      <formula>"key_1"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="630">
+      <formula>OR(LEFT(J5,5)="slime",LEFT(J5,3)="bat",LEFT(J5,8)="skeleton",LEFT(J5,5)="mummy",LEFT(J5,6)="wizard",LEFT(J5,6)="knight")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="629">
+      <formula>LEFT(J5,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="628">
+      <formula>LEFT(J5,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="5" priority="627">
+      <formula>LEFT(J5,3)="gem"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="626">
+      <formula>LEFT(J5,6)="potion"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="625">
+      <formula>LEFT(J5,3)="pos"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K5">
+    <cfRule type="cellIs" dxfId="14" priority="666" operator="equal">
+      <formula>"wall_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="665" operator="equal">
+      <formula>"wall_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="664" operator="equal">
+      <formula>"ground_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="11" priority="663" operator="equal">
+      <formula>"wall_1"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="662" operator="equal">
+      <formula>"door_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="661" operator="equal">
+      <formula>"door_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="660" operator="equal">
+      <formula>"key_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="659" operator="equal">
+      <formula>"key_1"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="658">
+      <formula>OR(LEFT(K5,5)="slime",LEFT(K5,3)="bat",LEFT(K5,8)="skeleton",LEFT(K5,5)="mummy",LEFT(K5,6)="wizard",LEFT(K5,6)="knight")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="657">
+      <formula>LEFT(K5,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="656">
+      <formula>LEFT(K5,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="5" priority="655">
+      <formula>LEFT(K5,3)="gem"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="654">
+      <formula>LEFT(K5,6)="potion"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="653">
+      <formula>LEFT(K5,3)="pos"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L5">
+    <cfRule type="cellIs" dxfId="14" priority="652" operator="equal">
+      <formula>"wall_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="651" operator="equal">
+      <formula>"wall_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="650" operator="equal">
+      <formula>"ground_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="11" priority="649" operator="equal">
+      <formula>"wall_1"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="648" operator="equal">
+      <formula>"door_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="647" operator="equal">
+      <formula>"door_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="646" operator="equal">
+      <formula>"key_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="645" operator="equal">
+      <formula>"key_1"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="644">
+      <formula>OR(LEFT(L5,5)="slime",LEFT(L5,3)="bat",LEFT(L5,8)="skeleton",LEFT(L5,5)="mummy",LEFT(L5,6)="wizard",LEFT(L5,6)="knight")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="643">
+      <formula>LEFT(L5,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="642">
+      <formula>LEFT(L5,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="5" priority="641">
+      <formula>LEFT(L5,3)="gem"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="640">
+      <formula>LEFT(L5,6)="potion"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="639">
+      <formula>LEFT(L5,3)="pos"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C6">
+    <cfRule type="cellIs" dxfId="14" priority="750" operator="equal">
+      <formula>"wall_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="749" operator="equal">
+      <formula>"wall_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="748" operator="equal">
+      <formula>"ground_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="11" priority="747" operator="equal">
+      <formula>"wall_1"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="746" operator="equal">
+      <formula>"door_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="745" operator="equal">
+      <formula>"door_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="744" operator="equal">
+      <formula>"key_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="743" operator="equal">
+      <formula>"key_1"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="742">
+      <formula>OR(LEFT(C6,5)="slime",LEFT(C6,3)="bat",LEFT(C6,8)="skeleton",LEFT(C6,5)="mummy",LEFT(C6,6)="wizard",LEFT(C6,6)="knight")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="741">
+      <formula>LEFT(C6,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="740">
+      <formula>LEFT(C6,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="5" priority="739">
+      <formula>LEFT(C6,3)="gem"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="738">
+      <formula>LEFT(C6,6)="potion"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="737">
+      <formula>LEFT(C6,3)="pos"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F6">
+    <cfRule type="cellIs" dxfId="14" priority="610" operator="equal">
+      <formula>"wall_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="609" operator="equal">
+      <formula>"wall_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="608" operator="equal">
+      <formula>"ground_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="11" priority="607" operator="equal">
+      <formula>"wall_1"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="606" operator="equal">
+      <formula>"door_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="605" operator="equal">
+      <formula>"door_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="604" operator="equal">
+      <formula>"key_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="603" operator="equal">
+      <formula>"key_1"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="602">
+      <formula>OR(LEFT(F6,5)="slime",LEFT(F6,3)="bat",LEFT(F6,8)="skeleton",LEFT(F6,5)="mummy",LEFT(F6,6)="wizard",LEFT(F6,6)="knight")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="601">
+      <formula>LEFT(F6,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="600">
+      <formula>LEFT(F6,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="5" priority="599">
+      <formula>LEFT(F6,3)="gem"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="598">
+      <formula>LEFT(F6,6)="potion"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="597">
+      <formula>LEFT(F6,3)="pos"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G6">
+    <cfRule type="cellIs" dxfId="14" priority="694" operator="equal">
+      <formula>"wall_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="693" operator="equal">
+      <formula>"wall_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="692" operator="equal">
+      <formula>"ground_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="11" priority="691" operator="equal">
+      <formula>"wall_1"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="690" operator="equal">
+      <formula>"door_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="689" operator="equal">
+      <formula>"door_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="688" operator="equal">
+      <formula>"key_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="687" operator="equal">
+      <formula>"key_1"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="686">
+      <formula>OR(LEFT(G6,5)="slime",LEFT(G6,3)="bat",LEFT(G6,8)="skeleton",LEFT(G6,5)="mummy",LEFT(G6,6)="wizard",LEFT(G6,6)="knight")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="685">
+      <formula>LEFT(G6,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="684">
+      <formula>LEFT(G6,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="5" priority="683">
+      <formula>LEFT(G6,3)="gem"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="682">
+      <formula>LEFT(G6,6)="potion"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="681">
+      <formula>LEFT(G6,3)="pos"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H6">
+    <cfRule type="cellIs" dxfId="14" priority="624" operator="equal">
+      <formula>"wall_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="623" operator="equal">
+      <formula>"wall_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="622" operator="equal">
+      <formula>"ground_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="11" priority="621" operator="equal">
+      <formula>"wall_1"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="620" operator="equal">
+      <formula>"door_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="619" operator="equal">
+      <formula>"door_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="618" operator="equal">
+      <formula>"key_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="617" operator="equal">
+      <formula>"key_1"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="616">
+      <formula>OR(LEFT(H6,5)="slime",LEFT(H6,3)="bat",LEFT(H6,8)="skeleton",LEFT(H6,5)="mummy",LEFT(H6,6)="wizard",LEFT(H6,6)="knight")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="615">
+      <formula>LEFT(H6,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="614">
+      <formula>LEFT(H6,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="5" priority="613">
+      <formula>LEFT(H6,3)="gem"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="612">
+      <formula>LEFT(H6,6)="potion"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="611">
+      <formula>LEFT(H6,3)="pos"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J6">
+    <cfRule type="cellIs" dxfId="14" priority="568" operator="equal">
+      <formula>"wall_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="567" operator="equal">
+      <formula>"wall_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="566" operator="equal">
+      <formula>"ground_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="11" priority="565" operator="equal">
+      <formula>"wall_1"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="564" operator="equal">
+      <formula>"door_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="563" operator="equal">
+      <formula>"door_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="562" operator="equal">
+      <formula>"key_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="561" operator="equal">
+      <formula>"key_1"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="560">
+      <formula>OR(LEFT(J6,5)="slime",LEFT(J6,3)="bat",LEFT(J6,8)="skeleton",LEFT(J6,5)="mummy",LEFT(J6,6)="wizard",LEFT(J6,6)="knight")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="559">
+      <formula>LEFT(J6,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="558">
+      <formula>LEFT(J6,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="5" priority="557">
+      <formula>LEFT(J6,3)="gem"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="556">
+      <formula>LEFT(J6,6)="potion"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="555">
+      <formula>LEFT(J6,3)="pos"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K6">
+    <cfRule type="cellIs" dxfId="14" priority="680" operator="equal">
+      <formula>"wall_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="679" operator="equal">
+      <formula>"wall_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="678" operator="equal">
+      <formula>"ground_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="11" priority="677" operator="equal">
+      <formula>"wall_1"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="676" operator="equal">
+      <formula>"door_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="675" operator="equal">
+      <formula>"door_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="674" operator="equal">
+      <formula>"key_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="673" operator="equal">
+      <formula>"key_1"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="672">
+      <formula>OR(LEFT(K6,5)="slime",LEFT(K6,3)="bat",LEFT(K6,8)="skeleton",LEFT(K6,5)="mummy",LEFT(K6,6)="wizard",LEFT(K6,6)="knight")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="671">
+      <formula>LEFT(K6,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="670">
+      <formula>LEFT(K6,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="5" priority="669">
+      <formula>LEFT(K6,3)="gem"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="668">
+      <formula>LEFT(K6,6)="potion"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="667">
+      <formula>LEFT(K6,3)="pos"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L6">
+    <cfRule type="cellIs" dxfId="14" priority="554" operator="equal">
+      <formula>"wall_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="553" operator="equal">
+      <formula>"wall_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="552" operator="equal">
+      <formula>"ground_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="11" priority="551" operator="equal">
+      <formula>"wall_1"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="550" operator="equal">
+      <formula>"door_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="549" operator="equal">
+      <formula>"door_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="548" operator="equal">
+      <formula>"key_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="547" operator="equal">
+      <formula>"key_1"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="546">
+      <formula>OR(LEFT(L6,5)="slime",LEFT(L6,3)="bat",LEFT(L6,8)="skeleton",LEFT(L6,5)="mummy",LEFT(L6,6)="wizard",LEFT(L6,6)="knight")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="545">
+      <formula>LEFT(L6,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="544">
+      <formula>LEFT(L6,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="5" priority="543">
+      <formula>LEFT(L6,3)="gem"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="542">
+      <formula>LEFT(L6,6)="potion"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="541">
+      <formula>LEFT(L6,3)="pos"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A7:M7">
+    <cfRule type="containsText" dxfId="16" priority="922" operator="between" text="black_0">
+      <formula>NOT(ISERROR(SEARCH("black_0",A7)))</formula>
+    </cfRule>
+    <cfRule type="containsText" priority="921" operator="between" text="white_0">
+      <formula>NOT(ISERROR(SEARCH("white_0",A7)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A8">
+    <cfRule type="cellIs" dxfId="14" priority="160" operator="equal">
+      <formula>"wall_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="159" operator="equal">
+      <formula>"wall_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="158" operator="equal">
+      <formula>"ground_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="11" priority="157" operator="equal">
+      <formula>"wall_1"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="156" operator="equal">
+      <formula>"door_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="155" operator="equal">
+      <formula>"door_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="154" operator="equal">
+      <formula>"key_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="153" operator="equal">
+      <formula>"key_1"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="152">
+      <formula>OR(LEFT(A8,5)="slime",LEFT(A8,3)="bat",LEFT(A8,8)="skeleton",LEFT(A8,5)="mummy",LEFT(A8,6)="wizard",LEFT(A8,6)="knight")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="151">
+      <formula>LEFT(A8,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="150">
+      <formula>LEFT(A8,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="5" priority="149">
+      <formula>LEFT(A8,3)="gem"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="148">
+      <formula>LEFT(A8,6)="potion"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="147">
+      <formula>LEFT(A8,3)="pos"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C8">
+    <cfRule type="cellIs" dxfId="14" priority="174" operator="equal">
+      <formula>"wall_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="173" operator="equal">
+      <formula>"wall_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="172" operator="equal">
+      <formula>"ground_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="11" priority="171" operator="equal">
+      <formula>"wall_1"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="170" operator="equal">
+      <formula>"door_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="169" operator="equal">
+      <formula>"door_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="168" operator="equal">
+      <formula>"key_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="167" operator="equal">
+      <formula>"key_1"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="166">
+      <formula>OR(LEFT(C8,5)="slime",LEFT(C8,3)="bat",LEFT(C8,8)="skeleton",LEFT(C8,5)="mummy",LEFT(C8,6)="wizard",LEFT(C8,6)="knight")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="165">
+      <formula>LEFT(C8,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="164">
+      <formula>LEFT(C8,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="5" priority="163">
+      <formula>LEFT(C8,3)="gem"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="162">
+      <formula>LEFT(C8,6)="potion"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="161">
+      <formula>LEFT(C8,3)="pos"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E8">
+    <cfRule type="cellIs" dxfId="14" priority="188" operator="equal">
+      <formula>"wall_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="187" operator="equal">
+      <formula>"wall_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="186" operator="equal">
+      <formula>"ground_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="11" priority="185" operator="equal">
+      <formula>"wall_1"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="184" operator="equal">
+      <formula>"door_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="183" operator="equal">
+      <formula>"door_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="182" operator="equal">
+      <formula>"key_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="181" operator="equal">
+      <formula>"key_1"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="180">
+      <formula>OR(LEFT(E8,5)="slime",LEFT(E8,3)="bat",LEFT(E8,8)="skeleton",LEFT(E8,5)="mummy",LEFT(E8,6)="wizard",LEFT(E8,6)="knight")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="179">
+      <formula>LEFT(E8,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="178">
+      <formula>LEFT(E8,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="5" priority="177">
+      <formula>LEFT(E8,3)="gem"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="176">
+      <formula>LEFT(E8,6)="potion"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="175">
+      <formula>LEFT(E8,3)="pos"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G8">
+    <cfRule type="cellIs" dxfId="14" priority="202" operator="equal">
+      <formula>"wall_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="201" operator="equal">
+      <formula>"wall_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="200" operator="equal">
+      <formula>"ground_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="11" priority="199" operator="equal">
+      <formula>"wall_1"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="198" operator="equal">
+      <formula>"door_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="197" operator="equal">
+      <formula>"door_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="196" operator="equal">
+      <formula>"key_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="195" operator="equal">
+      <formula>"key_1"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="194">
+      <formula>OR(LEFT(G8,5)="slime",LEFT(G8,3)="bat",LEFT(G8,8)="skeleton",LEFT(G8,5)="mummy",LEFT(G8,6)="wizard",LEFT(G8,6)="knight")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="193">
+      <formula>LEFT(G8,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="192">
+      <formula>LEFT(G8,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="5" priority="191">
+      <formula>LEFT(G8,3)="gem"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="190">
+      <formula>LEFT(G8,6)="potion"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="189">
+      <formula>LEFT(G8,3)="pos"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I8">
+    <cfRule type="cellIs" dxfId="14" priority="230" operator="equal">
+      <formula>"wall_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="229" operator="equal">
+      <formula>"wall_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="228" operator="equal">
+      <formula>"ground_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="11" priority="227" operator="equal">
+      <formula>"wall_1"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="226" operator="equal">
+      <formula>"door_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="225" operator="equal">
+      <formula>"door_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="224" operator="equal">
+      <formula>"key_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="223" operator="equal">
+      <formula>"key_1"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="222">
+      <formula>OR(LEFT(I8,5)="slime",LEFT(I8,3)="bat",LEFT(I8,8)="skeleton",LEFT(I8,5)="mummy",LEFT(I8,6)="wizard",LEFT(I8,6)="knight")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="221">
+      <formula>LEFT(I8,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="220">
+      <formula>LEFT(I8,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="5" priority="219">
+      <formula>LEFT(I8,3)="gem"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="218">
+      <formula>LEFT(I8,6)="potion"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="217">
+      <formula>LEFT(I8,3)="pos"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J8">
+    <cfRule type="cellIs" dxfId="14" priority="132" operator="equal">
+      <formula>"wall_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="131" operator="equal">
+      <formula>"wall_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="130" operator="equal">
+      <formula>"ground_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="11" priority="129" operator="equal">
+      <formula>"wall_1"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="128" operator="equal">
+      <formula>"door_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="127" operator="equal">
+      <formula>"door_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="126" operator="equal">
+      <formula>"key_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="125" operator="equal">
+      <formula>"key_1"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="124">
+      <formula>OR(LEFT(J8,5)="slime",LEFT(J8,3)="bat",LEFT(J8,8)="skeleton",LEFT(J8,5)="mummy",LEFT(J8,6)="wizard",LEFT(J8,6)="knight")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="123">
+      <formula>LEFT(J8,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="122">
+      <formula>LEFT(J8,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="5" priority="121">
+      <formula>LEFT(J8,3)="gem"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="120">
+      <formula>LEFT(J8,6)="potion"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="119">
+      <formula>LEFT(J8,3)="pos"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M8">
+    <cfRule type="cellIs" dxfId="14" priority="216" operator="equal">
+      <formula>"wall_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="215" operator="equal">
+      <formula>"wall_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="214" operator="equal">
+      <formula>"ground_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="11" priority="213" operator="equal">
+      <formula>"wall_1"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="212" operator="equal">
+      <formula>"door_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="211" operator="equal">
+      <formula>"door_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="210" operator="equal">
+      <formula>"key_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="209" operator="equal">
+      <formula>"key_1"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="208">
+      <formula>OR(LEFT(M8,5)="slime",LEFT(M8,3)="bat",LEFT(M8,8)="skeleton",LEFT(M8,5)="mummy",LEFT(M8,6)="wizard",LEFT(M8,6)="knight")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="207">
+      <formula>LEFT(M8,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="206">
+      <formula>LEFT(M8,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="5" priority="205">
+      <formula>LEFT(M8,3)="gem"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="204">
+      <formula>LEFT(M8,6)="potion"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="203">
+      <formula>LEFT(M8,3)="pos"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A9">
+    <cfRule type="cellIs" dxfId="14" priority="482" operator="equal">
+      <formula>"wall_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="481" operator="equal">
+      <formula>"wall_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="480" operator="equal">
+      <formula>"ground_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="11" priority="479" operator="equal">
+      <formula>"wall_1"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="478" operator="equal">
+      <formula>"door_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="477" operator="equal">
+      <formula>"door_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="476" operator="equal">
+      <formula>"key_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="475" operator="equal">
+      <formula>"key_1"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="474">
+      <formula>OR(LEFT(A9,5)="slime",LEFT(A9,3)="bat",LEFT(A9,8)="skeleton",LEFT(A9,5)="mummy",LEFT(A9,6)="wizard",LEFT(A9,6)="knight")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="473">
+      <formula>LEFT(A9,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="472">
+      <formula>LEFT(A9,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="5" priority="471">
+      <formula>LEFT(A9,3)="gem"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="470">
+      <formula>LEFT(A9,6)="potion"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="469">
+      <formula>LEFT(A9,3)="pos"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C9">
+    <cfRule type="cellIs" dxfId="14" priority="468" operator="equal">
+      <formula>"wall_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="467" operator="equal">
+      <formula>"wall_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="466" operator="equal">
+      <formula>"ground_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="11" priority="465" operator="equal">
+      <formula>"wall_1"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="464" operator="equal">
+      <formula>"door_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="463" operator="equal">
+      <formula>"door_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="462" operator="equal">
+      <formula>"key_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="461" operator="equal">
+      <formula>"key_1"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="460">
+      <formula>OR(LEFT(C9,5)="slime",LEFT(C9,3)="bat",LEFT(C9,8)="skeleton",LEFT(C9,5)="mummy",LEFT(C9,6)="wizard",LEFT(C9,6)="knight")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="459">
+      <formula>LEFT(C9,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="458">
+      <formula>LEFT(C9,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="5" priority="457">
+      <formula>LEFT(C9,3)="gem"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="456">
+      <formula>LEFT(C9,6)="potion"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="455">
+      <formula>LEFT(C9,3)="pos"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E9">
+    <cfRule type="cellIs" dxfId="14" priority="454" operator="equal">
+      <formula>"wall_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="453" operator="equal">
+      <formula>"wall_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="452" operator="equal">
+      <formula>"ground_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="11" priority="451" operator="equal">
+      <formula>"wall_1"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="450" operator="equal">
+      <formula>"door_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="449" operator="equal">
+      <formula>"door_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="448" operator="equal">
+      <formula>"key_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="447" operator="equal">
+      <formula>"key_1"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="446">
+      <formula>OR(LEFT(E9,5)="slime",LEFT(E9,3)="bat",LEFT(E9,8)="skeleton",LEFT(E9,5)="mummy",LEFT(E9,6)="wizard",LEFT(E9,6)="knight")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="445">
+      <formula>LEFT(E9,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="444">
+      <formula>LEFT(E9,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="5" priority="443">
+      <formula>LEFT(E9,3)="gem"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="442">
+      <formula>LEFT(E9,6)="potion"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="441">
+      <formula>LEFT(E9,3)="pos"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G9">
+    <cfRule type="cellIs" dxfId="14" priority="440" operator="equal">
+      <formula>"wall_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="439" operator="equal">
+      <formula>"wall_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="438" operator="equal">
+      <formula>"ground_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="11" priority="437" operator="equal">
+      <formula>"wall_1"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="436" operator="equal">
+      <formula>"door_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="435" operator="equal">
+      <formula>"door_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="434" operator="equal">
+      <formula>"key_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="433" operator="equal">
+      <formula>"key_1"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="432">
+      <formula>OR(LEFT(G9,5)="slime",LEFT(G9,3)="bat",LEFT(G9,8)="skeleton",LEFT(G9,5)="mummy",LEFT(G9,6)="wizard",LEFT(G9,6)="knight")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="431">
+      <formula>LEFT(G9,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="430">
+      <formula>LEFT(G9,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="5" priority="429">
+      <formula>LEFT(G9,3)="gem"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="428">
+      <formula>LEFT(G9,6)="potion"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="427">
+      <formula>LEFT(G9,3)="pos"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I9">
+    <cfRule type="cellIs" dxfId="14" priority="272" operator="equal">
+      <formula>"wall_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="271" operator="equal">
+      <formula>"wall_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="270" operator="equal">
+      <formula>"ground_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="11" priority="269" operator="equal">
+      <formula>"wall_1"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="268" operator="equal">
+      <formula>"door_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="267" operator="equal">
+      <formula>"door_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="266" operator="equal">
+      <formula>"key_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="265" operator="equal">
+      <formula>"key_1"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="264">
+      <formula>OR(LEFT(I9,5)="slime",LEFT(I9,3)="bat",LEFT(I9,8)="skeleton",LEFT(I9,5)="mummy",LEFT(I9,6)="wizard",LEFT(I9,6)="knight")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="263">
+      <formula>LEFT(I9,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="262">
+      <formula>LEFT(I9,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="5" priority="261">
+      <formula>LEFT(I9,3)="gem"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="260">
+      <formula>LEFT(I9,6)="potion"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="259">
+      <formula>LEFT(I9,3)="pos"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J9">
+    <cfRule type="cellIs" dxfId="14" priority="118" operator="equal">
+      <formula>"wall_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="117" operator="equal">
+      <formula>"wall_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="116" operator="equal">
+      <formula>"ground_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="11" priority="115" operator="equal">
+      <formula>"wall_1"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="114" operator="equal">
+      <formula>"door_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="113" operator="equal">
+      <formula>"door_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="112" operator="equal">
+      <formula>"key_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="111" operator="equal">
+      <formula>"key_1"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="110">
+      <formula>OR(LEFT(J9,5)="slime",LEFT(J9,3)="bat",LEFT(J9,8)="skeleton",LEFT(J9,5)="mummy",LEFT(J9,6)="wizard",LEFT(J9,6)="knight")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="109">
+      <formula>LEFT(J9,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="108">
+      <formula>LEFT(J9,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="5" priority="107">
+      <formula>LEFT(J9,3)="gem"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="106">
+      <formula>LEFT(J9,6)="potion"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="105">
+      <formula>LEFT(J9,3)="pos"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K9">
+    <cfRule type="cellIs" dxfId="14" priority="104" operator="equal">
+      <formula>"wall_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="103" operator="equal">
+      <formula>"wall_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="102" operator="equal">
+      <formula>"ground_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="11" priority="101" operator="equal">
+      <formula>"wall_1"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="100" operator="equal">
+      <formula>"door_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="99" operator="equal">
+      <formula>"door_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="98" operator="equal">
+      <formula>"key_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="97" operator="equal">
+      <formula>"key_1"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="96">
+      <formula>OR(LEFT(K9,5)="slime",LEFT(K9,3)="bat",LEFT(K9,8)="skeleton",LEFT(K9,5)="mummy",LEFT(K9,6)="wizard",LEFT(K9,6)="knight")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="95">
+      <formula>LEFT(K9,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="94">
+      <formula>LEFT(K9,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="5" priority="93">
+      <formula>LEFT(K9,3)="gem"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="92">
+      <formula>LEFT(K9,6)="potion"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="91">
+      <formula>LEFT(K9,3)="pos"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M9">
+    <cfRule type="cellIs" dxfId="14" priority="384" operator="equal">
+      <formula>"wall_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="383" operator="equal">
+      <formula>"wall_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="382" operator="equal">
+      <formula>"ground_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="11" priority="381" operator="equal">
+      <formula>"wall_1"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="380" operator="equal">
+      <formula>"door_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="379" operator="equal">
+      <formula>"door_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="378" operator="equal">
+      <formula>"key_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="377" operator="equal">
+      <formula>"key_1"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="376">
+      <formula>OR(LEFT(M9,5)="slime",LEFT(M9,3)="bat",LEFT(M9,8)="skeleton",LEFT(M9,5)="mummy",LEFT(M9,6)="wizard",LEFT(M9,6)="knight")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="375">
+      <formula>LEFT(M9,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="374">
+      <formula>LEFT(M9,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="5" priority="373">
+      <formula>LEFT(M9,3)="gem"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="372">
+      <formula>LEFT(M9,6)="potion"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="371">
+      <formula>LEFT(M9,3)="pos"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A10">
+    <cfRule type="cellIs" dxfId="14" priority="314" operator="equal">
+      <formula>"wall_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="313" operator="equal">
+      <formula>"wall_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="312" operator="equal">
+      <formula>"ground_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="11" priority="311" operator="equal">
+      <formula>"wall_1"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="310" operator="equal">
+      <formula>"door_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="309" operator="equal">
+      <formula>"door_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="308" operator="equal">
+      <formula>"key_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="307" operator="equal">
+      <formula>"key_1"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="306">
+      <formula>OR(LEFT(A10,5)="slime",LEFT(A10,3)="bat",LEFT(A10,8)="skeleton",LEFT(A10,5)="mummy",LEFT(A10,6)="wizard",LEFT(A10,6)="knight")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="305">
+      <formula>LEFT(A10,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="304">
+      <formula>LEFT(A10,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="5" priority="303">
+      <formula>LEFT(A10,3)="gem"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="302">
+      <formula>LEFT(A10,6)="potion"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="301">
+      <formula>LEFT(A10,3)="pos"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B10">
+    <cfRule type="cellIs" dxfId="14" priority="370" operator="equal">
+      <formula>"wall_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="369" operator="equal">
+      <formula>"wall_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="368" operator="equal">
+      <formula>"ground_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="11" priority="367" operator="equal">
+      <formula>"wall_1"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="366" operator="equal">
+      <formula>"door_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="365" operator="equal">
+      <formula>"door_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="364" operator="equal">
+      <formula>"key_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="363" operator="equal">
+      <formula>"key_1"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="362">
+      <formula>OR(LEFT(B10,5)="slime",LEFT(B10,3)="bat",LEFT(B10,8)="skeleton",LEFT(B10,5)="mummy",LEFT(B10,6)="wizard",LEFT(B10,6)="knight")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="361">
+      <formula>LEFT(B10,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="360">
+      <formula>LEFT(B10,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="5" priority="359">
+      <formula>LEFT(B10,3)="gem"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="358">
+      <formula>LEFT(B10,6)="potion"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="357">
+      <formula>LEFT(B10,3)="pos"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C10">
+    <cfRule type="cellIs" dxfId="14" priority="342" operator="equal">
+      <formula>"wall_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="341" operator="equal">
+      <formula>"wall_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="340" operator="equal">
+      <formula>"ground_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="11" priority="339" operator="equal">
+      <formula>"wall_1"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="338" operator="equal">
+      <formula>"door_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="337" operator="equal">
+      <formula>"door_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="336" operator="equal">
+      <formula>"key_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="335" operator="equal">
+      <formula>"key_1"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="334">
+      <formula>OR(LEFT(C10,5)="slime",LEFT(C10,3)="bat",LEFT(C10,8)="skeleton",LEFT(C10,5)="mummy",LEFT(C10,6)="wizard",LEFT(C10,6)="knight")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="333">
+      <formula>LEFT(C10,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="332">
+      <formula>LEFT(C10,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="5" priority="331">
+      <formula>LEFT(C10,3)="gem"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="330">
+      <formula>LEFT(C10,6)="potion"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="329">
+      <formula>LEFT(C10,3)="pos"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D10">
+    <cfRule type="cellIs" dxfId="14" priority="356" operator="equal">
+      <formula>"wall_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="355" operator="equal">
+      <formula>"wall_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="354" operator="equal">
+      <formula>"ground_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="11" priority="353" operator="equal">
+      <formula>"wall_1"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="352" operator="equal">
+      <formula>"door_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="351" operator="equal">
+      <formula>"door_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="350" operator="equal">
+      <formula>"key_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="349" operator="equal">
+      <formula>"key_1"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="348">
+      <formula>OR(LEFT(D10,5)="slime",LEFT(D10,3)="bat",LEFT(D10,8)="skeleton",LEFT(D10,5)="mummy",LEFT(D10,6)="wizard",LEFT(D10,6)="knight")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="347">
+      <formula>LEFT(D10,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="346">
+      <formula>LEFT(D10,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="5" priority="345">
+      <formula>LEFT(D10,3)="gem"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="344">
+      <formula>LEFT(D10,6)="potion"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="343">
+      <formula>LEFT(D10,3)="pos"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E10">
+    <cfRule type="cellIs" dxfId="14" priority="286" operator="equal">
+      <formula>"wall_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="285" operator="equal">
+      <formula>"wall_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="284" operator="equal">
+      <formula>"ground_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="11" priority="283" operator="equal">
+      <formula>"wall_1"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="282" operator="equal">
+      <formula>"door_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="281" operator="equal">
+      <formula>"door_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="280" operator="equal">
+      <formula>"key_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="279" operator="equal">
+      <formula>"key_1"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="278">
+      <formula>OR(LEFT(E10,5)="slime",LEFT(E10,3)="bat",LEFT(E10,8)="skeleton",LEFT(E10,5)="mummy",LEFT(E10,6)="wizard",LEFT(E10,6)="knight")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="277">
+      <formula>LEFT(E10,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="276">
+      <formula>LEFT(E10,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="5" priority="275">
+      <formula>LEFT(E10,3)="gem"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="274">
+      <formula>LEFT(E10,6)="potion"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="273">
+      <formula>LEFT(E10,3)="pos"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G10">
+    <cfRule type="cellIs" dxfId="14" priority="426" operator="equal">
+      <formula>"wall_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="425" operator="equal">
+      <formula>"wall_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="424" operator="equal">
+      <formula>"ground_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="11" priority="423" operator="equal">
+      <formula>"wall_1"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="422" operator="equal">
+      <formula>"door_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="421" operator="equal">
+      <formula>"door_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="420" operator="equal">
+      <formula>"key_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="419" operator="equal">
+      <formula>"key_1"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="418">
+      <formula>OR(LEFT(G10,5)="slime",LEFT(G10,3)="bat",LEFT(G10,8)="skeleton",LEFT(G10,5)="mummy",LEFT(G10,6)="wizard",LEFT(G10,6)="knight")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="417">
+      <formula>LEFT(G10,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="416">
+      <formula>LEFT(G10,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="5" priority="415">
+      <formula>LEFT(G10,3)="gem"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="414">
+      <formula>LEFT(G10,6)="potion"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="413">
+      <formula>LEFT(G10,3)="pos"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I10">
+    <cfRule type="cellIs" dxfId="14" priority="258" operator="equal">
+      <formula>"wall_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="257" operator="equal">
+      <formula>"wall_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="256" operator="equal">
+      <formula>"ground_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="11" priority="255" operator="equal">
+      <formula>"wall_1"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="254" operator="equal">
+      <formula>"door_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="253" operator="equal">
+      <formula>"door_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="252" operator="equal">
+      <formula>"key_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="251" operator="equal">
+      <formula>"key_1"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="250">
+      <formula>OR(LEFT(I10,5)="slime",LEFT(I10,3)="bat",LEFT(I10,8)="skeleton",LEFT(I10,5)="mummy",LEFT(I10,6)="wizard",LEFT(I10,6)="knight")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="249">
+      <formula>LEFT(I10,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="248">
+      <formula>LEFT(I10,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="5" priority="247">
+      <formula>LEFT(I10,3)="gem"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="246">
+      <formula>LEFT(I10,6)="potion"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="245">
+      <formula>LEFT(I10,3)="pos"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K10">
+    <cfRule type="cellIs" dxfId="14" priority="90" operator="equal">
+      <formula>"wall_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="89" operator="equal">
+      <formula>"wall_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="88" operator="equal">
+      <formula>"ground_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="11" priority="87" operator="equal">
+      <formula>"wall_1"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="86" operator="equal">
+      <formula>"door_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="85" operator="equal">
+      <formula>"door_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="84" operator="equal">
+      <formula>"key_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="83" operator="equal">
+      <formula>"key_1"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="82">
+      <formula>OR(LEFT(K10,5)="slime",LEFT(K10,3)="bat",LEFT(K10,8)="skeleton",LEFT(K10,5)="mummy",LEFT(K10,6)="wizard",LEFT(K10,6)="knight")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="81">
+      <formula>LEFT(K10,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="80">
+      <formula>LEFT(K10,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="5" priority="79">
+      <formula>LEFT(K10,3)="gem"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="78">
+      <formula>LEFT(K10,6)="potion"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="77">
+      <formula>LEFT(K10,3)="pos"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M10">
+    <cfRule type="cellIs" dxfId="14" priority="398" operator="equal">
+      <formula>"wall_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="397" operator="equal">
+      <formula>"wall_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="396" operator="equal">
+      <formula>"ground_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="11" priority="395" operator="equal">
+      <formula>"wall_1"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="394" operator="equal">
+      <formula>"door_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="393" operator="equal">
+      <formula>"door_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="392" operator="equal">
+      <formula>"key_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="391" operator="equal">
+      <formula>"key_1"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="390">
+      <formula>OR(LEFT(M10,5)="slime",LEFT(M10,3)="bat",LEFT(M10,8)="skeleton",LEFT(M10,5)="mummy",LEFT(M10,6)="wizard",LEFT(M10,6)="knight")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="389">
+      <formula>LEFT(M10,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="388">
+      <formula>LEFT(M10,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="5" priority="387">
+      <formula>LEFT(M10,3)="gem"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="386">
+      <formula>LEFT(M10,6)="potion"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="385">
+      <formula>LEFT(M10,3)="pos"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B11">
+    <cfRule type="cellIs" dxfId="14" priority="328" operator="equal">
+      <formula>"wall_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="327" operator="equal">
+      <formula>"wall_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="326" operator="equal">
+      <formula>"ground_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="11" priority="325" operator="equal">
+      <formula>"wall_1"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="324" operator="equal">
+      <formula>"door_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="323" operator="equal">
+      <formula>"door_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="322" operator="equal">
+      <formula>"key_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="321" operator="equal">
+      <formula>"key_1"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="320">
+      <formula>OR(LEFT(B11,5)="slime",LEFT(B11,3)="bat",LEFT(B11,8)="skeleton",LEFT(B11,5)="mummy",LEFT(B11,6)="wizard",LEFT(B11,6)="knight")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="319">
+      <formula>LEFT(B11,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="318">
+      <formula>LEFT(B11,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="5" priority="317">
+      <formula>LEFT(B11,3)="gem"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="316">
+      <formula>LEFT(B11,6)="potion"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="315">
+      <formula>LEFT(B11,3)="pos"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D11">
+    <cfRule type="cellIs" dxfId="14" priority="300" operator="equal">
+      <formula>"wall_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="299" operator="equal">
+      <formula>"wall_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="298" operator="equal">
+      <formula>"ground_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="11" priority="297" operator="equal">
+      <formula>"wall_1"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="296" operator="equal">
+      <formula>"door_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="295" operator="equal">
+      <formula>"door_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="294" operator="equal">
+      <formula>"key_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="293" operator="equal">
+      <formula>"key_1"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="292">
+      <formula>OR(LEFT(D11,5)="slime",LEFT(D11,3)="bat",LEFT(D11,8)="skeleton",LEFT(D11,5)="mummy",LEFT(D11,6)="wizard",LEFT(D11,6)="knight")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="291">
+      <formula>LEFT(D11,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="290">
+      <formula>LEFT(D11,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="5" priority="289">
+      <formula>LEFT(D11,3)="gem"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="288">
+      <formula>LEFT(D11,6)="potion"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="287">
+      <formula>LEFT(D11,3)="pos"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I11">
+    <cfRule type="cellIs" dxfId="14" priority="244" operator="equal">
+      <formula>"wall_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="243" operator="equal">
+      <formula>"wall_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="242" operator="equal">
+      <formula>"ground_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="11" priority="241" operator="equal">
+      <formula>"wall_1"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="240" operator="equal">
+      <formula>"door_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="239" operator="equal">
+      <formula>"door_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="238" operator="equal">
+      <formula>"key_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="237" operator="equal">
+      <formula>"key_1"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="236">
+      <formula>OR(LEFT(I11,5)="slime",LEFT(I11,3)="bat",LEFT(I11,8)="skeleton",LEFT(I11,5)="mummy",LEFT(I11,6)="wizard",LEFT(I11,6)="knight")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="235">
+      <formula>LEFT(I11,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="234">
+      <formula>LEFT(I11,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="5" priority="233">
+      <formula>LEFT(I11,3)="gem"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="232">
+      <formula>LEFT(I11,6)="potion"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="231">
+      <formula>LEFT(I11,3)="pos"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L11">
+    <cfRule type="containsText" dxfId="17" priority="76" operator="between" text="black_0">
+      <formula>NOT(ISERROR(SEARCH("black_0",L11)))</formula>
+    </cfRule>
+    <cfRule type="containsText" priority="75" operator="between" text="white_0">
+      <formula>NOT(ISERROR(SEARCH("white_0",L11)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="14" priority="74" operator="equal">
+      <formula>"wall_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="73" operator="equal">
+      <formula>"wall_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="72" operator="equal">
+      <formula>"ground_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="11" priority="71" operator="equal">
+      <formula>"wall_1"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="70" operator="equal">
+      <formula>"door_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="69" operator="equal">
+      <formula>"door_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="68" operator="equal">
+      <formula>"key_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="67" operator="equal">
+      <formula>"key_1"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="66">
+      <formula>OR(LEFT(L11,5)="slime",LEFT(L11,3)="bat",LEFT(L11,8)="skeleton",LEFT(L11,5)="mummy",LEFT(L11,6)="wizard",LEFT(L11,6)="knight")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="65">
+      <formula>LEFT(L11,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="64">
+      <formula>LEFT(L11,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="5" priority="63">
+      <formula>LEFT(L11,3)="gem"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="62">
+      <formula>LEFT(L11,6)="potion"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="61">
+      <formula>LEFT(L11,3)="pos"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M11">
+    <cfRule type="cellIs" dxfId="14" priority="412" operator="equal">
+      <formula>"wall_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="411" operator="equal">
+      <formula>"wall_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="410" operator="equal">
+      <formula>"ground_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="11" priority="409" operator="equal">
+      <formula>"wall_1"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="408" operator="equal">
+      <formula>"door_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="407" operator="equal">
+      <formula>"door_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="406" operator="equal">
+      <formula>"key_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="405" operator="equal">
+      <formula>"key_1"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="404">
+      <formula>OR(LEFT(M11,5)="slime",LEFT(M11,3)="bat",LEFT(M11,8)="skeleton",LEFT(M11,5)="mummy",LEFT(M11,6)="wizard",LEFT(M11,6)="knight")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="403">
+      <formula>LEFT(M11,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="402">
+      <formula>LEFT(M11,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="5" priority="401">
+      <formula>LEFT(M11,3)="gem"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="400">
+      <formula>LEFT(M11,6)="potion"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="399">
+      <formula>LEFT(M11,3)="pos"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A12:M12">
+    <cfRule type="containsText" dxfId="16" priority="32" operator="between" text="black_0">
+      <formula>NOT(ISERROR(SEARCH("black_0",A12)))</formula>
+    </cfRule>
+    <cfRule type="containsText" priority="31" operator="between" text="white_0">
+      <formula>NOT(ISERROR(SEARCH("white_0",A12)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J8:J11">
+    <cfRule type="cellIs" dxfId="14" priority="1134" operator="equal">
+      <formula>"wall_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="1133" operator="equal">
+      <formula>"wall_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="1132" operator="equal">
+      <formula>"ground_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="11" priority="1131" operator="equal">
+      <formula>"wall_1"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="1130" operator="equal">
+      <formula>"door_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="1129" operator="equal">
+      <formula>"door_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="1128" operator="equal">
+      <formula>"key_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="1127" operator="equal">
+      <formula>"key_1"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="1126">
+      <formula>OR(LEFT(J8,5)="slime",LEFT(J8,3)="bat",LEFT(J8,8)="skeleton",LEFT(J8,5)="mummy",LEFT(J8,6)="wizard",LEFT(J8,6)="knight")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="1125">
+      <formula>LEFT(J8,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="1124">
+      <formula>LEFT(J8,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="5" priority="1123">
+      <formula>LEFT(J8,3)="gem"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="1122">
+      <formula>LEFT(J8,6)="potion"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1121">
+      <formula>LEFT(J8,3)="pos"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L8:L11">
+    <cfRule type="cellIs" dxfId="14" priority="1516" operator="equal">
+      <formula>"wall_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="1515" operator="equal">
+      <formula>"wall_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="1514" operator="equal">
+      <formula>"ground_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="11" priority="1513" operator="equal">
+      <formula>"wall_1"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="1512" operator="equal">
+      <formula>"door_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="1511" operator="equal">
+      <formula>"door_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="1510" operator="equal">
+      <formula>"key_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="1509" operator="equal">
+      <formula>"key_1"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="1508">
+      <formula>OR(LEFT(L8,5)="slime",LEFT(L8,3)="bat",LEFT(L8,8)="skeleton",LEFT(L8,5)="mummy",LEFT(L8,6)="wizard",LEFT(L8,6)="knight")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="1507">
+      <formula>LEFT(L8,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="1506">
+      <formula>LEFT(L8,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="5" priority="1505">
+      <formula>LEFT(L8,3)="gem"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="1504">
+      <formula>LEFT(L8,6)="potion"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1503">
+      <formula>LEFT(L8,3)="pos"</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="16" priority="1502" operator="between" text="black_0">
+      <formula>NOT(ISERROR(SEARCH("black_0",L8)))</formula>
+    </cfRule>
+    <cfRule type="containsText" priority="1501" operator="between" text="white_0">
+      <formula>NOT(ISERROR(SEARCH("white_0",L8)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M8:M9">
+    <cfRule type="containsText" dxfId="17" priority="512" operator="between" text="black_0">
+      <formula>NOT(ISERROR(SEARCH("black_0",M8)))</formula>
+    </cfRule>
+    <cfRule type="containsText" priority="511" operator="between" text="white_0">
+      <formula>NOT(ISERROR(SEARCH("white_0",M8)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1 A3:A6 A13 C3:C6 C13 E3:E6 E13 G1 G13 I1 I3:I6 I13 K1 K3:K6 K13 M1 M3:M6 M13">
+    <cfRule type="expression" dxfId="3" priority="2639">
+      <formula>LEFT(A1,3)="pos"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="2640">
+      <formula>LEFT(A1,6)="potion"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="5" priority="2641">
+      <formula>LEFT(A1,3)="gem"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="2642">
+      <formula>LEFT(A1,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="2643">
+      <formula>LEFT(A1,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="2644">
+      <formula>OR(LEFT(A1,5)="slime",LEFT(A1,3)="bat",LEFT(A1,8)="skeleton",LEFT(A1,5)="mummy",LEFT(A1,6)="wizard",LEFT(A1,6)="knight")</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="2645" operator="equal">
+      <formula>"key_1"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="2646" operator="equal">
+      <formula>"key_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="2647" operator="equal">
+      <formula>"door_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="2648" operator="equal">
+      <formula>"door_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="11" priority="2649" operator="equal">
+      <formula>"wall_1"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="2650" operator="equal">
+      <formula>"ground_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="2651" operator="equal">
+      <formula>"wall_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="14" priority="2652" operator="equal">
+      <formula>"wall_0"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1:M1 A3:M6 A13:M13 A8:K11">
+    <cfRule type="containsText" priority="2469" operator="between" text="white_0">
+      <formula>NOT(ISERROR(SEARCH("white_0",A1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="16" priority="2470" operator="between" text="black_0">
+      <formula>NOT(ISERROR(SEARCH("black_0",A1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B1 D1">
+    <cfRule type="cellIs" dxfId="14" priority="1754" operator="equal">
+      <formula>"wall_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="1753" operator="equal">
+      <formula>"wall_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="1752" operator="equal">
+      <formula>"ground_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="11" priority="1751" operator="equal">
+      <formula>"wall_1"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="1750" operator="equal">
+      <formula>"door_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="1749" operator="equal">
+      <formula>"door_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="1748" operator="equal">
+      <formula>"key_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="1747" operator="equal">
+      <formula>"key_1"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="1746">
+      <formula>OR(LEFT(B1,5)="slime",LEFT(B1,3)="bat",LEFT(B1,8)="skeleton",LEFT(B1,5)="mummy",LEFT(B1,6)="wizard",LEFT(B1,6)="knight")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="1745">
+      <formula>LEFT(B1,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="1744">
+      <formula>LEFT(B1,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="5" priority="1743">
+      <formula>LEFT(B1,3)="gem"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="1742">
+      <formula>LEFT(B1,6)="potion"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1741">
+      <formula>LEFT(B1,3)="pos"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B13 D13 F1 F8:F11 F13 H1 H8:H11 H13 J1 J13 L1 L13">
+    <cfRule type="cellIs" dxfId="14" priority="2484" operator="equal">
+      <formula>"wall_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="2483" operator="equal">
+      <formula>"wall_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="2482" operator="equal">
+      <formula>"ground_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="11" priority="2481" operator="equal">
+      <formula>"wall_1"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="2480" operator="equal">
+      <formula>"door_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="2479" operator="equal">
+      <formula>"door_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="2478" operator="equal">
+      <formula>"key_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="2477" operator="equal">
+      <formula>"key_1"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="2476">
+      <formula>OR(LEFT(B1,5)="slime",LEFT(B1,3)="bat",LEFT(B1,8)="skeleton",LEFT(B1,5)="mummy",LEFT(B1,6)="wizard",LEFT(B1,6)="knight")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="2475">
+      <formula>LEFT(B1,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="2474">
+      <formula>LEFT(B1,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="5" priority="2473">
+      <formula>LEFT(B1,3)="gem"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="2472">
+      <formula>LEFT(B1,6)="potion"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="2471">
+      <formula>LEFT(B1,3)="pos"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C1 E1">
+    <cfRule type="cellIs" dxfId="14" priority="1740" operator="equal">
+      <formula>"wall_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="1739" operator="equal">
+      <formula>"wall_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="1738" operator="equal">
+      <formula>"ground_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="11" priority="1737" operator="equal">
+      <formula>"wall_1"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="1736" operator="equal">
+      <formula>"door_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="1735" operator="equal">
+      <formula>"door_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="1734" operator="equal">
+      <formula>"key_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="1733" operator="equal">
+      <formula>"key_1"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="1732">
+      <formula>OR(LEFT(C1,5)="slime",LEFT(C1,3)="bat",LEFT(C1,8)="skeleton",LEFT(C1,5)="mummy",LEFT(C1,6)="wizard",LEFT(C1,6)="knight")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="1731">
+      <formula>LEFT(C1,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="1730">
+      <formula>LEFT(C1,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="5" priority="1729">
+      <formula>LEFT(C1,3)="gem"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="1728">
+      <formula>LEFT(C1,6)="potion"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1727">
+      <formula>LEFT(C1,3)="pos"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A2 C2 E2 G2 I2 K2 M2">
+    <cfRule type="cellIs" dxfId="14" priority="30" operator="equal">
+      <formula>"wall_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="29" operator="equal">
+      <formula>"wall_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="28" operator="equal">
+      <formula>"ground_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="11" priority="27" operator="equal">
+      <formula>"wall_1"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="26" operator="equal">
+      <formula>"door_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="25" operator="equal">
+      <formula>"door_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="24" operator="equal">
+      <formula>"key_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="23" operator="equal">
+      <formula>"key_1"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="22">
+      <formula>OR(LEFT(A2,5)="slime",LEFT(A2,3)="bat",LEFT(A2,8)="skeleton",LEFT(A2,5)="mummy",LEFT(A2,6)="wizard",LEFT(A2,6)="knight")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="21">
+      <formula>LEFT(A2,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="20">
+      <formula>LEFT(A2,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="5" priority="19">
+      <formula>LEFT(A2,3)="gem"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="18">
+      <formula>LEFT(A2,6)="potion"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="17">
+      <formula>LEFT(A2,3)="pos"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B2 D2 F2 H2 J2 L2">
+    <cfRule type="cellIs" dxfId="14" priority="16" operator="equal">
+      <formula>"wall_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="15" operator="equal">
+      <formula>"wall_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="14" operator="equal">
+      <formula>"ground_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="11" priority="13" operator="equal">
+      <formula>"wall_1"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="12" operator="equal">
+      <formula>"door_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="11" operator="equal">
+      <formula>"door_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="10" operator="equal">
+      <formula>"key_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="9" operator="equal">
+      <formula>"key_1"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="8">
+      <formula>OR(LEFT(B2,5)="slime",LEFT(B2,3)="bat",LEFT(B2,8)="skeleton",LEFT(B2,5)="mummy",LEFT(B2,6)="wizard",LEFT(B2,6)="knight")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="7">
+      <formula>LEFT(B2,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="6">
+      <formula>LEFT(B2,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="5" priority="5">
+      <formula>LEFT(B2,3)="gem"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="4">
+      <formula>LEFT(B2,6)="potion"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="3">
+      <formula>LEFT(B2,3)="pos"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B4 B6 D4 D6">
+    <cfRule type="cellIs" dxfId="14" priority="778" operator="equal">
+      <formula>"wall_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="777" operator="equal">
+      <formula>"wall_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="776" operator="equal">
+      <formula>"ground_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="11" priority="775" operator="equal">
+      <formula>"wall_1"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="774" operator="equal">
+      <formula>"door_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="773" operator="equal">
+      <formula>"door_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="772" operator="equal">
+      <formula>"key_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="771" operator="equal">
+      <formula>"key_1"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="770">
+      <formula>OR(LEFT(B4,5)="slime",LEFT(B4,3)="bat",LEFT(B4,8)="skeleton",LEFT(B4,5)="mummy",LEFT(B4,6)="wizard",LEFT(B4,6)="knight")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="769">
+      <formula>LEFT(B4,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="768">
+      <formula>LEFT(B4,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="5" priority="767">
+      <formula>LEFT(B4,3)="gem"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="766">
+      <formula>LEFT(B4,6)="potion"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="765">
+      <formula>LEFT(B4,3)="pos"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F4:F5 H5">
+    <cfRule type="cellIs" dxfId="14" priority="876" operator="equal">
+      <formula>"wall_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="875" operator="equal">
+      <formula>"wall_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="874" operator="equal">
+      <formula>"ground_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="11" priority="873" operator="equal">
+      <formula>"wall_1"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="872" operator="equal">
+      <formula>"door_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="871" operator="equal">
+      <formula>"door_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="870" operator="equal">
+      <formula>"key_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="869" operator="equal">
+      <formula>"key_1"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="868">
+      <formula>OR(LEFT(F4,5)="slime",LEFT(F4,3)="bat",LEFT(F4,8)="skeleton",LEFT(F4,5)="mummy",LEFT(F4,6)="wizard",LEFT(F4,6)="knight")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="867">
+      <formula>LEFT(F4,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="866">
+      <formula>LEFT(F4,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="5" priority="865">
+      <formula>LEFT(F4,3)="gem"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="864">
+      <formula>LEFT(F4,6)="potion"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="863">
+      <formula>LEFT(F4,3)="pos"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A7 C7 E7 G7 I7 K7 M7">
+    <cfRule type="cellIs" dxfId="14" priority="950" operator="equal">
+      <formula>"wall_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="949" operator="equal">
+      <formula>"wall_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="948" operator="equal">
+      <formula>"ground_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="11" priority="947" operator="equal">
+      <formula>"wall_1"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="946" operator="equal">
+      <formula>"door_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="945" operator="equal">
+      <formula>"door_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="944" operator="equal">
+      <formula>"key_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="943" operator="equal">
+      <formula>"key_1"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="942">
+      <formula>OR(LEFT(A7,5)="slime",LEFT(A7,3)="bat",LEFT(A7,8)="skeleton",LEFT(A7,5)="mummy",LEFT(A7,6)="wizard",LEFT(A7,6)="knight")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="941">
+      <formula>LEFT(A7,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="940">
+      <formula>LEFT(A7,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="5" priority="939">
+      <formula>LEFT(A7,3)="gem"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="938">
+      <formula>LEFT(A7,6)="potion"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="937">
+      <formula>LEFT(A7,3)="pos"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B7 D7 F7 H7 J7 L7">
+    <cfRule type="cellIs" dxfId="14" priority="936" operator="equal">
+      <formula>"wall_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="935" operator="equal">
+      <formula>"wall_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="934" operator="equal">
+      <formula>"ground_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="11" priority="933" operator="equal">
+      <formula>"wall_1"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="932" operator="equal">
+      <formula>"door_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="931" operator="equal">
+      <formula>"door_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="930" operator="equal">
+      <formula>"key_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="929" operator="equal">
+      <formula>"key_1"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="928">
+      <formula>OR(LEFT(B7,5)="slime",LEFT(B7,3)="bat",LEFT(B7,8)="skeleton",LEFT(B7,5)="mummy",LEFT(B7,6)="wizard",LEFT(B7,6)="knight")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="927">
+      <formula>LEFT(B7,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="926">
+      <formula>LEFT(B7,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="5" priority="925">
+      <formula>LEFT(B7,3)="gem"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="924">
+      <formula>LEFT(B7,6)="potion"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="923">
+      <formula>LEFT(B7,3)="pos"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B8:B9 D8:D9">
+    <cfRule type="cellIs" dxfId="14" priority="496" operator="equal">
+      <formula>"wall_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="495" operator="equal">
+      <formula>"wall_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="494" operator="equal">
+      <formula>"ground_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="11" priority="493" operator="equal">
+      <formula>"wall_1"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="492" operator="equal">
+      <formula>"door_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="491" operator="equal">
+      <formula>"door_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="490" operator="equal">
+      <formula>"key_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="489" operator="equal">
+      <formula>"key_1"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="488">
+      <formula>OR(LEFT(B8,5)="slime",LEFT(B8,3)="bat",LEFT(B8,8)="skeleton",LEFT(B8,5)="mummy",LEFT(B8,6)="wizard",LEFT(B8,6)="knight")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="487">
+      <formula>LEFT(B8,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="486">
+      <formula>LEFT(B8,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="5" priority="485">
+      <formula>LEFT(B8,3)="gem"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="484">
+      <formula>LEFT(B8,6)="potion"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="483">
+      <formula>LEFT(B8,3)="pos"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K8 K11">
+    <cfRule type="cellIs" dxfId="14" priority="146" operator="equal">
+      <formula>"wall_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="145" operator="equal">
+      <formula>"wall_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="144" operator="equal">
+      <formula>"ground_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="11" priority="143" operator="equal">
+      <formula>"wall_1"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="142" operator="equal">
+      <formula>"door_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="141" operator="equal">
+      <formula>"door_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="140" operator="equal">
+      <formula>"key_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="139" operator="equal">
+      <formula>"key_1"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="138">
+      <formula>OR(LEFT(K8,5)="slime",LEFT(K8,3)="bat",LEFT(K8,8)="skeleton",LEFT(K8,5)="mummy",LEFT(K8,6)="wizard",LEFT(K8,6)="knight")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="137">
+      <formula>LEFT(K8,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="136">
+      <formula>LEFT(K8,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="5" priority="135">
+      <formula>LEFT(K8,3)="gem"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="134">
+      <formula>LEFT(K8,6)="potion"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="133">
+      <formula>LEFT(K8,3)="pos"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A11 C11 E11 G11">
+    <cfRule type="cellIs" dxfId="14" priority="510" operator="equal">
+      <formula>"wall_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="509" operator="equal">
+      <formula>"wall_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="508" operator="equal">
+      <formula>"ground_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="11" priority="507" operator="equal">
+      <formula>"wall_1"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="506" operator="equal">
+      <formula>"door_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="505" operator="equal">
+      <formula>"door_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="504" operator="equal">
+      <formula>"key_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="503" operator="equal">
+      <formula>"key_1"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="502">
+      <formula>OR(LEFT(A11,5)="slime",LEFT(A11,3)="bat",LEFT(A11,8)="skeleton",LEFT(A11,5)="mummy",LEFT(A11,6)="wizard",LEFT(A11,6)="knight")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="501">
+      <formula>LEFT(A11,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="500">
+      <formula>LEFT(A11,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="5" priority="499">
+      <formula>LEFT(A11,3)="gem"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="498">
+      <formula>LEFT(A11,6)="potion"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="497">
+      <formula>LEFT(A11,3)="pos"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A12 C12 E12 G12 I12 K12 M12">
+    <cfRule type="cellIs" dxfId="14" priority="60" operator="equal">
+      <formula>"wall_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="59" operator="equal">
+      <formula>"wall_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="58" operator="equal">
+      <formula>"ground_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="11" priority="57" operator="equal">
+      <formula>"wall_1"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="56" operator="equal">
+      <formula>"door_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="55" operator="equal">
+      <formula>"door_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="54" operator="equal">
+      <formula>"key_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="53" operator="equal">
+      <formula>"key_1"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="52">
+      <formula>OR(LEFT(A12,5)="slime",LEFT(A12,3)="bat",LEFT(A12,8)="skeleton",LEFT(A12,5)="mummy",LEFT(A12,6)="wizard",LEFT(A12,6)="knight")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="51">
+      <formula>LEFT(A12,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="50">
+      <formula>LEFT(A12,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="5" priority="49">
+      <formula>LEFT(A12,3)="gem"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="48">
+      <formula>LEFT(A12,6)="potion"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="47">
+      <formula>LEFT(A12,3)="pos"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B12 D12 F12 H12 J12 L12">
+    <cfRule type="cellIs" dxfId="14" priority="46" operator="equal">
+      <formula>"wall_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="45" operator="equal">
+      <formula>"wall_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="44" operator="equal">
+      <formula>"ground_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="11" priority="43" operator="equal">
+      <formula>"wall_1"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="42" operator="equal">
+      <formula>"door_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="41" operator="equal">
+      <formula>"door_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="40" operator="equal">
+      <formula>"key_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="39" operator="equal">
+      <formula>"key_1"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="38">
+      <formula>OR(LEFT(B12,5)="slime",LEFT(B12,3)="bat",LEFT(B12,8)="skeleton",LEFT(B12,5)="mummy",LEFT(B12,6)="wizard",LEFT(B12,6)="knight")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="37">
+      <formula>LEFT(B12,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="36">
+      <formula>LEFT(B12,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="5" priority="35">
+      <formula>LEFT(B12,3)="gem"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="34">
+      <formula>LEFT(B12,6)="potion"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="33">
+      <formula>LEFT(B12,3)="pos"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/resources/map_editor.xlsx
+++ b/resources/map_editor.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="507" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="507" uniqueCount="27">
   <si>
     <t>wall_2</t>
   </si>
@@ -110,9 +110,6 @@
   </si>
   <si>
     <t>black_0</t>
-  </si>
-  <si>
-    <t>white_0</t>
   </si>
 </sst>
 </file>
@@ -798,7 +795,7 @@
     <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="18">
+  <dxfs count="17">
     <dxf>
       <font>
         <color theme="0"/>
@@ -946,16 +943,6 @@
         <color rgb="FFFF0000"/>
       </font>
       <numFmt numFmtId="49" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <font>
@@ -1244,7 +1231,7 @@
   <sheetPr/>
   <dimension ref="A1:M13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
@@ -2970,8 +2957,8 @@
   <sheetPr/>
   <dimension ref="A1:M13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.33636363636364" defaultRowHeight="50" customHeight="1"/>
@@ -3022,37 +3009,37 @@
         <v>26</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>26</v>
+        <v>5</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>26</v>
+        <v>5</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>26</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>26</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="K2" s="1" t="s">
         <v>26</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="M2" s="1" t="s">
         <v>26</v>
@@ -3063,37 +3050,37 @@
         <v>26</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>27</v>
+        <v>5</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>27</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>26</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>26</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="K3" s="1" t="s">
         <v>26</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="M3" s="1" t="s">
         <v>26</v>
@@ -3104,37 +3091,37 @@
         <v>26</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>27</v>
+        <v>5</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>27</v>
+        <v>5</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>26</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>26</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="I4" s="1" t="s">
         <v>26</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="K4" s="1" t="s">
         <v>26</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="M4" s="1" t="s">
         <v>26</v>
@@ -3145,37 +3132,37 @@
         <v>26</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>27</v>
+        <v>5</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>26</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>26</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="I5" s="1" t="s">
         <v>26</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="K5" s="1" t="s">
         <v>26</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="M5" s="1" t="s">
         <v>26</v>
@@ -3189,7 +3176,7 @@
         <v>26</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>27</v>
+        <v>5</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>26</v>
@@ -3198,25 +3185,25 @@
         <v>26</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="I6" s="1" t="s">
         <v>26</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="M6" s="1" t="s">
         <v>26</v>
@@ -3265,34 +3252,34 @@
     </row>
     <row r="8" customHeight="1" spans="1:13">
       <c r="A8" s="1" t="s">
-        <v>27</v>
+        <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>26</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>27</v>
+        <v>7</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>26</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>27</v>
+        <v>7</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>26</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="H8" s="1" t="s">
         <v>26</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="K8" s="1" t="s">
         <v>26</v>
@@ -3301,130 +3288,130 @@
         <v>26</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:13">
       <c r="A9" s="1" t="s">
-        <v>27</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>26</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>27</v>
+        <v>7</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>26</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>27</v>
+        <v>7</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>26</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="H9" s="1" t="s">
         <v>26</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>26</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="L9" s="1" t="s">
         <v>26</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:13">
       <c r="A10" s="1" t="s">
-        <v>27</v>
+        <v>7</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>26</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>27</v>
+        <v>7</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>26</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>27</v>
+        <v>7</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>26</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="H10" s="1" t="s">
         <v>26</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="J10" s="1" t="s">
         <v>26</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="L10" s="1" t="s">
         <v>26</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="1:13">
       <c r="A11" s="1" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>26</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="H11" s="1" t="s">
         <v>26</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="J11" s="1" t="s">
         <v>26</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="1:13">
@@ -3432,13 +3419,13 @@
         <v>26</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>26</v>
@@ -3447,13 +3434,13 @@
         <v>26</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="H12" s="1" t="s">
         <v>26</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="J12" s="1" t="s">
         <v>26</v>
@@ -3462,10 +3449,10 @@
         <v>26</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>26</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13" customHeight="1" spans="1:13">
@@ -3511,190 +3498,1648 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:M2">
-    <cfRule type="containsText" dxfId="16" priority="2" operator="between" text="black_0">
+    <cfRule type="containsText" dxfId="16" priority="1392" operator="between" text="black_0">
       <formula>NOT(ISERROR(SEARCH("black_0",A2)))</formula>
     </cfRule>
-    <cfRule type="containsText" priority="1" operator="between" text="white_0">
+    <cfRule type="containsText" priority="1391" operator="between" text="white_0">
       <formula>NOT(ISERROR(SEARCH("white_0",A2)))</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="B2">
+    <cfRule type="cellIs" dxfId="14" priority="1348" operator="equal">
+      <formula>"wall_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="1347" operator="equal">
+      <formula>"wall_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="1346" operator="equal">
+      <formula>"ground_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="11" priority="1345" operator="equal">
+      <formula>"wall_1"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="1344" operator="equal">
+      <formula>"door_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="1343" operator="equal">
+      <formula>"door_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="1342" operator="equal">
+      <formula>"key_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="1341" operator="equal">
+      <formula>"key_1"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="1340">
+      <formula>OR(LEFT(B2,5)="slime",LEFT(B2,3)="bat",LEFT(B2,8)="skeleton",LEFT(B2,5)="mummy",LEFT(B2,6)="wizard",LEFT(B2,6)="knight")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="1339">
+      <formula>LEFT(B2,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="1338">
+      <formula>LEFT(B2,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="5" priority="1337">
+      <formula>LEFT(B2,3)="gem"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="1336">
+      <formula>LEFT(B2,6)="potion"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1335">
+      <formula>LEFT(B2,3)="pos"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D2">
+    <cfRule type="cellIs" dxfId="14" priority="834" operator="equal">
+      <formula>"wall_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="833" operator="equal">
+      <formula>"wall_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="832" operator="equal">
+      <formula>"ground_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="11" priority="831" operator="equal">
+      <formula>"wall_1"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="830" operator="equal">
+      <formula>"door_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="829" operator="equal">
+      <formula>"door_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="828" operator="equal">
+      <formula>"key_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="827" operator="equal">
+      <formula>"key_1"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="826">
+      <formula>OR(LEFT(D2,5)="slime",LEFT(D2,3)="bat",LEFT(D2,8)="skeleton",LEFT(D2,5)="mummy",LEFT(D2,6)="wizard",LEFT(D2,6)="knight")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="825">
+      <formula>LEFT(D2,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="824">
+      <formula>LEFT(D2,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="5" priority="823">
+      <formula>LEFT(D2,3)="gem"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="822">
+      <formula>LEFT(D2,6)="potion"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="821">
+      <formula>LEFT(D2,3)="pos"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F2">
+    <cfRule type="cellIs" dxfId="14" priority="1320" operator="equal">
+      <formula>"wall_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="1319" operator="equal">
+      <formula>"wall_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="1318" operator="equal">
+      <formula>"ground_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="11" priority="1317" operator="equal">
+      <formula>"wall_1"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="1316" operator="equal">
+      <formula>"door_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="1315" operator="equal">
+      <formula>"door_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="1314" operator="equal">
+      <formula>"key_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="1313" operator="equal">
+      <formula>"key_1"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="1312">
+      <formula>OR(LEFT(F2,5)="slime",LEFT(F2,3)="bat",LEFT(F2,8)="skeleton",LEFT(F2,5)="mummy",LEFT(F2,6)="wizard",LEFT(F2,6)="knight")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="1311">
+      <formula>LEFT(F2,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="1310">
+      <formula>LEFT(F2,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="5" priority="1309">
+      <formula>LEFT(F2,3)="gem"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="1308">
+      <formula>LEFT(F2,6)="potion"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1307">
+      <formula>LEFT(F2,3)="pos"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G2">
+    <cfRule type="cellIs" dxfId="14" priority="646" operator="equal">
+      <formula>"wall_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="645" operator="equal">
+      <formula>"wall_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="644" operator="equal">
+      <formula>"ground_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="11" priority="643" operator="equal">
+      <formula>"wall_1"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="642" operator="equal">
+      <formula>"door_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="641" operator="equal">
+      <formula>"door_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="640" operator="equal">
+      <formula>"key_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="639" operator="equal">
+      <formula>"key_1"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="638">
+      <formula>OR(LEFT(G2,5)="slime",LEFT(G2,3)="bat",LEFT(G2,8)="skeleton",LEFT(G2,5)="mummy",LEFT(G2,6)="wizard",LEFT(G2,6)="knight")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="637">
+      <formula>LEFT(G2,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="636">
+      <formula>LEFT(G2,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="5" priority="635">
+      <formula>LEFT(G2,3)="gem"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="634">
+      <formula>LEFT(G2,6)="potion"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="633">
+      <formula>LEFT(G2,3)="pos"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H2">
+    <cfRule type="cellIs" dxfId="14" priority="660" operator="equal">
+      <formula>"wall_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="659" operator="equal">
+      <formula>"wall_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="658" operator="equal">
+      <formula>"ground_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="11" priority="657" operator="equal">
+      <formula>"wall_1"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="656" operator="equal">
+      <formula>"door_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="655" operator="equal">
+      <formula>"door_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="654" operator="equal">
+      <formula>"key_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="653" operator="equal">
+      <formula>"key_1"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="652">
+      <formula>OR(LEFT(H2,5)="slime",LEFT(H2,3)="bat",LEFT(H2,8)="skeleton",LEFT(H2,5)="mummy",LEFT(H2,6)="wizard",LEFT(H2,6)="knight")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="651">
+      <formula>LEFT(H2,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="650">
+      <formula>LEFT(H2,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="5" priority="649">
+      <formula>LEFT(H2,3)="gem"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="648">
+      <formula>LEFT(H2,6)="potion"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="647">
+      <formula>LEFT(H2,3)="pos"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J2">
+    <cfRule type="cellIs" dxfId="14" priority="1376" operator="equal">
+      <formula>"wall_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="1375" operator="equal">
+      <formula>"wall_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="1374" operator="equal">
+      <formula>"ground_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="11" priority="1373" operator="equal">
+      <formula>"wall_1"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="1372" operator="equal">
+      <formula>"door_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="1371" operator="equal">
+      <formula>"door_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="1370" operator="equal">
+      <formula>"key_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="1369" operator="equal">
+      <formula>"key_1"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="1368">
+      <formula>OR(LEFT(J2,5)="slime",LEFT(J2,3)="bat",LEFT(J2,8)="skeleton",LEFT(J2,5)="mummy",LEFT(J2,6)="wizard",LEFT(J2,6)="knight")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="1367">
+      <formula>LEFT(J2,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="1366">
+      <formula>LEFT(J2,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="5" priority="1365">
+      <formula>LEFT(J2,3)="gem"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="1364">
+      <formula>LEFT(J2,6)="potion"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1363">
+      <formula>LEFT(J2,3)="pos"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L2">
+    <cfRule type="cellIs" dxfId="14" priority="488" operator="equal">
+      <formula>"wall_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="487" operator="equal">
+      <formula>"wall_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="486" operator="equal">
+      <formula>"ground_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="11" priority="485" operator="equal">
+      <formula>"wall_1"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="484" operator="equal">
+      <formula>"door_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="483" operator="equal">
+      <formula>"door_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="482" operator="equal">
+      <formula>"key_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="481" operator="equal">
+      <formula>"key_1"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="480">
+      <formula>OR(LEFT(L2,5)="slime",LEFT(L2,3)="bat",LEFT(L2,8)="skeleton",LEFT(L2,5)="mummy",LEFT(L2,6)="wizard",LEFT(L2,6)="knight")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="479">
+      <formula>LEFT(L2,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="478">
+      <formula>LEFT(L2,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="5" priority="477">
+      <formula>LEFT(L2,3)="gem"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="476">
+      <formula>LEFT(L2,6)="potion"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="475">
+      <formula>LEFT(L2,3)="pos"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="B3">
-    <cfRule type="cellIs" dxfId="14" priority="736" operator="equal">
-      <formula>"wall_0"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="735" operator="equal">
-      <formula>"wall_2"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="734" operator="equal">
-      <formula>"ground_0"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="733" operator="equal">
-      <formula>"wall_1"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="732" operator="equal">
-      <formula>"door_0"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="731" operator="equal">
-      <formula>"door_2"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="730" operator="equal">
-      <formula>"key_2"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="729" operator="equal">
-      <formula>"key_1"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="6" priority="728">
+    <cfRule type="containsText" dxfId="16" priority="930" operator="between" text="black_0">
+      <formula>NOT(ISERROR(SEARCH("black_0",B3)))</formula>
+    </cfRule>
+    <cfRule type="containsText" priority="929" operator="between" text="white_0">
+      <formula>NOT(ISERROR(SEARCH("white_0",B3)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="14" priority="928" operator="equal">
+      <formula>"wall_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="927" operator="equal">
+      <formula>"wall_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="926" operator="equal">
+      <formula>"ground_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="11" priority="925" operator="equal">
+      <formula>"wall_1"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="924" operator="equal">
+      <formula>"door_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="923" operator="equal">
+      <formula>"door_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="922" operator="equal">
+      <formula>"key_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="921" operator="equal">
+      <formula>"key_1"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="920">
       <formula>OR(LEFT(B3,5)="slime",LEFT(B3,3)="bat",LEFT(B3,8)="skeleton",LEFT(B3,5)="mummy",LEFT(B3,6)="wizard",LEFT(B3,6)="knight")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="727">
+    <cfRule type="expression" dxfId="0" priority="919">
       <formula>LEFT(B3,5)="stair"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="726">
+    <cfRule type="expression" dxfId="0" priority="918">
       <formula>LEFT(B3,5)="stair"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="5" priority="725">
+    <cfRule type="expression" dxfId="5" priority="917">
       <formula>LEFT(B3,3)="gem"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="724">
+    <cfRule type="expression" dxfId="4" priority="916">
       <formula>LEFT(B3,6)="potion"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="723">
+    <cfRule type="expression" dxfId="3" priority="915">
       <formula>LEFT(B3,3)="pos"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3">
-    <cfRule type="cellIs" dxfId="14" priority="722" operator="equal">
-      <formula>"wall_0"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="721" operator="equal">
-      <formula>"wall_2"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="720" operator="equal">
-      <formula>"ground_0"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="719" operator="equal">
-      <formula>"wall_1"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="718" operator="equal">
-      <formula>"door_0"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="717" operator="equal">
-      <formula>"door_2"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="716" operator="equal">
-      <formula>"key_2"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="715" operator="equal">
-      <formula>"key_1"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="6" priority="714">
+    <cfRule type="containsText" dxfId="16" priority="850" operator="between" text="black_0">
+      <formula>NOT(ISERROR(SEARCH("black_0",D3)))</formula>
+    </cfRule>
+    <cfRule type="containsText" priority="849" operator="between" text="white_0">
+      <formula>NOT(ISERROR(SEARCH("white_0",D3)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="14" priority="848" operator="equal">
+      <formula>"wall_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="847" operator="equal">
+      <formula>"wall_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="846" operator="equal">
+      <formula>"ground_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="11" priority="845" operator="equal">
+      <formula>"wall_1"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="844" operator="equal">
+      <formula>"door_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="843" operator="equal">
+      <formula>"door_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="842" operator="equal">
+      <formula>"key_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="841" operator="equal">
+      <formula>"key_1"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="840">
       <formula>OR(LEFT(D3,5)="slime",LEFT(D3,3)="bat",LEFT(D3,8)="skeleton",LEFT(D3,5)="mummy",LEFT(D3,6)="wizard",LEFT(D3,6)="knight")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="713">
+    <cfRule type="expression" dxfId="0" priority="839">
       <formula>LEFT(D3,5)="stair"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="712">
+    <cfRule type="expression" dxfId="0" priority="838">
       <formula>LEFT(D3,5)="stair"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="5" priority="711">
+    <cfRule type="expression" dxfId="5" priority="837">
       <formula>LEFT(D3,3)="gem"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="710">
+    <cfRule type="expression" dxfId="4" priority="836">
       <formula>LEFT(D3,6)="potion"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="709">
+    <cfRule type="expression" dxfId="3" priority="835">
       <formula>LEFT(D3,3)="pos"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F3">
-    <cfRule type="cellIs" dxfId="14" priority="596" operator="equal">
-      <formula>"wall_0"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="595" operator="equal">
-      <formula>"wall_2"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="594" operator="equal">
-      <formula>"ground_0"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="593" operator="equal">
-      <formula>"wall_1"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="592" operator="equal">
-      <formula>"door_0"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="591" operator="equal">
-      <formula>"door_2"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="590" operator="equal">
-      <formula>"key_2"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="589" operator="equal">
-      <formula>"key_1"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="6" priority="588">
+    <cfRule type="containsText" dxfId="16" priority="820" operator="between" text="black_0">
+      <formula>NOT(ISERROR(SEARCH("black_0",F3)))</formula>
+    </cfRule>
+    <cfRule type="containsText" priority="819" operator="between" text="white_0">
+      <formula>NOT(ISERROR(SEARCH("white_0",F3)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="14" priority="818" operator="equal">
+      <formula>"wall_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="817" operator="equal">
+      <formula>"wall_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="816" operator="equal">
+      <formula>"ground_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="11" priority="815" operator="equal">
+      <formula>"wall_1"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="814" operator="equal">
+      <formula>"door_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="813" operator="equal">
+      <formula>"door_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="812" operator="equal">
+      <formula>"key_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="811" operator="equal">
+      <formula>"key_1"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="810">
       <formula>OR(LEFT(F3,5)="slime",LEFT(F3,3)="bat",LEFT(F3,8)="skeleton",LEFT(F3,5)="mummy",LEFT(F3,6)="wizard",LEFT(F3,6)="knight")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="587">
+    <cfRule type="expression" dxfId="0" priority="809">
       <formula>LEFT(F3,5)="stair"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="586">
+    <cfRule type="expression" dxfId="0" priority="808">
       <formula>LEFT(F3,5)="stair"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="5" priority="585">
+    <cfRule type="expression" dxfId="5" priority="807">
       <formula>LEFT(F3,3)="gem"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="584">
+    <cfRule type="expression" dxfId="4" priority="806">
       <formula>LEFT(F3,6)="potion"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="583">
+    <cfRule type="expression" dxfId="3" priority="805">
       <formula>LEFT(F3,3)="pos"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3">
-    <cfRule type="cellIs" dxfId="14" priority="862" operator="equal">
-      <formula>"wall_0"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="861" operator="equal">
-      <formula>"wall_2"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="860" operator="equal">
-      <formula>"ground_0"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="859" operator="equal">
-      <formula>"wall_1"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="858" operator="equal">
-      <formula>"door_0"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="857" operator="equal">
-      <formula>"door_2"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="856" operator="equal">
-      <formula>"key_2"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="855" operator="equal">
-      <formula>"key_1"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="6" priority="854">
+    <cfRule type="cellIs" dxfId="14" priority="1292" operator="equal">
+      <formula>"wall_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="1291" operator="equal">
+      <formula>"wall_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="1290" operator="equal">
+      <formula>"ground_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="11" priority="1289" operator="equal">
+      <formula>"wall_1"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="1288" operator="equal">
+      <formula>"door_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="1287" operator="equal">
+      <formula>"door_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="1286" operator="equal">
+      <formula>"key_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="1285" operator="equal">
+      <formula>"key_1"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="1284">
       <formula>OR(LEFT(G3,5)="slime",LEFT(G3,3)="bat",LEFT(G3,8)="skeleton",LEFT(G3,5)="mummy",LEFT(G3,6)="wizard",LEFT(G3,6)="knight")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="853">
+    <cfRule type="expression" dxfId="0" priority="1283">
       <formula>LEFT(G3,5)="stair"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="852">
+    <cfRule type="expression" dxfId="0" priority="1282">
       <formula>LEFT(G3,5)="stair"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="5" priority="851">
+    <cfRule type="expression" dxfId="5" priority="1281">
       <formula>LEFT(G3,3)="gem"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="850">
+    <cfRule type="expression" dxfId="4" priority="1280">
       <formula>LEFT(G3,6)="potion"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="849">
+    <cfRule type="expression" dxfId="3" priority="1279">
       <formula>LEFT(G3,3)="pos"</formula>
     </cfRule>
+    <cfRule type="containsText" dxfId="16" priority="1278" operator="between" text="black_0">
+      <formula>NOT(ISERROR(SEARCH("black_0",G3)))</formula>
+    </cfRule>
+    <cfRule type="containsText" priority="1277" operator="between" text="white_0">
+      <formula>NOT(ISERROR(SEARCH("white_0",G3)))</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3">
+    <cfRule type="containsText" dxfId="16" priority="676" operator="between" text="black_0">
+      <formula>NOT(ISERROR(SEARCH("black_0",H3)))</formula>
+    </cfRule>
+    <cfRule type="containsText" priority="675" operator="between" text="white_0">
+      <formula>NOT(ISERROR(SEARCH("white_0",H3)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="14" priority="674" operator="equal">
+      <formula>"wall_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="673" operator="equal">
+      <formula>"wall_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="672" operator="equal">
+      <formula>"ground_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="11" priority="671" operator="equal">
+      <formula>"wall_1"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="670" operator="equal">
+      <formula>"door_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="669" operator="equal">
+      <formula>"door_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="668" operator="equal">
+      <formula>"key_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="667" operator="equal">
+      <formula>"key_1"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="666">
+      <formula>OR(LEFT(H3,5)="slime",LEFT(H3,3)="bat",LEFT(H3,8)="skeleton",LEFT(H3,5)="mummy",LEFT(H3,6)="wizard",LEFT(H3,6)="knight")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="665">
+      <formula>LEFT(H3,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="664">
+      <formula>LEFT(H3,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="5" priority="663">
+      <formula>LEFT(H3,3)="gem"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="662">
+      <formula>LEFT(H3,6)="potion"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="661">
+      <formula>LEFT(H3,3)="pos"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J3">
+    <cfRule type="containsText" dxfId="16" priority="632" operator="between" text="black_0">
+      <formula>NOT(ISERROR(SEARCH("black_0",J3)))</formula>
+    </cfRule>
+    <cfRule type="containsText" priority="631" operator="between" text="white_0">
+      <formula>NOT(ISERROR(SEARCH("white_0",J3)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="14" priority="630" operator="equal">
+      <formula>"wall_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="629" operator="equal">
+      <formula>"wall_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="628" operator="equal">
+      <formula>"ground_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="11" priority="627" operator="equal">
+      <formula>"wall_1"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="626" operator="equal">
+      <formula>"door_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="625" operator="equal">
+      <formula>"door_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="624" operator="equal">
+      <formula>"key_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="623" operator="equal">
+      <formula>"key_1"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="622">
+      <formula>OR(LEFT(J3,5)="slime",LEFT(J3,3)="bat",LEFT(J3,8)="skeleton",LEFT(J3,5)="mummy",LEFT(J3,6)="wizard",LEFT(J3,6)="knight")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="621">
+      <formula>LEFT(J3,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="620">
+      <formula>LEFT(J3,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="5" priority="619">
+      <formula>LEFT(J3,3)="gem"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="618">
+      <formula>LEFT(J3,6)="potion"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="617">
+      <formula>LEFT(J3,3)="pos"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L3">
+    <cfRule type="containsText" dxfId="16" priority="504" operator="between" text="black_0">
+      <formula>NOT(ISERROR(SEARCH("black_0",L3)))</formula>
+    </cfRule>
+    <cfRule type="containsText" priority="503" operator="between" text="white_0">
+      <formula>NOT(ISERROR(SEARCH("white_0",L3)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="14" priority="502" operator="equal">
+      <formula>"wall_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="501" operator="equal">
+      <formula>"wall_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="500" operator="equal">
+      <formula>"ground_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="11" priority="499" operator="equal">
+      <formula>"wall_1"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="498" operator="equal">
+      <formula>"door_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="497" operator="equal">
+      <formula>"door_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="496" operator="equal">
+      <formula>"key_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="495" operator="equal">
+      <formula>"key_1"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="494">
+      <formula>OR(LEFT(L3,5)="slime",LEFT(L3,3)="bat",LEFT(L3,8)="skeleton",LEFT(L3,5)="mummy",LEFT(L3,6)="wizard",LEFT(L3,6)="knight")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="493">
+      <formula>LEFT(L3,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="492">
+      <formula>LEFT(L3,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="5" priority="491">
+      <formula>LEFT(L3,3)="gem"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="490">
+      <formula>LEFT(L3,6)="potion"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="489">
+      <formula>LEFT(L3,3)="pos"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B4">
+    <cfRule type="containsText" dxfId="16" priority="914" operator="between" text="black_0">
+      <formula>NOT(ISERROR(SEARCH("black_0",B4)))</formula>
+    </cfRule>
+    <cfRule type="containsText" priority="913" operator="between" text="white_0">
+      <formula>NOT(ISERROR(SEARCH("white_0",B4)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="14" priority="912" operator="equal">
+      <formula>"wall_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="911" operator="equal">
+      <formula>"wall_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="910" operator="equal">
+      <formula>"ground_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="11" priority="909" operator="equal">
+      <formula>"wall_1"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="908" operator="equal">
+      <formula>"door_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="907" operator="equal">
+      <formula>"door_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="906" operator="equal">
+      <formula>"key_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="905" operator="equal">
+      <formula>"key_1"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="904">
+      <formula>OR(LEFT(B4,5)="slime",LEFT(B4,3)="bat",LEFT(B4,8)="skeleton",LEFT(B4,5)="mummy",LEFT(B4,6)="wizard",LEFT(B4,6)="knight")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="903">
+      <formula>LEFT(B4,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="902">
+      <formula>LEFT(B4,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="5" priority="901">
+      <formula>LEFT(B4,3)="gem"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="900">
+      <formula>LEFT(B4,6)="potion"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="899">
+      <formula>LEFT(B4,3)="pos"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D4">
+    <cfRule type="containsText" dxfId="16" priority="866" operator="between" text="black_0">
+      <formula>NOT(ISERROR(SEARCH("black_0",D4)))</formula>
+    </cfRule>
+    <cfRule type="containsText" priority="865" operator="between" text="white_0">
+      <formula>NOT(ISERROR(SEARCH("white_0",D4)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="14" priority="864" operator="equal">
+      <formula>"wall_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="863" operator="equal">
+      <formula>"wall_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="862" operator="equal">
+      <formula>"ground_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="11" priority="861" operator="equal">
+      <formula>"wall_1"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="860" operator="equal">
+      <formula>"door_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="859" operator="equal">
+      <formula>"door_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="858" operator="equal">
+      <formula>"key_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="857" operator="equal">
+      <formula>"key_1"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="856">
+      <formula>OR(LEFT(D4,5)="slime",LEFT(D4,3)="bat",LEFT(D4,8)="skeleton",LEFT(D4,5)="mummy",LEFT(D4,6)="wizard",LEFT(D4,6)="knight")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="855">
+      <formula>LEFT(D4,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="854">
+      <formula>LEFT(D4,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="5" priority="853">
+      <formula>LEFT(D4,3)="gem"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="852">
+      <formula>LEFT(D4,6)="potion"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="851">
+      <formula>LEFT(D4,3)="pos"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F4">
+    <cfRule type="containsText" dxfId="16" priority="804" operator="between" text="black_0">
+      <formula>NOT(ISERROR(SEARCH("black_0",F4)))</formula>
+    </cfRule>
+    <cfRule type="containsText" priority="803" operator="between" text="white_0">
+      <formula>NOT(ISERROR(SEARCH("white_0",F4)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="14" priority="802" operator="equal">
+      <formula>"wall_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="801" operator="equal">
+      <formula>"wall_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="800" operator="equal">
+      <formula>"ground_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="11" priority="799" operator="equal">
+      <formula>"wall_1"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="798" operator="equal">
+      <formula>"door_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="797" operator="equal">
+      <formula>"door_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="796" operator="equal">
+      <formula>"key_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="795" operator="equal">
+      <formula>"key_1"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="794">
+      <formula>OR(LEFT(F4,5)="slime",LEFT(F4,3)="bat",LEFT(F4,8)="skeleton",LEFT(F4,5)="mummy",LEFT(F4,6)="wizard",LEFT(F4,6)="knight")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="793">
+      <formula>LEFT(F4,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="792">
+      <formula>LEFT(F4,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="5" priority="791">
+      <formula>LEFT(F4,3)="gem"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="790">
+      <formula>LEFT(F4,6)="potion"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="789">
+      <formula>LEFT(F4,3)="pos"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G4">
+    <cfRule type="cellIs" dxfId="14" priority="2296" operator="equal">
+      <formula>"wall_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="2295" operator="equal">
+      <formula>"wall_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="2294" operator="equal">
+      <formula>"ground_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="11" priority="2293" operator="equal">
+      <formula>"wall_1"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="2292" operator="equal">
+      <formula>"door_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="2291" operator="equal">
+      <formula>"door_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="2290" operator="equal">
+      <formula>"key_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="2289" operator="equal">
+      <formula>"key_1"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="2288">
+      <formula>OR(LEFT(G4,5)="slime",LEFT(G4,3)="bat",LEFT(G4,8)="skeleton",LEFT(G4,5)="mummy",LEFT(G4,6)="wizard",LEFT(G4,6)="knight")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="2287">
+      <formula>LEFT(G4,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="2286">
+      <formula>LEFT(G4,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="5" priority="2285">
+      <formula>LEFT(G4,3)="gem"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="2284">
+      <formula>LEFT(G4,6)="potion"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="2283">
+      <formula>LEFT(G4,3)="pos"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H4">
+    <cfRule type="containsText" dxfId="16" priority="692" operator="between" text="black_0">
+      <formula>NOT(ISERROR(SEARCH("black_0",H4)))</formula>
+    </cfRule>
+    <cfRule type="containsText" priority="691" operator="between" text="white_0">
+      <formula>NOT(ISERROR(SEARCH("white_0",H4)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="14" priority="690" operator="equal">
+      <formula>"wall_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="689" operator="equal">
+      <formula>"wall_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="688" operator="equal">
+      <formula>"ground_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="11" priority="687" operator="equal">
+      <formula>"wall_1"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="686" operator="equal">
+      <formula>"door_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="685" operator="equal">
+      <formula>"door_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="684" operator="equal">
+      <formula>"key_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="683" operator="equal">
+      <formula>"key_1"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="682">
+      <formula>OR(LEFT(H4,5)="slime",LEFT(H4,3)="bat",LEFT(H4,8)="skeleton",LEFT(H4,5)="mummy",LEFT(H4,6)="wizard",LEFT(H4,6)="knight")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="681">
+      <formula>LEFT(H4,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="680">
+      <formula>LEFT(H4,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="5" priority="679">
+      <formula>LEFT(H4,3)="gem"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="678">
+      <formula>LEFT(H4,6)="potion"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="677">
+      <formula>LEFT(H4,3)="pos"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J4">
+    <cfRule type="containsText" dxfId="16" priority="616" operator="between" text="black_0">
+      <formula>NOT(ISERROR(SEARCH("black_0",J4)))</formula>
+    </cfRule>
+    <cfRule type="containsText" priority="615" operator="between" text="white_0">
+      <formula>NOT(ISERROR(SEARCH("white_0",J4)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="14" priority="614" operator="equal">
+      <formula>"wall_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="613" operator="equal">
+      <formula>"wall_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="612" operator="equal">
+      <formula>"ground_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="11" priority="611" operator="equal">
+      <formula>"wall_1"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="610" operator="equal">
+      <formula>"door_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="609" operator="equal">
+      <formula>"door_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="608" operator="equal">
+      <formula>"key_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="607" operator="equal">
+      <formula>"key_1"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="606">
+      <formula>OR(LEFT(J4,5)="slime",LEFT(J4,3)="bat",LEFT(J4,8)="skeleton",LEFT(J4,5)="mummy",LEFT(J4,6)="wizard",LEFT(J4,6)="knight")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="605">
+      <formula>LEFT(J4,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="604">
+      <formula>LEFT(J4,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="5" priority="603">
+      <formula>LEFT(J4,3)="gem"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="602">
+      <formula>LEFT(J4,6)="potion"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="601">
+      <formula>LEFT(J4,3)="pos"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L4">
+    <cfRule type="containsText" dxfId="16" priority="520" operator="between" text="black_0">
+      <formula>NOT(ISERROR(SEARCH("black_0",L4)))</formula>
+    </cfRule>
+    <cfRule type="containsText" priority="519" operator="between" text="white_0">
+      <formula>NOT(ISERROR(SEARCH("white_0",L4)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="14" priority="518" operator="equal">
+      <formula>"wall_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="517" operator="equal">
+      <formula>"wall_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="516" operator="equal">
+      <formula>"ground_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="11" priority="515" operator="equal">
+      <formula>"wall_1"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="514" operator="equal">
+      <formula>"door_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="513" operator="equal">
+      <formula>"door_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="512" operator="equal">
+      <formula>"key_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="511" operator="equal">
+      <formula>"key_1"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="510">
+      <formula>OR(LEFT(L4,5)="slime",LEFT(L4,3)="bat",LEFT(L4,8)="skeleton",LEFT(L4,5)="mummy",LEFT(L4,6)="wizard",LEFT(L4,6)="knight")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="509">
+      <formula>LEFT(L4,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="508">
+      <formula>LEFT(L4,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="5" priority="507">
+      <formula>LEFT(L4,3)="gem"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="506">
+      <formula>LEFT(L4,6)="potion"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="505">
+      <formula>LEFT(L4,3)="pos"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B5">
+    <cfRule type="cellIs" dxfId="14" priority="1276" operator="equal">
+      <formula>"wall_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="1275" operator="equal">
+      <formula>"wall_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="1274" operator="equal">
+      <formula>"ground_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="11" priority="1273" operator="equal">
+      <formula>"wall_1"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="1272" operator="equal">
+      <formula>"door_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="1271" operator="equal">
+      <formula>"door_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="1270" operator="equal">
+      <formula>"key_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="1269" operator="equal">
+      <formula>"key_1"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="1268">
+      <formula>OR(LEFT(B5,5)="slime",LEFT(B5,3)="bat",LEFT(B5,8)="skeleton",LEFT(B5,5)="mummy",LEFT(B5,6)="wizard",LEFT(B5,6)="knight")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="1267">
+      <formula>LEFT(B5,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="1266">
+      <formula>LEFT(B5,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="5" priority="1265">
+      <formula>LEFT(B5,3)="gem"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="1264">
+      <formula>LEFT(B5,6)="potion"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1263">
+      <formula>LEFT(B5,3)="pos"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C5">
+    <cfRule type="containsText" dxfId="16" priority="898" operator="between" text="black_0">
+      <formula>NOT(ISERROR(SEARCH("black_0",C5)))</formula>
+    </cfRule>
+    <cfRule type="containsText" priority="897" operator="between" text="white_0">
+      <formula>NOT(ISERROR(SEARCH("white_0",C5)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="14" priority="896" operator="equal">
+      <formula>"wall_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="895" operator="equal">
+      <formula>"wall_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="894" operator="equal">
+      <formula>"ground_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="11" priority="893" operator="equal">
+      <formula>"wall_1"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="892" operator="equal">
+      <formula>"door_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="891" operator="equal">
+      <formula>"door_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="890" operator="equal">
+      <formula>"key_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="889" operator="equal">
+      <formula>"key_1"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="888">
+      <formula>OR(LEFT(C5,5)="slime",LEFT(C5,3)="bat",LEFT(C5,8)="skeleton",LEFT(C5,5)="mummy",LEFT(C5,6)="wizard",LEFT(C5,6)="knight")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="887">
+      <formula>LEFT(C5,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="886">
+      <formula>LEFT(C5,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="5" priority="885">
+      <formula>LEFT(C5,3)="gem"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="884">
+      <formula>LEFT(C5,6)="potion"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="883">
+      <formula>LEFT(C5,3)="pos"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D5">
+    <cfRule type="cellIs" dxfId="14" priority="1262" operator="equal">
+      <formula>"wall_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="1261" operator="equal">
+      <formula>"wall_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="1260" operator="equal">
+      <formula>"ground_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="11" priority="1259" operator="equal">
+      <formula>"wall_1"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="1258" operator="equal">
+      <formula>"door_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="1257" operator="equal">
+      <formula>"door_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="1256" operator="equal">
+      <formula>"key_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="1255" operator="equal">
+      <formula>"key_1"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="1254">
+      <formula>OR(LEFT(D5,5)="slime",LEFT(D5,3)="bat",LEFT(D5,8)="skeleton",LEFT(D5,5)="mummy",LEFT(D5,6)="wizard",LEFT(D5,6)="knight")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="1253">
+      <formula>LEFT(D5,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="1252">
+      <formula>LEFT(D5,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="5" priority="1251">
+      <formula>LEFT(D5,3)="gem"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="1250">
+      <formula>LEFT(D5,6)="potion"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1249">
+      <formula>LEFT(D5,3)="pos"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F5">
+    <cfRule type="containsText" dxfId="16" priority="788" operator="between" text="black_0">
+      <formula>NOT(ISERROR(SEARCH("black_0",F5)))</formula>
+    </cfRule>
+    <cfRule type="containsText" priority="787" operator="between" text="white_0">
+      <formula>NOT(ISERROR(SEARCH("white_0",F5)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="14" priority="786" operator="equal">
+      <formula>"wall_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="785" operator="equal">
+      <formula>"wall_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="784" operator="equal">
+      <formula>"ground_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="11" priority="783" operator="equal">
+      <formula>"wall_1"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="782" operator="equal">
+      <formula>"door_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="781" operator="equal">
+      <formula>"door_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="780" operator="equal">
+      <formula>"key_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="779" operator="equal">
+      <formula>"key_1"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="778">
+      <formula>OR(LEFT(F5,5)="slime",LEFT(F5,3)="bat",LEFT(F5,8)="skeleton",LEFT(F5,5)="mummy",LEFT(F5,6)="wizard",LEFT(F5,6)="knight")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="777">
+      <formula>LEFT(F5,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="776">
+      <formula>LEFT(F5,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="5" priority="775">
+      <formula>LEFT(F5,3)="gem"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="774">
+      <formula>LEFT(F5,6)="potion"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="773">
+      <formula>LEFT(F5,3)="pos"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G5">
+    <cfRule type="cellIs" dxfId="14" priority="2114" operator="equal">
+      <formula>"wall_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="2113" operator="equal">
+      <formula>"wall_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="2112" operator="equal">
+      <formula>"ground_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="11" priority="2111" operator="equal">
+      <formula>"wall_1"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="2110" operator="equal">
+      <formula>"door_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="2109" operator="equal">
+      <formula>"door_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="2108" operator="equal">
+      <formula>"key_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="2107" operator="equal">
+      <formula>"key_1"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="2106">
+      <formula>OR(LEFT(G5,5)="slime",LEFT(G5,3)="bat",LEFT(G5,8)="skeleton",LEFT(G5,5)="mummy",LEFT(G5,6)="wizard",LEFT(G5,6)="knight")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="2105">
+      <formula>LEFT(G5,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="2104">
+      <formula>LEFT(G5,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="5" priority="2103">
+      <formula>LEFT(G5,3)="gem"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="2102">
+      <formula>LEFT(G5,6)="potion"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="2101">
+      <formula>LEFT(G5,3)="pos"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H5">
+    <cfRule type="containsText" dxfId="16" priority="708" operator="between" text="black_0">
+      <formula>NOT(ISERROR(SEARCH("black_0",H5)))</formula>
+    </cfRule>
+    <cfRule type="containsText" priority="707" operator="between" text="white_0">
+      <formula>NOT(ISERROR(SEARCH("white_0",H5)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="14" priority="706" operator="equal">
+      <formula>"wall_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="705" operator="equal">
+      <formula>"wall_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="704" operator="equal">
+      <formula>"ground_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="11" priority="703" operator="equal">
+      <formula>"wall_1"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="702" operator="equal">
+      <formula>"door_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="701" operator="equal">
+      <formula>"door_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="700" operator="equal">
+      <formula>"key_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="699" operator="equal">
+      <formula>"key_1"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="698">
+      <formula>OR(LEFT(H5,5)="slime",LEFT(H5,3)="bat",LEFT(H5,8)="skeleton",LEFT(H5,5)="mummy",LEFT(H5,6)="wizard",LEFT(H5,6)="knight")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="697">
+      <formula>LEFT(H5,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="696">
+      <formula>LEFT(H5,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="5" priority="695">
+      <formula>LEFT(H5,3)="gem"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="694">
+      <formula>LEFT(H5,6)="potion"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="693">
+      <formula>LEFT(H5,3)="pos"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J5">
+    <cfRule type="containsText" dxfId="16" priority="600" operator="between" text="black_0">
+      <formula>NOT(ISERROR(SEARCH("black_0",J5)))</formula>
+    </cfRule>
+    <cfRule type="containsText" priority="599" operator="between" text="white_0">
+      <formula>NOT(ISERROR(SEARCH("white_0",J5)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="14" priority="598" operator="equal">
+      <formula>"wall_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="597" operator="equal">
+      <formula>"wall_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="596" operator="equal">
+      <formula>"ground_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="11" priority="595" operator="equal">
+      <formula>"wall_1"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="594" operator="equal">
+      <formula>"door_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="593" operator="equal">
+      <formula>"door_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="592" operator="equal">
+      <formula>"key_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="591" operator="equal">
+      <formula>"key_1"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="590">
+      <formula>OR(LEFT(J5,5)="slime",LEFT(J5,3)="bat",LEFT(J5,8)="skeleton",LEFT(J5,5)="mummy",LEFT(J5,6)="wizard",LEFT(J5,6)="knight")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="589">
+      <formula>LEFT(J5,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="588">
+      <formula>LEFT(J5,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="5" priority="587">
+      <formula>LEFT(J5,3)="gem"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="586">
+      <formula>LEFT(J5,6)="potion"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="585">
+      <formula>LEFT(J5,3)="pos"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K5">
+    <cfRule type="cellIs" dxfId="14" priority="2072" operator="equal">
+      <formula>"wall_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="2071" operator="equal">
+      <formula>"wall_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="2070" operator="equal">
+      <formula>"ground_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="11" priority="2069" operator="equal">
+      <formula>"wall_1"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="2068" operator="equal">
+      <formula>"door_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="2067" operator="equal">
+      <formula>"door_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="2066" operator="equal">
+      <formula>"key_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="2065" operator="equal">
+      <formula>"key_1"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="2064">
+      <formula>OR(LEFT(K5,5)="slime",LEFT(K5,3)="bat",LEFT(K5,8)="skeleton",LEFT(K5,5)="mummy",LEFT(K5,6)="wizard",LEFT(K5,6)="knight")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="2063">
+      <formula>LEFT(K5,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="2062">
+      <formula>LEFT(K5,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="5" priority="2061">
+      <formula>LEFT(K5,3)="gem"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="2060">
+      <formula>LEFT(K5,6)="potion"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="2059">
+      <formula>LEFT(K5,3)="pos"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L5">
+    <cfRule type="containsText" dxfId="16" priority="536" operator="between" text="black_0">
+      <formula>NOT(ISERROR(SEARCH("black_0",L5)))</formula>
+    </cfRule>
+    <cfRule type="containsText" priority="535" operator="between" text="white_0">
+      <formula>NOT(ISERROR(SEARCH("white_0",L5)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="14" priority="534" operator="equal">
+      <formula>"wall_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="533" operator="equal">
+      <formula>"wall_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="532" operator="equal">
+      <formula>"ground_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="11" priority="531" operator="equal">
+      <formula>"wall_1"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="530" operator="equal">
+      <formula>"door_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="529" operator="equal">
+      <formula>"door_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="528" operator="equal">
+      <formula>"key_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="527" operator="equal">
+      <formula>"key_1"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="526">
+      <formula>OR(LEFT(L5,5)="slime",LEFT(L5,3)="bat",LEFT(L5,8)="skeleton",LEFT(L5,5)="mummy",LEFT(L5,6)="wizard",LEFT(L5,6)="knight")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="525">
+      <formula>LEFT(L5,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="524">
+      <formula>LEFT(L5,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="5" priority="523">
+      <formula>LEFT(L5,3)="gem"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="522">
+      <formula>LEFT(L5,6)="potion"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="521">
+      <formula>LEFT(L5,3)="pos"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C6">
+    <cfRule type="containsText" dxfId="16" priority="882" operator="between" text="black_0">
+      <formula>NOT(ISERROR(SEARCH("black_0",C6)))</formula>
+    </cfRule>
+    <cfRule type="containsText" priority="881" operator="between" text="white_0">
+      <formula>NOT(ISERROR(SEARCH("white_0",C6)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="14" priority="880" operator="equal">
+      <formula>"wall_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="879" operator="equal">
+      <formula>"wall_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="878" operator="equal">
+      <formula>"ground_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="11" priority="877" operator="equal">
+      <formula>"wall_1"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="876" operator="equal">
+      <formula>"door_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="875" operator="equal">
+      <formula>"door_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="874" operator="equal">
+      <formula>"key_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="873" operator="equal">
+      <formula>"key_1"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="872">
+      <formula>OR(LEFT(C6,5)="slime",LEFT(C6,3)="bat",LEFT(C6,8)="skeleton",LEFT(C6,5)="mummy",LEFT(C6,6)="wizard",LEFT(C6,6)="knight")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="871">
+      <formula>LEFT(C6,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="870">
+      <formula>LEFT(C6,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="5" priority="869">
+      <formula>LEFT(C6,3)="gem"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="868">
+      <formula>LEFT(C6,6)="potion"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="867">
+      <formula>LEFT(C6,3)="pos"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F6">
+    <cfRule type="containsText" dxfId="16" priority="772" operator="between" text="black_0">
+      <formula>NOT(ISERROR(SEARCH("black_0",F6)))</formula>
+    </cfRule>
+    <cfRule type="containsText" priority="771" operator="between" text="white_0">
+      <formula>NOT(ISERROR(SEARCH("white_0",F6)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="14" priority="770" operator="equal">
+      <formula>"wall_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="769" operator="equal">
+      <formula>"wall_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="768" operator="equal">
+      <formula>"ground_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="11" priority="767" operator="equal">
+      <formula>"wall_1"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="766" operator="equal">
+      <formula>"door_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="765" operator="equal">
+      <formula>"door_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="764" operator="equal">
+      <formula>"key_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="763" operator="equal">
+      <formula>"key_1"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="762">
+      <formula>OR(LEFT(F6,5)="slime",LEFT(F6,3)="bat",LEFT(F6,8)="skeleton",LEFT(F6,5)="mummy",LEFT(F6,6)="wizard",LEFT(F6,6)="knight")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="761">
+      <formula>LEFT(F6,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="760">
+      <formula>LEFT(F6,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="5" priority="759">
+      <formula>LEFT(F6,3)="gem"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="758">
+      <formula>LEFT(F6,6)="potion"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="757">
+      <formula>LEFT(F6,3)="pos"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G6">
+    <cfRule type="containsText" dxfId="16" priority="756" operator="between" text="black_0">
+      <formula>NOT(ISERROR(SEARCH("black_0",G6)))</formula>
+    </cfRule>
+    <cfRule type="containsText" priority="755" operator="between" text="white_0">
+      <formula>NOT(ISERROR(SEARCH("white_0",G6)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="14" priority="754" operator="equal">
+      <formula>"wall_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="753" operator="equal">
+      <formula>"wall_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="752" operator="equal">
+      <formula>"ground_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="11" priority="751" operator="equal">
+      <formula>"wall_1"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="750" operator="equal">
+      <formula>"door_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="749" operator="equal">
+      <formula>"door_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="748" operator="equal">
+      <formula>"key_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="747" operator="equal">
+      <formula>"key_1"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="746">
+      <formula>OR(LEFT(G6,5)="slime",LEFT(G6,3)="bat",LEFT(G6,8)="skeleton",LEFT(G6,5)="mummy",LEFT(G6,6)="wizard",LEFT(G6,6)="knight")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="745">
+      <formula>LEFT(G6,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="744">
+      <formula>LEFT(G6,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="5" priority="743">
+      <formula>LEFT(G6,3)="gem"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="742">
+      <formula>LEFT(G6,6)="potion"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="741">
+      <formula>LEFT(G6,3)="pos"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H6">
+    <cfRule type="containsText" dxfId="16" priority="740" operator="between" text="black_0">
+      <formula>NOT(ISERROR(SEARCH("black_0",H6)))</formula>
+    </cfRule>
+    <cfRule type="containsText" priority="739" operator="between" text="white_0">
+      <formula>NOT(ISERROR(SEARCH("white_0",H6)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="14" priority="738" operator="equal">
+      <formula>"wall_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="737" operator="equal">
+      <formula>"wall_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="736" operator="equal">
+      <formula>"ground_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="11" priority="735" operator="equal">
+      <formula>"wall_1"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="734" operator="equal">
+      <formula>"door_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="733" operator="equal">
+      <formula>"door_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="732" operator="equal">
+      <formula>"key_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="731" operator="equal">
+      <formula>"key_1"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="730">
+      <formula>OR(LEFT(H6,5)="slime",LEFT(H6,3)="bat",LEFT(H6,8)="skeleton",LEFT(H6,5)="mummy",LEFT(H6,6)="wizard",LEFT(H6,6)="knight")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="729">
+      <formula>LEFT(H6,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="728">
+      <formula>LEFT(H6,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="5" priority="727">
+      <formula>LEFT(H6,3)="gem"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="726">
+      <formula>LEFT(H6,6)="potion"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="725">
+      <formula>LEFT(H6,3)="pos"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J6">
+    <cfRule type="containsText" dxfId="16" priority="584" operator="between" text="black_0">
+      <formula>NOT(ISERROR(SEARCH("black_0",J6)))</formula>
+    </cfRule>
+    <cfRule type="containsText" priority="583" operator="between" text="white_0">
+      <formula>NOT(ISERROR(SEARCH("white_0",J6)))</formula>
+    </cfRule>
     <cfRule type="cellIs" dxfId="14" priority="582" operator="equal">
       <formula>"wall_0"</formula>
     </cfRule>
@@ -3720,1793 +5165,2151 @@
       <formula>"key_1"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="6" priority="574">
-      <formula>OR(LEFT(H3,5)="slime",LEFT(H3,3)="bat",LEFT(H3,8)="skeleton",LEFT(H3,5)="mummy",LEFT(H3,6)="wizard",LEFT(H3,6)="knight")</formula>
+      <formula>OR(LEFT(J6,5)="slime",LEFT(J6,3)="bat",LEFT(J6,8)="skeleton",LEFT(J6,5)="mummy",LEFT(J6,6)="wizard",LEFT(J6,6)="knight")</formula>
     </cfRule>
     <cfRule type="expression" dxfId="0" priority="573">
-      <formula>LEFT(H3,5)="stair"</formula>
+      <formula>LEFT(J6,5)="stair"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="0" priority="572">
-      <formula>LEFT(H3,5)="stair"</formula>
+      <formula>LEFT(J6,5)="stair"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="5" priority="571">
-      <formula>LEFT(H3,3)="gem"</formula>
+      <formula>LEFT(J6,3)="gem"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="4" priority="570">
-      <formula>LEFT(H3,6)="potion"</formula>
+      <formula>LEFT(J6,6)="potion"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="3" priority="569">
-      <formula>LEFT(H3,3)="pos"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J3">
-    <cfRule type="cellIs" dxfId="14" priority="834" operator="equal">
-      <formula>"wall_0"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="833" operator="equal">
-      <formula>"wall_2"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="832" operator="equal">
-      <formula>"ground_0"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="831" operator="equal">
-      <formula>"wall_1"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="830" operator="equal">
-      <formula>"door_0"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="829" operator="equal">
-      <formula>"door_2"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="828" operator="equal">
-      <formula>"key_2"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="827" operator="equal">
-      <formula>"key_1"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="6" priority="826">
-      <formula>OR(LEFT(J3,5)="slime",LEFT(J3,3)="bat",LEFT(J3,8)="skeleton",LEFT(J3,5)="mummy",LEFT(J3,6)="wizard",LEFT(J3,6)="knight")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="0" priority="825">
-      <formula>LEFT(J3,5)="stair"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="0" priority="824">
-      <formula>LEFT(J3,5)="stair"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="5" priority="823">
-      <formula>LEFT(J3,3)="gem"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="4" priority="822">
-      <formula>LEFT(J3,6)="potion"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="821">
-      <formula>LEFT(J3,3)="pos"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L3">
-    <cfRule type="cellIs" dxfId="14" priority="792" operator="equal">
-      <formula>"wall_0"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="791" operator="equal">
-      <formula>"wall_2"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="790" operator="equal">
-      <formula>"ground_0"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="789" operator="equal">
-      <formula>"wall_1"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="788" operator="equal">
-      <formula>"door_0"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="787" operator="equal">
-      <formula>"door_2"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="786" operator="equal">
-      <formula>"key_2"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="785" operator="equal">
-      <formula>"key_1"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="6" priority="784">
-      <formula>OR(LEFT(L3,5)="slime",LEFT(L3,3)="bat",LEFT(L3,8)="skeleton",LEFT(L3,5)="mummy",LEFT(L3,6)="wizard",LEFT(L3,6)="knight")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="0" priority="783">
-      <formula>LEFT(L3,5)="stair"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="0" priority="782">
-      <formula>LEFT(L3,5)="stair"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="5" priority="781">
-      <formula>LEFT(L3,3)="gem"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="4" priority="780">
-      <formula>LEFT(L3,6)="potion"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="779">
-      <formula>LEFT(L3,3)="pos"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G4">
-    <cfRule type="cellIs" dxfId="14" priority="890" operator="equal">
-      <formula>"wall_0"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="889" operator="equal">
-      <formula>"wall_2"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="888" operator="equal">
-      <formula>"ground_0"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="887" operator="equal">
-      <formula>"wall_1"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="886" operator="equal">
-      <formula>"door_0"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="885" operator="equal">
-      <formula>"door_2"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="884" operator="equal">
-      <formula>"key_2"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="883" operator="equal">
-      <formula>"key_1"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="6" priority="882">
-      <formula>OR(LEFT(G4,5)="slime",LEFT(G4,3)="bat",LEFT(G4,8)="skeleton",LEFT(G4,5)="mummy",LEFT(G4,6)="wizard",LEFT(G4,6)="knight")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="0" priority="881">
-      <formula>LEFT(G4,5)="stair"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="0" priority="880">
-      <formula>LEFT(G4,5)="stair"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="5" priority="879">
-      <formula>LEFT(G4,3)="gem"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="4" priority="878">
-      <formula>LEFT(G4,6)="potion"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="877">
-      <formula>LEFT(G4,3)="pos"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H4">
-    <cfRule type="cellIs" dxfId="14" priority="848" operator="equal">
-      <formula>"wall_0"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="847" operator="equal">
-      <formula>"wall_2"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="846" operator="equal">
-      <formula>"ground_0"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="845" operator="equal">
-      <formula>"wall_1"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="844" operator="equal">
-      <formula>"door_0"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="843" operator="equal">
-      <formula>"door_2"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="842" operator="equal">
-      <formula>"key_2"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="841" operator="equal">
-      <formula>"key_1"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="6" priority="840">
-      <formula>OR(LEFT(H4,5)="slime",LEFT(H4,3)="bat",LEFT(H4,8)="skeleton",LEFT(H4,5)="mummy",LEFT(H4,6)="wizard",LEFT(H4,6)="knight")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="0" priority="839">
-      <formula>LEFT(H4,5)="stair"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="0" priority="838">
-      <formula>LEFT(H4,5)="stair"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="5" priority="837">
-      <formula>LEFT(H4,3)="gem"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="4" priority="836">
-      <formula>LEFT(H4,6)="potion"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="835">
-      <formula>LEFT(H4,3)="pos"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J4">
-    <cfRule type="cellIs" dxfId="14" priority="820" operator="equal">
-      <formula>"wall_0"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="819" operator="equal">
-      <formula>"wall_2"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="818" operator="equal">
-      <formula>"ground_0"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="817" operator="equal">
-      <formula>"wall_1"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="816" operator="equal">
-      <formula>"door_0"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="815" operator="equal">
-      <formula>"door_2"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="814" operator="equal">
-      <formula>"key_2"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="813" operator="equal">
-      <formula>"key_1"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="6" priority="812">
-      <formula>OR(LEFT(J4,5)="slime",LEFT(J4,3)="bat",LEFT(J4,8)="skeleton",LEFT(J4,5)="mummy",LEFT(J4,6)="wizard",LEFT(J4,6)="knight")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="0" priority="811">
-      <formula>LEFT(J4,5)="stair"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="0" priority="810">
-      <formula>LEFT(J4,5)="stair"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="5" priority="809">
-      <formula>LEFT(J4,3)="gem"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="4" priority="808">
-      <formula>LEFT(J4,6)="potion"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="807">
-      <formula>LEFT(J4,3)="pos"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L4">
-    <cfRule type="cellIs" dxfId="14" priority="806" operator="equal">
-      <formula>"wall_0"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="805" operator="equal">
-      <formula>"wall_2"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="804" operator="equal">
-      <formula>"ground_0"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="803" operator="equal">
-      <formula>"wall_1"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="802" operator="equal">
-      <formula>"door_0"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="801" operator="equal">
-      <formula>"door_2"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="800" operator="equal">
-      <formula>"key_2"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="799" operator="equal">
-      <formula>"key_1"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="6" priority="798">
-      <formula>OR(LEFT(L4,5)="slime",LEFT(L4,3)="bat",LEFT(L4,8)="skeleton",LEFT(L4,5)="mummy",LEFT(L4,6)="wizard",LEFT(L4,6)="knight")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="0" priority="797">
-      <formula>LEFT(L4,5)="stair"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="0" priority="796">
-      <formula>LEFT(L4,5)="stair"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="5" priority="795">
-      <formula>LEFT(L4,3)="gem"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="4" priority="794">
-      <formula>LEFT(L4,6)="potion"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="793">
-      <formula>LEFT(L4,3)="pos"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B5">
-    <cfRule type="cellIs" dxfId="14" priority="526" operator="equal">
-      <formula>"wall_0"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="525" operator="equal">
-      <formula>"wall_2"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="524" operator="equal">
-      <formula>"ground_0"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="523" operator="equal">
-      <formula>"wall_1"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="522" operator="equal">
-      <formula>"door_0"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="521" operator="equal">
-      <formula>"door_2"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="520" operator="equal">
-      <formula>"key_2"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="519" operator="equal">
-      <formula>"key_1"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="6" priority="518">
-      <formula>OR(LEFT(B5,5)="slime",LEFT(B5,3)="bat",LEFT(B5,8)="skeleton",LEFT(B5,5)="mummy",LEFT(B5,6)="wizard",LEFT(B5,6)="knight")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="0" priority="517">
-      <formula>LEFT(B5,5)="stair"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="0" priority="516">
-      <formula>LEFT(B5,5)="stair"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="5" priority="515">
-      <formula>LEFT(B5,3)="gem"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="4" priority="514">
-      <formula>LEFT(B5,6)="potion"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="513">
-      <formula>LEFT(B5,3)="pos"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C5">
-    <cfRule type="cellIs" dxfId="14" priority="764" operator="equal">
-      <formula>"wall_0"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="763" operator="equal">
-      <formula>"wall_2"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="762" operator="equal">
-      <formula>"ground_0"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="761" operator="equal">
-      <formula>"wall_1"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="760" operator="equal">
-      <formula>"door_0"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="759" operator="equal">
-      <formula>"door_2"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="758" operator="equal">
-      <formula>"key_2"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="757" operator="equal">
-      <formula>"key_1"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="6" priority="756">
-      <formula>OR(LEFT(C5,5)="slime",LEFT(C5,3)="bat",LEFT(C5,8)="skeleton",LEFT(C5,5)="mummy",LEFT(C5,6)="wizard",LEFT(C5,6)="knight")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="0" priority="755">
-      <formula>LEFT(C5,5)="stair"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="0" priority="754">
-      <formula>LEFT(C5,5)="stair"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="5" priority="753">
-      <formula>LEFT(C5,3)="gem"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="4" priority="752">
-      <formula>LEFT(C5,6)="potion"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="751">
-      <formula>LEFT(C5,3)="pos"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D5">
-    <cfRule type="cellIs" dxfId="14" priority="540" operator="equal">
-      <formula>"wall_0"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="539" operator="equal">
-      <formula>"wall_2"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="538" operator="equal">
-      <formula>"ground_0"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="537" operator="equal">
-      <formula>"wall_1"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="536" operator="equal">
-      <formula>"door_0"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="535" operator="equal">
-      <formula>"door_2"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="534" operator="equal">
-      <formula>"key_2"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="533" operator="equal">
-      <formula>"key_1"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="6" priority="532">
-      <formula>OR(LEFT(D5,5)="slime",LEFT(D5,3)="bat",LEFT(D5,8)="skeleton",LEFT(D5,5)="mummy",LEFT(D5,6)="wizard",LEFT(D5,6)="knight")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="0" priority="531">
-      <formula>LEFT(D5,5)="stair"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="0" priority="530">
-      <formula>LEFT(D5,5)="stair"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="5" priority="529">
-      <formula>LEFT(D5,3)="gem"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="4" priority="528">
-      <formula>LEFT(D5,6)="potion"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="527">
-      <formula>LEFT(D5,3)="pos"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G5">
-    <cfRule type="cellIs" dxfId="14" priority="708" operator="equal">
-      <formula>"wall_0"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="707" operator="equal">
-      <formula>"wall_2"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="706" operator="equal">
-      <formula>"ground_0"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="705" operator="equal">
-      <formula>"wall_1"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="704" operator="equal">
-      <formula>"door_0"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="703" operator="equal">
-      <formula>"door_2"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="702" operator="equal">
-      <formula>"key_2"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="701" operator="equal">
-      <formula>"key_1"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="6" priority="700">
-      <formula>OR(LEFT(G5,5)="slime",LEFT(G5,3)="bat",LEFT(G5,8)="skeleton",LEFT(G5,5)="mummy",LEFT(G5,6)="wizard",LEFT(G5,6)="knight")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="0" priority="699">
-      <formula>LEFT(G5,5)="stair"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="0" priority="698">
-      <formula>LEFT(G5,5)="stair"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="5" priority="697">
-      <formula>LEFT(G5,3)="gem"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="4" priority="696">
-      <formula>LEFT(G5,6)="potion"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="695">
-      <formula>LEFT(G5,3)="pos"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J5">
-    <cfRule type="cellIs" dxfId="14" priority="638" operator="equal">
-      <formula>"wall_0"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="637" operator="equal">
-      <formula>"wall_2"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="636" operator="equal">
-      <formula>"ground_0"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="635" operator="equal">
-      <formula>"wall_1"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="634" operator="equal">
-      <formula>"door_0"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="633" operator="equal">
-      <formula>"door_2"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="632" operator="equal">
-      <formula>"key_2"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="631" operator="equal">
-      <formula>"key_1"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="6" priority="630">
-      <formula>OR(LEFT(J5,5)="slime",LEFT(J5,3)="bat",LEFT(J5,8)="skeleton",LEFT(J5,5)="mummy",LEFT(J5,6)="wizard",LEFT(J5,6)="knight")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="0" priority="629">
-      <formula>LEFT(J5,5)="stair"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="0" priority="628">
-      <formula>LEFT(J5,5)="stair"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="5" priority="627">
-      <formula>LEFT(J5,3)="gem"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="4" priority="626">
-      <formula>LEFT(J5,6)="potion"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="625">
-      <formula>LEFT(J5,3)="pos"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K5">
-    <cfRule type="cellIs" dxfId="14" priority="666" operator="equal">
-      <formula>"wall_0"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="665" operator="equal">
-      <formula>"wall_2"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="664" operator="equal">
-      <formula>"ground_0"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="663" operator="equal">
-      <formula>"wall_1"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="662" operator="equal">
-      <formula>"door_0"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="661" operator="equal">
-      <formula>"door_2"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="660" operator="equal">
-      <formula>"key_2"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="659" operator="equal">
-      <formula>"key_1"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="6" priority="658">
-      <formula>OR(LEFT(K5,5)="slime",LEFT(K5,3)="bat",LEFT(K5,8)="skeleton",LEFT(K5,5)="mummy",LEFT(K5,6)="wizard",LEFT(K5,6)="knight")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="0" priority="657">
-      <formula>LEFT(K5,5)="stair"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="0" priority="656">
-      <formula>LEFT(K5,5)="stair"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="5" priority="655">
-      <formula>LEFT(K5,3)="gem"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="4" priority="654">
-      <formula>LEFT(K5,6)="potion"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="653">
-      <formula>LEFT(K5,3)="pos"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L5">
-    <cfRule type="cellIs" dxfId="14" priority="652" operator="equal">
-      <formula>"wall_0"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="651" operator="equal">
-      <formula>"wall_2"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="650" operator="equal">
-      <formula>"ground_0"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="649" operator="equal">
-      <formula>"wall_1"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="648" operator="equal">
-      <formula>"door_0"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="647" operator="equal">
-      <formula>"door_2"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="646" operator="equal">
-      <formula>"key_2"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="645" operator="equal">
-      <formula>"key_1"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="6" priority="644">
-      <formula>OR(LEFT(L5,5)="slime",LEFT(L5,3)="bat",LEFT(L5,8)="skeleton",LEFT(L5,5)="mummy",LEFT(L5,6)="wizard",LEFT(L5,6)="knight")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="0" priority="643">
-      <formula>LEFT(L5,5)="stair"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="0" priority="642">
-      <formula>LEFT(L5,5)="stair"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="5" priority="641">
-      <formula>LEFT(L5,3)="gem"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="4" priority="640">
-      <formula>LEFT(L5,6)="potion"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="639">
-      <formula>LEFT(L5,3)="pos"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C6">
-    <cfRule type="cellIs" dxfId="14" priority="750" operator="equal">
-      <formula>"wall_0"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="749" operator="equal">
-      <formula>"wall_2"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="748" operator="equal">
-      <formula>"ground_0"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="747" operator="equal">
-      <formula>"wall_1"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="746" operator="equal">
-      <formula>"door_0"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="745" operator="equal">
-      <formula>"door_2"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="744" operator="equal">
-      <formula>"key_2"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="743" operator="equal">
-      <formula>"key_1"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="6" priority="742">
-      <formula>OR(LEFT(C6,5)="slime",LEFT(C6,3)="bat",LEFT(C6,8)="skeleton",LEFT(C6,5)="mummy",LEFT(C6,6)="wizard",LEFT(C6,6)="knight")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="0" priority="741">
-      <formula>LEFT(C6,5)="stair"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="0" priority="740">
-      <formula>LEFT(C6,5)="stair"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="5" priority="739">
-      <formula>LEFT(C6,3)="gem"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="4" priority="738">
-      <formula>LEFT(C6,6)="potion"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="737">
-      <formula>LEFT(C6,3)="pos"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F6">
-    <cfRule type="cellIs" dxfId="14" priority="610" operator="equal">
-      <formula>"wall_0"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="609" operator="equal">
-      <formula>"wall_2"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="608" operator="equal">
-      <formula>"ground_0"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="607" operator="equal">
-      <formula>"wall_1"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="606" operator="equal">
-      <formula>"door_0"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="605" operator="equal">
-      <formula>"door_2"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="604" operator="equal">
-      <formula>"key_2"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="603" operator="equal">
-      <formula>"key_1"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="6" priority="602">
-      <formula>OR(LEFT(F6,5)="slime",LEFT(F6,3)="bat",LEFT(F6,8)="skeleton",LEFT(F6,5)="mummy",LEFT(F6,6)="wizard",LEFT(F6,6)="knight")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="0" priority="601">
-      <formula>LEFT(F6,5)="stair"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="0" priority="600">
-      <formula>LEFT(F6,5)="stair"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="5" priority="599">
-      <formula>LEFT(F6,3)="gem"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="4" priority="598">
-      <formula>LEFT(F6,6)="potion"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="597">
-      <formula>LEFT(F6,3)="pos"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G6">
-    <cfRule type="cellIs" dxfId="14" priority="694" operator="equal">
-      <formula>"wall_0"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="693" operator="equal">
-      <formula>"wall_2"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="692" operator="equal">
-      <formula>"ground_0"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="691" operator="equal">
-      <formula>"wall_1"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="690" operator="equal">
-      <formula>"door_0"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="689" operator="equal">
-      <formula>"door_2"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="688" operator="equal">
-      <formula>"key_2"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="687" operator="equal">
-      <formula>"key_1"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="6" priority="686">
-      <formula>OR(LEFT(G6,5)="slime",LEFT(G6,3)="bat",LEFT(G6,8)="skeleton",LEFT(G6,5)="mummy",LEFT(G6,6)="wizard",LEFT(G6,6)="knight")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="0" priority="685">
-      <formula>LEFT(G6,5)="stair"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="0" priority="684">
-      <formula>LEFT(G6,5)="stair"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="5" priority="683">
-      <formula>LEFT(G6,3)="gem"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="4" priority="682">
-      <formula>LEFT(G6,6)="potion"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="681">
-      <formula>LEFT(G6,3)="pos"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H6">
-    <cfRule type="cellIs" dxfId="14" priority="624" operator="equal">
-      <formula>"wall_0"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="623" operator="equal">
-      <formula>"wall_2"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="622" operator="equal">
-      <formula>"ground_0"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="621" operator="equal">
-      <formula>"wall_1"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="620" operator="equal">
-      <formula>"door_0"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="619" operator="equal">
-      <formula>"door_2"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="618" operator="equal">
-      <formula>"key_2"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="617" operator="equal">
-      <formula>"key_1"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="6" priority="616">
-      <formula>OR(LEFT(H6,5)="slime",LEFT(H6,3)="bat",LEFT(H6,8)="skeleton",LEFT(H6,5)="mummy",LEFT(H6,6)="wizard",LEFT(H6,6)="knight")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="0" priority="615">
-      <formula>LEFT(H6,5)="stair"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="0" priority="614">
-      <formula>LEFT(H6,5)="stair"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="5" priority="613">
-      <formula>LEFT(H6,3)="gem"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="4" priority="612">
-      <formula>LEFT(H6,6)="potion"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="611">
-      <formula>LEFT(H6,3)="pos"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J6">
-    <cfRule type="cellIs" dxfId="14" priority="568" operator="equal">
-      <formula>"wall_0"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="567" operator="equal">
-      <formula>"wall_2"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="566" operator="equal">
-      <formula>"ground_0"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="565" operator="equal">
-      <formula>"wall_1"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="564" operator="equal">
-      <formula>"door_0"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="563" operator="equal">
-      <formula>"door_2"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="562" operator="equal">
-      <formula>"key_2"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="561" operator="equal">
-      <formula>"key_1"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="6" priority="560">
-      <formula>OR(LEFT(J6,5)="slime",LEFT(J6,3)="bat",LEFT(J6,8)="skeleton",LEFT(J6,5)="mummy",LEFT(J6,6)="wizard",LEFT(J6,6)="knight")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="0" priority="559">
-      <formula>LEFT(J6,5)="stair"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="0" priority="558">
-      <formula>LEFT(J6,5)="stair"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="5" priority="557">
-      <formula>LEFT(J6,3)="gem"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="4" priority="556">
-      <formula>LEFT(J6,6)="potion"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="555">
       <formula>LEFT(J6,3)="pos"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K6">
-    <cfRule type="cellIs" dxfId="14" priority="680" operator="equal">
-      <formula>"wall_0"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="679" operator="equal">
-      <formula>"wall_2"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="678" operator="equal">
-      <formula>"ground_0"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="677" operator="equal">
-      <formula>"wall_1"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="676" operator="equal">
-      <formula>"door_0"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="675" operator="equal">
-      <formula>"door_2"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="674" operator="equal">
-      <formula>"key_2"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="673" operator="equal">
-      <formula>"key_1"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="6" priority="672">
+    <cfRule type="containsText" dxfId="16" priority="568" operator="between" text="black_0">
+      <formula>NOT(ISERROR(SEARCH("black_0",K6)))</formula>
+    </cfRule>
+    <cfRule type="containsText" priority="567" operator="between" text="white_0">
+      <formula>NOT(ISERROR(SEARCH("white_0",K6)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="14" priority="566" operator="equal">
+      <formula>"wall_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="565" operator="equal">
+      <formula>"wall_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="564" operator="equal">
+      <formula>"ground_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="11" priority="563" operator="equal">
+      <formula>"wall_1"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="562" operator="equal">
+      <formula>"door_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="561" operator="equal">
+      <formula>"door_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="560" operator="equal">
+      <formula>"key_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="559" operator="equal">
+      <formula>"key_1"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="558">
       <formula>OR(LEFT(K6,5)="slime",LEFT(K6,3)="bat",LEFT(K6,8)="skeleton",LEFT(K6,5)="mummy",LEFT(K6,6)="wizard",LEFT(K6,6)="knight")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="671">
+    <cfRule type="expression" dxfId="0" priority="557">
       <formula>LEFT(K6,5)="stair"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="670">
+    <cfRule type="expression" dxfId="0" priority="556">
       <formula>LEFT(K6,5)="stair"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="5" priority="669">
+    <cfRule type="expression" dxfId="5" priority="555">
       <formula>LEFT(K6,3)="gem"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="668">
+    <cfRule type="expression" dxfId="4" priority="554">
       <formula>LEFT(K6,6)="potion"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="667">
+    <cfRule type="expression" dxfId="3" priority="553">
       <formula>LEFT(K6,3)="pos"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L6">
-    <cfRule type="cellIs" dxfId="14" priority="554" operator="equal">
-      <formula>"wall_0"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="553" operator="equal">
-      <formula>"wall_2"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="552" operator="equal">
-      <formula>"ground_0"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="551" operator="equal">
-      <formula>"wall_1"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="550" operator="equal">
-      <formula>"door_0"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="549" operator="equal">
-      <formula>"door_2"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="548" operator="equal">
-      <formula>"key_2"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="547" operator="equal">
-      <formula>"key_1"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="6" priority="546">
+    <cfRule type="containsText" dxfId="16" priority="552" operator="between" text="black_0">
+      <formula>NOT(ISERROR(SEARCH("black_0",L6)))</formula>
+    </cfRule>
+    <cfRule type="containsText" priority="551" operator="between" text="white_0">
+      <formula>NOT(ISERROR(SEARCH("white_0",L6)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="14" priority="550" operator="equal">
+      <formula>"wall_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="549" operator="equal">
+      <formula>"wall_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="548" operator="equal">
+      <formula>"ground_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="11" priority="547" operator="equal">
+      <formula>"wall_1"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="546" operator="equal">
+      <formula>"door_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="545" operator="equal">
+      <formula>"door_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="544" operator="equal">
+      <formula>"key_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="543" operator="equal">
+      <formula>"key_1"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="542">
       <formula>OR(LEFT(L6,5)="slime",LEFT(L6,3)="bat",LEFT(L6,8)="skeleton",LEFT(L6,5)="mummy",LEFT(L6,6)="wizard",LEFT(L6,6)="knight")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="545">
+    <cfRule type="expression" dxfId="0" priority="541">
       <formula>LEFT(L6,5)="stair"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="544">
+    <cfRule type="expression" dxfId="0" priority="540">
       <formula>LEFT(L6,5)="stair"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="5" priority="543">
+    <cfRule type="expression" dxfId="5" priority="539">
       <formula>LEFT(L6,3)="gem"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="542">
+    <cfRule type="expression" dxfId="4" priority="538">
       <formula>LEFT(L6,6)="potion"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="541">
+    <cfRule type="expression" dxfId="3" priority="537">
       <formula>LEFT(L6,3)="pos"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A7:M7">
-    <cfRule type="containsText" dxfId="16" priority="922" operator="between" text="black_0">
+    <cfRule type="containsText" dxfId="16" priority="2328" operator="between" text="black_0">
       <formula>NOT(ISERROR(SEARCH("black_0",A7)))</formula>
     </cfRule>
-    <cfRule type="containsText" priority="921" operator="between" text="white_0">
+    <cfRule type="containsText" priority="2327" operator="between" text="white_0">
       <formula>NOT(ISERROR(SEARCH("white_0",A7)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A8">
-    <cfRule type="cellIs" dxfId="14" priority="160" operator="equal">
-      <formula>"wall_0"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="159" operator="equal">
-      <formula>"wall_2"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="158" operator="equal">
-      <formula>"ground_0"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="157" operator="equal">
-      <formula>"wall_1"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="156" operator="equal">
-      <formula>"door_0"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="155" operator="equal">
-      <formula>"door_2"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="154" operator="equal">
-      <formula>"key_2"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="153" operator="equal">
-      <formula>"key_1"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="6" priority="152">
+    <cfRule type="cellIs" dxfId="14" priority="1566" operator="equal">
+      <formula>"wall_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="1565" operator="equal">
+      <formula>"wall_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="1564" operator="equal">
+      <formula>"ground_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="11" priority="1563" operator="equal">
+      <formula>"wall_1"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="1562" operator="equal">
+      <formula>"door_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="1561" operator="equal">
+      <formula>"door_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="1560" operator="equal">
+      <formula>"key_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="1559" operator="equal">
+      <formula>"key_1"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="1558">
       <formula>OR(LEFT(A8,5)="slime",LEFT(A8,3)="bat",LEFT(A8,8)="skeleton",LEFT(A8,5)="mummy",LEFT(A8,6)="wizard",LEFT(A8,6)="knight")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="151">
+    <cfRule type="expression" dxfId="0" priority="1557">
       <formula>LEFT(A8,5)="stair"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="150">
+    <cfRule type="expression" dxfId="0" priority="1556">
       <formula>LEFT(A8,5)="stair"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="5" priority="149">
+    <cfRule type="expression" dxfId="5" priority="1555">
       <formula>LEFT(A8,3)="gem"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="148">
+    <cfRule type="expression" dxfId="4" priority="1554">
       <formula>LEFT(A8,6)="potion"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="147">
+    <cfRule type="expression" dxfId="3" priority="1553">
       <formula>LEFT(A8,3)="pos"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C8">
-    <cfRule type="cellIs" dxfId="14" priority="174" operator="equal">
-      <formula>"wall_0"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="173" operator="equal">
-      <formula>"wall_2"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="172" operator="equal">
-      <formula>"ground_0"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="171" operator="equal">
-      <formula>"wall_1"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="170" operator="equal">
-      <formula>"door_0"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="169" operator="equal">
-      <formula>"door_2"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="168" operator="equal">
-      <formula>"key_2"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="167" operator="equal">
-      <formula>"key_1"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="6" priority="166">
+    <cfRule type="cellIs" dxfId="14" priority="88" operator="equal">
+      <formula>"wall_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="87" operator="equal">
+      <formula>"wall_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="86" operator="equal">
+      <formula>"ground_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="11" priority="85" operator="equal">
+      <formula>"wall_1"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="84" operator="equal">
+      <formula>"door_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="83" operator="equal">
+      <formula>"door_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="82" operator="equal">
+      <formula>"key_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="81" operator="equal">
+      <formula>"key_1"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="80">
       <formula>OR(LEFT(C8,5)="slime",LEFT(C8,3)="bat",LEFT(C8,8)="skeleton",LEFT(C8,5)="mummy",LEFT(C8,6)="wizard",LEFT(C8,6)="knight")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="165">
+    <cfRule type="expression" dxfId="0" priority="79">
       <formula>LEFT(C8,5)="stair"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="164">
+    <cfRule type="expression" dxfId="0" priority="78">
       <formula>LEFT(C8,5)="stair"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="5" priority="163">
+    <cfRule type="expression" dxfId="5" priority="77">
       <formula>LEFT(C8,3)="gem"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="162">
+    <cfRule type="expression" dxfId="4" priority="76">
       <formula>LEFT(C8,6)="potion"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="161">
+    <cfRule type="expression" dxfId="3" priority="75">
       <formula>LEFT(C8,3)="pos"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E8">
-    <cfRule type="cellIs" dxfId="14" priority="188" operator="equal">
-      <formula>"wall_0"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="187" operator="equal">
-      <formula>"wall_2"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="186" operator="equal">
-      <formula>"ground_0"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="185" operator="equal">
-      <formula>"wall_1"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="184" operator="equal">
-      <formula>"door_0"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="183" operator="equal">
-      <formula>"door_2"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="182" operator="equal">
-      <formula>"key_2"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="181" operator="equal">
-      <formula>"key_1"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="6" priority="180">
+    <cfRule type="cellIs" dxfId="14" priority="74" operator="equal">
+      <formula>"wall_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="73" operator="equal">
+      <formula>"wall_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="72" operator="equal">
+      <formula>"ground_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="11" priority="71" operator="equal">
+      <formula>"wall_1"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="70" operator="equal">
+      <formula>"door_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="69" operator="equal">
+      <formula>"door_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="68" operator="equal">
+      <formula>"key_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="67" operator="equal">
+      <formula>"key_1"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="66">
       <formula>OR(LEFT(E8,5)="slime",LEFT(E8,3)="bat",LEFT(E8,8)="skeleton",LEFT(E8,5)="mummy",LEFT(E8,6)="wizard",LEFT(E8,6)="knight")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="179">
+    <cfRule type="expression" dxfId="0" priority="65">
       <formula>LEFT(E8,5)="stair"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="178">
+    <cfRule type="expression" dxfId="0" priority="64">
       <formula>LEFT(E8,5)="stair"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="5" priority="177">
+    <cfRule type="expression" dxfId="5" priority="63">
       <formula>LEFT(E8,3)="gem"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="176">
+    <cfRule type="expression" dxfId="4" priority="62">
       <formula>LEFT(E8,6)="potion"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="175">
+    <cfRule type="expression" dxfId="3" priority="61">
       <formula>LEFT(E8,3)="pos"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G8">
-    <cfRule type="cellIs" dxfId="14" priority="202" operator="equal">
-      <formula>"wall_0"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="201" operator="equal">
-      <formula>"wall_2"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="200" operator="equal">
-      <formula>"ground_0"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="199" operator="equal">
-      <formula>"wall_1"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="198" operator="equal">
-      <formula>"door_0"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="197" operator="equal">
-      <formula>"door_2"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="196" operator="equal">
-      <formula>"key_2"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="195" operator="equal">
-      <formula>"key_1"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="6" priority="194">
+    <cfRule type="cellIs" dxfId="14" priority="1608" operator="equal">
+      <formula>"wall_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="1607" operator="equal">
+      <formula>"wall_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="1606" operator="equal">
+      <formula>"ground_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="11" priority="1605" operator="equal">
+      <formula>"wall_1"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="1604" operator="equal">
+      <formula>"door_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="1603" operator="equal">
+      <formula>"door_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="1602" operator="equal">
+      <formula>"key_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="1601" operator="equal">
+      <formula>"key_1"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="1600">
       <formula>OR(LEFT(G8,5)="slime",LEFT(G8,3)="bat",LEFT(G8,8)="skeleton",LEFT(G8,5)="mummy",LEFT(G8,6)="wizard",LEFT(G8,6)="knight")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="193">
+    <cfRule type="expression" dxfId="0" priority="1599">
       <formula>LEFT(G8,5)="stair"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="192">
+    <cfRule type="expression" dxfId="0" priority="1598">
       <formula>LEFT(G8,5)="stair"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="5" priority="191">
+    <cfRule type="expression" dxfId="5" priority="1597">
       <formula>LEFT(G8,3)="gem"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="190">
+    <cfRule type="expression" dxfId="4" priority="1596">
       <formula>LEFT(G8,6)="potion"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="189">
+    <cfRule type="expression" dxfId="3" priority="1595">
       <formula>LEFT(G8,3)="pos"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I8">
-    <cfRule type="cellIs" dxfId="14" priority="230" operator="equal">
-      <formula>"wall_0"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="229" operator="equal">
-      <formula>"wall_2"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="228" operator="equal">
-      <formula>"ground_0"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="227" operator="equal">
-      <formula>"wall_1"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="226" operator="equal">
-      <formula>"door_0"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="225" operator="equal">
-      <formula>"door_2"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="224" operator="equal">
-      <formula>"key_2"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="223" operator="equal">
-      <formula>"key_1"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="6" priority="222">
+    <cfRule type="containsText" dxfId="16" priority="332" operator="between" text="black_0">
+      <formula>NOT(ISERROR(SEARCH("black_0",I8)))</formula>
+    </cfRule>
+    <cfRule type="containsText" priority="331" operator="between" text="white_0">
+      <formula>NOT(ISERROR(SEARCH("white_0",I8)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="14" priority="330" operator="equal">
+      <formula>"wall_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="329" operator="equal">
+      <formula>"wall_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="328" operator="equal">
+      <formula>"ground_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="11" priority="327" operator="equal">
+      <formula>"wall_1"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="326" operator="equal">
+      <formula>"door_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="325" operator="equal">
+      <formula>"door_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="324" operator="equal">
+      <formula>"key_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="323" operator="equal">
+      <formula>"key_1"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="322">
       <formula>OR(LEFT(I8,5)="slime",LEFT(I8,3)="bat",LEFT(I8,8)="skeleton",LEFT(I8,5)="mummy",LEFT(I8,6)="wizard",LEFT(I8,6)="knight")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="221">
+    <cfRule type="expression" dxfId="0" priority="321">
       <formula>LEFT(I8,5)="stair"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="220">
+    <cfRule type="expression" dxfId="0" priority="320">
       <formula>LEFT(I8,5)="stair"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="5" priority="219">
+    <cfRule type="expression" dxfId="5" priority="319">
       <formula>LEFT(I8,3)="gem"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="218">
+    <cfRule type="expression" dxfId="4" priority="318">
       <formula>LEFT(I8,6)="potion"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="217">
+    <cfRule type="expression" dxfId="3" priority="317">
       <formula>LEFT(I8,3)="pos"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J8">
-    <cfRule type="cellIs" dxfId="14" priority="132" operator="equal">
-      <formula>"wall_0"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="131" operator="equal">
-      <formula>"wall_2"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="130" operator="equal">
-      <formula>"ground_0"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="129" operator="equal">
-      <formula>"wall_1"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="128" operator="equal">
-      <formula>"door_0"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="127" operator="equal">
-      <formula>"door_2"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="126" operator="equal">
-      <formula>"key_2"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="125" operator="equal">
-      <formula>"key_1"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="6" priority="124">
+    <cfRule type="containsText" dxfId="16" priority="348" operator="between" text="black_0">
+      <formula>NOT(ISERROR(SEARCH("black_0",J8)))</formula>
+    </cfRule>
+    <cfRule type="containsText" priority="347" operator="between" text="white_0">
+      <formula>NOT(ISERROR(SEARCH("white_0",J8)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="14" priority="346" operator="equal">
+      <formula>"wall_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="345" operator="equal">
+      <formula>"wall_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="344" operator="equal">
+      <formula>"ground_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="11" priority="343" operator="equal">
+      <formula>"wall_1"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="342" operator="equal">
+      <formula>"door_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="341" operator="equal">
+      <formula>"door_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="340" operator="equal">
+      <formula>"key_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="339" operator="equal">
+      <formula>"key_1"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="338">
       <formula>OR(LEFT(J8,5)="slime",LEFT(J8,3)="bat",LEFT(J8,8)="skeleton",LEFT(J8,5)="mummy",LEFT(J8,6)="wizard",LEFT(J8,6)="knight")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="123">
+    <cfRule type="expression" dxfId="0" priority="337">
       <formula>LEFT(J8,5)="stair"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="122">
+    <cfRule type="expression" dxfId="0" priority="336">
       <formula>LEFT(J8,5)="stair"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="5" priority="121">
+    <cfRule type="expression" dxfId="5" priority="335">
       <formula>LEFT(J8,3)="gem"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="120">
+    <cfRule type="expression" dxfId="4" priority="334">
       <formula>LEFT(J8,6)="potion"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="119">
+    <cfRule type="expression" dxfId="3" priority="333">
       <formula>LEFT(J8,3)="pos"</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="K8">
+    <cfRule type="cellIs" dxfId="14" priority="1552" operator="equal">
+      <formula>"wall_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="1551" operator="equal">
+      <formula>"wall_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="1550" operator="equal">
+      <formula>"ground_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="11" priority="1549" operator="equal">
+      <formula>"wall_1"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="1548" operator="equal">
+      <formula>"door_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="1547" operator="equal">
+      <formula>"door_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="1546" operator="equal">
+      <formula>"key_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="1545" operator="equal">
+      <formula>"key_1"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="1544">
+      <formula>OR(LEFT(K8,5)="slime",LEFT(K8,3)="bat",LEFT(K8,8)="skeleton",LEFT(K8,5)="mummy",LEFT(K8,6)="wizard",LEFT(K8,6)="knight")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="1543">
+      <formula>LEFT(K8,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="1542">
+      <formula>LEFT(K8,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="5" priority="1541">
+      <formula>LEFT(K8,3)="gem"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="1540">
+      <formula>LEFT(K8,6)="potion"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1539">
+      <formula>LEFT(K8,3)="pos"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="M8">
-    <cfRule type="cellIs" dxfId="14" priority="216" operator="equal">
-      <formula>"wall_0"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="215" operator="equal">
-      <formula>"wall_2"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="214" operator="equal">
-      <formula>"ground_0"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="213" operator="equal">
-      <formula>"wall_1"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="212" operator="equal">
-      <formula>"door_0"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="211" operator="equal">
-      <formula>"door_2"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="210" operator="equal">
-      <formula>"key_2"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="209" operator="equal">
-      <formula>"key_1"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="6" priority="208">
+    <cfRule type="cellIs" dxfId="14" priority="1622" operator="equal">
+      <formula>"wall_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="1621" operator="equal">
+      <formula>"wall_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="1620" operator="equal">
+      <formula>"ground_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="11" priority="1619" operator="equal">
+      <formula>"wall_1"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="1618" operator="equal">
+      <formula>"door_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="1617" operator="equal">
+      <formula>"door_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="1616" operator="equal">
+      <formula>"key_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="1615" operator="equal">
+      <formula>"key_1"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="1614">
       <formula>OR(LEFT(M8,5)="slime",LEFT(M8,3)="bat",LEFT(M8,8)="skeleton",LEFT(M8,5)="mummy",LEFT(M8,6)="wizard",LEFT(M8,6)="knight")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="207">
+    <cfRule type="expression" dxfId="0" priority="1613">
       <formula>LEFT(M8,5)="stair"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="206">
+    <cfRule type="expression" dxfId="0" priority="1612">
       <formula>LEFT(M8,5)="stair"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="5" priority="205">
+    <cfRule type="expression" dxfId="5" priority="1611">
       <formula>LEFT(M8,3)="gem"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="204">
+    <cfRule type="expression" dxfId="4" priority="1610">
       <formula>LEFT(M8,6)="potion"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="203">
+    <cfRule type="expression" dxfId="3" priority="1609">
       <formula>LEFT(M8,3)="pos"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A9">
-    <cfRule type="cellIs" dxfId="14" priority="482" operator="equal">
-      <formula>"wall_0"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="481" operator="equal">
-      <formula>"wall_2"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="480" operator="equal">
-      <formula>"ground_0"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="479" operator="equal">
-      <formula>"wall_1"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="478" operator="equal">
-      <formula>"door_0"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="477" operator="equal">
-      <formula>"door_2"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="476" operator="equal">
-      <formula>"key_2"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="475" operator="equal">
-      <formula>"key_1"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="6" priority="474">
+    <cfRule type="cellIs" dxfId="14" priority="192" operator="equal">
+      <formula>"wall_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="191" operator="equal">
+      <formula>"wall_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="190" operator="equal">
+      <formula>"ground_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="11" priority="189" operator="equal">
+      <formula>"wall_1"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="188" operator="equal">
+      <formula>"door_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="187" operator="equal">
+      <formula>"door_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="186" operator="equal">
+      <formula>"key_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="185" operator="equal">
+      <formula>"key_1"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="184">
       <formula>OR(LEFT(A9,5)="slime",LEFT(A9,3)="bat",LEFT(A9,8)="skeleton",LEFT(A9,5)="mummy",LEFT(A9,6)="wizard",LEFT(A9,6)="knight")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="473">
+    <cfRule type="expression" dxfId="0" priority="183">
       <formula>LEFT(A9,5)="stair"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="472">
+    <cfRule type="expression" dxfId="0" priority="182">
       <formula>LEFT(A9,5)="stair"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="5" priority="471">
+    <cfRule type="expression" dxfId="5" priority="181">
       <formula>LEFT(A9,3)="gem"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="470">
+    <cfRule type="expression" dxfId="4" priority="180">
       <formula>LEFT(A9,6)="potion"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="469">
+    <cfRule type="expression" dxfId="3" priority="179">
       <formula>LEFT(A9,3)="pos"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C9">
-    <cfRule type="cellIs" dxfId="14" priority="468" operator="equal">
-      <formula>"wall_0"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="467" operator="equal">
-      <formula>"wall_2"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="466" operator="equal">
-      <formula>"ground_0"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="465" operator="equal">
-      <formula>"wall_1"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="464" operator="equal">
-      <formula>"door_0"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="463" operator="equal">
-      <formula>"door_2"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="462" operator="equal">
-      <formula>"key_2"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="461" operator="equal">
-      <formula>"key_1"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="6" priority="460">
+    <cfRule type="cellIs" dxfId="14" priority="102" operator="equal">
+      <formula>"wall_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="101" operator="equal">
+      <formula>"wall_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="100" operator="equal">
+      <formula>"ground_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="11" priority="99" operator="equal">
+      <formula>"wall_1"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="98" operator="equal">
+      <formula>"door_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="97" operator="equal">
+      <formula>"door_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="96" operator="equal">
+      <formula>"key_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="95" operator="equal">
+      <formula>"key_1"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="94">
       <formula>OR(LEFT(C9,5)="slime",LEFT(C9,3)="bat",LEFT(C9,8)="skeleton",LEFT(C9,5)="mummy",LEFT(C9,6)="wizard",LEFT(C9,6)="knight")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="459">
+    <cfRule type="expression" dxfId="0" priority="93">
       <formula>LEFT(C9,5)="stair"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="458">
+    <cfRule type="expression" dxfId="0" priority="92">
       <formula>LEFT(C9,5)="stair"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="5" priority="457">
+    <cfRule type="expression" dxfId="5" priority="91">
       <formula>LEFT(C9,3)="gem"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="456">
+    <cfRule type="expression" dxfId="4" priority="90">
       <formula>LEFT(C9,6)="potion"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="455">
+    <cfRule type="expression" dxfId="3" priority="89">
       <formula>LEFT(C9,3)="pos"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E9">
-    <cfRule type="cellIs" dxfId="14" priority="454" operator="equal">
-      <formula>"wall_0"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="453" operator="equal">
-      <formula>"wall_2"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="452" operator="equal">
-      <formula>"ground_0"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="451" operator="equal">
-      <formula>"wall_1"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="450" operator="equal">
-      <formula>"door_0"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="449" operator="equal">
-      <formula>"door_2"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="448" operator="equal">
-      <formula>"key_2"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="447" operator="equal">
-      <formula>"key_1"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="6" priority="446">
+    <cfRule type="cellIs" dxfId="14" priority="60" operator="equal">
+      <formula>"wall_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="59" operator="equal">
+      <formula>"wall_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="58" operator="equal">
+      <formula>"ground_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="11" priority="57" operator="equal">
+      <formula>"wall_1"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="56" operator="equal">
+      <formula>"door_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="55" operator="equal">
+      <formula>"door_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="54" operator="equal">
+      <formula>"key_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="53" operator="equal">
+      <formula>"key_1"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="52">
       <formula>OR(LEFT(E9,5)="slime",LEFT(E9,3)="bat",LEFT(E9,8)="skeleton",LEFT(E9,5)="mummy",LEFT(E9,6)="wizard",LEFT(E9,6)="knight")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="445">
+    <cfRule type="expression" dxfId="0" priority="51">
       <formula>LEFT(E9,5)="stair"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="444">
+    <cfRule type="expression" dxfId="0" priority="50">
       <formula>LEFT(E9,5)="stair"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="5" priority="443">
+    <cfRule type="expression" dxfId="5" priority="49">
       <formula>LEFT(E9,3)="gem"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="442">
+    <cfRule type="expression" dxfId="4" priority="48">
       <formula>LEFT(E9,6)="potion"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="441">
+    <cfRule type="expression" dxfId="3" priority="47">
       <formula>LEFT(E9,3)="pos"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G9">
-    <cfRule type="cellIs" dxfId="14" priority="440" operator="equal">
-      <formula>"wall_0"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="439" operator="equal">
-      <formula>"wall_2"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="438" operator="equal">
-      <formula>"ground_0"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="437" operator="equal">
-      <formula>"wall_1"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="436" operator="equal">
-      <formula>"door_0"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="435" operator="equal">
-      <formula>"door_2"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="434" operator="equal">
-      <formula>"key_2"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="433" operator="equal">
-      <formula>"key_1"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="6" priority="432">
+    <cfRule type="cellIs" dxfId="14" priority="252" operator="equal">
+      <formula>"wall_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="251" operator="equal">
+      <formula>"wall_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="250" operator="equal">
+      <formula>"ground_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="11" priority="249" operator="equal">
+      <formula>"wall_1"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="248" operator="equal">
+      <formula>"door_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="247" operator="equal">
+      <formula>"door_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="246" operator="equal">
+      <formula>"key_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="245" operator="equal">
+      <formula>"key_1"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="244">
       <formula>OR(LEFT(G9,5)="slime",LEFT(G9,3)="bat",LEFT(G9,8)="skeleton",LEFT(G9,5)="mummy",LEFT(G9,6)="wizard",LEFT(G9,6)="knight")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="431">
+    <cfRule type="expression" dxfId="0" priority="243">
       <formula>LEFT(G9,5)="stair"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="430">
+    <cfRule type="expression" dxfId="0" priority="242">
       <formula>LEFT(G9,5)="stair"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="5" priority="429">
+    <cfRule type="expression" dxfId="5" priority="241">
       <formula>LEFT(G9,3)="gem"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="428">
+    <cfRule type="expression" dxfId="4" priority="240">
       <formula>LEFT(G9,6)="potion"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="427">
+    <cfRule type="expression" dxfId="3" priority="239">
       <formula>LEFT(G9,3)="pos"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I9">
-    <cfRule type="cellIs" dxfId="14" priority="272" operator="equal">
-      <formula>"wall_0"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="271" operator="equal">
-      <formula>"wall_2"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="270" operator="equal">
-      <formula>"ground_0"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="269" operator="equal">
-      <formula>"wall_1"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="268" operator="equal">
-      <formula>"door_0"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="267" operator="equal">
-      <formula>"door_2"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="266" operator="equal">
-      <formula>"key_2"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="265" operator="equal">
-      <formula>"key_1"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="6" priority="264">
+    <cfRule type="containsText" dxfId="16" priority="316" operator="between" text="black_0">
+      <formula>NOT(ISERROR(SEARCH("black_0",I9)))</formula>
+    </cfRule>
+    <cfRule type="containsText" priority="315" operator="between" text="white_0">
+      <formula>NOT(ISERROR(SEARCH("white_0",I9)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="14" priority="314" operator="equal">
+      <formula>"wall_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="313" operator="equal">
+      <formula>"wall_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="312" operator="equal">
+      <formula>"ground_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="11" priority="311" operator="equal">
+      <formula>"wall_1"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="310" operator="equal">
+      <formula>"door_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="309" operator="equal">
+      <formula>"door_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="308" operator="equal">
+      <formula>"key_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="307" operator="equal">
+      <formula>"key_1"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="306">
       <formula>OR(LEFT(I9,5)="slime",LEFT(I9,3)="bat",LEFT(I9,8)="skeleton",LEFT(I9,5)="mummy",LEFT(I9,6)="wizard",LEFT(I9,6)="knight")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="263">
+    <cfRule type="expression" dxfId="0" priority="305">
       <formula>LEFT(I9,5)="stair"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="262">
+    <cfRule type="expression" dxfId="0" priority="304">
       <formula>LEFT(I9,5)="stair"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="5" priority="261">
+    <cfRule type="expression" dxfId="5" priority="303">
       <formula>LEFT(I9,3)="gem"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="260">
+    <cfRule type="expression" dxfId="4" priority="302">
       <formula>LEFT(I9,6)="potion"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="259">
+    <cfRule type="expression" dxfId="3" priority="301">
       <formula>LEFT(I9,3)="pos"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J9">
-    <cfRule type="cellIs" dxfId="14" priority="118" operator="equal">
-      <formula>"wall_0"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="117" operator="equal">
-      <formula>"wall_2"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="116" operator="equal">
-      <formula>"ground_0"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="115" operator="equal">
-      <formula>"wall_1"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="114" operator="equal">
-      <formula>"door_0"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="113" operator="equal">
-      <formula>"door_2"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="112" operator="equal">
-      <formula>"key_2"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="111" operator="equal">
-      <formula>"key_1"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="6" priority="110">
+    <cfRule type="cellIs" dxfId="14" priority="1524" operator="equal">
+      <formula>"wall_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="1523" operator="equal">
+      <formula>"wall_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="1522" operator="equal">
+      <formula>"ground_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="11" priority="1521" operator="equal">
+      <formula>"wall_1"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="1520" operator="equal">
+      <formula>"door_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="1519" operator="equal">
+      <formula>"door_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="1518" operator="equal">
+      <formula>"key_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="1517" operator="equal">
+      <formula>"key_1"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="1516">
       <formula>OR(LEFT(J9,5)="slime",LEFT(J9,3)="bat",LEFT(J9,8)="skeleton",LEFT(J9,5)="mummy",LEFT(J9,6)="wizard",LEFT(J9,6)="knight")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="109">
+    <cfRule type="expression" dxfId="0" priority="1515">
       <formula>LEFT(J9,5)="stair"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="108">
+    <cfRule type="expression" dxfId="0" priority="1514">
       <formula>LEFT(J9,5)="stair"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="5" priority="107">
+    <cfRule type="expression" dxfId="5" priority="1513">
       <formula>LEFT(J9,3)="gem"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="106">
+    <cfRule type="expression" dxfId="4" priority="1512">
       <formula>LEFT(J9,6)="potion"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="105">
+    <cfRule type="expression" dxfId="3" priority="1511">
       <formula>LEFT(J9,3)="pos"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K9">
-    <cfRule type="cellIs" dxfId="14" priority="104" operator="equal">
-      <formula>"wall_0"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="103" operator="equal">
-      <formula>"wall_2"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="102" operator="equal">
-      <formula>"ground_0"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="101" operator="equal">
-      <formula>"wall_1"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="100" operator="equal">
-      <formula>"door_0"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="99" operator="equal">
-      <formula>"door_2"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="98" operator="equal">
-      <formula>"key_2"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="97" operator="equal">
-      <formula>"key_1"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="6" priority="96">
+    <cfRule type="containsText" dxfId="16" priority="364" operator="between" text="black_0">
+      <formula>NOT(ISERROR(SEARCH("black_0",K9)))</formula>
+    </cfRule>
+    <cfRule type="containsText" priority="363" operator="between" text="white_0">
+      <formula>NOT(ISERROR(SEARCH("white_0",K9)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="14" priority="362" operator="equal">
+      <formula>"wall_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="361" operator="equal">
+      <formula>"wall_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="360" operator="equal">
+      <formula>"ground_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="11" priority="359" operator="equal">
+      <formula>"wall_1"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="358" operator="equal">
+      <formula>"door_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="357" operator="equal">
+      <formula>"door_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="356" operator="equal">
+      <formula>"key_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="355" operator="equal">
+      <formula>"key_1"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="354">
       <formula>OR(LEFT(K9,5)="slime",LEFT(K9,3)="bat",LEFT(K9,8)="skeleton",LEFT(K9,5)="mummy",LEFT(K9,6)="wizard",LEFT(K9,6)="knight")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="95">
+    <cfRule type="expression" dxfId="0" priority="353">
       <formula>LEFT(K9,5)="stair"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="94">
+    <cfRule type="expression" dxfId="0" priority="352">
       <formula>LEFT(K9,5)="stair"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="5" priority="93">
+    <cfRule type="expression" dxfId="5" priority="351">
       <formula>LEFT(K9,3)="gem"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="92">
+    <cfRule type="expression" dxfId="4" priority="350">
       <formula>LEFT(K9,6)="potion"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="91">
+    <cfRule type="expression" dxfId="3" priority="349">
       <formula>LEFT(K9,3)="pos"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M9">
-    <cfRule type="cellIs" dxfId="14" priority="384" operator="equal">
-      <formula>"wall_0"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="383" operator="equal">
-      <formula>"wall_2"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="382" operator="equal">
-      <formula>"ground_0"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="381" operator="equal">
-      <formula>"wall_1"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="380" operator="equal">
-      <formula>"door_0"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="379" operator="equal">
-      <formula>"door_2"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="378" operator="equal">
-      <formula>"key_2"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="377" operator="equal">
-      <formula>"key_1"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="6" priority="376">
+    <cfRule type="cellIs" dxfId="14" priority="474" operator="equal">
+      <formula>"wall_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="473" operator="equal">
+      <formula>"wall_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="472" operator="equal">
+      <formula>"ground_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="11" priority="471" operator="equal">
+      <formula>"wall_1"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="470" operator="equal">
+      <formula>"door_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="469" operator="equal">
+      <formula>"door_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="468" operator="equal">
+      <formula>"key_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="467" operator="equal">
+      <formula>"key_1"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="466">
       <formula>OR(LEFT(M9,5)="slime",LEFT(M9,3)="bat",LEFT(M9,8)="skeleton",LEFT(M9,5)="mummy",LEFT(M9,6)="wizard",LEFT(M9,6)="knight")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="375">
+    <cfRule type="expression" dxfId="0" priority="465">
       <formula>LEFT(M9,5)="stair"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="374">
+    <cfRule type="expression" dxfId="0" priority="464">
       <formula>LEFT(M9,5)="stair"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="5" priority="373">
+    <cfRule type="expression" dxfId="5" priority="463">
       <formula>LEFT(M9,3)="gem"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="372">
+    <cfRule type="expression" dxfId="4" priority="462">
       <formula>LEFT(M9,6)="potion"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="371">
+    <cfRule type="expression" dxfId="3" priority="461">
       <formula>LEFT(M9,3)="pos"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A10">
-    <cfRule type="cellIs" dxfId="14" priority="314" operator="equal">
-      <formula>"wall_0"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="313" operator="equal">
-      <formula>"wall_2"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="312" operator="equal">
-      <formula>"ground_0"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="311" operator="equal">
-      <formula>"wall_1"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="310" operator="equal">
-      <formula>"door_0"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="309" operator="equal">
-      <formula>"door_2"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="308" operator="equal">
-      <formula>"key_2"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="307" operator="equal">
-      <formula>"key_1"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="6" priority="306">
+    <cfRule type="cellIs" dxfId="14" priority="178" operator="equal">
+      <formula>"wall_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="177" operator="equal">
+      <formula>"wall_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="176" operator="equal">
+      <formula>"ground_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="11" priority="175" operator="equal">
+      <formula>"wall_1"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="174" operator="equal">
+      <formula>"door_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="173" operator="equal">
+      <formula>"door_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="172" operator="equal">
+      <formula>"key_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="171" operator="equal">
+      <formula>"key_1"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="170">
       <formula>OR(LEFT(A10,5)="slime",LEFT(A10,3)="bat",LEFT(A10,8)="skeleton",LEFT(A10,5)="mummy",LEFT(A10,6)="wizard",LEFT(A10,6)="knight")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="305">
+    <cfRule type="expression" dxfId="0" priority="169">
       <formula>LEFT(A10,5)="stair"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="304">
+    <cfRule type="expression" dxfId="0" priority="168">
       <formula>LEFT(A10,5)="stair"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="5" priority="303">
+    <cfRule type="expression" dxfId="5" priority="167">
       <formula>LEFT(A10,3)="gem"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="302">
+    <cfRule type="expression" dxfId="4" priority="166">
       <formula>LEFT(A10,6)="potion"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="301">
+    <cfRule type="expression" dxfId="3" priority="165">
       <formula>LEFT(A10,3)="pos"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B10">
-    <cfRule type="cellIs" dxfId="14" priority="370" operator="equal">
-      <formula>"wall_0"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="369" operator="equal">
-      <formula>"wall_2"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="368" operator="equal">
-      <formula>"ground_0"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="367" operator="equal">
-      <formula>"wall_1"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="366" operator="equal">
-      <formula>"door_0"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="365" operator="equal">
-      <formula>"door_2"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="364" operator="equal">
-      <formula>"key_2"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="363" operator="equal">
-      <formula>"key_1"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="6" priority="362">
+    <cfRule type="cellIs" dxfId="14" priority="1776" operator="equal">
+      <formula>"wall_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="1775" operator="equal">
+      <formula>"wall_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="1774" operator="equal">
+      <formula>"ground_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="11" priority="1773" operator="equal">
+      <formula>"wall_1"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="1772" operator="equal">
+      <formula>"door_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="1771" operator="equal">
+      <formula>"door_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="1770" operator="equal">
+      <formula>"key_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="1769" operator="equal">
+      <formula>"key_1"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="1768">
       <formula>OR(LEFT(B10,5)="slime",LEFT(B10,3)="bat",LEFT(B10,8)="skeleton",LEFT(B10,5)="mummy",LEFT(B10,6)="wizard",LEFT(B10,6)="knight")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="361">
+    <cfRule type="expression" dxfId="0" priority="1767">
       <formula>LEFT(B10,5)="stair"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="360">
+    <cfRule type="expression" dxfId="0" priority="1766">
       <formula>LEFT(B10,5)="stair"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="5" priority="359">
+    <cfRule type="expression" dxfId="5" priority="1765">
       <formula>LEFT(B10,3)="gem"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="358">
+    <cfRule type="expression" dxfId="4" priority="1764">
       <formula>LEFT(B10,6)="potion"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="357">
+    <cfRule type="expression" dxfId="3" priority="1763">
       <formula>LEFT(B10,3)="pos"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C10">
-    <cfRule type="cellIs" dxfId="14" priority="342" operator="equal">
-      <formula>"wall_0"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="341" operator="equal">
-      <formula>"wall_2"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="340" operator="equal">
-      <formula>"ground_0"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="339" operator="equal">
-      <formula>"wall_1"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="338" operator="equal">
-      <formula>"door_0"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="337" operator="equal">
-      <formula>"door_2"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="336" operator="equal">
-      <formula>"key_2"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="335" operator="equal">
-      <formula>"key_1"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="6" priority="334">
+    <cfRule type="cellIs" dxfId="14" priority="116" operator="equal">
+      <formula>"wall_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="115" operator="equal">
+      <formula>"wall_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="114" operator="equal">
+      <formula>"ground_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="11" priority="113" operator="equal">
+      <formula>"wall_1"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="112" operator="equal">
+      <formula>"door_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="111" operator="equal">
+      <formula>"door_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="110" operator="equal">
+      <formula>"key_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="109" operator="equal">
+      <formula>"key_1"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="108">
       <formula>OR(LEFT(C10,5)="slime",LEFT(C10,3)="bat",LEFT(C10,8)="skeleton",LEFT(C10,5)="mummy",LEFT(C10,6)="wizard",LEFT(C10,6)="knight")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="333">
+    <cfRule type="expression" dxfId="0" priority="107">
       <formula>LEFT(C10,5)="stair"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="332">
+    <cfRule type="expression" dxfId="0" priority="106">
       <formula>LEFT(C10,5)="stair"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="5" priority="331">
+    <cfRule type="expression" dxfId="5" priority="105">
       <formula>LEFT(C10,3)="gem"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="330">
+    <cfRule type="expression" dxfId="4" priority="104">
       <formula>LEFT(C10,6)="potion"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="329">
+    <cfRule type="expression" dxfId="3" priority="103">
       <formula>LEFT(C10,3)="pos"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D10">
-    <cfRule type="cellIs" dxfId="14" priority="356" operator="equal">
-      <formula>"wall_0"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="355" operator="equal">
-      <formula>"wall_2"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="354" operator="equal">
-      <formula>"ground_0"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="353" operator="equal">
-      <formula>"wall_1"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="352" operator="equal">
-      <formula>"door_0"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="351" operator="equal">
-      <formula>"door_2"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="350" operator="equal">
-      <formula>"key_2"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="349" operator="equal">
-      <formula>"key_1"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="6" priority="348">
+    <cfRule type="cellIs" dxfId="14" priority="1762" operator="equal">
+      <formula>"wall_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="1761" operator="equal">
+      <formula>"wall_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="1760" operator="equal">
+      <formula>"ground_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="11" priority="1759" operator="equal">
+      <formula>"wall_1"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="1758" operator="equal">
+      <formula>"door_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="1757" operator="equal">
+      <formula>"door_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="1756" operator="equal">
+      <formula>"key_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="1755" operator="equal">
+      <formula>"key_1"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="1754">
       <formula>OR(LEFT(D10,5)="slime",LEFT(D10,3)="bat",LEFT(D10,8)="skeleton",LEFT(D10,5)="mummy",LEFT(D10,6)="wizard",LEFT(D10,6)="knight")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="347">
+    <cfRule type="expression" dxfId="0" priority="1753">
       <formula>LEFT(D10,5)="stair"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="346">
+    <cfRule type="expression" dxfId="0" priority="1752">
       <formula>LEFT(D10,5)="stair"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="5" priority="345">
+    <cfRule type="expression" dxfId="5" priority="1751">
       <formula>LEFT(D10,3)="gem"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="344">
+    <cfRule type="expression" dxfId="4" priority="1750">
       <formula>LEFT(D10,6)="potion"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="343">
+    <cfRule type="expression" dxfId="3" priority="1749">
       <formula>LEFT(D10,3)="pos"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E10">
-    <cfRule type="cellIs" dxfId="14" priority="286" operator="equal">
-      <formula>"wall_0"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="285" operator="equal">
-      <formula>"wall_2"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="284" operator="equal">
-      <formula>"ground_0"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="283" operator="equal">
-      <formula>"wall_1"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="282" operator="equal">
-      <formula>"door_0"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="281" operator="equal">
-      <formula>"door_2"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="280" operator="equal">
-      <formula>"key_2"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="279" operator="equal">
-      <formula>"key_1"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="6" priority="278">
+    <cfRule type="cellIs" dxfId="14" priority="46" operator="equal">
+      <formula>"wall_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="45" operator="equal">
+      <formula>"wall_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="44" operator="equal">
+      <formula>"ground_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="11" priority="43" operator="equal">
+      <formula>"wall_1"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="42" operator="equal">
+      <formula>"door_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="41" operator="equal">
+      <formula>"door_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="40" operator="equal">
+      <formula>"key_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="39" operator="equal">
+      <formula>"key_1"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="38">
       <formula>OR(LEFT(E10,5)="slime",LEFT(E10,3)="bat",LEFT(E10,8)="skeleton",LEFT(E10,5)="mummy",LEFT(E10,6)="wizard",LEFT(E10,6)="knight")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="277">
+    <cfRule type="expression" dxfId="0" priority="37">
       <formula>LEFT(E10,5)="stair"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="276">
+    <cfRule type="expression" dxfId="0" priority="36">
       <formula>LEFT(E10,5)="stair"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="5" priority="275">
+    <cfRule type="expression" dxfId="5" priority="35">
       <formula>LEFT(E10,3)="gem"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="274">
+    <cfRule type="expression" dxfId="4" priority="34">
       <formula>LEFT(E10,6)="potion"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="273">
+    <cfRule type="expression" dxfId="3" priority="33">
       <formula>LEFT(E10,3)="pos"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G10">
+    <cfRule type="cellIs" dxfId="14" priority="238" operator="equal">
+      <formula>"wall_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="237" operator="equal">
+      <formula>"wall_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="236" operator="equal">
+      <formula>"ground_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="11" priority="235" operator="equal">
+      <formula>"wall_1"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="234" operator="equal">
+      <formula>"door_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="233" operator="equal">
+      <formula>"door_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="232" operator="equal">
+      <formula>"key_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="231" operator="equal">
+      <formula>"key_1"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="230">
+      <formula>OR(LEFT(G10,5)="slime",LEFT(G10,3)="bat",LEFT(G10,8)="skeleton",LEFT(G10,5)="mummy",LEFT(G10,6)="wizard",LEFT(G10,6)="knight")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="229">
+      <formula>LEFT(G10,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="228">
+      <formula>LEFT(G10,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="5" priority="227">
+      <formula>LEFT(G10,3)="gem"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="226">
+      <formula>LEFT(G10,6)="potion"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="225">
+      <formula>LEFT(G10,3)="pos"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I10">
+    <cfRule type="containsText" dxfId="16" priority="300" operator="between" text="black_0">
+      <formula>NOT(ISERROR(SEARCH("black_0",I10)))</formula>
+    </cfRule>
+    <cfRule type="containsText" priority="299" operator="between" text="white_0">
+      <formula>NOT(ISERROR(SEARCH("white_0",I10)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="14" priority="298" operator="equal">
+      <formula>"wall_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="297" operator="equal">
+      <formula>"wall_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="296" operator="equal">
+      <formula>"ground_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="11" priority="295" operator="equal">
+      <formula>"wall_1"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="294" operator="equal">
+      <formula>"door_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="293" operator="equal">
+      <formula>"door_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="292" operator="equal">
+      <formula>"key_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="291" operator="equal">
+      <formula>"key_1"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="290">
+      <formula>OR(LEFT(I10,5)="slime",LEFT(I10,3)="bat",LEFT(I10,8)="skeleton",LEFT(I10,5)="mummy",LEFT(I10,6)="wizard",LEFT(I10,6)="knight")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="289">
+      <formula>LEFT(I10,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="288">
+      <formula>LEFT(I10,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="5" priority="287">
+      <formula>LEFT(I10,3)="gem"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="286">
+      <formula>LEFT(I10,6)="potion"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="285">
+      <formula>LEFT(I10,3)="pos"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K10">
+    <cfRule type="containsText" dxfId="16" priority="380" operator="between" text="black_0">
+      <formula>NOT(ISERROR(SEARCH("black_0",K10)))</formula>
+    </cfRule>
+    <cfRule type="containsText" priority="379" operator="between" text="white_0">
+      <formula>NOT(ISERROR(SEARCH("white_0",K10)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="14" priority="378" operator="equal">
+      <formula>"wall_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="377" operator="equal">
+      <formula>"wall_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="376" operator="equal">
+      <formula>"ground_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="11" priority="375" operator="equal">
+      <formula>"wall_1"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="374" operator="equal">
+      <formula>"door_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="373" operator="equal">
+      <formula>"door_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="372" operator="equal">
+      <formula>"key_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="371" operator="equal">
+      <formula>"key_1"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="370">
+      <formula>OR(LEFT(K10,5)="slime",LEFT(K10,3)="bat",LEFT(K10,8)="skeleton",LEFT(K10,5)="mummy",LEFT(K10,6)="wizard",LEFT(K10,6)="knight")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="369">
+      <formula>LEFT(K10,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="368">
+      <formula>LEFT(K10,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="5" priority="367">
+      <formula>LEFT(K10,3)="gem"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="366">
+      <formula>LEFT(K10,6)="potion"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="365">
+      <formula>LEFT(K10,3)="pos"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M10">
+    <cfRule type="containsText" dxfId="16" priority="460" operator="between" text="black_0">
+      <formula>NOT(ISERROR(SEARCH("black_0",M10)))</formula>
+    </cfRule>
+    <cfRule type="containsText" priority="459" operator="between" text="white_0">
+      <formula>NOT(ISERROR(SEARCH("white_0",M10)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="14" priority="458" operator="equal">
+      <formula>"wall_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="457" operator="equal">
+      <formula>"wall_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="456" operator="equal">
+      <formula>"ground_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="11" priority="455" operator="equal">
+      <formula>"wall_1"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="454" operator="equal">
+      <formula>"door_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="453" operator="equal">
+      <formula>"door_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="452" operator="equal">
+      <formula>"key_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="451" operator="equal">
+      <formula>"key_1"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="450">
+      <formula>OR(LEFT(M10,5)="slime",LEFT(M10,3)="bat",LEFT(M10,8)="skeleton",LEFT(M10,5)="mummy",LEFT(M10,6)="wizard",LEFT(M10,6)="knight")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="449">
+      <formula>LEFT(M10,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="448">
+      <formula>LEFT(M10,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="5" priority="447">
+      <formula>LEFT(M10,3)="gem"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="446">
+      <formula>LEFT(M10,6)="potion"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="445">
+      <formula>LEFT(M10,3)="pos"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A11">
+    <cfRule type="containsText" dxfId="16" priority="164" operator="between" text="black_0">
+      <formula>NOT(ISERROR(SEARCH("black_0",A11)))</formula>
+    </cfRule>
+    <cfRule type="containsText" priority="163" operator="between" text="white_0">
+      <formula>NOT(ISERROR(SEARCH("white_0",A11)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="14" priority="162" operator="equal">
+      <formula>"wall_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="161" operator="equal">
+      <formula>"wall_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="160" operator="equal">
+      <formula>"ground_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="11" priority="159" operator="equal">
+      <formula>"wall_1"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="158" operator="equal">
+      <formula>"door_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="157" operator="equal">
+      <formula>"door_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="156" operator="equal">
+      <formula>"key_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="155" operator="equal">
+      <formula>"key_1"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="154">
+      <formula>OR(LEFT(A11,5)="slime",LEFT(A11,3)="bat",LEFT(A11,8)="skeleton",LEFT(A11,5)="mummy",LEFT(A11,6)="wizard",LEFT(A11,6)="knight")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="153">
+      <formula>LEFT(A11,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="152">
+      <formula>LEFT(A11,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="5" priority="151">
+      <formula>LEFT(A11,3)="gem"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="150">
+      <formula>LEFT(A11,6)="potion"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="149">
+      <formula>LEFT(A11,3)="pos"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B11">
+    <cfRule type="cellIs" dxfId="14" priority="1028" operator="equal">
+      <formula>"wall_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="1027" operator="equal">
+      <formula>"wall_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="1026" operator="equal">
+      <formula>"ground_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="11" priority="1025" operator="equal">
+      <formula>"wall_1"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="1024" operator="equal">
+      <formula>"door_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="1023" operator="equal">
+      <formula>"door_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="1022" operator="equal">
+      <formula>"key_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="1021" operator="equal">
+      <formula>"key_1"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="1020">
+      <formula>OR(LEFT(B11,5)="slime",LEFT(B11,3)="bat",LEFT(B11,8)="skeleton",LEFT(B11,5)="mummy",LEFT(B11,6)="wizard",LEFT(B11,6)="knight")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="1019">
+      <formula>LEFT(B11,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="1018">
+      <formula>LEFT(B11,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="5" priority="1017">
+      <formula>LEFT(B11,3)="gem"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="1016">
+      <formula>LEFT(B11,6)="potion"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1015">
+      <formula>LEFT(B11,3)="pos"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C11">
+    <cfRule type="containsText" dxfId="16" priority="132" operator="between" text="black_0">
+      <formula>NOT(ISERROR(SEARCH("black_0",C11)))</formula>
+    </cfRule>
+    <cfRule type="containsText" priority="131" operator="between" text="white_0">
+      <formula>NOT(ISERROR(SEARCH("white_0",C11)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="14" priority="130" operator="equal">
+      <formula>"wall_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="129" operator="equal">
+      <formula>"wall_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="128" operator="equal">
+      <formula>"ground_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="11" priority="127" operator="equal">
+      <formula>"wall_1"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="126" operator="equal">
+      <formula>"door_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="125" operator="equal">
+      <formula>"door_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="124" operator="equal">
+      <formula>"key_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="123" operator="equal">
+      <formula>"key_1"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="122">
+      <formula>OR(LEFT(C11,5)="slime",LEFT(C11,3)="bat",LEFT(C11,8)="skeleton",LEFT(C11,5)="mummy",LEFT(C11,6)="wizard",LEFT(C11,6)="knight")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="121">
+      <formula>LEFT(C11,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="120">
+      <formula>LEFT(C11,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="5" priority="119">
+      <formula>LEFT(C11,3)="gem"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="118">
+      <formula>LEFT(C11,6)="potion"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="117">
+      <formula>LEFT(C11,3)="pos"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D11">
+    <cfRule type="cellIs" dxfId="14" priority="1014" operator="equal">
+      <formula>"wall_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="1013" operator="equal">
+      <formula>"wall_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="1012" operator="equal">
+      <formula>"ground_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="11" priority="1011" operator="equal">
+      <formula>"wall_1"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="1010" operator="equal">
+      <formula>"door_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="1009" operator="equal">
+      <formula>"door_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="1008" operator="equal">
+      <formula>"key_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="1007" operator="equal">
+      <formula>"key_1"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="1006">
+      <formula>OR(LEFT(D11,5)="slime",LEFT(D11,3)="bat",LEFT(D11,8)="skeleton",LEFT(D11,5)="mummy",LEFT(D11,6)="wizard",LEFT(D11,6)="knight")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="1005">
+      <formula>LEFT(D11,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="1004">
+      <formula>LEFT(D11,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="5" priority="1003">
+      <formula>LEFT(D11,3)="gem"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="1002">
+      <formula>LEFT(D11,6)="potion"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1001">
+      <formula>LEFT(D11,3)="pos"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E11">
+    <cfRule type="containsText" dxfId="16" priority="32" operator="between" text="black_0">
+      <formula>NOT(ISERROR(SEARCH("black_0",E11)))</formula>
+    </cfRule>
+    <cfRule type="containsText" priority="31" operator="between" text="white_0">
+      <formula>NOT(ISERROR(SEARCH("white_0",E11)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="14" priority="30" operator="equal">
+      <formula>"wall_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="29" operator="equal">
+      <formula>"wall_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="28" operator="equal">
+      <formula>"ground_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="11" priority="27" operator="equal">
+      <formula>"wall_1"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="26" operator="equal">
+      <formula>"door_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="25" operator="equal">
+      <formula>"door_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="24" operator="equal">
+      <formula>"key_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="23" operator="equal">
+      <formula>"key_1"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="22">
+      <formula>OR(LEFT(E11,5)="slime",LEFT(E11,3)="bat",LEFT(E11,8)="skeleton",LEFT(E11,5)="mummy",LEFT(E11,6)="wizard",LEFT(E11,6)="knight")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="21">
+      <formula>LEFT(E11,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="20">
+      <formula>LEFT(E11,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="5" priority="19">
+      <formula>LEFT(E11,3)="gem"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="18">
+      <formula>LEFT(E11,6)="potion"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="17">
+      <formula>LEFT(E11,3)="pos"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G11">
+    <cfRule type="containsText" dxfId="16" priority="224" operator="between" text="black_0">
+      <formula>NOT(ISERROR(SEARCH("black_0",G11)))</formula>
+    </cfRule>
+    <cfRule type="containsText" priority="223" operator="between" text="white_0">
+      <formula>NOT(ISERROR(SEARCH("white_0",G11)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="14" priority="222" operator="equal">
+      <formula>"wall_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="221" operator="equal">
+      <formula>"wall_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="220" operator="equal">
+      <formula>"ground_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="11" priority="219" operator="equal">
+      <formula>"wall_1"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="218" operator="equal">
+      <formula>"door_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="217" operator="equal">
+      <formula>"door_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="216" operator="equal">
+      <formula>"key_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="215" operator="equal">
+      <formula>"key_1"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="214">
+      <formula>OR(LEFT(G11,5)="slime",LEFT(G11,3)="bat",LEFT(G11,8)="skeleton",LEFT(G11,5)="mummy",LEFT(G11,6)="wizard",LEFT(G11,6)="knight")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="213">
+      <formula>LEFT(G11,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="212">
+      <formula>LEFT(G11,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="5" priority="211">
+      <formula>LEFT(G11,3)="gem"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="210">
+      <formula>LEFT(G11,6)="potion"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="209">
+      <formula>LEFT(G11,3)="pos"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I11">
+    <cfRule type="containsText" dxfId="16" priority="284" operator="between" text="black_0">
+      <formula>NOT(ISERROR(SEARCH("black_0",I11)))</formula>
+    </cfRule>
+    <cfRule type="containsText" priority="283" operator="between" text="white_0">
+      <formula>NOT(ISERROR(SEARCH("white_0",I11)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="14" priority="282" operator="equal">
+      <formula>"wall_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="281" operator="equal">
+      <formula>"wall_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="280" operator="equal">
+      <formula>"ground_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="11" priority="279" operator="equal">
+      <formula>"wall_1"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="278" operator="equal">
+      <formula>"door_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="277" operator="equal">
+      <formula>"door_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="276" operator="equal">
+      <formula>"key_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="275" operator="equal">
+      <formula>"key_1"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="274">
+      <formula>OR(LEFT(I11,5)="slime",LEFT(I11,3)="bat",LEFT(I11,8)="skeleton",LEFT(I11,5)="mummy",LEFT(I11,6)="wizard",LEFT(I11,6)="knight")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="273">
+      <formula>LEFT(I11,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="272">
+      <formula>LEFT(I11,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="5" priority="271">
+      <formula>LEFT(I11,3)="gem"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="270">
+      <formula>LEFT(I11,6)="potion"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="269">
+      <formula>LEFT(I11,3)="pos"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J11">
+    <cfRule type="cellIs" dxfId="14" priority="1070" operator="equal">
+      <formula>"wall_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="1069" operator="equal">
+      <formula>"wall_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="1068" operator="equal">
+      <formula>"ground_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="11" priority="1067" operator="equal">
+      <formula>"wall_1"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="1066" operator="equal">
+      <formula>"door_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="1065" operator="equal">
+      <formula>"door_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="1064" operator="equal">
+      <formula>"key_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="1063" operator="equal">
+      <formula>"key_1"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="1062">
+      <formula>OR(LEFT(J11,5)="slime",LEFT(J11,3)="bat",LEFT(J11,8)="skeleton",LEFT(J11,5)="mummy",LEFT(J11,6)="wizard",LEFT(J11,6)="knight")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="1061">
+      <formula>LEFT(J11,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="1060">
+      <formula>LEFT(J11,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="5" priority="1059">
+      <formula>LEFT(J11,3)="gem"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="1058">
+      <formula>LEFT(J11,6)="potion"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1057">
+      <formula>LEFT(J11,3)="pos"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K11">
+    <cfRule type="containsText" dxfId="16" priority="396" operator="between" text="black_0">
+      <formula>NOT(ISERROR(SEARCH("black_0",K11)))</formula>
+    </cfRule>
+    <cfRule type="containsText" priority="395" operator="between" text="white_0">
+      <formula>NOT(ISERROR(SEARCH("white_0",K11)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="14" priority="394" operator="equal">
+      <formula>"wall_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="393" operator="equal">
+      <formula>"wall_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="392" operator="equal">
+      <formula>"ground_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="11" priority="391" operator="equal">
+      <formula>"wall_1"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="390" operator="equal">
+      <formula>"door_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="389" operator="equal">
+      <formula>"door_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="388" operator="equal">
+      <formula>"key_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="387" operator="equal">
+      <formula>"key_1"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="386">
+      <formula>OR(LEFT(K11,5)="slime",LEFT(K11,3)="bat",LEFT(K11,8)="skeleton",LEFT(K11,5)="mummy",LEFT(K11,6)="wizard",LEFT(K11,6)="knight")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="385">
+      <formula>LEFT(K11,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="384">
+      <formula>LEFT(K11,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="5" priority="383">
+      <formula>LEFT(K11,3)="gem"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="382">
+      <formula>LEFT(K11,6)="potion"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="381">
+      <formula>LEFT(K11,3)="pos"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L11">
+    <cfRule type="cellIs" dxfId="14" priority="1086" operator="equal">
+      <formula>"wall_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="1085" operator="equal">
+      <formula>"wall_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="1084" operator="equal">
+      <formula>"ground_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="11" priority="1083" operator="equal">
+      <formula>"wall_1"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="1082" operator="equal">
+      <formula>"door_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="1081" operator="equal">
+      <formula>"door_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="1080" operator="equal">
+      <formula>"key_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="1079" operator="equal">
+      <formula>"key_1"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="1078">
+      <formula>OR(LEFT(L11,5)="slime",LEFT(L11,3)="bat",LEFT(L11,8)="skeleton",LEFT(L11,5)="mummy",LEFT(L11,6)="wizard",LEFT(L11,6)="knight")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="1077">
+      <formula>LEFT(L11,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="1076">
+      <formula>LEFT(L11,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="5" priority="1075">
+      <formula>LEFT(L11,3)="gem"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="1074">
+      <formula>LEFT(L11,6)="potion"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1073">
+      <formula>LEFT(L11,3)="pos"</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="16" priority="1072" operator="between" text="black_0">
+      <formula>NOT(ISERROR(SEARCH("black_0",L11)))</formula>
+    </cfRule>
+    <cfRule type="containsText" priority="1071" operator="between" text="white_0">
+      <formula>NOT(ISERROR(SEARCH("white_0",L11)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M11">
+    <cfRule type="containsText" dxfId="16" priority="444" operator="between" text="black_0">
+      <formula>NOT(ISERROR(SEARCH("black_0",M11)))</formula>
+    </cfRule>
+    <cfRule type="containsText" priority="443" operator="between" text="white_0">
+      <formula>NOT(ISERROR(SEARCH("white_0",M11)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="14" priority="442" operator="equal">
+      <formula>"wall_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="441" operator="equal">
+      <formula>"wall_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="440" operator="equal">
+      <formula>"ground_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="11" priority="439" operator="equal">
+      <formula>"wall_1"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="438" operator="equal">
+      <formula>"door_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="437" operator="equal">
+      <formula>"door_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="436" operator="equal">
+      <formula>"key_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="435" operator="equal">
+      <formula>"key_1"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="434">
+      <formula>OR(LEFT(M11,5)="slime",LEFT(M11,3)="bat",LEFT(M11,8)="skeleton",LEFT(M11,5)="mummy",LEFT(M11,6)="wizard",LEFT(M11,6)="knight")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="433">
+      <formula>LEFT(M11,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="432">
+      <formula>LEFT(M11,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="5" priority="431">
+      <formula>LEFT(M11,3)="gem"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="430">
+      <formula>LEFT(M11,6)="potion"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="429">
+      <formula>LEFT(M11,3)="pos"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B12">
+    <cfRule type="containsText" dxfId="16" priority="148" operator="between" text="black_0">
+      <formula>NOT(ISERROR(SEARCH("black_0",B12)))</formula>
+    </cfRule>
+    <cfRule type="containsText" priority="147" operator="between" text="white_0">
+      <formula>NOT(ISERROR(SEARCH("white_0",B12)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="14" priority="146" operator="equal">
+      <formula>"wall_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="145" operator="equal">
+      <formula>"wall_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="144" operator="equal">
+      <formula>"ground_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="11" priority="143" operator="equal">
+      <formula>"wall_1"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="142" operator="equal">
+      <formula>"door_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="141" operator="equal">
+      <formula>"door_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="140" operator="equal">
+      <formula>"key_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="139" operator="equal">
+      <formula>"key_1"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="138">
+      <formula>OR(LEFT(B12,5)="slime",LEFT(B12,3)="bat",LEFT(B12,8)="skeleton",LEFT(B12,5)="mummy",LEFT(B12,6)="wizard",LEFT(B12,6)="knight")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="137">
+      <formula>LEFT(B12,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="136">
+      <formula>LEFT(B12,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="5" priority="135">
+      <formula>LEFT(B12,3)="gem"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="134">
+      <formula>LEFT(B12,6)="potion"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="133">
+      <formula>LEFT(B12,3)="pos"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D12">
+    <cfRule type="containsText" dxfId="16" priority="16" operator="between" text="black_0">
+      <formula>NOT(ISERROR(SEARCH("black_0",D12)))</formula>
+    </cfRule>
+    <cfRule type="containsText" priority="15" operator="between" text="white_0">
+      <formula>NOT(ISERROR(SEARCH("white_0",D12)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="14" priority="14" operator="equal">
+      <formula>"wall_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="13" operator="equal">
+      <formula>"wall_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="12" operator="equal">
+      <formula>"ground_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="11" priority="11" operator="equal">
+      <formula>"wall_1"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="10" operator="equal">
+      <formula>"door_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="9" operator="equal">
+      <formula>"door_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="8" operator="equal">
+      <formula>"key_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="7" operator="equal">
+      <formula>"key_1"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="6">
+      <formula>OR(LEFT(D12,5)="slime",LEFT(D12,3)="bat",LEFT(D12,8)="skeleton",LEFT(D12,5)="mummy",LEFT(D12,6)="wizard",LEFT(D12,6)="knight")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="5">
+      <formula>LEFT(D12,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="4">
+      <formula>LEFT(D12,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="5" priority="3">
+      <formula>LEFT(D12,3)="gem"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="2">
+      <formula>LEFT(D12,6)="potion"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1">
+      <formula>LEFT(D12,3)="pos"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G12">
+    <cfRule type="containsText" dxfId="16" priority="208" operator="between" text="black_0">
+      <formula>NOT(ISERROR(SEARCH("black_0",G12)))</formula>
+    </cfRule>
+    <cfRule type="containsText" priority="207" operator="between" text="white_0">
+      <formula>NOT(ISERROR(SEARCH("white_0",G12)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="14" priority="206" operator="equal">
+      <formula>"wall_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="205" operator="equal">
+      <formula>"wall_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="204" operator="equal">
+      <formula>"ground_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="11" priority="203" operator="equal">
+      <formula>"wall_1"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="202" operator="equal">
+      <formula>"door_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="201" operator="equal">
+      <formula>"door_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="200" operator="equal">
+      <formula>"key_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="199" operator="equal">
+      <formula>"key_1"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="198">
+      <formula>OR(LEFT(G12,5)="slime",LEFT(G12,3)="bat",LEFT(G12,8)="skeleton",LEFT(G12,5)="mummy",LEFT(G12,6)="wizard",LEFT(G12,6)="knight")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="197">
+      <formula>LEFT(G12,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="196">
+      <formula>LEFT(G12,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="5" priority="195">
+      <formula>LEFT(G12,3)="gem"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="194">
+      <formula>LEFT(G12,6)="potion"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="193">
+      <formula>LEFT(G12,3)="pos"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I12">
+    <cfRule type="containsText" dxfId="16" priority="268" operator="between" text="black_0">
+      <formula>NOT(ISERROR(SEARCH("black_0",I12)))</formula>
+    </cfRule>
+    <cfRule type="containsText" priority="267" operator="between" text="white_0">
+      <formula>NOT(ISERROR(SEARCH("white_0",I12)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="14" priority="266" operator="equal">
+      <formula>"wall_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="265" operator="equal">
+      <formula>"wall_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="264" operator="equal">
+      <formula>"ground_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="11" priority="263" operator="equal">
+      <formula>"wall_1"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="262" operator="equal">
+      <formula>"door_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="261" operator="equal">
+      <formula>"door_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="260" operator="equal">
+      <formula>"key_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="259" operator="equal">
+      <formula>"key_1"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="258">
+      <formula>OR(LEFT(I12,5)="slime",LEFT(I12,3)="bat",LEFT(I12,8)="skeleton",LEFT(I12,5)="mummy",LEFT(I12,6)="wizard",LEFT(I12,6)="knight")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="257">
+      <formula>LEFT(I12,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="256">
+      <formula>LEFT(I12,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="5" priority="255">
+      <formula>LEFT(I12,3)="gem"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="254">
+      <formula>LEFT(I12,6)="potion"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="253">
+      <formula>LEFT(I12,3)="pos"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J12">
+    <cfRule type="cellIs" dxfId="14" priority="1216" operator="equal">
+      <formula>"wall_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="1215" operator="equal">
+      <formula>"wall_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="1214" operator="equal">
+      <formula>"ground_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="11" priority="1213" operator="equal">
+      <formula>"wall_1"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="1212" operator="equal">
+      <formula>"door_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="1211" operator="equal">
+      <formula>"door_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="1210" operator="equal">
+      <formula>"key_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="1209" operator="equal">
+      <formula>"key_1"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="1208">
+      <formula>OR(LEFT(J12,5)="slime",LEFT(J12,3)="bat",LEFT(J12,8)="skeleton",LEFT(J12,5)="mummy",LEFT(J12,6)="wizard",LEFT(J12,6)="knight")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="1207">
+      <formula>LEFT(J12,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="1206">
+      <formula>LEFT(J12,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="5" priority="1205">
+      <formula>LEFT(J12,3)="gem"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="1204">
+      <formula>LEFT(J12,6)="potion"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1203">
+      <formula>LEFT(J12,3)="pos"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K12">
+    <cfRule type="cellIs" dxfId="14" priority="1132" operator="equal">
+      <formula>"wall_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="1131" operator="equal">
+      <formula>"wall_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="1130" operator="equal">
+      <formula>"ground_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="11" priority="1129" operator="equal">
+      <formula>"wall_1"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="1128" operator="equal">
+      <formula>"door_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="1127" operator="equal">
+      <formula>"door_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="1126" operator="equal">
+      <formula>"key_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="1125" operator="equal">
+      <formula>"key_1"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="1124">
+      <formula>OR(LEFT(K12,5)="slime",LEFT(K12,3)="bat",LEFT(K12,8)="skeleton",LEFT(K12,5)="mummy",LEFT(K12,6)="wizard",LEFT(K12,6)="knight")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="1123">
+      <formula>LEFT(K12,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="1122">
+      <formula>LEFT(K12,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="5" priority="1121">
+      <formula>LEFT(K12,3)="gem"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="1120">
+      <formula>LEFT(K12,6)="potion"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1119">
+      <formula>LEFT(K12,3)="pos"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L12">
+    <cfRule type="containsText" dxfId="16" priority="412" operator="between" text="black_0">
+      <formula>NOT(ISERROR(SEARCH("black_0",L12)))</formula>
+    </cfRule>
+    <cfRule type="containsText" priority="411" operator="between" text="white_0">
+      <formula>NOT(ISERROR(SEARCH("white_0",L12)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="14" priority="410" operator="equal">
+      <formula>"wall_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="409" operator="equal">
+      <formula>"wall_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="408" operator="equal">
+      <formula>"ground_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="11" priority="407" operator="equal">
+      <formula>"wall_1"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="406" operator="equal">
+      <formula>"door_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="405" operator="equal">
+      <formula>"door_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="404" operator="equal">
+      <formula>"key_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="403" operator="equal">
+      <formula>"key_1"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="402">
+      <formula>OR(LEFT(L12,5)="slime",LEFT(L12,3)="bat",LEFT(L12,8)="skeleton",LEFT(L12,5)="mummy",LEFT(L12,6)="wizard",LEFT(L12,6)="knight")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="401">
+      <formula>LEFT(L12,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="400">
+      <formula>LEFT(L12,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="5" priority="399">
+      <formula>LEFT(L12,3)="gem"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="398">
+      <formula>LEFT(L12,6)="potion"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="397">
+      <formula>LEFT(L12,3)="pos"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M12">
+    <cfRule type="containsText" dxfId="16" priority="428" operator="between" text="black_0">
+      <formula>NOT(ISERROR(SEARCH("black_0",M12)))</formula>
+    </cfRule>
+    <cfRule type="containsText" priority="427" operator="between" text="white_0">
+      <formula>NOT(ISERROR(SEARCH("white_0",M12)))</formula>
+    </cfRule>
     <cfRule type="cellIs" dxfId="14" priority="426" operator="equal">
       <formula>"wall_0"</formula>
     </cfRule>
@@ -5532,1158 +7335,676 @@
       <formula>"key_1"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="6" priority="418">
-      <formula>OR(LEFT(G10,5)="slime",LEFT(G10,3)="bat",LEFT(G10,8)="skeleton",LEFT(G10,5)="mummy",LEFT(G10,6)="wizard",LEFT(G10,6)="knight")</formula>
+      <formula>OR(LEFT(M12,5)="slime",LEFT(M12,3)="bat",LEFT(M12,8)="skeleton",LEFT(M12,5)="mummy",LEFT(M12,6)="wizard",LEFT(M12,6)="knight")</formula>
     </cfRule>
     <cfRule type="expression" dxfId="0" priority="417">
-      <formula>LEFT(G10,5)="stair"</formula>
+      <formula>LEFT(M12,5)="stair"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="0" priority="416">
-      <formula>LEFT(G10,5)="stair"</formula>
+      <formula>LEFT(M12,5)="stair"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="5" priority="415">
-      <formula>LEFT(G10,3)="gem"</formula>
+      <formula>LEFT(M12,3)="gem"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="4" priority="414">
-      <formula>LEFT(G10,6)="potion"</formula>
+      <formula>LEFT(M12,6)="potion"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="3" priority="413">
-      <formula>LEFT(G10,3)="pos"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I10">
-    <cfRule type="cellIs" dxfId="14" priority="258" operator="equal">
-      <formula>"wall_0"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="257" operator="equal">
-      <formula>"wall_2"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="256" operator="equal">
-      <formula>"ground_0"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="255" operator="equal">
-      <formula>"wall_1"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="254" operator="equal">
-      <formula>"door_0"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="253" operator="equal">
-      <formula>"door_2"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="252" operator="equal">
-      <formula>"key_2"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="251" operator="equal">
-      <formula>"key_1"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="6" priority="250">
-      <formula>OR(LEFT(I10,5)="slime",LEFT(I10,3)="bat",LEFT(I10,8)="skeleton",LEFT(I10,5)="mummy",LEFT(I10,6)="wizard",LEFT(I10,6)="knight")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="0" priority="249">
-      <formula>LEFT(I10,5)="stair"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="0" priority="248">
-      <formula>LEFT(I10,5)="stair"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="5" priority="247">
-      <formula>LEFT(I10,3)="gem"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="4" priority="246">
-      <formula>LEFT(I10,6)="potion"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="245">
-      <formula>LEFT(I10,3)="pos"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K10">
-    <cfRule type="cellIs" dxfId="14" priority="90" operator="equal">
-      <formula>"wall_0"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="89" operator="equal">
-      <formula>"wall_2"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="88" operator="equal">
-      <formula>"ground_0"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="87" operator="equal">
-      <formula>"wall_1"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="86" operator="equal">
-      <formula>"door_0"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="85" operator="equal">
-      <formula>"door_2"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="84" operator="equal">
-      <formula>"key_2"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="83" operator="equal">
-      <formula>"key_1"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="6" priority="82">
-      <formula>OR(LEFT(K10,5)="slime",LEFT(K10,3)="bat",LEFT(K10,8)="skeleton",LEFT(K10,5)="mummy",LEFT(K10,6)="wizard",LEFT(K10,6)="knight")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="0" priority="81">
-      <formula>LEFT(K10,5)="stair"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="0" priority="80">
-      <formula>LEFT(K10,5)="stair"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="5" priority="79">
-      <formula>LEFT(K10,3)="gem"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="4" priority="78">
-      <formula>LEFT(K10,6)="potion"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="77">
-      <formula>LEFT(K10,3)="pos"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M10">
-    <cfRule type="cellIs" dxfId="14" priority="398" operator="equal">
-      <formula>"wall_0"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="397" operator="equal">
-      <formula>"wall_2"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="396" operator="equal">
-      <formula>"ground_0"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="395" operator="equal">
-      <formula>"wall_1"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="394" operator="equal">
-      <formula>"door_0"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="393" operator="equal">
-      <formula>"door_2"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="392" operator="equal">
-      <formula>"key_2"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="391" operator="equal">
-      <formula>"key_1"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="6" priority="390">
-      <formula>OR(LEFT(M10,5)="slime",LEFT(M10,3)="bat",LEFT(M10,8)="skeleton",LEFT(M10,5)="mummy",LEFT(M10,6)="wizard",LEFT(M10,6)="knight")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="0" priority="389">
-      <formula>LEFT(M10,5)="stair"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="0" priority="388">
-      <formula>LEFT(M10,5)="stair"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="5" priority="387">
-      <formula>LEFT(M10,3)="gem"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="4" priority="386">
-      <formula>LEFT(M10,6)="potion"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="385">
-      <formula>LEFT(M10,3)="pos"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B11">
-    <cfRule type="cellIs" dxfId="14" priority="328" operator="equal">
-      <formula>"wall_0"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="327" operator="equal">
-      <formula>"wall_2"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="326" operator="equal">
-      <formula>"ground_0"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="325" operator="equal">
-      <formula>"wall_1"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="324" operator="equal">
-      <formula>"door_0"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="323" operator="equal">
-      <formula>"door_2"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="322" operator="equal">
-      <formula>"key_2"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="321" operator="equal">
-      <formula>"key_1"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="6" priority="320">
-      <formula>OR(LEFT(B11,5)="slime",LEFT(B11,3)="bat",LEFT(B11,8)="skeleton",LEFT(B11,5)="mummy",LEFT(B11,6)="wizard",LEFT(B11,6)="knight")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="0" priority="319">
-      <formula>LEFT(B11,5)="stair"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="0" priority="318">
-      <formula>LEFT(B11,5)="stair"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="5" priority="317">
-      <formula>LEFT(B11,3)="gem"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="4" priority="316">
-      <formula>LEFT(B11,6)="potion"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="315">
-      <formula>LEFT(B11,3)="pos"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D11">
-    <cfRule type="cellIs" dxfId="14" priority="300" operator="equal">
-      <formula>"wall_0"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="299" operator="equal">
-      <formula>"wall_2"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="298" operator="equal">
-      <formula>"ground_0"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="297" operator="equal">
-      <formula>"wall_1"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="296" operator="equal">
-      <formula>"door_0"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="295" operator="equal">
-      <formula>"door_2"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="294" operator="equal">
-      <formula>"key_2"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="293" operator="equal">
-      <formula>"key_1"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="6" priority="292">
-      <formula>OR(LEFT(D11,5)="slime",LEFT(D11,3)="bat",LEFT(D11,8)="skeleton",LEFT(D11,5)="mummy",LEFT(D11,6)="wizard",LEFT(D11,6)="knight")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="0" priority="291">
-      <formula>LEFT(D11,5)="stair"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="0" priority="290">
-      <formula>LEFT(D11,5)="stair"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="5" priority="289">
-      <formula>LEFT(D11,3)="gem"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="4" priority="288">
-      <formula>LEFT(D11,6)="potion"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="287">
-      <formula>LEFT(D11,3)="pos"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I11">
-    <cfRule type="cellIs" dxfId="14" priority="244" operator="equal">
-      <formula>"wall_0"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="243" operator="equal">
-      <formula>"wall_2"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="242" operator="equal">
-      <formula>"ground_0"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="241" operator="equal">
-      <formula>"wall_1"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="240" operator="equal">
-      <formula>"door_0"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="239" operator="equal">
-      <formula>"door_2"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="238" operator="equal">
-      <formula>"key_2"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="237" operator="equal">
-      <formula>"key_1"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="6" priority="236">
-      <formula>OR(LEFT(I11,5)="slime",LEFT(I11,3)="bat",LEFT(I11,8)="skeleton",LEFT(I11,5)="mummy",LEFT(I11,6)="wizard",LEFT(I11,6)="knight")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="0" priority="235">
-      <formula>LEFT(I11,5)="stair"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="0" priority="234">
-      <formula>LEFT(I11,5)="stair"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="5" priority="233">
-      <formula>LEFT(I11,3)="gem"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="4" priority="232">
-      <formula>LEFT(I11,6)="potion"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="231">
-      <formula>LEFT(I11,3)="pos"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L11">
-    <cfRule type="containsText" dxfId="17" priority="76" operator="between" text="black_0">
-      <formula>NOT(ISERROR(SEARCH("black_0",L11)))</formula>
-    </cfRule>
-    <cfRule type="containsText" priority="75" operator="between" text="white_0">
-      <formula>NOT(ISERROR(SEARCH("white_0",L11)))</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="74" operator="equal">
-      <formula>"wall_0"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="73" operator="equal">
-      <formula>"wall_2"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="72" operator="equal">
-      <formula>"ground_0"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="71" operator="equal">
-      <formula>"wall_1"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="70" operator="equal">
-      <formula>"door_0"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="69" operator="equal">
-      <formula>"door_2"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="68" operator="equal">
-      <formula>"key_2"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="67" operator="equal">
-      <formula>"key_1"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="6" priority="66">
-      <formula>OR(LEFT(L11,5)="slime",LEFT(L11,3)="bat",LEFT(L11,8)="skeleton",LEFT(L11,5)="mummy",LEFT(L11,6)="wizard",LEFT(L11,6)="knight")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="0" priority="65">
-      <formula>LEFT(L11,5)="stair"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="0" priority="64">
-      <formula>LEFT(L11,5)="stair"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="5" priority="63">
-      <formula>LEFT(L11,3)="gem"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="4" priority="62">
-      <formula>LEFT(L11,6)="potion"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="61">
-      <formula>LEFT(L11,3)="pos"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M11">
-    <cfRule type="cellIs" dxfId="14" priority="412" operator="equal">
-      <formula>"wall_0"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="411" operator="equal">
-      <formula>"wall_2"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="410" operator="equal">
-      <formula>"ground_0"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="409" operator="equal">
-      <formula>"wall_1"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="408" operator="equal">
-      <formula>"door_0"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="407" operator="equal">
-      <formula>"door_2"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="406" operator="equal">
-      <formula>"key_2"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="405" operator="equal">
-      <formula>"key_1"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="6" priority="404">
-      <formula>OR(LEFT(M11,5)="slime",LEFT(M11,3)="bat",LEFT(M11,8)="skeleton",LEFT(M11,5)="mummy",LEFT(M11,6)="wizard",LEFT(M11,6)="knight")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="0" priority="403">
-      <formula>LEFT(M11,5)="stair"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="0" priority="402">
-      <formula>LEFT(M11,5)="stair"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="5" priority="401">
-      <formula>LEFT(M11,3)="gem"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="4" priority="400">
-      <formula>LEFT(M11,6)="potion"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="399">
-      <formula>LEFT(M11,3)="pos"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A12:M12">
-    <cfRule type="containsText" dxfId="16" priority="32" operator="between" text="black_0">
+      <formula>LEFT(M12,3)="pos"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J9:J10">
+    <cfRule type="cellIs" dxfId="14" priority="2540" operator="equal">
+      <formula>"wall_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="2539" operator="equal">
+      <formula>"wall_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="2538" operator="equal">
+      <formula>"ground_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="11" priority="2537" operator="equal">
+      <formula>"wall_1"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="2536" operator="equal">
+      <formula>"door_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="2535" operator="equal">
+      <formula>"door_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="2534" operator="equal">
+      <formula>"key_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="2533" operator="equal">
+      <formula>"key_1"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="2532">
+      <formula>OR(LEFT(J9,5)="slime",LEFT(J9,3)="bat",LEFT(J9,8)="skeleton",LEFT(J9,5)="mummy",LEFT(J9,6)="wizard",LEFT(J9,6)="knight")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="2531">
+      <formula>LEFT(J9,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="2530">
+      <formula>LEFT(J9,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="5" priority="2529">
+      <formula>LEFT(J9,3)="gem"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="2528">
+      <formula>LEFT(J9,6)="potion"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="2527">
+      <formula>LEFT(J9,3)="pos"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L8:L10">
+    <cfRule type="cellIs" dxfId="14" priority="2922" operator="equal">
+      <formula>"wall_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="2921" operator="equal">
+      <formula>"wall_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="2920" operator="equal">
+      <formula>"ground_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="11" priority="2919" operator="equal">
+      <formula>"wall_1"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="2918" operator="equal">
+      <formula>"door_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="2917" operator="equal">
+      <formula>"door_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="2916" operator="equal">
+      <formula>"key_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="2915" operator="equal">
+      <formula>"key_1"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="2914">
+      <formula>OR(LEFT(L8,5)="slime",LEFT(L8,3)="bat",LEFT(L8,8)="skeleton",LEFT(L8,5)="mummy",LEFT(L8,6)="wizard",LEFT(L8,6)="knight")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="2913">
+      <formula>LEFT(L8,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="2912">
+      <formula>LEFT(L8,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="5" priority="2911">
+      <formula>LEFT(L8,3)="gem"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="2910">
+      <formula>LEFT(L8,6)="potion"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="2909">
+      <formula>LEFT(L8,3)="pos"</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="16" priority="2908" operator="between" text="black_0">
+      <formula>NOT(ISERROR(SEARCH("black_0",L8)))</formula>
+    </cfRule>
+    <cfRule type="containsText" priority="2907" operator="between" text="white_0">
+      <formula>NOT(ISERROR(SEARCH("white_0",L8)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M8:M9">
+    <cfRule type="containsText" dxfId="16" priority="1918" operator="between" text="black_0">
+      <formula>NOT(ISERROR(SEARCH("black_0",M8)))</formula>
+    </cfRule>
+    <cfRule type="containsText" priority="1917" operator="between" text="white_0">
+      <formula>NOT(ISERROR(SEARCH("white_0",M8)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1 A3:A6 A13 C3:C4 C13 E3:E6 E13 G1 G13 I1 I3:I6 I13 K1 K3:K5 K13 M1 M3:M6 M13">
+    <cfRule type="expression" dxfId="3" priority="4045">
+      <formula>LEFT(A1,3)="pos"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="4046">
+      <formula>LEFT(A1,6)="potion"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="5" priority="4047">
+      <formula>LEFT(A1,3)="gem"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="4048">
+      <formula>LEFT(A1,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="4049">
+      <formula>LEFT(A1,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="4050">
+      <formula>OR(LEFT(A1,5)="slime",LEFT(A1,3)="bat",LEFT(A1,8)="skeleton",LEFT(A1,5)="mummy",LEFT(A1,6)="wizard",LEFT(A1,6)="knight")</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="4051" operator="equal">
+      <formula>"key_1"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="4052" operator="equal">
+      <formula>"key_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="4053" operator="equal">
+      <formula>"door_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="4054" operator="equal">
+      <formula>"door_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="11" priority="4055" operator="equal">
+      <formula>"wall_1"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="4056" operator="equal">
+      <formula>"ground_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="4057" operator="equal">
+      <formula>"wall_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="14" priority="4058" operator="equal">
+      <formula>"wall_0"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1:M1 A3:A4 C3:C4 E3:E4 I3:I6 K3:K5 M3:M6 G4:G5 A5:B6 D5:E6 A13:M13 A8:H10 K8 J9:J10">
+    <cfRule type="containsText" priority="3875" operator="between" text="white_0">
+      <formula>NOT(ISERROR(SEARCH("white_0",A1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="16" priority="3876" operator="between" text="black_0">
+      <formula>NOT(ISERROR(SEARCH("black_0",A1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B1 D1">
+    <cfRule type="cellIs" dxfId="14" priority="3160" operator="equal">
+      <formula>"wall_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="3159" operator="equal">
+      <formula>"wall_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="3158" operator="equal">
+      <formula>"ground_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="11" priority="3157" operator="equal">
+      <formula>"wall_1"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="3156" operator="equal">
+      <formula>"door_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="3155" operator="equal">
+      <formula>"door_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="3154" operator="equal">
+      <formula>"key_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="3153" operator="equal">
+      <formula>"key_1"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="3152">
+      <formula>OR(LEFT(B1,5)="slime",LEFT(B1,3)="bat",LEFT(B1,8)="skeleton",LEFT(B1,5)="mummy",LEFT(B1,6)="wizard",LEFT(B1,6)="knight")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="3151">
+      <formula>LEFT(B1,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="3150">
+      <formula>LEFT(B1,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="5" priority="3149">
+      <formula>LEFT(B1,3)="gem"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="3148">
+      <formula>LEFT(B1,6)="potion"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="3147">
+      <formula>LEFT(B1,3)="pos"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B13 D13 F1 F8:F10 F13 H1 H8:H10 H13 J1 J13 L1 L13">
+    <cfRule type="cellIs" dxfId="14" priority="3890" operator="equal">
+      <formula>"wall_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="3889" operator="equal">
+      <formula>"wall_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="3888" operator="equal">
+      <formula>"ground_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="11" priority="3887" operator="equal">
+      <formula>"wall_1"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="3886" operator="equal">
+      <formula>"door_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="3885" operator="equal">
+      <formula>"door_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="3884" operator="equal">
+      <formula>"key_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="3883" operator="equal">
+      <formula>"key_1"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="3882">
+      <formula>OR(LEFT(B1,5)="slime",LEFT(B1,3)="bat",LEFT(B1,8)="skeleton",LEFT(B1,5)="mummy",LEFT(B1,6)="wizard",LEFT(B1,6)="knight")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="3881">
+      <formula>LEFT(B1,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="3880">
+      <formula>LEFT(B1,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="5" priority="3879">
+      <formula>LEFT(B1,3)="gem"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="3878">
+      <formula>LEFT(B1,6)="potion"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="3877">
+      <formula>LEFT(B1,3)="pos"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C1 E1">
+    <cfRule type="cellIs" dxfId="14" priority="3146" operator="equal">
+      <formula>"wall_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="3145" operator="equal">
+      <formula>"wall_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="3144" operator="equal">
+      <formula>"ground_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="11" priority="3143" operator="equal">
+      <formula>"wall_1"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="3142" operator="equal">
+      <formula>"door_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="3141" operator="equal">
+      <formula>"door_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="3140" operator="equal">
+      <formula>"key_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="3139" operator="equal">
+      <formula>"key_1"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="3138">
+      <formula>OR(LEFT(C1,5)="slime",LEFT(C1,3)="bat",LEFT(C1,8)="skeleton",LEFT(C1,5)="mummy",LEFT(C1,6)="wizard",LEFT(C1,6)="knight")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="3137">
+      <formula>LEFT(C1,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="3136">
+      <formula>LEFT(C1,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="5" priority="3135">
+      <formula>LEFT(C1,3)="gem"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="3134">
+      <formula>LEFT(C1,6)="potion"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="3133">
+      <formula>LEFT(C1,3)="pos"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A2 C2 E2 I2 K2 M2">
+    <cfRule type="cellIs" dxfId="14" priority="1406" operator="equal">
+      <formula>"wall_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="1405" operator="equal">
+      <formula>"wall_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="1404" operator="equal">
+      <formula>"ground_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="11" priority="1403" operator="equal">
+      <formula>"wall_1"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="1402" operator="equal">
+      <formula>"door_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="1401" operator="equal">
+      <formula>"door_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="1400" operator="equal">
+      <formula>"key_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="1399" operator="equal">
+      <formula>"key_1"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="1398">
+      <formula>OR(LEFT(A2,5)="slime",LEFT(A2,3)="bat",LEFT(A2,8)="skeleton",LEFT(A2,5)="mummy",LEFT(A2,6)="wizard",LEFT(A2,6)="knight")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="1397">
+      <formula>LEFT(A2,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="1396">
+      <formula>LEFT(A2,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="5" priority="1395">
+      <formula>LEFT(A2,3)="gem"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="1394">
+      <formula>LEFT(A2,6)="potion"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1393">
+      <formula>LEFT(A2,3)="pos"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B6 D6">
+    <cfRule type="cellIs" dxfId="14" priority="2184" operator="equal">
+      <formula>"wall_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="2183" operator="equal">
+      <formula>"wall_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="2182" operator="equal">
+      <formula>"ground_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="11" priority="2181" operator="equal">
+      <formula>"wall_1"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="2180" operator="equal">
+      <formula>"door_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="2179" operator="equal">
+      <formula>"door_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="2178" operator="equal">
+      <formula>"key_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="2177" operator="equal">
+      <formula>"key_1"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="2176">
+      <formula>OR(LEFT(B6,5)="slime",LEFT(B6,3)="bat",LEFT(B6,8)="skeleton",LEFT(B6,5)="mummy",LEFT(B6,6)="wizard",LEFT(B6,6)="knight")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="2175">
+      <formula>LEFT(B6,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="2174">
+      <formula>LEFT(B6,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="5" priority="2173">
+      <formula>LEFT(B6,3)="gem"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="2172">
+      <formula>LEFT(B6,6)="potion"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="2171">
+      <formula>LEFT(B6,3)="pos"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A7 C7 E7 G7 I7 K7 M7">
+    <cfRule type="cellIs" dxfId="14" priority="2356" operator="equal">
+      <formula>"wall_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="2355" operator="equal">
+      <formula>"wall_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="2354" operator="equal">
+      <formula>"ground_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="11" priority="2353" operator="equal">
+      <formula>"wall_1"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="2352" operator="equal">
+      <formula>"door_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="2351" operator="equal">
+      <formula>"door_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="2350" operator="equal">
+      <formula>"key_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="2349" operator="equal">
+      <formula>"key_1"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="2348">
+      <formula>OR(LEFT(A7,5)="slime",LEFT(A7,3)="bat",LEFT(A7,8)="skeleton",LEFT(A7,5)="mummy",LEFT(A7,6)="wizard",LEFT(A7,6)="knight")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="2347">
+      <formula>LEFT(A7,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="2346">
+      <formula>LEFT(A7,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="5" priority="2345">
+      <formula>LEFT(A7,3)="gem"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="2344">
+      <formula>LEFT(A7,6)="potion"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="2343">
+      <formula>LEFT(A7,3)="pos"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B7 D7 F7 H7 J7 L7">
+    <cfRule type="cellIs" dxfId="14" priority="2342" operator="equal">
+      <formula>"wall_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="2341" operator="equal">
+      <formula>"wall_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="2340" operator="equal">
+      <formula>"ground_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="11" priority="2339" operator="equal">
+      <formula>"wall_1"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="2338" operator="equal">
+      <formula>"door_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="2337" operator="equal">
+      <formula>"door_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="2336" operator="equal">
+      <formula>"key_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="2335" operator="equal">
+      <formula>"key_1"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="2334">
+      <formula>OR(LEFT(B7,5)="slime",LEFT(B7,3)="bat",LEFT(B7,8)="skeleton",LEFT(B7,5)="mummy",LEFT(B7,6)="wizard",LEFT(B7,6)="knight")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="2333">
+      <formula>LEFT(B7,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="2332">
+      <formula>LEFT(B7,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="5" priority="2331">
+      <formula>LEFT(B7,3)="gem"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="2330">
+      <formula>LEFT(B7,6)="potion"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="2329">
+      <formula>LEFT(B7,3)="pos"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B8:B9 D8:D9">
+    <cfRule type="cellIs" dxfId="14" priority="1902" operator="equal">
+      <formula>"wall_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="1901" operator="equal">
+      <formula>"wall_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="1900" operator="equal">
+      <formula>"ground_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="11" priority="1899" operator="equal">
+      <formula>"wall_1"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="1898" operator="equal">
+      <formula>"door_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="1897" operator="equal">
+      <formula>"door_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="1896" operator="equal">
+      <formula>"key_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="1895" operator="equal">
+      <formula>"key_1"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="1894">
+      <formula>OR(LEFT(B8,5)="slime",LEFT(B8,3)="bat",LEFT(B8,8)="skeleton",LEFT(B8,5)="mummy",LEFT(B8,6)="wizard",LEFT(B8,6)="knight")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="1893">
+      <formula>LEFT(B8,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="1892">
+      <formula>LEFT(B8,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="5" priority="1891">
+      <formula>LEFT(B8,3)="gem"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="1890">
+      <formula>LEFT(B8,6)="potion"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1889">
+      <formula>LEFT(B8,3)="pos"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B11 D11 F11 H11 J11">
+    <cfRule type="containsText" dxfId="16" priority="1088" operator="between" text="black_0">
+      <formula>NOT(ISERROR(SEARCH("black_0",B11)))</formula>
+    </cfRule>
+    <cfRule type="containsText" priority="1087" operator="between" text="white_0">
+      <formula>NOT(ISERROR(SEARCH("white_0",B11)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F11 H11">
+    <cfRule type="cellIs" dxfId="14" priority="1102" operator="equal">
+      <formula>"wall_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="1101" operator="equal">
+      <formula>"wall_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="1100" operator="equal">
+      <formula>"ground_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="11" priority="1099" operator="equal">
+      <formula>"wall_1"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="1098" operator="equal">
+      <formula>"door_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="1097" operator="equal">
+      <formula>"door_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="1096" operator="equal">
+      <formula>"key_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="1095" operator="equal">
+      <formula>"key_1"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="1094">
+      <formula>OR(LEFT(F11,5)="slime",LEFT(F11,3)="bat",LEFT(F11,8)="skeleton",LEFT(F11,5)="mummy",LEFT(F11,6)="wizard",LEFT(F11,6)="knight")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="1093">
+      <formula>LEFT(F11,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="1092">
+      <formula>LEFT(F11,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="5" priority="1091">
+      <formula>LEFT(F11,3)="gem"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="1090">
+      <formula>LEFT(F11,6)="potion"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1089">
+      <formula>LEFT(F11,3)="pos"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A12 C12 E12">
+    <cfRule type="cellIs" dxfId="14" priority="1202" operator="equal">
+      <formula>"wall_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="1201" operator="equal">
+      <formula>"wall_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="1200" operator="equal">
+      <formula>"ground_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="11" priority="1199" operator="equal">
+      <formula>"wall_1"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="1198" operator="equal">
+      <formula>"door_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="1197" operator="equal">
+      <formula>"door_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="1196" operator="equal">
+      <formula>"key_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="1195" operator="equal">
+      <formula>"key_1"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="1194">
+      <formula>OR(LEFT(A12,5)="slime",LEFT(A12,3)="bat",LEFT(A12,8)="skeleton",LEFT(A12,5)="mummy",LEFT(A12,6)="wizard",LEFT(A12,6)="knight")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="1193">
+      <formula>LEFT(A12,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="1192">
+      <formula>LEFT(A12,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="5" priority="1191">
+      <formula>LEFT(A12,3)="gem"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="1190">
+      <formula>LEFT(A12,6)="potion"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1189">
+      <formula>LEFT(A12,3)="pos"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A12 C12 E12:F12 H12 J12:K12">
+    <cfRule type="containsText" dxfId="16" priority="1234" operator="between" text="black_0">
       <formula>NOT(ISERROR(SEARCH("black_0",A12)))</formula>
     </cfRule>
-    <cfRule type="containsText" priority="31" operator="between" text="white_0">
+    <cfRule type="containsText" priority="1233" operator="between" text="white_0">
       <formula>NOT(ISERROR(SEARCH("white_0",A12)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J8:J11">
-    <cfRule type="cellIs" dxfId="14" priority="1134" operator="equal">
-      <formula>"wall_0"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="1133" operator="equal">
-      <formula>"wall_2"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="1132" operator="equal">
-      <formula>"ground_0"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="1131" operator="equal">
-      <formula>"wall_1"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="1130" operator="equal">
-      <formula>"door_0"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="1129" operator="equal">
-      <formula>"door_2"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="1128" operator="equal">
-      <formula>"key_2"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="1127" operator="equal">
-      <formula>"key_1"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="6" priority="1126">
-      <formula>OR(LEFT(J8,5)="slime",LEFT(J8,3)="bat",LEFT(J8,8)="skeleton",LEFT(J8,5)="mummy",LEFT(J8,6)="wizard",LEFT(J8,6)="knight")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="0" priority="1125">
-      <formula>LEFT(J8,5)="stair"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="0" priority="1124">
-      <formula>LEFT(J8,5)="stair"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="5" priority="1123">
-      <formula>LEFT(J8,3)="gem"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="4" priority="1122">
-      <formula>LEFT(J8,6)="potion"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="1121">
-      <formula>LEFT(J8,3)="pos"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L8:L11">
-    <cfRule type="cellIs" dxfId="14" priority="1516" operator="equal">
-      <formula>"wall_0"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="1515" operator="equal">
-      <formula>"wall_2"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="1514" operator="equal">
-      <formula>"ground_0"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="1513" operator="equal">
-      <formula>"wall_1"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="1512" operator="equal">
-      <formula>"door_0"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="1511" operator="equal">
-      <formula>"door_2"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="1510" operator="equal">
-      <formula>"key_2"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="1509" operator="equal">
-      <formula>"key_1"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="6" priority="1508">
-      <formula>OR(LEFT(L8,5)="slime",LEFT(L8,3)="bat",LEFT(L8,8)="skeleton",LEFT(L8,5)="mummy",LEFT(L8,6)="wizard",LEFT(L8,6)="knight")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="0" priority="1507">
-      <formula>LEFT(L8,5)="stair"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="0" priority="1506">
-      <formula>LEFT(L8,5)="stair"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="5" priority="1505">
-      <formula>LEFT(L8,3)="gem"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="4" priority="1504">
-      <formula>LEFT(L8,6)="potion"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="1503">
-      <formula>LEFT(L8,3)="pos"</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="16" priority="1502" operator="between" text="black_0">
-      <formula>NOT(ISERROR(SEARCH("black_0",L8)))</formula>
-    </cfRule>
-    <cfRule type="containsText" priority="1501" operator="between" text="white_0">
-      <formula>NOT(ISERROR(SEARCH("white_0",L8)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M8:M9">
-    <cfRule type="containsText" dxfId="17" priority="512" operator="between" text="black_0">
-      <formula>NOT(ISERROR(SEARCH("black_0",M8)))</formula>
-    </cfRule>
-    <cfRule type="containsText" priority="511" operator="between" text="white_0">
-      <formula>NOT(ISERROR(SEARCH("white_0",M8)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A1 A3:A6 A13 C3:C6 C13 E3:E6 E13 G1 G13 I1 I3:I6 I13 K1 K3:K6 K13 M1 M3:M6 M13">
-    <cfRule type="expression" dxfId="3" priority="2639">
-      <formula>LEFT(A1,3)="pos"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="4" priority="2640">
-      <formula>LEFT(A1,6)="potion"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="5" priority="2641">
-      <formula>LEFT(A1,3)="gem"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="0" priority="2642">
-      <formula>LEFT(A1,5)="stair"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="0" priority="2643">
-      <formula>LEFT(A1,5)="stair"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="6" priority="2644">
-      <formula>OR(LEFT(A1,5)="slime",LEFT(A1,3)="bat",LEFT(A1,8)="skeleton",LEFT(A1,5)="mummy",LEFT(A1,6)="wizard",LEFT(A1,6)="knight")</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="2645" operator="equal">
-      <formula>"key_1"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="2646" operator="equal">
-      <formula>"key_2"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="2647" operator="equal">
-      <formula>"door_2"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="2648" operator="equal">
-      <formula>"door_0"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="2649" operator="equal">
-      <formula>"wall_1"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="2650" operator="equal">
-      <formula>"ground_0"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="2651" operator="equal">
-      <formula>"wall_2"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="2652" operator="equal">
-      <formula>"wall_0"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A1:M1 A3:M6 A13:M13 A8:K11">
-    <cfRule type="containsText" priority="2469" operator="between" text="white_0">
-      <formula>NOT(ISERROR(SEARCH("white_0",A1)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="16" priority="2470" operator="between" text="black_0">
-      <formula>NOT(ISERROR(SEARCH("black_0",A1)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B1 D1">
-    <cfRule type="cellIs" dxfId="14" priority="1754" operator="equal">
-      <formula>"wall_0"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="1753" operator="equal">
-      <formula>"wall_2"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="1752" operator="equal">
-      <formula>"ground_0"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="1751" operator="equal">
-      <formula>"wall_1"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="1750" operator="equal">
-      <formula>"door_0"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="1749" operator="equal">
-      <formula>"door_2"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="1748" operator="equal">
-      <formula>"key_2"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="1747" operator="equal">
-      <formula>"key_1"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="6" priority="1746">
-      <formula>OR(LEFT(B1,5)="slime",LEFT(B1,3)="bat",LEFT(B1,8)="skeleton",LEFT(B1,5)="mummy",LEFT(B1,6)="wizard",LEFT(B1,6)="knight")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="0" priority="1745">
-      <formula>LEFT(B1,5)="stair"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="0" priority="1744">
-      <formula>LEFT(B1,5)="stair"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="5" priority="1743">
-      <formula>LEFT(B1,3)="gem"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="4" priority="1742">
-      <formula>LEFT(B1,6)="potion"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="1741">
-      <formula>LEFT(B1,3)="pos"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B13 D13 F1 F8:F11 F13 H1 H8:H11 H13 J1 J13 L1 L13">
-    <cfRule type="cellIs" dxfId="14" priority="2484" operator="equal">
-      <formula>"wall_0"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="2483" operator="equal">
-      <formula>"wall_2"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="2482" operator="equal">
-      <formula>"ground_0"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="2481" operator="equal">
-      <formula>"wall_1"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="2480" operator="equal">
-      <formula>"door_0"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="2479" operator="equal">
-      <formula>"door_2"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="2478" operator="equal">
-      <formula>"key_2"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="2477" operator="equal">
-      <formula>"key_1"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="6" priority="2476">
-      <formula>OR(LEFT(B1,5)="slime",LEFT(B1,3)="bat",LEFT(B1,8)="skeleton",LEFT(B1,5)="mummy",LEFT(B1,6)="wizard",LEFT(B1,6)="knight")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="0" priority="2475">
-      <formula>LEFT(B1,5)="stair"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="0" priority="2474">
-      <formula>LEFT(B1,5)="stair"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="5" priority="2473">
-      <formula>LEFT(B1,3)="gem"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="4" priority="2472">
-      <formula>LEFT(B1,6)="potion"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="2471">
-      <formula>LEFT(B1,3)="pos"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C1 E1">
-    <cfRule type="cellIs" dxfId="14" priority="1740" operator="equal">
-      <formula>"wall_0"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="1739" operator="equal">
-      <formula>"wall_2"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="1738" operator="equal">
-      <formula>"ground_0"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="1737" operator="equal">
-      <formula>"wall_1"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="1736" operator="equal">
-      <formula>"door_0"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="1735" operator="equal">
-      <formula>"door_2"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="1734" operator="equal">
-      <formula>"key_2"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="1733" operator="equal">
-      <formula>"key_1"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="6" priority="1732">
-      <formula>OR(LEFT(C1,5)="slime",LEFT(C1,3)="bat",LEFT(C1,8)="skeleton",LEFT(C1,5)="mummy",LEFT(C1,6)="wizard",LEFT(C1,6)="knight")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="0" priority="1731">
-      <formula>LEFT(C1,5)="stair"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="0" priority="1730">
-      <formula>LEFT(C1,5)="stair"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="5" priority="1729">
-      <formula>LEFT(C1,3)="gem"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="4" priority="1728">
-      <formula>LEFT(C1,6)="potion"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="1727">
-      <formula>LEFT(C1,3)="pos"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A2 C2 E2 G2 I2 K2 M2">
-    <cfRule type="cellIs" dxfId="14" priority="30" operator="equal">
-      <formula>"wall_0"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="29" operator="equal">
-      <formula>"wall_2"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="28" operator="equal">
-      <formula>"ground_0"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="27" operator="equal">
-      <formula>"wall_1"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="26" operator="equal">
-      <formula>"door_0"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="25" operator="equal">
-      <formula>"door_2"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="24" operator="equal">
-      <formula>"key_2"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="23" operator="equal">
-      <formula>"key_1"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="6" priority="22">
-      <formula>OR(LEFT(A2,5)="slime",LEFT(A2,3)="bat",LEFT(A2,8)="skeleton",LEFT(A2,5)="mummy",LEFT(A2,6)="wizard",LEFT(A2,6)="knight")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="0" priority="21">
-      <formula>LEFT(A2,5)="stair"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="0" priority="20">
-      <formula>LEFT(A2,5)="stair"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="5" priority="19">
-      <formula>LEFT(A2,3)="gem"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="4" priority="18">
-      <formula>LEFT(A2,6)="potion"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="17">
-      <formula>LEFT(A2,3)="pos"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B2 D2 F2 H2 J2 L2">
-    <cfRule type="cellIs" dxfId="14" priority="16" operator="equal">
-      <formula>"wall_0"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="15" operator="equal">
-      <formula>"wall_2"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="14" operator="equal">
-      <formula>"ground_0"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="13" operator="equal">
-      <formula>"wall_1"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="12" operator="equal">
-      <formula>"door_0"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="11" operator="equal">
-      <formula>"door_2"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="10" operator="equal">
-      <formula>"key_2"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="9" operator="equal">
-      <formula>"key_1"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="6" priority="8">
-      <formula>OR(LEFT(B2,5)="slime",LEFT(B2,3)="bat",LEFT(B2,8)="skeleton",LEFT(B2,5)="mummy",LEFT(B2,6)="wizard",LEFT(B2,6)="knight")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="0" priority="7">
-      <formula>LEFT(B2,5)="stair"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="0" priority="6">
-      <formula>LEFT(B2,5)="stair"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="5" priority="5">
-      <formula>LEFT(B2,3)="gem"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="4" priority="4">
-      <formula>LEFT(B2,6)="potion"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="3">
-      <formula>LEFT(B2,3)="pos"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B4 B6 D4 D6">
-    <cfRule type="cellIs" dxfId="14" priority="778" operator="equal">
-      <formula>"wall_0"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="777" operator="equal">
-      <formula>"wall_2"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="776" operator="equal">
-      <formula>"ground_0"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="775" operator="equal">
-      <formula>"wall_1"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="774" operator="equal">
-      <formula>"door_0"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="773" operator="equal">
-      <formula>"door_2"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="772" operator="equal">
-      <formula>"key_2"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="771" operator="equal">
-      <formula>"key_1"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="6" priority="770">
-      <formula>OR(LEFT(B4,5)="slime",LEFT(B4,3)="bat",LEFT(B4,8)="skeleton",LEFT(B4,5)="mummy",LEFT(B4,6)="wizard",LEFT(B4,6)="knight")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="0" priority="769">
-      <formula>LEFT(B4,5)="stair"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="0" priority="768">
-      <formula>LEFT(B4,5)="stair"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="5" priority="767">
-      <formula>LEFT(B4,3)="gem"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="4" priority="766">
-      <formula>LEFT(B4,6)="potion"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="765">
-      <formula>LEFT(B4,3)="pos"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F4:F5 H5">
-    <cfRule type="cellIs" dxfId="14" priority="876" operator="equal">
-      <formula>"wall_0"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="875" operator="equal">
-      <formula>"wall_2"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="874" operator="equal">
-      <formula>"ground_0"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="873" operator="equal">
-      <formula>"wall_1"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="872" operator="equal">
-      <formula>"door_0"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="871" operator="equal">
-      <formula>"door_2"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="870" operator="equal">
-      <formula>"key_2"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="869" operator="equal">
-      <formula>"key_1"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="6" priority="868">
-      <formula>OR(LEFT(F4,5)="slime",LEFT(F4,3)="bat",LEFT(F4,8)="skeleton",LEFT(F4,5)="mummy",LEFT(F4,6)="wizard",LEFT(F4,6)="knight")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="0" priority="867">
-      <formula>LEFT(F4,5)="stair"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="0" priority="866">
-      <formula>LEFT(F4,5)="stair"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="5" priority="865">
-      <formula>LEFT(F4,3)="gem"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="4" priority="864">
-      <formula>LEFT(F4,6)="potion"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="863">
-      <formula>LEFT(F4,3)="pos"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A7 C7 E7 G7 I7 K7 M7">
-    <cfRule type="cellIs" dxfId="14" priority="950" operator="equal">
-      <formula>"wall_0"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="949" operator="equal">
-      <formula>"wall_2"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="948" operator="equal">
-      <formula>"ground_0"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="947" operator="equal">
-      <formula>"wall_1"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="946" operator="equal">
-      <formula>"door_0"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="945" operator="equal">
-      <formula>"door_2"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="944" operator="equal">
-      <formula>"key_2"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="943" operator="equal">
-      <formula>"key_1"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="6" priority="942">
-      <formula>OR(LEFT(A7,5)="slime",LEFT(A7,3)="bat",LEFT(A7,8)="skeleton",LEFT(A7,5)="mummy",LEFT(A7,6)="wizard",LEFT(A7,6)="knight")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="0" priority="941">
-      <formula>LEFT(A7,5)="stair"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="0" priority="940">
-      <formula>LEFT(A7,5)="stair"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="5" priority="939">
-      <formula>LEFT(A7,3)="gem"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="4" priority="938">
-      <formula>LEFT(A7,6)="potion"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="937">
-      <formula>LEFT(A7,3)="pos"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B7 D7 F7 H7 J7 L7">
-    <cfRule type="cellIs" dxfId="14" priority="936" operator="equal">
-      <formula>"wall_0"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="935" operator="equal">
-      <formula>"wall_2"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="934" operator="equal">
-      <formula>"ground_0"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="933" operator="equal">
-      <formula>"wall_1"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="932" operator="equal">
-      <formula>"door_0"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="931" operator="equal">
-      <formula>"door_2"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="930" operator="equal">
-      <formula>"key_2"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="929" operator="equal">
-      <formula>"key_1"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="6" priority="928">
-      <formula>OR(LEFT(B7,5)="slime",LEFT(B7,3)="bat",LEFT(B7,8)="skeleton",LEFT(B7,5)="mummy",LEFT(B7,6)="wizard",LEFT(B7,6)="knight")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="0" priority="927">
-      <formula>LEFT(B7,5)="stair"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="0" priority="926">
-      <formula>LEFT(B7,5)="stair"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="5" priority="925">
-      <formula>LEFT(B7,3)="gem"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="4" priority="924">
-      <formula>LEFT(B7,6)="potion"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="923">
-      <formula>LEFT(B7,3)="pos"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B8:B9 D8:D9">
-    <cfRule type="cellIs" dxfId="14" priority="496" operator="equal">
-      <formula>"wall_0"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="495" operator="equal">
-      <formula>"wall_2"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="494" operator="equal">
-      <formula>"ground_0"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="493" operator="equal">
-      <formula>"wall_1"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="492" operator="equal">
-      <formula>"door_0"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="491" operator="equal">
-      <formula>"door_2"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="490" operator="equal">
-      <formula>"key_2"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="489" operator="equal">
-      <formula>"key_1"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="6" priority="488">
-      <formula>OR(LEFT(B8,5)="slime",LEFT(B8,3)="bat",LEFT(B8,8)="skeleton",LEFT(B8,5)="mummy",LEFT(B8,6)="wizard",LEFT(B8,6)="knight")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="0" priority="487">
-      <formula>LEFT(B8,5)="stair"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="0" priority="486">
-      <formula>LEFT(B8,5)="stair"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="5" priority="485">
-      <formula>LEFT(B8,3)="gem"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="4" priority="484">
-      <formula>LEFT(B8,6)="potion"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="483">
-      <formula>LEFT(B8,3)="pos"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K8 K11">
-    <cfRule type="cellIs" dxfId="14" priority="146" operator="equal">
-      <formula>"wall_0"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="145" operator="equal">
-      <formula>"wall_2"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="144" operator="equal">
-      <formula>"ground_0"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="143" operator="equal">
-      <formula>"wall_1"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="142" operator="equal">
-      <formula>"door_0"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="141" operator="equal">
-      <formula>"door_2"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="140" operator="equal">
-      <formula>"key_2"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="139" operator="equal">
-      <formula>"key_1"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="6" priority="138">
-      <formula>OR(LEFT(K8,5)="slime",LEFT(K8,3)="bat",LEFT(K8,8)="skeleton",LEFT(K8,5)="mummy",LEFT(K8,6)="wizard",LEFT(K8,6)="knight")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="0" priority="137">
-      <formula>LEFT(K8,5)="stair"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="0" priority="136">
-      <formula>LEFT(K8,5)="stair"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="5" priority="135">
-      <formula>LEFT(K8,3)="gem"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="4" priority="134">
-      <formula>LEFT(K8,6)="potion"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="133">
-      <formula>LEFT(K8,3)="pos"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A11 C11 E11 G11">
-    <cfRule type="cellIs" dxfId="14" priority="510" operator="equal">
-      <formula>"wall_0"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="509" operator="equal">
-      <formula>"wall_2"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="508" operator="equal">
-      <formula>"ground_0"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="507" operator="equal">
-      <formula>"wall_1"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="506" operator="equal">
-      <formula>"door_0"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="505" operator="equal">
-      <formula>"door_2"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="504" operator="equal">
-      <formula>"key_2"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="503" operator="equal">
-      <formula>"key_1"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="6" priority="502">
-      <formula>OR(LEFT(A11,5)="slime",LEFT(A11,3)="bat",LEFT(A11,8)="skeleton",LEFT(A11,5)="mummy",LEFT(A11,6)="wizard",LEFT(A11,6)="knight")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="0" priority="501">
-      <formula>LEFT(A11,5)="stair"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="0" priority="500">
-      <formula>LEFT(A11,5)="stair"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="5" priority="499">
-      <formula>LEFT(A11,3)="gem"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="4" priority="498">
-      <formula>LEFT(A11,6)="potion"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="497">
-      <formula>LEFT(A11,3)="pos"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A12 C12 E12 G12 I12 K12 M12">
-    <cfRule type="cellIs" dxfId="14" priority="60" operator="equal">
-      <formula>"wall_0"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="59" operator="equal">
-      <formula>"wall_2"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="58" operator="equal">
-      <formula>"ground_0"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="57" operator="equal">
-      <formula>"wall_1"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="56" operator="equal">
-      <formula>"door_0"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="55" operator="equal">
-      <formula>"door_2"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="54" operator="equal">
-      <formula>"key_2"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="53" operator="equal">
-      <formula>"key_1"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="6" priority="52">
-      <formula>OR(LEFT(A12,5)="slime",LEFT(A12,3)="bat",LEFT(A12,8)="skeleton",LEFT(A12,5)="mummy",LEFT(A12,6)="wizard",LEFT(A12,6)="knight")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="0" priority="51">
-      <formula>LEFT(A12,5)="stair"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="0" priority="50">
-      <formula>LEFT(A12,5)="stair"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="5" priority="49">
-      <formula>LEFT(A12,3)="gem"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="4" priority="48">
-      <formula>LEFT(A12,6)="potion"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="47">
-      <formula>LEFT(A12,3)="pos"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B12 D12 F12 H12 J12 L12">
-    <cfRule type="cellIs" dxfId="14" priority="46" operator="equal">
-      <formula>"wall_0"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="45" operator="equal">
-      <formula>"wall_2"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="44" operator="equal">
-      <formula>"ground_0"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="43" operator="equal">
-      <formula>"wall_1"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="42" operator="equal">
-      <formula>"door_0"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="41" operator="equal">
-      <formula>"door_2"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="40" operator="equal">
-      <formula>"key_2"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="39" operator="equal">
-      <formula>"key_1"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="6" priority="38">
-      <formula>OR(LEFT(B12,5)="slime",LEFT(B12,3)="bat",LEFT(B12,8)="skeleton",LEFT(B12,5)="mummy",LEFT(B12,6)="wizard",LEFT(B12,6)="knight")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="0" priority="37">
-      <formula>LEFT(B12,5)="stair"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="0" priority="36">
-      <formula>LEFT(B12,5)="stair"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="5" priority="35">
-      <formula>LEFT(B12,3)="gem"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="4" priority="34">
-      <formula>LEFT(B12,6)="potion"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="33">
-      <formula>LEFT(B12,3)="pos"</formula>
+  <conditionalFormatting sqref="F12 H12">
+    <cfRule type="cellIs" dxfId="14" priority="1248" operator="equal">
+      <formula>"wall_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="1247" operator="equal">
+      <formula>"wall_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="1246" operator="equal">
+      <formula>"ground_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="11" priority="1245" operator="equal">
+      <formula>"wall_1"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="1244" operator="equal">
+      <formula>"door_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="1243" operator="equal">
+      <formula>"door_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="1242" operator="equal">
+      <formula>"key_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="1241" operator="equal">
+      <formula>"key_1"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="1240">
+      <formula>OR(LEFT(F12,5)="slime",LEFT(F12,3)="bat",LEFT(F12,8)="skeleton",LEFT(F12,5)="mummy",LEFT(F12,6)="wizard",LEFT(F12,6)="knight")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="1239">
+      <formula>LEFT(F12,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="1238">
+      <formula>LEFT(F12,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="5" priority="1237">
+      <formula>LEFT(F12,3)="gem"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="1236">
+      <formula>LEFT(F12,6)="potion"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1235">
+      <formula>LEFT(F12,3)="pos"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/resources/map_editor.xlsx
+++ b/resources/map_editor.xlsx
@@ -4,12 +4,14 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24750" windowHeight="10400" activeTab="2"/>
+    <workbookView windowWidth="24750" windowHeight="10400" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="1f" sheetId="1" r:id="rId1"/>
     <sheet name="2f" sheetId="2" r:id="rId2"/>
-    <sheet name="End" sheetId="4" r:id="rId3"/>
+    <sheet name="3f" sheetId="6" r:id="rId3"/>
+    <sheet name="4f" sheetId="7" r:id="rId4"/>
+    <sheet name="End" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -29,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="507" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="845" uniqueCount="31">
   <si>
     <t>wall_2</t>
   </si>
@@ -107,6 +109,18 @@
   </si>
   <si>
     <t>door_1</t>
+  </si>
+  <si>
+    <t>slime_1</t>
+  </si>
+  <si>
+    <t>gem_3</t>
+  </si>
+  <si>
+    <t>door_3</t>
+  </si>
+  <si>
+    <t>key_3</t>
   </si>
   <si>
     <t>black_0</t>
@@ -795,7 +809,7 @@
     <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="17">
+  <dxfs count="18">
     <dxf>
       <font>
         <color theme="0"/>
@@ -943,6 +957,13 @@
         <color rgb="FFFF0000"/>
       </font>
       <numFmt numFmtId="49" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="5" tint="-0.25"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
@@ -1231,8 +1252,8 @@
   <sheetPr/>
   <dimension ref="A1:M13"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.33636363636364" defaultRowHeight="50" customHeight="1"/>
@@ -1877,8 +1898,8 @@
   <sheetPr/>
   <dimension ref="A1:M13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:M13"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.33636363636364" defaultRowHeight="50" customHeight="1"/>
@@ -2957,7 +2978,8421 @@
   <sheetPr/>
   <dimension ref="A1:M13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.33636363636364" defaultRowHeight="50" customHeight="1"/>
+  <sheetData>
+    <row r="1" customHeight="1" spans="1:13">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" customHeight="1" spans="1:13">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" customHeight="1" spans="1:13">
+      <c r="A3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" customHeight="1" spans="1:13">
+      <c r="A4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" customHeight="1" spans="1:13">
+      <c r="A5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" customHeight="1" spans="1:13">
+      <c r="A6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" customHeight="1" spans="1:13">
+      <c r="A7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" customHeight="1" spans="1:13">
+      <c r="A8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" customHeight="1" spans="1:13">
+      <c r="A9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" customHeight="1" spans="1:13">
+      <c r="A10" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" customHeight="1" spans="1:13">
+      <c r="A11" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="M11" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" customHeight="1" spans="1:13">
+      <c r="A12" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="M12" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" customHeight="1" spans="1:13">
+      <c r="A13" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="M13" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="D2">
+    <cfRule type="cellIs" dxfId="14" priority="702" operator="equal">
+      <formula>"wall_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="701" operator="equal">
+      <formula>"wall_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="700" operator="equal">
+      <formula>"ground_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="11" priority="699" operator="equal">
+      <formula>"wall_1"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="698" operator="equal">
+      <formula>"door_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="697" operator="equal">
+      <formula>"door_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="696" operator="equal">
+      <formula>"key_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="695" operator="equal">
+      <formula>"key_1"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="694">
+      <formula>OR(LEFT(D2,5)="slime",LEFT(D2,3)="bat",LEFT(D2,8)="skeleton",LEFT(D2,5)="mummy",LEFT(D2,6)="wizard",LEFT(D2,6)="knight")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="693">
+      <formula>LEFT(D2,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="692">
+      <formula>LEFT(D2,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="5" priority="691">
+      <formula>LEFT(D2,3)="gem"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="690">
+      <formula>LEFT(D2,6)="potion"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="689">
+      <formula>LEFT(D2,3)="pos"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2">
+    <cfRule type="cellIs" dxfId="14" priority="686" operator="equal">
+      <formula>"wall_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="685" operator="equal">
+      <formula>"wall_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="684" operator="equal">
+      <formula>"ground_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="11" priority="683" operator="equal">
+      <formula>"wall_1"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="682" operator="equal">
+      <formula>"door_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="681" operator="equal">
+      <formula>"door_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="680" operator="equal">
+      <formula>"key_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="679" operator="equal">
+      <formula>"key_1"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="678">
+      <formula>OR(LEFT(E2,5)="slime",LEFT(E2,3)="bat",LEFT(E2,8)="skeleton",LEFT(E2,5)="mummy",LEFT(E2,6)="wizard",LEFT(E2,6)="knight")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="677">
+      <formula>LEFT(E2,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="676">
+      <formula>LEFT(E2,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="5" priority="675">
+      <formula>LEFT(E2,3)="gem"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="674">
+      <formula>LEFT(E2,6)="potion"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="673">
+      <formula>LEFT(E2,3)="pos"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H2">
+    <cfRule type="cellIs" dxfId="14" priority="14" operator="equal">
+      <formula>"wall_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="13" operator="equal">
+      <formula>"wall_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="12" operator="equal">
+      <formula>"ground_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="11" priority="11" operator="equal">
+      <formula>"wall_1"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="10" operator="equal">
+      <formula>"door_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="9" operator="equal">
+      <formula>"door_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="8" operator="equal">
+      <formula>"key_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="7" operator="equal">
+      <formula>"key_1"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="6">
+      <formula>OR(LEFT(H2,5)="slime",LEFT(H2,3)="bat",LEFT(H2,8)="skeleton",LEFT(H2,5)="mummy",LEFT(H2,6)="wizard",LEFT(H2,6)="knight")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="5">
+      <formula>LEFT(H2,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="4">
+      <formula>LEFT(H2,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="5" priority="3">
+      <formula>LEFT(H2,3)="gem"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="2">
+      <formula>LEFT(H2,6)="potion"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1">
+      <formula>LEFT(H2,3)="pos"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I2">
+    <cfRule type="cellIs" dxfId="14" priority="616" operator="equal">
+      <formula>"wall_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="615" operator="equal">
+      <formula>"wall_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="614" operator="equal">
+      <formula>"ground_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="11" priority="613" operator="equal">
+      <formula>"wall_1"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="612" operator="equal">
+      <formula>"door_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="611" operator="equal">
+      <formula>"door_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="610" operator="equal">
+      <formula>"key_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="609" operator="equal">
+      <formula>"key_1"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="608">
+      <formula>OR(LEFT(I2,5)="slime",LEFT(I2,3)="bat",LEFT(I2,8)="skeleton",LEFT(I2,5)="mummy",LEFT(I2,6)="wizard",LEFT(I2,6)="knight")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="607">
+      <formula>LEFT(I2,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="606">
+      <formula>LEFT(I2,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="5" priority="605">
+      <formula>LEFT(I2,3)="gem"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="604">
+      <formula>LEFT(I2,6)="potion"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="603">
+      <formula>LEFT(I2,3)="pos"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J2">
+    <cfRule type="cellIs" dxfId="14" priority="602" operator="equal">
+      <formula>"wall_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="601" operator="equal">
+      <formula>"wall_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="600" operator="equal">
+      <formula>"ground_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="11" priority="599" operator="equal">
+      <formula>"wall_1"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="598" operator="equal">
+      <formula>"door_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="597" operator="equal">
+      <formula>"door_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="596" operator="equal">
+      <formula>"key_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="595" operator="equal">
+      <formula>"key_1"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="594">
+      <formula>OR(LEFT(J2,5)="slime",LEFT(J2,3)="bat",LEFT(J2,8)="skeleton",LEFT(J2,5)="mummy",LEFT(J2,6)="wizard",LEFT(J2,6)="knight")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="593">
+      <formula>LEFT(J2,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="592">
+      <formula>LEFT(J2,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="5" priority="591">
+      <formula>LEFT(J2,3)="gem"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="590">
+      <formula>LEFT(J2,6)="potion"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="589">
+      <formula>LEFT(J2,3)="pos"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K2">
+    <cfRule type="cellIs" dxfId="14" priority="588" operator="equal">
+      <formula>"wall_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="587" operator="equal">
+      <formula>"wall_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="586" operator="equal">
+      <formula>"ground_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="11" priority="585" operator="equal">
+      <formula>"wall_1"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="584" operator="equal">
+      <formula>"door_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="583" operator="equal">
+      <formula>"door_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="582" operator="equal">
+      <formula>"key_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="581" operator="equal">
+      <formula>"key_1"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="580">
+      <formula>OR(LEFT(K2,5)="slime",LEFT(K2,3)="bat",LEFT(K2,8)="skeleton",LEFT(K2,5)="mummy",LEFT(K2,6)="wizard",LEFT(K2,6)="knight")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="579">
+      <formula>LEFT(K2,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="578">
+      <formula>LEFT(K2,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="5" priority="577">
+      <formula>LEFT(K2,3)="gem"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="576">
+      <formula>LEFT(K2,6)="potion"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="575">
+      <formula>LEFT(K2,3)="pos"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L2">
+    <cfRule type="cellIs" dxfId="14" priority="574" operator="equal">
+      <formula>"wall_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="573" operator="equal">
+      <formula>"wall_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="572" operator="equal">
+      <formula>"ground_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="11" priority="571" operator="equal">
+      <formula>"wall_1"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="570" operator="equal">
+      <formula>"door_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="569" operator="equal">
+      <formula>"door_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="568" operator="equal">
+      <formula>"key_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="567" operator="equal">
+      <formula>"key_1"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="566">
+      <formula>OR(LEFT(L2,5)="slime",LEFT(L2,3)="bat",LEFT(L2,8)="skeleton",LEFT(L2,5)="mummy",LEFT(L2,6)="wizard",LEFT(L2,6)="knight")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="565">
+      <formula>LEFT(L2,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="564">
+      <formula>LEFT(L2,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="5" priority="563">
+      <formula>LEFT(L2,3)="gem"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="562">
+      <formula>LEFT(L2,6)="potion"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="561">
+      <formula>LEFT(L2,3)="pos"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C3">
+    <cfRule type="cellIs" dxfId="14" priority="716" operator="equal">
+      <formula>"wall_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="715" operator="equal">
+      <formula>"wall_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="714" operator="equal">
+      <formula>"ground_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="11" priority="713" operator="equal">
+      <formula>"wall_1"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="712" operator="equal">
+      <formula>"door_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="711" operator="equal">
+      <formula>"door_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="710" operator="equal">
+      <formula>"key_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="709" operator="equal">
+      <formula>"key_1"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="708">
+      <formula>OR(LEFT(C3,5)="slime",LEFT(C3,3)="bat",LEFT(C3,8)="skeleton",LEFT(C3,5)="mummy",LEFT(C3,6)="wizard",LEFT(C3,6)="knight")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="707">
+      <formula>LEFT(C3,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="706">
+      <formula>LEFT(C3,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="5" priority="705">
+      <formula>LEFT(C3,3)="gem"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="704">
+      <formula>LEFT(C3,6)="potion"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="703">
+      <formula>LEFT(C3,3)="pos"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E3">
+    <cfRule type="cellIs" dxfId="14" priority="672" operator="equal">
+      <formula>"wall_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="671" operator="equal">
+      <formula>"wall_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="670" operator="equal">
+      <formula>"ground_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="11" priority="669" operator="equal">
+      <formula>"wall_1"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="668" operator="equal">
+      <formula>"door_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="667" operator="equal">
+      <formula>"door_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="666" operator="equal">
+      <formula>"key_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="665" operator="equal">
+      <formula>"key_1"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="664">
+      <formula>OR(LEFT(E3,5)="slime",LEFT(E3,3)="bat",LEFT(E3,8)="skeleton",LEFT(E3,5)="mummy",LEFT(E3,6)="wizard",LEFT(E3,6)="knight")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="663">
+      <formula>LEFT(E3,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="662">
+      <formula>LEFT(E3,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="5" priority="661">
+      <formula>LEFT(E3,3)="gem"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="660">
+      <formula>LEFT(E3,6)="potion"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="659">
+      <formula>LEFT(E3,3)="pos"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I3">
+    <cfRule type="cellIs" dxfId="14" priority="630" operator="equal">
+      <formula>"wall_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="629" operator="equal">
+      <formula>"wall_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="628" operator="equal">
+      <formula>"ground_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="11" priority="627" operator="equal">
+      <formula>"wall_1"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="626" operator="equal">
+      <formula>"door_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="625" operator="equal">
+      <formula>"door_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="624" operator="equal">
+      <formula>"key_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="623" operator="equal">
+      <formula>"key_1"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="622">
+      <formula>OR(LEFT(I3,5)="slime",LEFT(I3,3)="bat",LEFT(I3,8)="skeleton",LEFT(I3,5)="mummy",LEFT(I3,6)="wizard",LEFT(I3,6)="knight")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="621">
+      <formula>LEFT(I3,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="620">
+      <formula>LEFT(I3,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="5" priority="619">
+      <formula>LEFT(I3,3)="gem"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="618">
+      <formula>LEFT(I3,6)="potion"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="617">
+      <formula>LEFT(I3,3)="pos"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K3">
+    <cfRule type="cellIs" dxfId="14" priority="56" operator="equal">
+      <formula>"wall_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="55" operator="equal">
+      <formula>"wall_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="54" operator="equal">
+      <formula>"ground_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="11" priority="53" operator="equal">
+      <formula>"wall_1"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="52" operator="equal">
+      <formula>"door_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="51" operator="equal">
+      <formula>"door_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="50" operator="equal">
+      <formula>"key_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="49" operator="equal">
+      <formula>"key_1"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="48">
+      <formula>OR(LEFT(K3,5)="slime",LEFT(K3,3)="bat",LEFT(K3,8)="skeleton",LEFT(K3,5)="mummy",LEFT(K3,6)="wizard",LEFT(K3,6)="knight")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="47">
+      <formula>LEFT(K3,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="46">
+      <formula>LEFT(K3,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="5" priority="45">
+      <formula>LEFT(K3,3)="gem"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="44">
+      <formula>LEFT(K3,6)="potion"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="43">
+      <formula>LEFT(K3,3)="pos"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L3">
+    <cfRule type="cellIs" dxfId="14" priority="1010" operator="equal">
+      <formula>"wall_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="1009" operator="equal">
+      <formula>"wall_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="1008" operator="equal">
+      <formula>"ground_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="11" priority="1007" operator="equal">
+      <formula>"wall_1"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="1006" operator="equal">
+      <formula>"door_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="1005" operator="equal">
+      <formula>"door_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="1004" operator="equal">
+      <formula>"key_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="1003" operator="equal">
+      <formula>"key_1"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="1002">
+      <formula>OR(LEFT(L3,5)="slime",LEFT(L3,3)="bat",LEFT(L3,8)="skeleton",LEFT(L3,5)="mummy",LEFT(L3,6)="wizard",LEFT(L3,6)="knight")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="1001">
+      <formula>LEFT(L3,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="1000">
+      <formula>LEFT(L3,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="5" priority="999">
+      <formula>LEFT(L3,3)="gem"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="998">
+      <formula>LEFT(L3,6)="potion"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="997">
+      <formula>LEFT(L3,3)="pos"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H4">
+    <cfRule type="cellIs" dxfId="14" priority="658" operator="equal">
+      <formula>"wall_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="657" operator="equal">
+      <formula>"wall_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="656" operator="equal">
+      <formula>"ground_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="11" priority="655" operator="equal">
+      <formula>"wall_1"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="654" operator="equal">
+      <formula>"door_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="653" operator="equal">
+      <formula>"door_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="652" operator="equal">
+      <formula>"key_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="651" operator="equal">
+      <formula>"key_1"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="650">
+      <formula>OR(LEFT(H4,5)="slime",LEFT(H4,3)="bat",LEFT(H4,8)="skeleton",LEFT(H4,5)="mummy",LEFT(H4,6)="wizard",LEFT(H4,6)="knight")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="649">
+      <formula>LEFT(H4,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="648">
+      <formula>LEFT(H4,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="5" priority="647">
+      <formula>LEFT(H4,3)="gem"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="646">
+      <formula>LEFT(H4,6)="potion"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="645">
+      <formula>LEFT(H4,3)="pos"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I4">
+    <cfRule type="cellIs" dxfId="14" priority="644" operator="equal">
+      <formula>"wall_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="643" operator="equal">
+      <formula>"wall_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="642" operator="equal">
+      <formula>"ground_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="11" priority="641" operator="equal">
+      <formula>"wall_1"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="640" operator="equal">
+      <formula>"door_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="639" operator="equal">
+      <formula>"door_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="638" operator="equal">
+      <formula>"key_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="637" operator="equal">
+      <formula>"key_1"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="636">
+      <formula>OR(LEFT(I4,5)="slime",LEFT(I4,3)="bat",LEFT(I4,8)="skeleton",LEFT(I4,5)="mummy",LEFT(I4,6)="wizard",LEFT(I4,6)="knight")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="635">
+      <formula>LEFT(I4,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="634">
+      <formula>LEFT(I4,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="5" priority="633">
+      <formula>LEFT(I4,3)="gem"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="632">
+      <formula>LEFT(I4,6)="potion"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="631">
+      <formula>LEFT(I4,3)="pos"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K4">
+    <cfRule type="cellIs" dxfId="14" priority="560" operator="equal">
+      <formula>"wall_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="559" operator="equal">
+      <formula>"wall_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="558" operator="equal">
+      <formula>"ground_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="11" priority="557" operator="equal">
+      <formula>"wall_1"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="556" operator="equal">
+      <formula>"door_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="555" operator="equal">
+      <formula>"door_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="554" operator="equal">
+      <formula>"key_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="553" operator="equal">
+      <formula>"key_1"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="552">
+      <formula>OR(LEFT(K4,5)="slime",LEFT(K4,3)="bat",LEFT(K4,8)="skeleton",LEFT(K4,5)="mummy",LEFT(K4,6)="wizard",LEFT(K4,6)="knight")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="551">
+      <formula>LEFT(K4,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="550">
+      <formula>LEFT(K4,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="5" priority="549">
+      <formula>LEFT(K4,3)="gem"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="548">
+      <formula>LEFT(K4,6)="potion"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="547">
+      <formula>LEFT(K4,3)="pos"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I5">
+    <cfRule type="cellIs" dxfId="14" priority="266" operator="equal">
+      <formula>"wall_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="265" operator="equal">
+      <formula>"wall_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="264" operator="equal">
+      <formula>"ground_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="11" priority="263" operator="equal">
+      <formula>"wall_1"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="262" operator="equal">
+      <formula>"door_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="261" operator="equal">
+      <formula>"door_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="260" operator="equal">
+      <formula>"key_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="259" operator="equal">
+      <formula>"key_1"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="258">
+      <formula>OR(LEFT(I5,5)="slime",LEFT(I5,3)="bat",LEFT(I5,8)="skeleton",LEFT(I5,5)="mummy",LEFT(I5,6)="wizard",LEFT(I5,6)="knight")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="257">
+      <formula>LEFT(I5,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="256">
+      <formula>LEFT(I5,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="5" priority="255">
+      <formula>LEFT(I5,3)="gem"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="254">
+      <formula>LEFT(I5,6)="potion"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="253">
+      <formula>LEFT(I5,3)="pos"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K5">
+    <cfRule type="cellIs" dxfId="14" priority="546" operator="equal">
+      <formula>"wall_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="545" operator="equal">
+      <formula>"wall_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="544" operator="equal">
+      <formula>"ground_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="11" priority="543" operator="equal">
+      <formula>"wall_1"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="542" operator="equal">
+      <formula>"door_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="541" operator="equal">
+      <formula>"door_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="540" operator="equal">
+      <formula>"key_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="539" operator="equal">
+      <formula>"key_1"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="538">
+      <formula>OR(LEFT(K5,5)="slime",LEFT(K5,3)="bat",LEFT(K5,8)="skeleton",LEFT(K5,5)="mummy",LEFT(K5,6)="wizard",LEFT(K5,6)="knight")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="537">
+      <formula>LEFT(K5,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="536">
+      <formula>LEFT(K5,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="5" priority="535">
+      <formula>LEFT(K5,3)="gem"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="534">
+      <formula>LEFT(K5,6)="potion"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="533">
+      <formula>LEFT(K5,3)="pos"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6">
+    <cfRule type="cellIs" dxfId="14" priority="308" operator="equal">
+      <formula>"wall_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="307" operator="equal">
+      <formula>"wall_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="306" operator="equal">
+      <formula>"ground_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="11" priority="305" operator="equal">
+      <formula>"wall_1"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="304" operator="equal">
+      <formula>"door_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="303" operator="equal">
+      <formula>"door_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="302" operator="equal">
+      <formula>"key_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="301" operator="equal">
+      <formula>"key_1"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="300">
+      <formula>OR(LEFT(E6,5)="slime",LEFT(E6,3)="bat",LEFT(E6,8)="skeleton",LEFT(E6,5)="mummy",LEFT(E6,6)="wizard",LEFT(E6,6)="knight")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="299">
+      <formula>LEFT(E6,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="298">
+      <formula>LEFT(E6,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="5" priority="297">
+      <formula>LEFT(E6,3)="gem"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="296">
+      <formula>LEFT(E6,6)="potion"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="295">
+      <formula>LEFT(E6,3)="pos"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F6">
+    <cfRule type="cellIs" dxfId="14" priority="294" operator="equal">
+      <formula>"wall_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="293" operator="equal">
+      <formula>"wall_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="292" operator="equal">
+      <formula>"ground_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="11" priority="291" operator="equal">
+      <formula>"wall_1"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="290" operator="equal">
+      <formula>"door_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="289" operator="equal">
+      <formula>"door_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="288" operator="equal">
+      <formula>"key_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="287" operator="equal">
+      <formula>"key_1"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="286">
+      <formula>OR(LEFT(F6,5)="slime",LEFT(F6,3)="bat",LEFT(F6,8)="skeleton",LEFT(F6,5)="mummy",LEFT(F6,6)="wizard",LEFT(F6,6)="knight")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="285">
+      <formula>LEFT(F6,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="284">
+      <formula>LEFT(F6,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="5" priority="283">
+      <formula>LEFT(F6,3)="gem"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="282">
+      <formula>LEFT(F6,6)="potion"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="281">
+      <formula>LEFT(F6,3)="pos"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G6">
+    <cfRule type="cellIs" dxfId="14" priority="280" operator="equal">
+      <formula>"wall_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="279" operator="equal">
+      <formula>"wall_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="278" operator="equal">
+      <formula>"ground_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="11" priority="277" operator="equal">
+      <formula>"wall_1"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="276" operator="equal">
+      <formula>"door_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="275" operator="equal">
+      <formula>"door_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="274" operator="equal">
+      <formula>"key_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="273" operator="equal">
+      <formula>"key_1"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="272">
+      <formula>OR(LEFT(G6,5)="slime",LEFT(G6,3)="bat",LEFT(G6,8)="skeleton",LEFT(G6,5)="mummy",LEFT(G6,6)="wizard",LEFT(G6,6)="knight")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="271">
+      <formula>LEFT(G6,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="270">
+      <formula>LEFT(G6,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="5" priority="269">
+      <formula>LEFT(G6,3)="gem"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="268">
+      <formula>LEFT(G6,6)="potion"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="267">
+      <formula>LEFT(G6,3)="pos"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I6">
+    <cfRule type="cellIs" dxfId="14" priority="252" operator="equal">
+      <formula>"wall_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="251" operator="equal">
+      <formula>"wall_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="250" operator="equal">
+      <formula>"ground_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="11" priority="249" operator="equal">
+      <formula>"wall_1"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="248" operator="equal">
+      <formula>"door_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="247" operator="equal">
+      <formula>"door_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="246" operator="equal">
+      <formula>"key_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="245" operator="equal">
+      <formula>"key_1"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="244">
+      <formula>OR(LEFT(I6,5)="slime",LEFT(I6,3)="bat",LEFT(I6,8)="skeleton",LEFT(I6,5)="mummy",LEFT(I6,6)="wizard",LEFT(I6,6)="knight")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="243">
+      <formula>LEFT(I6,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="242">
+      <formula>LEFT(I6,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="5" priority="241">
+      <formula>LEFT(I6,3)="gem"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="240">
+      <formula>LEFT(I6,6)="potion"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="239">
+      <formula>LEFT(I6,3)="pos"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J6">
+    <cfRule type="cellIs" dxfId="14" priority="42" operator="equal">
+      <formula>"wall_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="41" operator="equal">
+      <formula>"wall_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="40" operator="equal">
+      <formula>"ground_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="11" priority="39" operator="equal">
+      <formula>"wall_1"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="38" operator="equal">
+      <formula>"door_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="37" operator="equal">
+      <formula>"door_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="36" operator="equal">
+      <formula>"key_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="35" operator="equal">
+      <formula>"key_1"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="34">
+      <formula>OR(LEFT(J6,5)="slime",LEFT(J6,3)="bat",LEFT(J6,8)="skeleton",LEFT(J6,5)="mummy",LEFT(J6,6)="wizard",LEFT(J6,6)="knight")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="33">
+      <formula>LEFT(J6,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="32">
+      <formula>LEFT(J6,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="5" priority="31">
+      <formula>LEFT(J6,3)="gem"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="30">
+      <formula>LEFT(J6,6)="potion"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="29">
+      <formula>LEFT(J6,3)="pos"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K6">
+    <cfRule type="cellIs" dxfId="14" priority="532" operator="equal">
+      <formula>"wall_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="531" operator="equal">
+      <formula>"wall_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="530" operator="equal">
+      <formula>"ground_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="11" priority="529" operator="equal">
+      <formula>"wall_1"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="528" operator="equal">
+      <formula>"door_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="527" operator="equal">
+      <formula>"door_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="526" operator="equal">
+      <formula>"key_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="525" operator="equal">
+      <formula>"key_1"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="524">
+      <formula>OR(LEFT(K6,5)="slime",LEFT(K6,3)="bat",LEFT(K6,8)="skeleton",LEFT(K6,5)="mummy",LEFT(K6,6)="wizard",LEFT(K6,6)="knight")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="523">
+      <formula>LEFT(K6,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="522">
+      <formula>LEFT(K6,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="5" priority="521">
+      <formula>LEFT(K6,3)="gem"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="520">
+      <formula>LEFT(K6,6)="potion"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="519">
+      <formula>LEFT(K6,3)="pos"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C7">
+    <cfRule type="cellIs" dxfId="14" priority="322" operator="equal">
+      <formula>"wall_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="321" operator="equal">
+      <formula>"wall_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="320" operator="equal">
+      <formula>"ground_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="11" priority="319" operator="equal">
+      <formula>"wall_1"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="318" operator="equal">
+      <formula>"door_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="317" operator="equal">
+      <formula>"door_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="316" operator="equal">
+      <formula>"key_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="315" operator="equal">
+      <formula>"key_1"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="314">
+      <formula>OR(LEFT(C7,5)="slime",LEFT(C7,3)="bat",LEFT(C7,8)="skeleton",LEFT(C7,5)="mummy",LEFT(C7,6)="wizard",LEFT(C7,6)="knight")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="313">
+      <formula>LEFT(C7,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="312">
+      <formula>LEFT(C7,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="5" priority="311">
+      <formula>LEFT(C7,3)="gem"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="310">
+      <formula>LEFT(C7,6)="potion"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="309">
+      <formula>LEFT(C7,3)="pos"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I7">
+    <cfRule type="cellIs" dxfId="14" priority="238" operator="equal">
+      <formula>"wall_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="237" operator="equal">
+      <formula>"wall_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="236" operator="equal">
+      <formula>"ground_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="11" priority="235" operator="equal">
+      <formula>"wall_1"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="234" operator="equal">
+      <formula>"door_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="233" operator="equal">
+      <formula>"door_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="232" operator="equal">
+      <formula>"key_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="231" operator="equal">
+      <formula>"key_1"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="230">
+      <formula>OR(LEFT(I7,5)="slime",LEFT(I7,3)="bat",LEFT(I7,8)="skeleton",LEFT(I7,5)="mummy",LEFT(I7,6)="wizard",LEFT(I7,6)="knight")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="229">
+      <formula>LEFT(I7,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="228">
+      <formula>LEFT(I7,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="5" priority="227">
+      <formula>LEFT(I7,3)="gem"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="226">
+      <formula>LEFT(I7,6)="potion"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="225">
+      <formula>LEFT(I7,3)="pos"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J7">
+    <cfRule type="cellIs" dxfId="14" priority="28" operator="equal">
+      <formula>"wall_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="27" operator="equal">
+      <formula>"wall_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="26" operator="equal">
+      <formula>"ground_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="11" priority="25" operator="equal">
+      <formula>"wall_1"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="24" operator="equal">
+      <formula>"door_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="23" operator="equal">
+      <formula>"door_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="22" operator="equal">
+      <formula>"key_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="21" operator="equal">
+      <formula>"key_1"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="20">
+      <formula>OR(LEFT(J7,5)="slime",LEFT(J7,3)="bat",LEFT(J7,8)="skeleton",LEFT(J7,5)="mummy",LEFT(J7,6)="wizard",LEFT(J7,6)="knight")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="19">
+      <formula>LEFT(J7,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="18">
+      <formula>LEFT(J7,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="5" priority="17">
+      <formula>LEFT(J7,3)="gem"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="16">
+      <formula>LEFT(J7,6)="potion"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="15">
+      <formula>LEFT(J7,3)="pos"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K7">
+    <cfRule type="cellIs" dxfId="14" priority="518" operator="equal">
+      <formula>"wall_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="517" operator="equal">
+      <formula>"wall_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="516" operator="equal">
+      <formula>"ground_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="11" priority="515" operator="equal">
+      <formula>"wall_1"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="514" operator="equal">
+      <formula>"door_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="513" operator="equal">
+      <formula>"door_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="512" operator="equal">
+      <formula>"key_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="511" operator="equal">
+      <formula>"key_1"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="510">
+      <formula>OR(LEFT(K7,5)="slime",LEFT(K7,3)="bat",LEFT(K7,8)="skeleton",LEFT(K7,5)="mummy",LEFT(K7,6)="wizard",LEFT(K7,6)="knight")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="509">
+      <formula>LEFT(K7,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="508">
+      <formula>LEFT(K7,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="5" priority="507">
+      <formula>LEFT(K7,3)="gem"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="506">
+      <formula>LEFT(K7,6)="potion"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="505">
+      <formula>LEFT(K7,3)="pos"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C8">
+    <cfRule type="cellIs" dxfId="14" priority="336" operator="equal">
+      <formula>"wall_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="335" operator="equal">
+      <formula>"wall_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="334" operator="equal">
+      <formula>"ground_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="11" priority="333" operator="equal">
+      <formula>"wall_1"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="332" operator="equal">
+      <formula>"door_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="331" operator="equal">
+      <formula>"door_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="330" operator="equal">
+      <formula>"key_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="329" operator="equal">
+      <formula>"key_1"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="328">
+      <formula>OR(LEFT(C8,5)="slime",LEFT(C8,3)="bat",LEFT(C8,8)="skeleton",LEFT(C8,5)="mummy",LEFT(C8,6)="wizard",LEFT(C8,6)="knight")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="327">
+      <formula>LEFT(C8,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="326">
+      <formula>LEFT(C8,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="5" priority="325">
+      <formula>LEFT(C8,3)="gem"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="324">
+      <formula>LEFT(C8,6)="potion"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="323">
+      <formula>LEFT(C8,3)="pos"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D8">
+    <cfRule type="cellIs" dxfId="14" priority="350" operator="equal">
+      <formula>"wall_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="349" operator="equal">
+      <formula>"wall_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="348" operator="equal">
+      <formula>"ground_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="11" priority="347" operator="equal">
+      <formula>"wall_1"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="346" operator="equal">
+      <formula>"door_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="345" operator="equal">
+      <formula>"door_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="344" operator="equal">
+      <formula>"key_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="343" operator="equal">
+      <formula>"key_1"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="342">
+      <formula>OR(LEFT(D8,5)="slime",LEFT(D8,3)="bat",LEFT(D8,8)="skeleton",LEFT(D8,5)="mummy",LEFT(D8,6)="wizard",LEFT(D8,6)="knight")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="341">
+      <formula>LEFT(D8,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="340">
+      <formula>LEFT(D8,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="5" priority="339">
+      <formula>LEFT(D8,3)="gem"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="338">
+      <formula>LEFT(D8,6)="potion"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="337">
+      <formula>LEFT(D8,3)="pos"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E8">
+    <cfRule type="cellIs" dxfId="14" priority="364" operator="equal">
+      <formula>"wall_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="363" operator="equal">
+      <formula>"wall_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="362" operator="equal">
+      <formula>"ground_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="11" priority="361" operator="equal">
+      <formula>"wall_1"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="360" operator="equal">
+      <formula>"door_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="359" operator="equal">
+      <formula>"door_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="358" operator="equal">
+      <formula>"key_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="357" operator="equal">
+      <formula>"key_1"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="356">
+      <formula>OR(LEFT(E8,5)="slime",LEFT(E8,3)="bat",LEFT(E8,8)="skeleton",LEFT(E8,5)="mummy",LEFT(E8,6)="wizard",LEFT(E8,6)="knight")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="355">
+      <formula>LEFT(E8,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="354">
+      <formula>LEFT(E8,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="5" priority="353">
+      <formula>LEFT(E8,3)="gem"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="352">
+      <formula>LEFT(E8,6)="potion"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="351">
+      <formula>LEFT(E8,3)="pos"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F8">
+    <cfRule type="cellIs" dxfId="14" priority="378" operator="equal">
+      <formula>"wall_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="377" operator="equal">
+      <formula>"wall_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="376" operator="equal">
+      <formula>"ground_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="11" priority="375" operator="equal">
+      <formula>"wall_1"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="374" operator="equal">
+      <formula>"door_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="373" operator="equal">
+      <formula>"door_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="372" operator="equal">
+      <formula>"key_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="371" operator="equal">
+      <formula>"key_1"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="370">
+      <formula>OR(LEFT(F8,5)="slime",LEFT(F8,3)="bat",LEFT(F8,8)="skeleton",LEFT(F8,5)="mummy",LEFT(F8,6)="wizard",LEFT(F8,6)="knight")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="369">
+      <formula>LEFT(F8,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="368">
+      <formula>LEFT(F8,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="5" priority="367">
+      <formula>LEFT(F8,3)="gem"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="366">
+      <formula>LEFT(F8,6)="potion"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="365">
+      <formula>LEFT(F8,3)="pos"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G8">
+    <cfRule type="cellIs" dxfId="14" priority="392" operator="equal">
+      <formula>"wall_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="391" operator="equal">
+      <formula>"wall_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="390" operator="equal">
+      <formula>"ground_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="11" priority="389" operator="equal">
+      <formula>"wall_1"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="388" operator="equal">
+      <formula>"door_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="387" operator="equal">
+      <formula>"door_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="386" operator="equal">
+      <formula>"key_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="385" operator="equal">
+      <formula>"key_1"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="384">
+      <formula>OR(LEFT(G8,5)="slime",LEFT(G8,3)="bat",LEFT(G8,8)="skeleton",LEFT(G8,5)="mummy",LEFT(G8,6)="wizard",LEFT(G8,6)="knight")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="383">
+      <formula>LEFT(G8,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="382">
+      <formula>LEFT(G8,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="5" priority="381">
+      <formula>LEFT(G8,3)="gem"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="380">
+      <formula>LEFT(G8,6)="potion"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="379">
+      <formula>LEFT(G8,3)="pos"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K8">
+    <cfRule type="cellIs" dxfId="14" priority="504" operator="equal">
+      <formula>"wall_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="503" operator="equal">
+      <formula>"wall_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="502" operator="equal">
+      <formula>"ground_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="11" priority="501" operator="equal">
+      <formula>"wall_1"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="500" operator="equal">
+      <formula>"door_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="499" operator="equal">
+      <formula>"door_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="498" operator="equal">
+      <formula>"key_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="497" operator="equal">
+      <formula>"key_1"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="496">
+      <formula>OR(LEFT(K8,5)="slime",LEFT(K8,3)="bat",LEFT(K8,8)="skeleton",LEFT(K8,5)="mummy",LEFT(K8,6)="wizard",LEFT(K8,6)="knight")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="495">
+      <formula>LEFT(K8,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="494">
+      <formula>LEFT(K8,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="5" priority="493">
+      <formula>LEFT(K8,3)="gem"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="492">
+      <formula>LEFT(K8,6)="potion"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="491">
+      <formula>LEFT(K8,3)="pos"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G9">
+    <cfRule type="cellIs" dxfId="14" priority="406" operator="equal">
+      <formula>"wall_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="405" operator="equal">
+      <formula>"wall_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="404" operator="equal">
+      <formula>"ground_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="11" priority="403" operator="equal">
+      <formula>"wall_1"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="402" operator="equal">
+      <formula>"door_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="401" operator="equal">
+      <formula>"door_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="400" operator="equal">
+      <formula>"key_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="399" operator="equal">
+      <formula>"key_1"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="398">
+      <formula>OR(LEFT(G9,5)="slime",LEFT(G9,3)="bat",LEFT(G9,8)="skeleton",LEFT(G9,5)="mummy",LEFT(G9,6)="wizard",LEFT(G9,6)="knight")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="397">
+      <formula>LEFT(G9,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="396">
+      <formula>LEFT(G9,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="5" priority="395">
+      <formula>LEFT(G9,3)="gem"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="394">
+      <formula>LEFT(G9,6)="potion"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="393">
+      <formula>LEFT(G9,3)="pos"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H9">
+    <cfRule type="cellIs" dxfId="14" priority="420" operator="equal">
+      <formula>"wall_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="419" operator="equal">
+      <formula>"wall_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="418" operator="equal">
+      <formula>"ground_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="11" priority="417" operator="equal">
+      <formula>"wall_1"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="416" operator="equal">
+      <formula>"door_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="415" operator="equal">
+      <formula>"door_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="414" operator="equal">
+      <formula>"key_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="413" operator="equal">
+      <formula>"key_1"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="412">
+      <formula>OR(LEFT(H9,5)="slime",LEFT(H9,3)="bat",LEFT(H9,8)="skeleton",LEFT(H9,5)="mummy",LEFT(H9,6)="wizard",LEFT(H9,6)="knight")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="411">
+      <formula>LEFT(H9,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="410">
+      <formula>LEFT(H9,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="5" priority="409">
+      <formula>LEFT(H9,3)="gem"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="408">
+      <formula>LEFT(H9,6)="potion"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="407">
+      <formula>LEFT(H9,3)="pos"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J9">
+    <cfRule type="cellIs" dxfId="14" priority="434" operator="equal">
+      <formula>"wall_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="433" operator="equal">
+      <formula>"wall_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="432" operator="equal">
+      <formula>"ground_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="11" priority="431" operator="equal">
+      <formula>"wall_1"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="430" operator="equal">
+      <formula>"door_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="429" operator="equal">
+      <formula>"door_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="428" operator="equal">
+      <formula>"key_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="427" operator="equal">
+      <formula>"key_1"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="426">
+      <formula>OR(LEFT(J9,5)="slime",LEFT(J9,3)="bat",LEFT(J9,8)="skeleton",LEFT(J9,5)="mummy",LEFT(J9,6)="wizard",LEFT(J9,6)="knight")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="425">
+      <formula>LEFT(J9,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="424">
+      <formula>LEFT(J9,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="5" priority="423">
+      <formula>LEFT(J9,3)="gem"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="422">
+      <formula>LEFT(J9,6)="potion"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="421">
+      <formula>LEFT(J9,3)="pos"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K9">
+    <cfRule type="cellIs" dxfId="14" priority="490" operator="equal">
+      <formula>"wall_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="489" operator="equal">
+      <formula>"wall_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="488" operator="equal">
+      <formula>"ground_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="11" priority="487" operator="equal">
+      <formula>"wall_1"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="486" operator="equal">
+      <formula>"door_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="485" operator="equal">
+      <formula>"door_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="484" operator="equal">
+      <formula>"key_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="483" operator="equal">
+      <formula>"key_1"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="482">
+      <formula>OR(LEFT(K9,5)="slime",LEFT(K9,3)="bat",LEFT(K9,8)="skeleton",LEFT(K9,5)="mummy",LEFT(K9,6)="wizard",LEFT(K9,6)="knight")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="481">
+      <formula>LEFT(K9,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="480">
+      <formula>LEFT(K9,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="5" priority="479">
+      <formula>LEFT(K9,3)="gem"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="478">
+      <formula>LEFT(K9,6)="potion"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="477">
+      <formula>LEFT(K9,3)="pos"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B10">
+    <cfRule type="cellIs" dxfId="14" priority="210" operator="equal">
+      <formula>"wall_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="209" operator="equal">
+      <formula>"wall_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="208" operator="equal">
+      <formula>"ground_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="11" priority="207" operator="equal">
+      <formula>"wall_1"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="206" operator="equal">
+      <formula>"door_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="205" operator="equal">
+      <formula>"door_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="204" operator="equal">
+      <formula>"key_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="203" operator="equal">
+      <formula>"key_1"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="202">
+      <formula>OR(LEFT(B10,5)="slime",LEFT(B10,3)="bat",LEFT(B10,8)="skeleton",LEFT(B10,5)="mummy",LEFT(B10,6)="wizard",LEFT(B10,6)="knight")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="201">
+      <formula>LEFT(B10,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="200">
+      <formula>LEFT(B10,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="5" priority="199">
+      <formula>LEFT(B10,3)="gem"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="198">
+      <formula>LEFT(B10,6)="potion"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="197">
+      <formula>LEFT(B10,3)="pos"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C10">
+    <cfRule type="cellIs" dxfId="14" priority="196" operator="equal">
+      <formula>"wall_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="195" operator="equal">
+      <formula>"wall_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="194" operator="equal">
+      <formula>"ground_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="11" priority="193" operator="equal">
+      <formula>"wall_1"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="192" operator="equal">
+      <formula>"door_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="191" operator="equal">
+      <formula>"door_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="190" operator="equal">
+      <formula>"key_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="189" operator="equal">
+      <formula>"key_1"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="188">
+      <formula>OR(LEFT(C10,5)="slime",LEFT(C10,3)="bat",LEFT(C10,8)="skeleton",LEFT(C10,5)="mummy",LEFT(C10,6)="wizard",LEFT(C10,6)="knight")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="187">
+      <formula>LEFT(C10,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="186">
+      <formula>LEFT(C10,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="5" priority="185">
+      <formula>LEFT(C10,3)="gem"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="184">
+      <formula>LEFT(C10,6)="potion"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="183">
+      <formula>LEFT(C10,3)="pos"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D10">
+    <cfRule type="cellIs" dxfId="14" priority="182" operator="equal">
+      <formula>"wall_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="181" operator="equal">
+      <formula>"wall_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="180" operator="equal">
+      <formula>"ground_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="11" priority="179" operator="equal">
+      <formula>"wall_1"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="178" operator="equal">
+      <formula>"door_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="177" operator="equal">
+      <formula>"door_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="176" operator="equal">
+      <formula>"key_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="175" operator="equal">
+      <formula>"key_1"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="174">
+      <formula>OR(LEFT(D10,5)="slime",LEFT(D10,3)="bat",LEFT(D10,8)="skeleton",LEFT(D10,5)="mummy",LEFT(D10,6)="wizard",LEFT(D10,6)="knight")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="173">
+      <formula>LEFT(D10,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="172">
+      <formula>LEFT(D10,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="5" priority="171">
+      <formula>LEFT(D10,3)="gem"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="170">
+      <formula>LEFT(D10,6)="potion"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="169">
+      <formula>LEFT(D10,3)="pos"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E10">
+    <cfRule type="cellIs" dxfId="14" priority="168" operator="equal">
+      <formula>"wall_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="167" operator="equal">
+      <formula>"wall_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="166" operator="equal">
+      <formula>"ground_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="11" priority="165" operator="equal">
+      <formula>"wall_1"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="164" operator="equal">
+      <formula>"door_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="163" operator="equal">
+      <formula>"door_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="162" operator="equal">
+      <formula>"key_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="161" operator="equal">
+      <formula>"key_1"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="160">
+      <formula>OR(LEFT(E10,5)="slime",LEFT(E10,3)="bat",LEFT(E10,8)="skeleton",LEFT(E10,5)="mummy",LEFT(E10,6)="wizard",LEFT(E10,6)="knight")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="159">
+      <formula>LEFT(E10,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="158">
+      <formula>LEFT(E10,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="5" priority="157">
+      <formula>LEFT(E10,3)="gem"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="156">
+      <formula>LEFT(E10,6)="potion"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="155">
+      <formula>LEFT(E10,3)="pos"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G10">
+    <cfRule type="cellIs" dxfId="14" priority="154" operator="equal">
+      <formula>"wall_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="153" operator="equal">
+      <formula>"wall_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="152" operator="equal">
+      <formula>"ground_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="11" priority="151" operator="equal">
+      <formula>"wall_1"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="150" operator="equal">
+      <formula>"door_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="149" operator="equal">
+      <formula>"door_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="148" operator="equal">
+      <formula>"key_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="147" operator="equal">
+      <formula>"key_1"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="146">
+      <formula>OR(LEFT(G10,5)="slime",LEFT(G10,3)="bat",LEFT(G10,8)="skeleton",LEFT(G10,5)="mummy",LEFT(G10,6)="wizard",LEFT(G10,6)="knight")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="145">
+      <formula>LEFT(G10,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="144">
+      <formula>LEFT(G10,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="5" priority="143">
+      <formula>LEFT(G10,3)="gem"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="142">
+      <formula>LEFT(G10,6)="potion"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="141">
+      <formula>LEFT(G10,3)="pos"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K10">
+    <cfRule type="cellIs" dxfId="14" priority="476" operator="equal">
+      <formula>"wall_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="475" operator="equal">
+      <formula>"wall_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="474" operator="equal">
+      <formula>"ground_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="11" priority="473" operator="equal">
+      <formula>"wall_1"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="472" operator="equal">
+      <formula>"door_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="471" operator="equal">
+      <formula>"door_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="470" operator="equal">
+      <formula>"key_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="469" operator="equal">
+      <formula>"key_1"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="468">
+      <formula>OR(LEFT(K10,5)="slime",LEFT(K10,3)="bat",LEFT(K10,8)="skeleton",LEFT(K10,5)="mummy",LEFT(K10,6)="wizard",LEFT(K10,6)="knight")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="467">
+      <formula>LEFT(K10,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="466">
+      <formula>LEFT(K10,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="5" priority="465">
+      <formula>LEFT(K10,3)="gem"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="464">
+      <formula>LEFT(K10,6)="potion"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="463">
+      <formula>LEFT(K10,3)="pos"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B11">
+    <cfRule type="cellIs" dxfId="14" priority="224" operator="equal">
+      <formula>"wall_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="223" operator="equal">
+      <formula>"wall_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="222" operator="equal">
+      <formula>"ground_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="11" priority="221" operator="equal">
+      <formula>"wall_1"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="220" operator="equal">
+      <formula>"door_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="219" operator="equal">
+      <formula>"door_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="218" operator="equal">
+      <formula>"key_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="217" operator="equal">
+      <formula>"key_1"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="216">
+      <formula>OR(LEFT(B11,5)="slime",LEFT(B11,3)="bat",LEFT(B11,8)="skeleton",LEFT(B11,5)="mummy",LEFT(B11,6)="wizard",LEFT(B11,6)="knight")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="215">
+      <formula>LEFT(B11,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="214">
+      <formula>LEFT(B11,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="5" priority="213">
+      <formula>LEFT(B11,3)="gem"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="212">
+      <formula>LEFT(B11,6)="potion"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="211">
+      <formula>LEFT(B11,3)="pos"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G11">
+    <cfRule type="cellIs" dxfId="14" priority="140" operator="equal">
+      <formula>"wall_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="139" operator="equal">
+      <formula>"wall_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="138" operator="equal">
+      <formula>"ground_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="11" priority="137" operator="equal">
+      <formula>"wall_1"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="136" operator="equal">
+      <formula>"door_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="135" operator="equal">
+      <formula>"door_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="134" operator="equal">
+      <formula>"key_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="133" operator="equal">
+      <formula>"key_1"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="132">
+      <formula>OR(LEFT(G11,5)="slime",LEFT(G11,3)="bat",LEFT(G11,8)="skeleton",LEFT(G11,5)="mummy",LEFT(G11,6)="wizard",LEFT(G11,6)="knight")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="131">
+      <formula>LEFT(G11,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="130">
+      <formula>LEFT(G11,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="5" priority="129">
+      <formula>LEFT(G11,3)="gem"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="128">
+      <formula>LEFT(G11,6)="potion"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="127">
+      <formula>LEFT(G11,3)="pos"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K11">
+    <cfRule type="cellIs" dxfId="14" priority="462" operator="equal">
+      <formula>"wall_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="461" operator="equal">
+      <formula>"wall_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="460" operator="equal">
+      <formula>"ground_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="11" priority="459" operator="equal">
+      <formula>"wall_1"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="458" operator="equal">
+      <formula>"door_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="457" operator="equal">
+      <formula>"door_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="456" operator="equal">
+      <formula>"key_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="455" operator="equal">
+      <formula>"key_1"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="454">
+      <formula>OR(LEFT(K11,5)="slime",LEFT(K11,3)="bat",LEFT(K11,8)="skeleton",LEFT(K11,5)="mummy",LEFT(K11,6)="wizard",LEFT(K11,6)="knight")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="453">
+      <formula>LEFT(K11,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="452">
+      <formula>LEFT(K11,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="5" priority="451">
+      <formula>LEFT(K11,3)="gem"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="450">
+      <formula>LEFT(K11,6)="potion"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="449">
+      <formula>LEFT(K11,3)="pos"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B12:C12">
+    <cfRule type="cellIs" dxfId="14" priority="772" operator="equal">
+      <formula>"wall_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="771" operator="equal">
+      <formula>"wall_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="770" operator="equal">
+      <formula>"ground_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="11" priority="769" operator="equal">
+      <formula>"wall_1"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="768" operator="equal">
+      <formula>"door_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="767" operator="equal">
+      <formula>"door_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="766" operator="equal">
+      <formula>"key_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="765" operator="equal">
+      <formula>"key_1"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="764">
+      <formula>OR(LEFT(B12,5)="slime",LEFT(B12,3)="bat",LEFT(B12,8)="skeleton",LEFT(B12,5)="mummy",LEFT(B12,6)="wizard",LEFT(B12,6)="knight")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="763">
+      <formula>LEFT(B12,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="762">
+      <formula>LEFT(B12,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="5" priority="761">
+      <formula>LEFT(B12,3)="gem"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="760">
+      <formula>LEFT(B12,6)="potion"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="759">
+      <formula>LEFT(B12,3)="pos"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D12">
+    <cfRule type="cellIs" dxfId="14" priority="84" operator="equal">
+      <formula>"wall_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="83" operator="equal">
+      <formula>"wall_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="82" operator="equal">
+      <formula>"ground_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="11" priority="81" operator="equal">
+      <formula>"wall_1"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="80" operator="equal">
+      <formula>"door_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="79" operator="equal">
+      <formula>"door_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="78" operator="equal">
+      <formula>"key_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="77" operator="equal">
+      <formula>"key_1"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="76">
+      <formula>OR(LEFT(D12,5)="slime",LEFT(D12,3)="bat",LEFT(D12,8)="skeleton",LEFT(D12,5)="mummy",LEFT(D12,6)="wizard",LEFT(D12,6)="knight")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="75">
+      <formula>LEFT(D12,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="74">
+      <formula>LEFT(D12,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="5" priority="73">
+      <formula>LEFT(D12,3)="gem"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="72">
+      <formula>LEFT(D12,6)="potion"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="71">
+      <formula>LEFT(D12,3)="pos"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E12">
+    <cfRule type="cellIs" dxfId="14" priority="98" operator="equal">
+      <formula>"wall_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="97" operator="equal">
+      <formula>"wall_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="96" operator="equal">
+      <formula>"ground_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="11" priority="95" operator="equal">
+      <formula>"wall_1"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="94" operator="equal">
+      <formula>"door_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="93" operator="equal">
+      <formula>"door_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="92" operator="equal">
+      <formula>"key_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="91" operator="equal">
+      <formula>"key_1"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="90">
+      <formula>OR(LEFT(E12,5)="slime",LEFT(E12,3)="bat",LEFT(E12,8)="skeleton",LEFT(E12,5)="mummy",LEFT(E12,6)="wizard",LEFT(E12,6)="knight")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="89">
+      <formula>LEFT(E12,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="88">
+      <formula>LEFT(E12,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="5" priority="87">
+      <formula>LEFT(E12,3)="gem"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="86">
+      <formula>LEFT(E12,6)="potion"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="85">
+      <formula>LEFT(E12,3)="pos"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F12">
+    <cfRule type="cellIs" dxfId="14" priority="112" operator="equal">
+      <formula>"wall_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="111" operator="equal">
+      <formula>"wall_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="110" operator="equal">
+      <formula>"ground_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="11" priority="109" operator="equal">
+      <formula>"wall_1"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="108" operator="equal">
+      <formula>"door_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="107" operator="equal">
+      <formula>"door_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="106" operator="equal">
+      <formula>"key_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="105" operator="equal">
+      <formula>"key_1"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="104">
+      <formula>OR(LEFT(F12,5)="slime",LEFT(F12,3)="bat",LEFT(F12,8)="skeleton",LEFT(F12,5)="mummy",LEFT(F12,6)="wizard",LEFT(F12,6)="knight")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="103">
+      <formula>LEFT(F12,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="102">
+      <formula>LEFT(F12,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="5" priority="101">
+      <formula>LEFT(F12,3)="gem"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="100">
+      <formula>LEFT(F12,6)="potion"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="99">
+      <formula>LEFT(F12,3)="pos"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G12">
+    <cfRule type="cellIs" dxfId="14" priority="126" operator="equal">
+      <formula>"wall_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="125" operator="equal">
+      <formula>"wall_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="124" operator="equal">
+      <formula>"ground_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="11" priority="123" operator="equal">
+      <formula>"wall_1"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="122" operator="equal">
+      <formula>"door_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="121" operator="equal">
+      <formula>"door_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="120" operator="equal">
+      <formula>"key_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="119" operator="equal">
+      <formula>"key_1"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="118">
+      <formula>OR(LEFT(G12,5)="slime",LEFT(G12,3)="bat",LEFT(G12,8)="skeleton",LEFT(G12,5)="mummy",LEFT(G12,6)="wizard",LEFT(G12,6)="knight")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="117">
+      <formula>LEFT(G12,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="116">
+      <formula>LEFT(G12,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="5" priority="115">
+      <formula>LEFT(G12,3)="gem"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="114">
+      <formula>LEFT(G12,6)="potion"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="113">
+      <formula>LEFT(G12,3)="pos"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H12:I12">
+    <cfRule type="cellIs" dxfId="14" priority="758" operator="equal">
+      <formula>"wall_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="757" operator="equal">
+      <formula>"wall_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="756" operator="equal">
+      <formula>"ground_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="11" priority="755" operator="equal">
+      <formula>"wall_1"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="754" operator="equal">
+      <formula>"door_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="753" operator="equal">
+      <formula>"door_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="752" operator="equal">
+      <formula>"key_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="751" operator="equal">
+      <formula>"key_1"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="750">
+      <formula>OR(LEFT(H12,5)="slime",LEFT(H12,3)="bat",LEFT(H12,8)="skeleton",LEFT(H12,5)="mummy",LEFT(H12,6)="wizard",LEFT(H12,6)="knight")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="749">
+      <formula>LEFT(H12,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="748">
+      <formula>LEFT(H12,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="5" priority="747">
+      <formula>LEFT(H12,3)="gem"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="746">
+      <formula>LEFT(H12,6)="potion"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="745">
+      <formula>LEFT(H12,3)="pos"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J12">
+    <cfRule type="cellIs" dxfId="14" priority="70" operator="equal">
+      <formula>"wall_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="69" operator="equal">
+      <formula>"wall_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="68" operator="equal">
+      <formula>"ground_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="11" priority="67" operator="equal">
+      <formula>"wall_1"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="66" operator="equal">
+      <formula>"door_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="65" operator="equal">
+      <formula>"door_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="64" operator="equal">
+      <formula>"key_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="63" operator="equal">
+      <formula>"key_1"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="62">
+      <formula>OR(LEFT(J12,5)="slime",LEFT(J12,3)="bat",LEFT(J12,8)="skeleton",LEFT(J12,5)="mummy",LEFT(J12,6)="wizard",LEFT(J12,6)="knight")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="61">
+      <formula>LEFT(J12,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="60">
+      <formula>LEFT(J12,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="5" priority="59">
+      <formula>LEFT(J12,3)="gem"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="58">
+      <formula>LEFT(J12,6)="potion"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="57">
+      <formula>LEFT(J12,3)="pos"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K12">
+    <cfRule type="cellIs" dxfId="14" priority="448" operator="equal">
+      <formula>"wall_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="447" operator="equal">
+      <formula>"wall_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="446" operator="equal">
+      <formula>"ground_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="11" priority="445" operator="equal">
+      <formula>"wall_1"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="444" operator="equal">
+      <formula>"door_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="443" operator="equal">
+      <formula>"door_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="442" operator="equal">
+      <formula>"key_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="441" operator="equal">
+      <formula>"key_1"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="440">
+      <formula>OR(LEFT(K12,5)="slime",LEFT(K12,3)="bat",LEFT(K12,8)="skeleton",LEFT(K12,5)="mummy",LEFT(K12,6)="wizard",LEFT(K12,6)="knight")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="439">
+      <formula>LEFT(K12,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="438">
+      <formula>LEFT(K12,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="5" priority="437">
+      <formula>LEFT(K12,3)="gem"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="436">
+      <formula>LEFT(K12,6)="potion"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="435">
+      <formula>LEFT(K12,3)="pos"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L12">
+    <cfRule type="cellIs" dxfId="14" priority="730" operator="equal">
+      <formula>"wall_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="729" operator="equal">
+      <formula>"wall_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="728" operator="equal">
+      <formula>"ground_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="11" priority="727" operator="equal">
+      <formula>"wall_1"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="726" operator="equal">
+      <formula>"door_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="725" operator="equal">
+      <formula>"door_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="724" operator="equal">
+      <formula>"key_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="723" operator="equal">
+      <formula>"key_1"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="722">
+      <formula>OR(LEFT(L12,5)="slime",LEFT(L12,3)="bat",LEFT(L12,8)="skeleton",LEFT(L12,5)="mummy",LEFT(L12,6)="wizard",LEFT(L12,6)="knight")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="721">
+      <formula>LEFT(L12,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="720">
+      <formula>LEFT(L12,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="5" priority="719">
+      <formula>LEFT(L12,3)="gem"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="718">
+      <formula>LEFT(L12,6)="potion"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="717">
+      <formula>LEFT(L12,3)="pos"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H6:H7">
+    <cfRule type="cellIs" dxfId="14" priority="926" operator="equal">
+      <formula>"wall_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="925" operator="equal">
+      <formula>"wall_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="924" operator="equal">
+      <formula>"ground_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="11" priority="923" operator="equal">
+      <formula>"wall_1"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="922" operator="equal">
+      <formula>"door_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="921" operator="equal">
+      <formula>"door_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="920" operator="equal">
+      <formula>"key_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="919" operator="equal">
+      <formula>"key_1"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="918">
+      <formula>OR(LEFT(H6,5)="slime",LEFT(H6,3)="bat",LEFT(H6,8)="skeleton",LEFT(H6,5)="mummy",LEFT(H6,6)="wizard",LEFT(H6,6)="knight")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="917">
+      <formula>LEFT(H6,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="916">
+      <formula>LEFT(H6,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="5" priority="915">
+      <formula>LEFT(H6,3)="gem"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="914">
+      <formula>LEFT(H6,6)="potion"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="913">
+      <formula>LEFT(H6,3)="pos"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L4:L5">
+    <cfRule type="cellIs" dxfId="14" priority="954" operator="equal">
+      <formula>"wall_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="953" operator="equal">
+      <formula>"wall_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="952" operator="equal">
+      <formula>"ground_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="11" priority="951" operator="equal">
+      <formula>"wall_1"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="950" operator="equal">
+      <formula>"door_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="949" operator="equal">
+      <formula>"door_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="948" operator="equal">
+      <formula>"key_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="947" operator="equal">
+      <formula>"key_1"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="946">
+      <formula>OR(LEFT(L4,5)="slime",LEFT(L4,3)="bat",LEFT(L4,8)="skeleton",LEFT(L4,5)="mummy",LEFT(L4,6)="wizard",LEFT(L4,6)="knight")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="945">
+      <formula>LEFT(L4,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="944">
+      <formula>LEFT(L4,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="5" priority="943">
+      <formula>LEFT(L4,3)="gem"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="942">
+      <formula>LEFT(L4,6)="potion"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="941">
+      <formula>LEFT(L4,3)="pos"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L6:L7">
+    <cfRule type="cellIs" dxfId="14" priority="898" operator="equal">
+      <formula>"wall_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="897" operator="equal">
+      <formula>"wall_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="896" operator="equal">
+      <formula>"ground_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="11" priority="895" operator="equal">
+      <formula>"wall_1"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="894" operator="equal">
+      <formula>"door_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="893" operator="equal">
+      <formula>"door_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="892" operator="equal">
+      <formula>"key_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="891" operator="equal">
+      <formula>"key_1"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="890">
+      <formula>OR(LEFT(L6,5)="slime",LEFT(L6,3)="bat",LEFT(L6,8)="skeleton",LEFT(L6,5)="mummy",LEFT(L6,6)="wizard",LEFT(L6,6)="knight")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="889">
+      <formula>LEFT(L6,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="888">
+      <formula>LEFT(L6,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="5" priority="887">
+      <formula>LEFT(L6,3)="gem"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="886">
+      <formula>LEFT(L6,6)="potion"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="885">
+      <formula>LEFT(L6,3)="pos"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L8:L9">
+    <cfRule type="cellIs" dxfId="14" priority="842" operator="equal">
+      <formula>"wall_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="841" operator="equal">
+      <formula>"wall_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="840" operator="equal">
+      <formula>"ground_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="11" priority="839" operator="equal">
+      <formula>"wall_1"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="838" operator="equal">
+      <formula>"door_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="837" operator="equal">
+      <formula>"door_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="836" operator="equal">
+      <formula>"key_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="835" operator="equal">
+      <formula>"key_1"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="834">
+      <formula>OR(LEFT(L8,5)="slime",LEFT(L8,3)="bat",LEFT(L8,8)="skeleton",LEFT(L8,5)="mummy",LEFT(L8,6)="wizard",LEFT(L8,6)="knight")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="833">
+      <formula>LEFT(L8,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="832">
+      <formula>LEFT(L8,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="5" priority="831">
+      <formula>LEFT(L8,3)="gem"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="830">
+      <formula>LEFT(L8,6)="potion"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="829">
+      <formula>LEFT(L8,3)="pos"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L10:L11">
+    <cfRule type="cellIs" dxfId="14" priority="786" operator="equal">
+      <formula>"wall_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="785" operator="equal">
+      <formula>"wall_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="784" operator="equal">
+      <formula>"ground_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="11" priority="783" operator="equal">
+      <formula>"wall_1"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="782" operator="equal">
+      <formula>"door_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="781" operator="equal">
+      <formula>"door_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="780" operator="equal">
+      <formula>"key_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="779" operator="equal">
+      <formula>"key_1"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="778">
+      <formula>OR(LEFT(L10,5)="slime",LEFT(L10,3)="bat",LEFT(L10,8)="skeleton",LEFT(L10,5)="mummy",LEFT(L10,6)="wizard",LEFT(L10,6)="knight")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="777">
+      <formula>LEFT(L10,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="776">
+      <formula>LEFT(L10,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="5" priority="775">
+      <formula>LEFT(L10,3)="gem"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="774">
+      <formula>LEFT(L10,6)="potion"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="773">
+      <formula>LEFT(L10,3)="pos"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1:M1 A2:C2 F2:G3 A3:B3 D3 M2:M12 A4:A12 A13:M13">
+    <cfRule type="cellIs" dxfId="14" priority="1206" operator="equal">
+      <formula>"wall_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="1205" operator="equal">
+      <formula>"wall_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="1204" operator="equal">
+      <formula>"ground_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="11" priority="1203" operator="equal">
+      <formula>"wall_1"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="1202" operator="equal">
+      <formula>"door_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="1201" operator="equal">
+      <formula>"door_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="1200" operator="equal">
+      <formula>"key_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="1199" operator="equal">
+      <formula>"key_1"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="1198">
+      <formula>OR(LEFT(A1,5)="slime",LEFT(A1,3)="bat",LEFT(A1,8)="skeleton",LEFT(A1,5)="mummy",LEFT(A1,6)="wizard",LEFT(A1,6)="knight")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="1197">
+      <formula>LEFT(A1,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="1196">
+      <formula>LEFT(A1,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="5" priority="1195">
+      <formula>LEFT(A1,3)="gem"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="1194">
+      <formula>LEFT(A1,6)="potion"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1193">
+      <formula>LEFT(A1,3)="pos"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1:M13">
+    <cfRule type="containsText" dxfId="16" priority="688" operator="between" text="key_0">
+      <formula>NOT(ISERROR(SEARCH("key_0",A1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H3 J3">
+    <cfRule type="cellIs" dxfId="14" priority="1038" operator="equal">
+      <formula>"wall_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="1037" operator="equal">
+      <formula>"wall_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="1036" operator="equal">
+      <formula>"ground_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="11" priority="1035" operator="equal">
+      <formula>"wall_1"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="1034" operator="equal">
+      <formula>"door_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="1033" operator="equal">
+      <formula>"door_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="1032" operator="equal">
+      <formula>"key_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="1031" operator="equal">
+      <formula>"key_1"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="1030">
+      <formula>OR(LEFT(H3,5)="slime",LEFT(H3,3)="bat",LEFT(H3,8)="skeleton",LEFT(H3,5)="mummy",LEFT(H3,6)="wizard",LEFT(H3,6)="knight")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="1029">
+      <formula>LEFT(H3,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="1028">
+      <formula>LEFT(H3,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="5" priority="1027">
+      <formula>LEFT(H3,3)="gem"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="1026">
+      <formula>LEFT(H3,6)="potion"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1025">
+      <formula>LEFT(H3,3)="pos"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B4:G5">
+    <cfRule type="cellIs" dxfId="14" priority="996" operator="equal">
+      <formula>"wall_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="995" operator="equal">
+      <formula>"wall_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="994" operator="equal">
+      <formula>"ground_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="11" priority="993" operator="equal">
+      <formula>"wall_1"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="992" operator="equal">
+      <formula>"door_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="991" operator="equal">
+      <formula>"door_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="990" operator="equal">
+      <formula>"key_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="989" operator="equal">
+      <formula>"key_1"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="988">
+      <formula>OR(LEFT(B4,5)="slime",LEFT(B4,3)="bat",LEFT(B4,8)="skeleton",LEFT(B4,5)="mummy",LEFT(B4,6)="wizard",LEFT(B4,6)="knight")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="987">
+      <formula>LEFT(B4,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="986">
+      <formula>LEFT(B4,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="5" priority="985">
+      <formula>LEFT(B4,3)="gem"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="984">
+      <formula>LEFT(B4,6)="potion"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="983">
+      <formula>LEFT(B4,3)="pos"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J4:J5 H5">
+    <cfRule type="cellIs" dxfId="14" priority="982" operator="equal">
+      <formula>"wall_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="981" operator="equal">
+      <formula>"wall_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="980" operator="equal">
+      <formula>"ground_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="11" priority="979" operator="equal">
+      <formula>"wall_1"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="978" operator="equal">
+      <formula>"door_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="977" operator="equal">
+      <formula>"door_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="976" operator="equal">
+      <formula>"key_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="975" operator="equal">
+      <formula>"key_1"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="974">
+      <formula>OR(LEFT(H4,5)="slime",LEFT(H4,3)="bat",LEFT(H4,8)="skeleton",LEFT(H4,5)="mummy",LEFT(H4,6)="wizard",LEFT(H4,6)="knight")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="973">
+      <formula>LEFT(H4,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="972">
+      <formula>LEFT(H4,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="5" priority="971">
+      <formula>LEFT(H4,3)="gem"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="970">
+      <formula>LEFT(H4,6)="potion"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="969">
+      <formula>LEFT(H4,3)="pos"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B6:D6 B7 D7:G7">
+    <cfRule type="cellIs" dxfId="14" priority="940" operator="equal">
+      <formula>"wall_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="939" operator="equal">
+      <formula>"wall_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="938" operator="equal">
+      <formula>"ground_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="11" priority="937" operator="equal">
+      <formula>"wall_1"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="936" operator="equal">
+      <formula>"door_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="935" operator="equal">
+      <formula>"door_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="934" operator="equal">
+      <formula>"key_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="933" operator="equal">
+      <formula>"key_1"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="932">
+      <formula>OR(LEFT(B6,5)="slime",LEFT(B6,3)="bat",LEFT(B6,8)="skeleton",LEFT(B6,5)="mummy",LEFT(B6,6)="wizard",LEFT(B6,6)="knight")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="931">
+      <formula>LEFT(B6,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="930">
+      <formula>LEFT(B6,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="5" priority="929">
+      <formula>LEFT(B6,3)="gem"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="928">
+      <formula>LEFT(B6,6)="potion"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="927">
+      <formula>LEFT(B6,3)="pos"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B8 B9:F9">
+    <cfRule type="cellIs" dxfId="14" priority="884" operator="equal">
+      <formula>"wall_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="883" operator="equal">
+      <formula>"wall_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="882" operator="equal">
+      <formula>"ground_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="11" priority="881" operator="equal">
+      <formula>"wall_1"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="880" operator="equal">
+      <formula>"door_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="879" operator="equal">
+      <formula>"door_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="878" operator="equal">
+      <formula>"key_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="877" operator="equal">
+      <formula>"key_1"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="876">
+      <formula>OR(LEFT(B8,5)="slime",LEFT(B8,3)="bat",LEFT(B8,8)="skeleton",LEFT(B8,5)="mummy",LEFT(B8,6)="wizard",LEFT(B8,6)="knight")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="875">
+      <formula>LEFT(B8,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="874">
+      <formula>LEFT(B8,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="5" priority="873">
+      <formula>LEFT(B8,3)="gem"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="872">
+      <formula>LEFT(B8,6)="potion"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="871">
+      <formula>LEFT(B8,3)="pos"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H8:J8 I9">
+    <cfRule type="cellIs" dxfId="14" priority="870" operator="equal">
+      <formula>"wall_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="869" operator="equal">
+      <formula>"wall_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="868" operator="equal">
+      <formula>"ground_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="11" priority="867" operator="equal">
+      <formula>"wall_1"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="866" operator="equal">
+      <formula>"door_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="865" operator="equal">
+      <formula>"door_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="864" operator="equal">
+      <formula>"key_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="863" operator="equal">
+      <formula>"key_1"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="862">
+      <formula>OR(LEFT(H8,5)="slime",LEFT(H8,3)="bat",LEFT(H8,8)="skeleton",LEFT(H8,5)="mummy",LEFT(H8,6)="wizard",LEFT(H8,6)="knight")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="861">
+      <formula>LEFT(H8,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="860">
+      <formula>LEFT(H8,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="5" priority="859">
+      <formula>LEFT(H8,3)="gem"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="858">
+      <formula>LEFT(H8,6)="potion"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="857">
+      <formula>LEFT(H8,3)="pos"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F10 C11:F11">
+    <cfRule type="cellIs" dxfId="14" priority="828" operator="equal">
+      <formula>"wall_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="827" operator="equal">
+      <formula>"wall_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="826" operator="equal">
+      <formula>"ground_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="11" priority="825" operator="equal">
+      <formula>"wall_1"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="824" operator="equal">
+      <formula>"door_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="823" operator="equal">
+      <formula>"door_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="822" operator="equal">
+      <formula>"key_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="821" operator="equal">
+      <formula>"key_1"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="820">
+      <formula>OR(LEFT(C10,5)="slime",LEFT(C10,3)="bat",LEFT(C10,8)="skeleton",LEFT(C10,5)="mummy",LEFT(C10,6)="wizard",LEFT(C10,6)="knight")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="819">
+      <formula>LEFT(C10,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="818">
+      <formula>LEFT(C10,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="5" priority="817">
+      <formula>LEFT(C10,3)="gem"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="816">
+      <formula>LEFT(C10,6)="potion"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="815">
+      <formula>LEFT(C10,3)="pos"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H10:J11">
+    <cfRule type="cellIs" dxfId="14" priority="814" operator="equal">
+      <formula>"wall_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="813" operator="equal">
+      <formula>"wall_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="812" operator="equal">
+      <formula>"ground_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="11" priority="811" operator="equal">
+      <formula>"wall_1"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="810" operator="equal">
+      <formula>"door_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="809" operator="equal">
+      <formula>"door_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="808" operator="equal">
+      <formula>"key_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="807" operator="equal">
+      <formula>"key_1"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="806">
+      <formula>OR(LEFT(H10,5)="slime",LEFT(H10,3)="bat",LEFT(H10,8)="skeleton",LEFT(H10,5)="mummy",LEFT(H10,6)="wizard",LEFT(H10,6)="knight")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="805">
+      <formula>LEFT(H10,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="804">
+      <formula>LEFT(H10,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="5" priority="803">
+      <formula>LEFT(H10,3)="gem"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="802">
+      <formula>LEFT(H10,6)="potion"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="801">
+      <formula>LEFT(H10,3)="pos"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:M13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.33636363636364" defaultRowHeight="50" customHeight="1"/>
+  <sheetData>
+    <row r="1" customHeight="1" spans="1:13">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" customHeight="1" spans="1:13">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" customHeight="1" spans="1:13">
+      <c r="A3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" customHeight="1" spans="1:13">
+      <c r="A4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" customHeight="1" spans="1:13">
+      <c r="A5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" customHeight="1" spans="1:13">
+      <c r="A6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" customHeight="1" spans="1:13">
+      <c r="A7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" customHeight="1" spans="1:13">
+      <c r="A8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" customHeight="1" spans="1:13">
+      <c r="A9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" customHeight="1" spans="1:13">
+      <c r="A10" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" customHeight="1" spans="1:13">
+      <c r="A11" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="M11" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" customHeight="1" spans="1:13">
+      <c r="A12" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="M12" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" customHeight="1" spans="1:13">
+      <c r="A13" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="M13" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="C2">
+    <cfRule type="cellIs" dxfId="14" priority="1316" operator="equal">
+      <formula>"wall_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="1315" operator="equal">
+      <formula>"wall_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="1314" operator="equal">
+      <formula>"ground_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="11" priority="1313" operator="equal">
+      <formula>"wall_1"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="1312" operator="equal">
+      <formula>"door_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="1311" operator="equal">
+      <formula>"door_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="1310" operator="equal">
+      <formula>"key_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="1309" operator="equal">
+      <formula>"key_1"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="1308">
+      <formula>OR(LEFT(C2,5)="slime",LEFT(C2,3)="bat",LEFT(C2,8)="skeleton",LEFT(C2,5)="mummy",LEFT(C2,6)="wizard",LEFT(C2,6)="knight")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="1307">
+      <formula>LEFT(C2,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="1306">
+      <formula>LEFT(C2,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="5" priority="1305">
+      <formula>LEFT(C2,3)="gem"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="1304">
+      <formula>LEFT(C2,6)="potion"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1303">
+      <formula>LEFT(C2,3)="pos"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2">
+    <cfRule type="cellIs" dxfId="14" priority="210" operator="equal">
+      <formula>"wall_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="209" operator="equal">
+      <formula>"wall_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="208" operator="equal">
+      <formula>"ground_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="11" priority="207" operator="equal">
+      <formula>"wall_1"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="206" operator="equal">
+      <formula>"door_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="205" operator="equal">
+      <formula>"door_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="204" operator="equal">
+      <formula>"key_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="203" operator="equal">
+      <formula>"key_1"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="202">
+      <formula>OR(LEFT(E2,5)="slime",LEFT(E2,3)="bat",LEFT(E2,8)="skeleton",LEFT(E2,5)="mummy",LEFT(E2,6)="wizard",LEFT(E2,6)="knight")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="201">
+      <formula>LEFT(E2,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="200">
+      <formula>LEFT(E2,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="5" priority="199">
+      <formula>LEFT(E2,3)="gem"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="198">
+      <formula>LEFT(E2,6)="potion"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="197">
+      <formula>LEFT(E2,3)="pos"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I2">
+    <cfRule type="cellIs" dxfId="14" priority="504" operator="equal">
+      <formula>"wall_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="503" operator="equal">
+      <formula>"wall_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="502" operator="equal">
+      <formula>"ground_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="11" priority="501" operator="equal">
+      <formula>"wall_1"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="500" operator="equal">
+      <formula>"door_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="499" operator="equal">
+      <formula>"door_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="498" operator="equal">
+      <formula>"key_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="497" operator="equal">
+      <formula>"key_1"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="496">
+      <formula>OR(LEFT(I2,5)="slime",LEFT(I2,3)="bat",LEFT(I2,8)="skeleton",LEFT(I2,5)="mummy",LEFT(I2,6)="wizard",LEFT(I2,6)="knight")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="495">
+      <formula>LEFT(I2,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="494">
+      <formula>LEFT(I2,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="5" priority="493">
+      <formula>LEFT(I2,3)="gem"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="492">
+      <formula>LEFT(I2,6)="potion"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="491">
+      <formula>LEFT(I2,3)="pos"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J2">
+    <cfRule type="cellIs" dxfId="14" priority="1512" operator="equal">
+      <formula>"wall_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="1511" operator="equal">
+      <formula>"wall_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="1510" operator="equal">
+      <formula>"ground_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="11" priority="1509" operator="equal">
+      <formula>"wall_1"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="1508" operator="equal">
+      <formula>"door_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="1507" operator="equal">
+      <formula>"door_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="1506" operator="equal">
+      <formula>"key_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="1505" operator="equal">
+      <formula>"key_1"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="1504">
+      <formula>OR(LEFT(J2,5)="slime",LEFT(J2,3)="bat",LEFT(J2,8)="skeleton",LEFT(J2,5)="mummy",LEFT(J2,6)="wizard",LEFT(J2,6)="knight")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="1503">
+      <formula>LEFT(J2,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="1502">
+      <formula>LEFT(J2,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="5" priority="1501">
+      <formula>LEFT(J2,3)="gem"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="1500">
+      <formula>LEFT(J2,6)="potion"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1499">
+      <formula>LEFT(J2,3)="pos"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K2">
+    <cfRule type="cellIs" dxfId="14" priority="1540" operator="equal">
+      <formula>"wall_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="1539" operator="equal">
+      <formula>"wall_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="1538" operator="equal">
+      <formula>"ground_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="11" priority="1537" operator="equal">
+      <formula>"wall_1"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="1536" operator="equal">
+      <formula>"door_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="1535" operator="equal">
+      <formula>"door_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="1534" operator="equal">
+      <formula>"key_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="1533" operator="equal">
+      <formula>"key_1"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="1532">
+      <formula>OR(LEFT(K2,5)="slime",LEFT(K2,3)="bat",LEFT(K2,8)="skeleton",LEFT(K2,5)="mummy",LEFT(K2,6)="wizard",LEFT(K2,6)="knight")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="1531">
+      <formula>LEFT(K2,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="1530">
+      <formula>LEFT(K2,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="5" priority="1529">
+      <formula>LEFT(K2,3)="gem"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="1528">
+      <formula>LEFT(K2,6)="potion"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1527">
+      <formula>LEFT(K2,3)="pos"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C3">
+    <cfRule type="cellIs" dxfId="14" priority="140" operator="equal">
+      <formula>"wall_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="139" operator="equal">
+      <formula>"wall_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="138" operator="equal">
+      <formula>"ground_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="11" priority="137" operator="equal">
+      <formula>"wall_1"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="136" operator="equal">
+      <formula>"door_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="135" operator="equal">
+      <formula>"door_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="134" operator="equal">
+      <formula>"key_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="133" operator="equal">
+      <formula>"key_1"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="132">
+      <formula>OR(LEFT(C3,5)="slime",LEFT(C3,3)="bat",LEFT(C3,8)="skeleton",LEFT(C3,5)="mummy",LEFT(C3,6)="wizard",LEFT(C3,6)="knight")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="131">
+      <formula>LEFT(C3,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="130">
+      <formula>LEFT(C3,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="5" priority="129">
+      <formula>LEFT(C3,3)="gem"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="128">
+      <formula>LEFT(C3,6)="potion"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="127">
+      <formula>LEFT(C3,3)="pos"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E3">
+    <cfRule type="cellIs" dxfId="14" priority="224" operator="equal">
+      <formula>"wall_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="223" operator="equal">
+      <formula>"wall_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="222" operator="equal">
+      <formula>"ground_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="11" priority="221" operator="equal">
+      <formula>"wall_1"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="220" operator="equal">
+      <formula>"door_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="219" operator="equal">
+      <formula>"door_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="218" operator="equal">
+      <formula>"key_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="217" operator="equal">
+      <formula>"key_1"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="216">
+      <formula>OR(LEFT(E3,5)="slime",LEFT(E3,3)="bat",LEFT(E3,8)="skeleton",LEFT(E3,5)="mummy",LEFT(E3,6)="wizard",LEFT(E3,6)="knight")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="215">
+      <formula>LEFT(E3,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="214">
+      <formula>LEFT(E3,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="5" priority="213">
+      <formula>LEFT(E3,3)="gem"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="212">
+      <formula>LEFT(E3,6)="potion"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="211">
+      <formula>LEFT(E3,3)="pos"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I3">
+    <cfRule type="cellIs" dxfId="14" priority="490" operator="equal">
+      <formula>"wall_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="489" operator="equal">
+      <formula>"wall_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="488" operator="equal">
+      <formula>"ground_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="11" priority="487" operator="equal">
+      <formula>"wall_1"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="486" operator="equal">
+      <formula>"door_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="485" operator="equal">
+      <formula>"door_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="484" operator="equal">
+      <formula>"key_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="483" operator="equal">
+      <formula>"key_1"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="482">
+      <formula>OR(LEFT(I3,5)="slime",LEFT(I3,3)="bat",LEFT(I3,8)="skeleton",LEFT(I3,5)="mummy",LEFT(I3,6)="wizard",LEFT(I3,6)="knight")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="481">
+      <formula>LEFT(I3,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="480">
+      <formula>LEFT(I3,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="5" priority="479">
+      <formula>LEFT(I3,3)="gem"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="478">
+      <formula>LEFT(I3,6)="potion"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="477">
+      <formula>LEFT(I3,3)="pos"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J3">
+    <cfRule type="cellIs" dxfId="14" priority="518" operator="equal">
+      <formula>"wall_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="517" operator="equal">
+      <formula>"wall_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="516" operator="equal">
+      <formula>"ground_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="11" priority="515" operator="equal">
+      <formula>"wall_1"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="514" operator="equal">
+      <formula>"door_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="513" operator="equal">
+      <formula>"door_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="512" operator="equal">
+      <formula>"key_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="511" operator="equal">
+      <formula>"key_1"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="510">
+      <formula>OR(LEFT(J3,5)="slime",LEFT(J3,3)="bat",LEFT(J3,8)="skeleton",LEFT(J3,5)="mummy",LEFT(J3,6)="wizard",LEFT(J3,6)="knight")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="509">
+      <formula>LEFT(J3,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="508">
+      <formula>LEFT(J3,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="5" priority="507">
+      <formula>LEFT(J3,3)="gem"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="506">
+      <formula>LEFT(J3,6)="potion"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="505">
+      <formula>LEFT(J3,3)="pos"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K3">
+    <cfRule type="cellIs" dxfId="14" priority="532" operator="equal">
+      <formula>"wall_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="531" operator="equal">
+      <formula>"wall_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="530" operator="equal">
+      <formula>"ground_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="11" priority="529" operator="equal">
+      <formula>"wall_1"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="528" operator="equal">
+      <formula>"door_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="527" operator="equal">
+      <formula>"door_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="526" operator="equal">
+      <formula>"key_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="525" operator="equal">
+      <formula>"key_1"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="524">
+      <formula>OR(LEFT(K3,5)="slime",LEFT(K3,3)="bat",LEFT(K3,8)="skeleton",LEFT(K3,5)="mummy",LEFT(K3,6)="wizard",LEFT(K3,6)="knight")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="523">
+      <formula>LEFT(K3,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="522">
+      <formula>LEFT(K3,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="5" priority="521">
+      <formula>LEFT(K3,3)="gem"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="520">
+      <formula>LEFT(K3,6)="potion"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="519">
+      <formula>LEFT(K3,3)="pos"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B4">
+    <cfRule type="cellIs" dxfId="14" priority="1274" operator="equal">
+      <formula>"wall_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="1273" operator="equal">
+      <formula>"wall_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="1272" operator="equal">
+      <formula>"ground_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="11" priority="1271" operator="equal">
+      <formula>"wall_1"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="1270" operator="equal">
+      <formula>"door_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="1269" operator="equal">
+      <formula>"door_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="1268" operator="equal">
+      <formula>"key_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="1267" operator="equal">
+      <formula>"key_1"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="1266">
+      <formula>OR(LEFT(B4,5)="slime",LEFT(B4,3)="bat",LEFT(B4,8)="skeleton",LEFT(B4,5)="mummy",LEFT(B4,6)="wizard",LEFT(B4,6)="knight")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="1265">
+      <formula>LEFT(B4,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="1264">
+      <formula>LEFT(B4,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="5" priority="1263">
+      <formula>LEFT(B4,3)="gem"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="1262">
+      <formula>LEFT(B4,6)="potion"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1261">
+      <formula>LEFT(B4,3)="pos"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C4">
+    <cfRule type="cellIs" dxfId="14" priority="126" operator="equal">
+      <formula>"wall_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="125" operator="equal">
+      <formula>"wall_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="124" operator="equal">
+      <formula>"ground_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="11" priority="123" operator="equal">
+      <formula>"wall_1"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="122" operator="equal">
+      <formula>"door_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="121" operator="equal">
+      <formula>"door_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="120" operator="equal">
+      <formula>"key_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="119" operator="equal">
+      <formula>"key_1"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="118">
+      <formula>OR(LEFT(C4,5)="slime",LEFT(C4,3)="bat",LEFT(C4,8)="skeleton",LEFT(C4,5)="mummy",LEFT(C4,6)="wizard",LEFT(C4,6)="knight")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="117">
+      <formula>LEFT(C4,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="116">
+      <formula>LEFT(C4,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="5" priority="115">
+      <formula>LEFT(C4,3)="gem"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="114">
+      <formula>LEFT(C4,6)="potion"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="113">
+      <formula>LEFT(C4,3)="pos"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D4">
+    <cfRule type="cellIs" dxfId="14" priority="1330" operator="equal">
+      <formula>"wall_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="1329" operator="equal">
+      <formula>"wall_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="1328" operator="equal">
+      <formula>"ground_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="11" priority="1327" operator="equal">
+      <formula>"wall_1"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="1326" operator="equal">
+      <formula>"door_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="1325" operator="equal">
+      <formula>"door_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="1324" operator="equal">
+      <formula>"key_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="1323" operator="equal">
+      <formula>"key_1"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="1322">
+      <formula>OR(LEFT(D4,5)="slime",LEFT(D4,3)="bat",LEFT(D4,8)="skeleton",LEFT(D4,5)="mummy",LEFT(D4,6)="wizard",LEFT(D4,6)="knight")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="1321">
+      <formula>LEFT(D4,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="1320">
+      <formula>LEFT(D4,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="5" priority="1319">
+      <formula>LEFT(D4,3)="gem"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="1318">
+      <formula>LEFT(D4,6)="potion"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1317">
+      <formula>LEFT(D4,3)="pos"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E4">
+    <cfRule type="cellIs" dxfId="14" priority="238" operator="equal">
+      <formula>"wall_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="237" operator="equal">
+      <formula>"wall_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="236" operator="equal">
+      <formula>"ground_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="11" priority="235" operator="equal">
+      <formula>"wall_1"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="234" operator="equal">
+      <formula>"door_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="233" operator="equal">
+      <formula>"door_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="232" operator="equal">
+      <formula>"key_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="231" operator="equal">
+      <formula>"key_1"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="230">
+      <formula>OR(LEFT(E4,5)="slime",LEFT(E4,3)="bat",LEFT(E4,8)="skeleton",LEFT(E4,5)="mummy",LEFT(E4,6)="wizard",LEFT(E4,6)="knight")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="229">
+      <formula>LEFT(E4,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="228">
+      <formula>LEFT(E4,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="5" priority="227">
+      <formula>LEFT(E4,3)="gem"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="226">
+      <formula>LEFT(E4,6)="potion"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="225">
+      <formula>LEFT(E4,3)="pos"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F4">
+    <cfRule type="cellIs" dxfId="14" priority="196" operator="equal">
+      <formula>"wall_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="195" operator="equal">
+      <formula>"wall_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="194" operator="equal">
+      <formula>"ground_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="11" priority="193" operator="equal">
+      <formula>"wall_1"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="192" operator="equal">
+      <formula>"door_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="191" operator="equal">
+      <formula>"door_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="190" operator="equal">
+      <formula>"key_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="189" operator="equal">
+      <formula>"key_1"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="188">
+      <formula>OR(LEFT(F4,5)="slime",LEFT(F4,3)="bat",LEFT(F4,8)="skeleton",LEFT(F4,5)="mummy",LEFT(F4,6)="wizard",LEFT(F4,6)="knight")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="187">
+      <formula>LEFT(F4,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="186">
+      <formula>LEFT(F4,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="5" priority="185">
+      <formula>LEFT(F4,3)="gem"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="184">
+      <formula>LEFT(F4,6)="potion"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="183">
+      <formula>LEFT(F4,3)="pos"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G4">
+    <cfRule type="cellIs" dxfId="14" priority="1414" operator="equal">
+      <formula>"wall_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="1413" operator="equal">
+      <formula>"wall_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="1412" operator="equal">
+      <formula>"ground_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="11" priority="1411" operator="equal">
+      <formula>"wall_1"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="1410" operator="equal">
+      <formula>"door_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="1409" operator="equal">
+      <formula>"door_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="1408" operator="equal">
+      <formula>"key_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="1407" operator="equal">
+      <formula>"key_1"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="1406">
+      <formula>OR(LEFT(G4,5)="slime",LEFT(G4,3)="bat",LEFT(G4,8)="skeleton",LEFT(G4,5)="mummy",LEFT(G4,6)="wizard",LEFT(G4,6)="knight")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="1405">
+      <formula>LEFT(G4,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="1404">
+      <formula>LEFT(G4,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="5" priority="1403">
+      <formula>LEFT(G4,3)="gem"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="1402">
+      <formula>LEFT(G4,6)="potion"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1401">
+      <formula>LEFT(G4,3)="pos"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H4">
+    <cfRule type="cellIs" dxfId="14" priority="182" operator="equal">
+      <formula>"wall_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="181" operator="equal">
+      <formula>"wall_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="180" operator="equal">
+      <formula>"ground_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="11" priority="179" operator="equal">
+      <formula>"wall_1"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="178" operator="equal">
+      <formula>"door_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="177" operator="equal">
+      <formula>"door_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="176" operator="equal">
+      <formula>"key_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="175" operator="equal">
+      <formula>"key_1"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="174">
+      <formula>OR(LEFT(H4,5)="slime",LEFT(H4,3)="bat",LEFT(H4,8)="skeleton",LEFT(H4,5)="mummy",LEFT(H4,6)="wizard",LEFT(H4,6)="knight")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="173">
+      <formula>LEFT(H4,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="172">
+      <formula>LEFT(H4,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="5" priority="171">
+      <formula>LEFT(H4,3)="gem"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="170">
+      <formula>LEFT(H4,6)="potion"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="169">
+      <formula>LEFT(H4,3)="pos"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I4">
+    <cfRule type="cellIs" dxfId="14" priority="476" operator="equal">
+      <formula>"wall_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="475" operator="equal">
+      <formula>"wall_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="474" operator="equal">
+      <formula>"ground_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="11" priority="473" operator="equal">
+      <formula>"wall_1"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="472" operator="equal">
+      <formula>"door_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="471" operator="equal">
+      <formula>"door_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="470" operator="equal">
+      <formula>"key_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="469" operator="equal">
+      <formula>"key_1"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="468">
+      <formula>OR(LEFT(I4,5)="slime",LEFT(I4,3)="bat",LEFT(I4,8)="skeleton",LEFT(I4,5)="mummy",LEFT(I4,6)="wizard",LEFT(I4,6)="knight")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="467">
+      <formula>LEFT(I4,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="466">
+      <formula>LEFT(I4,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="5" priority="465">
+      <formula>LEFT(I4,3)="gem"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="464">
+      <formula>LEFT(I4,6)="potion"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="463">
+      <formula>LEFT(I4,3)="pos"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J4">
+    <cfRule type="cellIs" dxfId="14" priority="1498" operator="equal">
+      <formula>"wall_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="1497" operator="equal">
+      <formula>"wall_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="1496" operator="equal">
+      <formula>"ground_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="11" priority="1495" operator="equal">
+      <formula>"wall_1"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="1494" operator="equal">
+      <formula>"door_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="1493" operator="equal">
+      <formula>"door_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="1492" operator="equal">
+      <formula>"key_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="1491" operator="equal">
+      <formula>"key_1"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="1490">
+      <formula>OR(LEFT(J4,5)="slime",LEFT(J4,3)="bat",LEFT(J4,8)="skeleton",LEFT(J4,5)="mummy",LEFT(J4,6)="wizard",LEFT(J4,6)="knight")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="1489">
+      <formula>LEFT(J4,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="1488">
+      <formula>LEFT(J4,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="5" priority="1487">
+      <formula>LEFT(J4,3)="gem"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="1486">
+      <formula>LEFT(J4,6)="potion"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1485">
+      <formula>LEFT(J4,3)="pos"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K4">
+    <cfRule type="cellIs" dxfId="14" priority="546" operator="equal">
+      <formula>"wall_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="545" operator="equal">
+      <formula>"wall_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="544" operator="equal">
+      <formula>"ground_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="11" priority="543" operator="equal">
+      <formula>"wall_1"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="542" operator="equal">
+      <formula>"door_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="541" operator="equal">
+      <formula>"door_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="540" operator="equal">
+      <formula>"key_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="539" operator="equal">
+      <formula>"key_1"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="538">
+      <formula>OR(LEFT(K4,5)="slime",LEFT(K4,3)="bat",LEFT(K4,8)="skeleton",LEFT(K4,5)="mummy",LEFT(K4,6)="wizard",LEFT(K4,6)="knight")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="537">
+      <formula>LEFT(K4,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="536">
+      <formula>LEFT(K4,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="5" priority="535">
+      <formula>LEFT(K4,3)="gem"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="534">
+      <formula>LEFT(K4,6)="potion"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="533">
+      <formula>LEFT(K4,3)="pos"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L4">
+    <cfRule type="cellIs" dxfId="14" priority="1554" operator="equal">
+      <formula>"wall_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="1553" operator="equal">
+      <formula>"wall_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="1552" operator="equal">
+      <formula>"ground_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="11" priority="1551" operator="equal">
+      <formula>"wall_1"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="1550" operator="equal">
+      <formula>"door_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="1549" operator="equal">
+      <formula>"door_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="1548" operator="equal">
+      <formula>"key_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="1547" operator="equal">
+      <formula>"key_1"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="1546">
+      <formula>OR(LEFT(L4,5)="slime",LEFT(L4,3)="bat",LEFT(L4,8)="skeleton",LEFT(L4,5)="mummy",LEFT(L4,6)="wizard",LEFT(L4,6)="knight")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="1545">
+      <formula>LEFT(L4,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="1544">
+      <formula>LEFT(L4,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="5" priority="1543">
+      <formula>LEFT(L4,3)="gem"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="1542">
+      <formula>LEFT(L4,6)="potion"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1541">
+      <formula>LEFT(L4,3)="pos"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C5">
+    <cfRule type="cellIs" dxfId="14" priority="112" operator="equal">
+      <formula>"wall_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="111" operator="equal">
+      <formula>"wall_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="110" operator="equal">
+      <formula>"ground_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="11" priority="109" operator="equal">
+      <formula>"wall_1"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="108" operator="equal">
+      <formula>"door_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="107" operator="equal">
+      <formula>"door_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="106" operator="equal">
+      <formula>"key_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="105" operator="equal">
+      <formula>"key_1"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="104">
+      <formula>OR(LEFT(C5,5)="slime",LEFT(C5,3)="bat",LEFT(C5,8)="skeleton",LEFT(C5,5)="mummy",LEFT(C5,6)="wizard",LEFT(C5,6)="knight")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="103">
+      <formula>LEFT(C5,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="102">
+      <formula>LEFT(C5,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="5" priority="101">
+      <formula>LEFT(C5,3)="gem"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="100">
+      <formula>LEFT(C5,6)="potion"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="99">
+      <formula>LEFT(C5,3)="pos"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E5">
+    <cfRule type="cellIs" dxfId="14" priority="252" operator="equal">
+      <formula>"wall_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="251" operator="equal">
+      <formula>"wall_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="250" operator="equal">
+      <formula>"ground_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="11" priority="249" operator="equal">
+      <formula>"wall_1"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="248" operator="equal">
+      <formula>"door_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="247" operator="equal">
+      <formula>"door_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="246" operator="equal">
+      <formula>"key_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="245" operator="equal">
+      <formula>"key_1"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="244">
+      <formula>OR(LEFT(E5,5)="slime",LEFT(E5,3)="bat",LEFT(E5,8)="skeleton",LEFT(E5,5)="mummy",LEFT(E5,6)="wizard",LEFT(E5,6)="knight")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="243">
+      <formula>LEFT(E5,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="242">
+      <formula>LEFT(E5,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="5" priority="241">
+      <formula>LEFT(E5,3)="gem"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="240">
+      <formula>LEFT(E5,6)="potion"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="239">
+      <formula>LEFT(E5,3)="pos"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I5">
+    <cfRule type="cellIs" dxfId="14" priority="462" operator="equal">
+      <formula>"wall_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="461" operator="equal">
+      <formula>"wall_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="460" operator="equal">
+      <formula>"ground_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="11" priority="459" operator="equal">
+      <formula>"wall_1"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="458" operator="equal">
+      <formula>"door_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="457" operator="equal">
+      <formula>"door_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="456" operator="equal">
+      <formula>"key_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="455" operator="equal">
+      <formula>"key_1"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="454">
+      <formula>OR(LEFT(I5,5)="slime",LEFT(I5,3)="bat",LEFT(I5,8)="skeleton",LEFT(I5,5)="mummy",LEFT(I5,6)="wizard",LEFT(I5,6)="knight")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="453">
+      <formula>LEFT(I5,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="452">
+      <formula>LEFT(I5,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="5" priority="451">
+      <formula>LEFT(I5,3)="gem"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="450">
+      <formula>LEFT(I5,6)="potion"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="449">
+      <formula>LEFT(I5,3)="pos"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K5">
+    <cfRule type="cellIs" dxfId="14" priority="560" operator="equal">
+      <formula>"wall_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="559" operator="equal">
+      <formula>"wall_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="558" operator="equal">
+      <formula>"ground_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="11" priority="557" operator="equal">
+      <formula>"wall_1"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="556" operator="equal">
+      <formula>"door_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="555" operator="equal">
+      <formula>"door_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="554" operator="equal">
+      <formula>"key_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="553" operator="equal">
+      <formula>"key_1"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="552">
+      <formula>OR(LEFT(K5,5)="slime",LEFT(K5,3)="bat",LEFT(K5,8)="skeleton",LEFT(K5,5)="mummy",LEFT(K5,6)="wizard",LEFT(K5,6)="knight")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="551">
+      <formula>LEFT(K5,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="550">
+      <formula>LEFT(K5,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="5" priority="549">
+      <formula>LEFT(K5,3)="gem"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="548">
+      <formula>LEFT(K5,6)="potion"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="547">
+      <formula>LEFT(K5,3)="pos"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C6">
+    <cfRule type="cellIs" dxfId="14" priority="98" operator="equal">
+      <formula>"wall_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="97" operator="equal">
+      <formula>"wall_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="96" operator="equal">
+      <formula>"ground_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="11" priority="95" operator="equal">
+      <formula>"wall_1"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="94" operator="equal">
+      <formula>"door_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="93" operator="equal">
+      <formula>"door_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="92" operator="equal">
+      <formula>"key_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="91" operator="equal">
+      <formula>"key_1"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="90">
+      <formula>OR(LEFT(C6,5)="slime",LEFT(C6,3)="bat",LEFT(C6,8)="skeleton",LEFT(C6,5)="mummy",LEFT(C6,6)="wizard",LEFT(C6,6)="knight")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="89">
+      <formula>LEFT(C6,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="88">
+      <formula>LEFT(C6,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="5" priority="87">
+      <formula>LEFT(C6,3)="gem"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="86">
+      <formula>LEFT(C6,6)="potion"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="85">
+      <formula>LEFT(C6,3)="pos"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6">
+    <cfRule type="cellIs" dxfId="14" priority="266" operator="equal">
+      <formula>"wall_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="265" operator="equal">
+      <formula>"wall_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="264" operator="equal">
+      <formula>"ground_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="11" priority="263" operator="equal">
+      <formula>"wall_1"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="262" operator="equal">
+      <formula>"door_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="261" operator="equal">
+      <formula>"door_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="260" operator="equal">
+      <formula>"key_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="259" operator="equal">
+      <formula>"key_1"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="258">
+      <formula>OR(LEFT(E6,5)="slime",LEFT(E6,3)="bat",LEFT(E6,8)="skeleton",LEFT(E6,5)="mummy",LEFT(E6,6)="wizard",LEFT(E6,6)="knight")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="257">
+      <formula>LEFT(E6,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="256">
+      <formula>LEFT(E6,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="5" priority="255">
+      <formula>LEFT(E6,3)="gem"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="254">
+      <formula>LEFT(E6,6)="potion"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="253">
+      <formula>LEFT(E6,3)="pos"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I6">
+    <cfRule type="cellIs" dxfId="14" priority="448" operator="equal">
+      <formula>"wall_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="447" operator="equal">
+      <formula>"wall_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="446" operator="equal">
+      <formula>"ground_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="11" priority="445" operator="equal">
+      <formula>"wall_1"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="444" operator="equal">
+      <formula>"door_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="443" operator="equal">
+      <formula>"door_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="442" operator="equal">
+      <formula>"key_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="441" operator="equal">
+      <formula>"key_1"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="440">
+      <formula>OR(LEFT(I6,5)="slime",LEFT(I6,3)="bat",LEFT(I6,8)="skeleton",LEFT(I6,5)="mummy",LEFT(I6,6)="wizard",LEFT(I6,6)="knight")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="439">
+      <formula>LEFT(I6,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="438">
+      <formula>LEFT(I6,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="5" priority="437">
+      <formula>LEFT(I6,3)="gem"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="436">
+      <formula>LEFT(I6,6)="potion"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="435">
+      <formula>LEFT(I6,3)="pos"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K6">
+    <cfRule type="cellIs" dxfId="14" priority="574" operator="equal">
+      <formula>"wall_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="573" operator="equal">
+      <formula>"wall_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="572" operator="equal">
+      <formula>"ground_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="11" priority="571" operator="equal">
+      <formula>"wall_1"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="570" operator="equal">
+      <formula>"door_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="569" operator="equal">
+      <formula>"door_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="568" operator="equal">
+      <formula>"key_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="567" operator="equal">
+      <formula>"key_1"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="566">
+      <formula>OR(LEFT(K6,5)="slime",LEFT(K6,3)="bat",LEFT(K6,8)="skeleton",LEFT(K6,5)="mummy",LEFT(K6,6)="wizard",LEFT(K6,6)="knight")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="565">
+      <formula>LEFT(K6,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="564">
+      <formula>LEFT(K6,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="5" priority="563">
+      <formula>LEFT(K6,3)="gem"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="562">
+      <formula>LEFT(K6,6)="potion"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="561">
+      <formula>LEFT(K6,3)="pos"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B7">
+    <cfRule type="cellIs" dxfId="14" priority="966" operator="equal">
+      <formula>"wall_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="965" operator="equal">
+      <formula>"wall_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="964" operator="equal">
+      <formula>"ground_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="11" priority="963" operator="equal">
+      <formula>"wall_1"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="962" operator="equal">
+      <formula>"door_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="961" operator="equal">
+      <formula>"door_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="960" operator="equal">
+      <formula>"key_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="959" operator="equal">
+      <formula>"key_1"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="958">
+      <formula>OR(LEFT(B7,5)="slime",LEFT(B7,3)="bat",LEFT(B7,8)="skeleton",LEFT(B7,5)="mummy",LEFT(B7,6)="wizard",LEFT(B7,6)="knight")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="957">
+      <formula>LEFT(B7,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="956">
+      <formula>LEFT(B7,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="5" priority="955">
+      <formula>LEFT(B7,3)="gem"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="954">
+      <formula>LEFT(B7,6)="potion"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="953">
+      <formula>LEFT(B7,3)="pos"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C7">
+    <cfRule type="cellIs" dxfId="14" priority="84" operator="equal">
+      <formula>"wall_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="83" operator="equal">
+      <formula>"wall_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="82" operator="equal">
+      <formula>"ground_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="11" priority="81" operator="equal">
+      <formula>"wall_1"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="80" operator="equal">
+      <formula>"door_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="79" operator="equal">
+      <formula>"door_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="78" operator="equal">
+      <formula>"key_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="77" operator="equal">
+      <formula>"key_1"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="76">
+      <formula>OR(LEFT(C7,5)="slime",LEFT(C7,3)="bat",LEFT(C7,8)="skeleton",LEFT(C7,5)="mummy",LEFT(C7,6)="wizard",LEFT(C7,6)="knight")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="75">
+      <formula>LEFT(C7,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="74">
+      <formula>LEFT(C7,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="5" priority="73">
+      <formula>LEFT(C7,3)="gem"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="72">
+      <formula>LEFT(C7,6)="potion"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="71">
+      <formula>LEFT(C7,3)="pos"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D7">
+    <cfRule type="cellIs" dxfId="14" priority="1022" operator="equal">
+      <formula>"wall_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="1021" operator="equal">
+      <formula>"wall_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="1020" operator="equal">
+      <formula>"ground_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="11" priority="1019" operator="equal">
+      <formula>"wall_1"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="1018" operator="equal">
+      <formula>"door_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="1017" operator="equal">
+      <formula>"door_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="1016" operator="equal">
+      <formula>"key_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="1015" operator="equal">
+      <formula>"key_1"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="1014">
+      <formula>OR(LEFT(D7,5)="slime",LEFT(D7,3)="bat",LEFT(D7,8)="skeleton",LEFT(D7,5)="mummy",LEFT(D7,6)="wizard",LEFT(D7,6)="knight")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="1013">
+      <formula>LEFT(D7,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="1012">
+      <formula>LEFT(D7,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="5" priority="1011">
+      <formula>LEFT(D7,3)="gem"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="1010">
+      <formula>LEFT(D7,6)="potion"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1009">
+      <formula>LEFT(D7,3)="pos"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E7">
+    <cfRule type="cellIs" dxfId="14" priority="280" operator="equal">
+      <formula>"wall_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="279" operator="equal">
+      <formula>"wall_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="278" operator="equal">
+      <formula>"ground_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="11" priority="277" operator="equal">
+      <formula>"wall_1"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="276" operator="equal">
+      <formula>"door_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="275" operator="equal">
+      <formula>"door_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="274" operator="equal">
+      <formula>"key_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="273" operator="equal">
+      <formula>"key_1"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="272">
+      <formula>OR(LEFT(E7,5)="slime",LEFT(E7,3)="bat",LEFT(E7,8)="skeleton",LEFT(E7,5)="mummy",LEFT(E7,6)="wizard",LEFT(E7,6)="knight")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="271">
+      <formula>LEFT(E7,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="270">
+      <formula>LEFT(E7,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="5" priority="269">
+      <formula>LEFT(E7,3)="gem"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="268">
+      <formula>LEFT(E7,6)="potion"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="267">
+      <formula>LEFT(E7,3)="pos"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F7">
+    <cfRule type="cellIs" dxfId="14" priority="154" operator="equal">
+      <formula>"wall_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="153" operator="equal">
+      <formula>"wall_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="152" operator="equal">
+      <formula>"ground_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="11" priority="151" operator="equal">
+      <formula>"wall_1"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="150" operator="equal">
+      <formula>"door_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="149" operator="equal">
+      <formula>"door_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="148" operator="equal">
+      <formula>"key_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="147" operator="equal">
+      <formula>"key_1"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="146">
+      <formula>OR(LEFT(F7,5)="slime",LEFT(F7,3)="bat",LEFT(F7,8)="skeleton",LEFT(F7,5)="mummy",LEFT(F7,6)="wizard",LEFT(F7,6)="knight")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="145">
+      <formula>LEFT(F7,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="144">
+      <formula>LEFT(F7,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="5" priority="143">
+      <formula>LEFT(F7,3)="gem"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="142">
+      <formula>LEFT(F7,6)="potion"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="141">
+      <formula>LEFT(F7,3)="pos"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G7">
+    <cfRule type="cellIs" dxfId="14" priority="1106" operator="equal">
+      <formula>"wall_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="1105" operator="equal">
+      <formula>"wall_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="1104" operator="equal">
+      <formula>"ground_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="11" priority="1103" operator="equal">
+      <formula>"wall_1"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="1102" operator="equal">
+      <formula>"door_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="1101" operator="equal">
+      <formula>"door_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="1100" operator="equal">
+      <formula>"key_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="1099" operator="equal">
+      <formula>"key_1"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="1098">
+      <formula>OR(LEFT(G7,5)="slime",LEFT(G7,3)="bat",LEFT(G7,8)="skeleton",LEFT(G7,5)="mummy",LEFT(G7,6)="wizard",LEFT(G7,6)="knight")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="1097">
+      <formula>LEFT(G7,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="1096">
+      <formula>LEFT(G7,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="5" priority="1095">
+      <formula>LEFT(G7,3)="gem"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="1094">
+      <formula>LEFT(G7,6)="potion"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1093">
+      <formula>LEFT(G7,3)="pos"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H7">
+    <cfRule type="cellIs" dxfId="14" priority="168" operator="equal">
+      <formula>"wall_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="167" operator="equal">
+      <formula>"wall_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="166" operator="equal">
+      <formula>"ground_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="11" priority="165" operator="equal">
+      <formula>"wall_1"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="164" operator="equal">
+      <formula>"door_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="163" operator="equal">
+      <formula>"door_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="162" operator="equal">
+      <formula>"key_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="161" operator="equal">
+      <formula>"key_1"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="160">
+      <formula>OR(LEFT(H7,5)="slime",LEFT(H7,3)="bat",LEFT(H7,8)="skeleton",LEFT(H7,5)="mummy",LEFT(H7,6)="wizard",LEFT(H7,6)="knight")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="159">
+      <formula>LEFT(H7,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="158">
+      <formula>LEFT(H7,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="5" priority="157">
+      <formula>LEFT(H7,3)="gem"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="156">
+      <formula>LEFT(H7,6)="potion"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="155">
+      <formula>LEFT(H7,3)="pos"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I7">
+    <cfRule type="cellIs" dxfId="14" priority="434" operator="equal">
+      <formula>"wall_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="433" operator="equal">
+      <formula>"wall_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="432" operator="equal">
+      <formula>"ground_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="11" priority="431" operator="equal">
+      <formula>"wall_1"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="430" operator="equal">
+      <formula>"door_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="429" operator="equal">
+      <formula>"door_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="428" operator="equal">
+      <formula>"key_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="427" operator="equal">
+      <formula>"key_1"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="426">
+      <formula>OR(LEFT(I7,5)="slime",LEFT(I7,3)="bat",LEFT(I7,8)="skeleton",LEFT(I7,5)="mummy",LEFT(I7,6)="wizard",LEFT(I7,6)="knight")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="425">
+      <formula>LEFT(I7,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="424">
+      <formula>LEFT(I7,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="5" priority="423">
+      <formula>LEFT(I7,3)="gem"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="422">
+      <formula>LEFT(I7,6)="potion"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="421">
+      <formula>LEFT(I7,3)="pos"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J7">
+    <cfRule type="cellIs" dxfId="14" priority="1190" operator="equal">
+      <formula>"wall_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="1189" operator="equal">
+      <formula>"wall_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="1188" operator="equal">
+      <formula>"ground_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="11" priority="1187" operator="equal">
+      <formula>"wall_1"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="1186" operator="equal">
+      <formula>"door_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="1185" operator="equal">
+      <formula>"door_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="1184" operator="equal">
+      <formula>"key_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="1183" operator="equal">
+      <formula>"key_1"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="1182">
+      <formula>OR(LEFT(J7,5)="slime",LEFT(J7,3)="bat",LEFT(J7,8)="skeleton",LEFT(J7,5)="mummy",LEFT(J7,6)="wizard",LEFT(J7,6)="knight")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="1181">
+      <formula>LEFT(J7,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="1180">
+      <formula>LEFT(J7,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="5" priority="1179">
+      <formula>LEFT(J7,3)="gem"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="1178">
+      <formula>LEFT(J7,6)="potion"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1177">
+      <formula>LEFT(J7,3)="pos"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K7">
+    <cfRule type="cellIs" dxfId="14" priority="588" operator="equal">
+      <formula>"wall_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="587" operator="equal">
+      <formula>"wall_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="586" operator="equal">
+      <formula>"ground_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="11" priority="585" operator="equal">
+      <formula>"wall_1"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="584" operator="equal">
+      <formula>"door_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="583" operator="equal">
+      <formula>"door_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="582" operator="equal">
+      <formula>"key_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="581" operator="equal">
+      <formula>"key_1"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="580">
+      <formula>OR(LEFT(K7,5)="slime",LEFT(K7,3)="bat",LEFT(K7,8)="skeleton",LEFT(K7,5)="mummy",LEFT(K7,6)="wizard",LEFT(K7,6)="knight")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="579">
+      <formula>LEFT(K7,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="578">
+      <formula>LEFT(K7,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="5" priority="577">
+      <formula>LEFT(K7,3)="gem"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="576">
+      <formula>LEFT(K7,6)="potion"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="575">
+      <formula>LEFT(K7,3)="pos"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L7">
+    <cfRule type="cellIs" dxfId="14" priority="1246" operator="equal">
+      <formula>"wall_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="1245" operator="equal">
+      <formula>"wall_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="1244" operator="equal">
+      <formula>"ground_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="11" priority="1243" operator="equal">
+      <formula>"wall_1"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="1242" operator="equal">
+      <formula>"door_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="1241" operator="equal">
+      <formula>"door_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="1240" operator="equal">
+      <formula>"key_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="1239" operator="equal">
+      <formula>"key_1"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="1238">
+      <formula>OR(LEFT(L7,5)="slime",LEFT(L7,3)="bat",LEFT(L7,8)="skeleton",LEFT(L7,5)="mummy",LEFT(L7,6)="wizard",LEFT(L7,6)="knight")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="1237">
+      <formula>LEFT(L7,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="1236">
+      <formula>LEFT(L7,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="5" priority="1235">
+      <formula>LEFT(L7,3)="gem"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="1234">
+      <formula>LEFT(L7,6)="potion"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1233">
+      <formula>LEFT(L7,3)="pos"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C8">
+    <cfRule type="cellIs" dxfId="14" priority="70" operator="equal">
+      <formula>"wall_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="69" operator="equal">
+      <formula>"wall_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="68" operator="equal">
+      <formula>"ground_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="11" priority="67" operator="equal">
+      <formula>"wall_1"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="66" operator="equal">
+      <formula>"door_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="65" operator="equal">
+      <formula>"door_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="64" operator="equal">
+      <formula>"key_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="63" operator="equal">
+      <formula>"key_1"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="62">
+      <formula>OR(LEFT(C8,5)="slime",LEFT(C8,3)="bat",LEFT(C8,8)="skeleton",LEFT(C8,5)="mummy",LEFT(C8,6)="wizard",LEFT(C8,6)="knight")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="61">
+      <formula>LEFT(C8,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="60">
+      <formula>LEFT(C8,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="5" priority="59">
+      <formula>LEFT(C8,3)="gem"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="58">
+      <formula>LEFT(C8,6)="potion"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="57">
+      <formula>LEFT(C8,3)="pos"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E8">
+    <cfRule type="cellIs" dxfId="14" priority="294" operator="equal">
+      <formula>"wall_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="293" operator="equal">
+      <formula>"wall_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="292" operator="equal">
+      <formula>"ground_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="11" priority="291" operator="equal">
+      <formula>"wall_1"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="290" operator="equal">
+      <formula>"door_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="289" operator="equal">
+      <formula>"door_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="288" operator="equal">
+      <formula>"key_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="287" operator="equal">
+      <formula>"key_1"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="286">
+      <formula>OR(LEFT(E8,5)="slime",LEFT(E8,3)="bat",LEFT(E8,8)="skeleton",LEFT(E8,5)="mummy",LEFT(E8,6)="wizard",LEFT(E8,6)="knight")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="285">
+      <formula>LEFT(E8,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="284">
+      <formula>LEFT(E8,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="5" priority="283">
+      <formula>LEFT(E8,3)="gem"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="282">
+      <formula>LEFT(E8,6)="potion"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="281">
+      <formula>LEFT(E8,3)="pos"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I8">
+    <cfRule type="cellIs" dxfId="14" priority="420" operator="equal">
+      <formula>"wall_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="419" operator="equal">
+      <formula>"wall_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="418" operator="equal">
+      <formula>"ground_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="11" priority="417" operator="equal">
+      <formula>"wall_1"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="416" operator="equal">
+      <formula>"door_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="415" operator="equal">
+      <formula>"door_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="414" operator="equal">
+      <formula>"key_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="413" operator="equal">
+      <formula>"key_1"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="412">
+      <formula>OR(LEFT(I8,5)="slime",LEFT(I8,3)="bat",LEFT(I8,8)="skeleton",LEFT(I8,5)="mummy",LEFT(I8,6)="wizard",LEFT(I8,6)="knight")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="411">
+      <formula>LEFT(I8,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="410">
+      <formula>LEFT(I8,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="5" priority="409">
+      <formula>LEFT(I8,3)="gem"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="408">
+      <formula>LEFT(I8,6)="potion"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="407">
+      <formula>LEFT(I8,3)="pos"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K8">
+    <cfRule type="cellIs" dxfId="14" priority="602" operator="equal">
+      <formula>"wall_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="601" operator="equal">
+      <formula>"wall_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="600" operator="equal">
+      <formula>"ground_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="11" priority="599" operator="equal">
+      <formula>"wall_1"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="598" operator="equal">
+      <formula>"door_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="597" operator="equal">
+      <formula>"door_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="596" operator="equal">
+      <formula>"key_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="595" operator="equal">
+      <formula>"key_1"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="594">
+      <formula>OR(LEFT(K8,5)="slime",LEFT(K8,3)="bat",LEFT(K8,8)="skeleton",LEFT(K8,5)="mummy",LEFT(K8,6)="wizard",LEFT(K8,6)="knight")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="593">
+      <formula>LEFT(K8,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="592">
+      <formula>LEFT(K8,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="5" priority="591">
+      <formula>LEFT(K8,3)="gem"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="590">
+      <formula>LEFT(K8,6)="potion"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="589">
+      <formula>LEFT(K8,3)="pos"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C9">
+    <cfRule type="cellIs" dxfId="14" priority="56" operator="equal">
+      <formula>"wall_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="55" operator="equal">
+      <formula>"wall_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="54" operator="equal">
+      <formula>"ground_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="11" priority="53" operator="equal">
+      <formula>"wall_1"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="52" operator="equal">
+      <formula>"door_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="51" operator="equal">
+      <formula>"door_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="50" operator="equal">
+      <formula>"key_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="49" operator="equal">
+      <formula>"key_1"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="48">
+      <formula>OR(LEFT(C9,5)="slime",LEFT(C9,3)="bat",LEFT(C9,8)="skeleton",LEFT(C9,5)="mummy",LEFT(C9,6)="wizard",LEFT(C9,6)="knight")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="47">
+      <formula>LEFT(C9,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="46">
+      <formula>LEFT(C9,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="5" priority="45">
+      <formula>LEFT(C9,3)="gem"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="44">
+      <formula>LEFT(C9,6)="potion"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="43">
+      <formula>LEFT(C9,3)="pos"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E9">
+    <cfRule type="cellIs" dxfId="14" priority="308" operator="equal">
+      <formula>"wall_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="307" operator="equal">
+      <formula>"wall_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="306" operator="equal">
+      <formula>"ground_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="11" priority="305" operator="equal">
+      <formula>"wall_1"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="304" operator="equal">
+      <formula>"door_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="303" operator="equal">
+      <formula>"door_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="302" operator="equal">
+      <formula>"key_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="301" operator="equal">
+      <formula>"key_1"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="300">
+      <formula>OR(LEFT(E9,5)="slime",LEFT(E9,3)="bat",LEFT(E9,8)="skeleton",LEFT(E9,5)="mummy",LEFT(E9,6)="wizard",LEFT(E9,6)="knight")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="299">
+      <formula>LEFT(E9,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="298">
+      <formula>LEFT(E9,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="5" priority="297">
+      <formula>LEFT(E9,3)="gem"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="296">
+      <formula>LEFT(E9,6)="potion"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="295">
+      <formula>LEFT(E9,3)="pos"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I9">
+    <cfRule type="cellIs" dxfId="14" priority="406" operator="equal">
+      <formula>"wall_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="405" operator="equal">
+      <formula>"wall_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="404" operator="equal">
+      <formula>"ground_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="11" priority="403" operator="equal">
+      <formula>"wall_1"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="402" operator="equal">
+      <formula>"door_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="401" operator="equal">
+      <formula>"door_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="400" operator="equal">
+      <formula>"key_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="399" operator="equal">
+      <formula>"key_1"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="398">
+      <formula>OR(LEFT(I9,5)="slime",LEFT(I9,3)="bat",LEFT(I9,8)="skeleton",LEFT(I9,5)="mummy",LEFT(I9,6)="wizard",LEFT(I9,6)="knight")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="397">
+      <formula>LEFT(I9,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="396">
+      <formula>LEFT(I9,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="5" priority="395">
+      <formula>LEFT(I9,3)="gem"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="394">
+      <formula>LEFT(I9,6)="potion"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="393">
+      <formula>LEFT(I9,3)="pos"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K9">
+    <cfRule type="cellIs" dxfId="14" priority="616" operator="equal">
+      <formula>"wall_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="615" operator="equal">
+      <formula>"wall_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="614" operator="equal">
+      <formula>"ground_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="11" priority="613" operator="equal">
+      <formula>"wall_1"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="612" operator="equal">
+      <formula>"door_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="611" operator="equal">
+      <formula>"door_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="610" operator="equal">
+      <formula>"key_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="609" operator="equal">
+      <formula>"key_1"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="608">
+      <formula>OR(LEFT(K9,5)="slime",LEFT(K9,3)="bat",LEFT(K9,8)="skeleton",LEFT(K9,5)="mummy",LEFT(K9,6)="wizard",LEFT(K9,6)="knight")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="607">
+      <formula>LEFT(K9,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="606">
+      <formula>LEFT(K9,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="5" priority="605">
+      <formula>LEFT(K9,3)="gem"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="604">
+      <formula>LEFT(K9,6)="potion"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="603">
+      <formula>LEFT(K9,3)="pos"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C10">
+    <cfRule type="cellIs" dxfId="14" priority="42" operator="equal">
+      <formula>"wall_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="41" operator="equal">
+      <formula>"wall_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="40" operator="equal">
+      <formula>"ground_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="11" priority="39" operator="equal">
+      <formula>"wall_1"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="38" operator="equal">
+      <formula>"door_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="37" operator="equal">
+      <formula>"door_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="36" operator="equal">
+      <formula>"key_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="35" operator="equal">
+      <formula>"key_1"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="34">
+      <formula>OR(LEFT(C10,5)="slime",LEFT(C10,3)="bat",LEFT(C10,8)="skeleton",LEFT(C10,5)="mummy",LEFT(C10,6)="wizard",LEFT(C10,6)="knight")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="33">
+      <formula>LEFT(C10,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="32">
+      <formula>LEFT(C10,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="5" priority="31">
+      <formula>LEFT(C10,3)="gem"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="30">
+      <formula>LEFT(C10,6)="potion"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="29">
+      <formula>LEFT(C10,3)="pos"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E10">
+    <cfRule type="cellIs" dxfId="14" priority="336" operator="equal">
+      <formula>"wall_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="335" operator="equal">
+      <formula>"wall_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="334" operator="equal">
+      <formula>"ground_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="11" priority="333" operator="equal">
+      <formula>"wall_1"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="332" operator="equal">
+      <formula>"door_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="331" operator="equal">
+      <formula>"door_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="330" operator="equal">
+      <formula>"key_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="329" operator="equal">
+      <formula>"key_1"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="328">
+      <formula>OR(LEFT(E10,5)="slime",LEFT(E10,3)="bat",LEFT(E10,8)="skeleton",LEFT(E10,5)="mummy",LEFT(E10,6)="wizard",LEFT(E10,6)="knight")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="327">
+      <formula>LEFT(E10,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="326">
+      <formula>LEFT(E10,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="5" priority="325">
+      <formula>LEFT(E10,3)="gem"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="324">
+      <formula>LEFT(E10,6)="potion"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="323">
+      <formula>LEFT(E10,3)="pos"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F10">
+    <cfRule type="cellIs" dxfId="14" priority="350" operator="equal">
+      <formula>"wall_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="349" operator="equal">
+      <formula>"wall_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="348" operator="equal">
+      <formula>"ground_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="11" priority="347" operator="equal">
+      <formula>"wall_1"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="346" operator="equal">
+      <formula>"door_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="345" operator="equal">
+      <formula>"door_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="344" operator="equal">
+      <formula>"key_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="343" operator="equal">
+      <formula>"key_1"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="342">
+      <formula>OR(LEFT(F10,5)="slime",LEFT(F10,3)="bat",LEFT(F10,8)="skeleton",LEFT(F10,5)="mummy",LEFT(F10,6)="wizard",LEFT(F10,6)="knight")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="341">
+      <formula>LEFT(F10,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="340">
+      <formula>LEFT(F10,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="5" priority="339">
+      <formula>LEFT(F10,3)="gem"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="338">
+      <formula>LEFT(F10,6)="potion"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="337">
+      <formula>LEFT(F10,3)="pos"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H10">
+    <cfRule type="cellIs" dxfId="14" priority="364" operator="equal">
+      <formula>"wall_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="363" operator="equal">
+      <formula>"wall_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="362" operator="equal">
+      <formula>"ground_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="11" priority="361" operator="equal">
+      <formula>"wall_1"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="360" operator="equal">
+      <formula>"door_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="359" operator="equal">
+      <formula>"door_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="358" operator="equal">
+      <formula>"key_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="357" operator="equal">
+      <formula>"key_1"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="356">
+      <formula>OR(LEFT(H10,5)="slime",LEFT(H10,3)="bat",LEFT(H10,8)="skeleton",LEFT(H10,5)="mummy",LEFT(H10,6)="wizard",LEFT(H10,6)="knight")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="355">
+      <formula>LEFT(H10,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="354">
+      <formula>LEFT(H10,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="5" priority="353">
+      <formula>LEFT(H10,3)="gem"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="352">
+      <formula>LEFT(H10,6)="potion"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="351">
+      <formula>LEFT(H10,3)="pos"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I10">
+    <cfRule type="cellIs" dxfId="14" priority="392" operator="equal">
+      <formula>"wall_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="391" operator="equal">
+      <formula>"wall_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="390" operator="equal">
+      <formula>"ground_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="11" priority="389" operator="equal">
+      <formula>"wall_1"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="388" operator="equal">
+      <formula>"door_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="387" operator="equal">
+      <formula>"door_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="386" operator="equal">
+      <formula>"key_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="385" operator="equal">
+      <formula>"key_1"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="384">
+      <formula>OR(LEFT(I10,5)="slime",LEFT(I10,3)="bat",LEFT(I10,8)="skeleton",LEFT(I10,5)="mummy",LEFT(I10,6)="wizard",LEFT(I10,6)="knight")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="383">
+      <formula>LEFT(I10,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="382">
+      <formula>LEFT(I10,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="5" priority="381">
+      <formula>LEFT(I10,3)="gem"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="380">
+      <formula>LEFT(I10,6)="potion"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="379">
+      <formula>LEFT(I10,3)="pos"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K10">
+    <cfRule type="cellIs" dxfId="14" priority="630" operator="equal">
+      <formula>"wall_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="629" operator="equal">
+      <formula>"wall_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="628" operator="equal">
+      <formula>"ground_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="11" priority="627" operator="equal">
+      <formula>"wall_1"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="626" operator="equal">
+      <formula>"door_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="625" operator="equal">
+      <formula>"door_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="624" operator="equal">
+      <formula>"key_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="623" operator="equal">
+      <formula>"key_1"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="622">
+      <formula>OR(LEFT(K10,5)="slime",LEFT(K10,3)="bat",LEFT(K10,8)="skeleton",LEFT(K10,5)="mummy",LEFT(K10,6)="wizard",LEFT(K10,6)="knight")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="621">
+      <formula>LEFT(K10,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="620">
+      <formula>LEFT(K10,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="5" priority="619">
+      <formula>LEFT(K10,3)="gem"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="618">
+      <formula>LEFT(K10,6)="potion"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="617">
+      <formula>LEFT(K10,3)="pos"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C11">
+    <cfRule type="cellIs" dxfId="14" priority="28" operator="equal">
+      <formula>"wall_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="27" operator="equal">
+      <formula>"wall_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="26" operator="equal">
+      <formula>"ground_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="11" priority="25" operator="equal">
+      <formula>"wall_1"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="24" operator="equal">
+      <formula>"door_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="23" operator="equal">
+      <formula>"door_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="22" operator="equal">
+      <formula>"key_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="21" operator="equal">
+      <formula>"key_1"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="20">
+      <formula>OR(LEFT(C11,5)="slime",LEFT(C11,3)="bat",LEFT(C11,8)="skeleton",LEFT(C11,5)="mummy",LEFT(C11,6)="wizard",LEFT(C11,6)="knight")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="19">
+      <formula>LEFT(C11,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="18">
+      <formula>LEFT(C11,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="5" priority="17">
+      <formula>LEFT(C11,3)="gem"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="16">
+      <formula>LEFT(C11,6)="potion"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="15">
+      <formula>LEFT(C11,3)="pos"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E11">
+    <cfRule type="cellIs" dxfId="14" priority="322" operator="equal">
+      <formula>"wall_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="321" operator="equal">
+      <formula>"wall_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="320" operator="equal">
+      <formula>"ground_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="11" priority="319" operator="equal">
+      <formula>"wall_1"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="318" operator="equal">
+      <formula>"door_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="317" operator="equal">
+      <formula>"door_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="316" operator="equal">
+      <formula>"key_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="315" operator="equal">
+      <formula>"key_1"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="314">
+      <formula>OR(LEFT(E11,5)="slime",LEFT(E11,3)="bat",LEFT(E11,8)="skeleton",LEFT(E11,5)="mummy",LEFT(E11,6)="wizard",LEFT(E11,6)="knight")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="313">
+      <formula>LEFT(E11,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="312">
+      <formula>LEFT(E11,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="5" priority="311">
+      <formula>LEFT(E11,3)="gem"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="310">
+      <formula>LEFT(E11,6)="potion"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="309">
+      <formula>LEFT(E11,3)="pos"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F11">
+    <cfRule type="cellIs" dxfId="14" priority="784" operator="equal">
+      <formula>"wall_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="783" operator="equal">
+      <formula>"wall_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="782" operator="equal">
+      <formula>"ground_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="11" priority="781" operator="equal">
+      <formula>"wall_1"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="780" operator="equal">
+      <formula>"door_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="779" operator="equal">
+      <formula>"door_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="778" operator="equal">
+      <formula>"key_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="777" operator="equal">
+      <formula>"key_1"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="776">
+      <formula>OR(LEFT(F11,5)="slime",LEFT(F11,3)="bat",LEFT(F11,8)="skeleton",LEFT(F11,5)="mummy",LEFT(F11,6)="wizard",LEFT(F11,6)="knight")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="775">
+      <formula>LEFT(F11,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="774">
+      <formula>LEFT(F11,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="5" priority="773">
+      <formula>LEFT(F11,3)="gem"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="772">
+      <formula>LEFT(F11,6)="potion"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="771">
+      <formula>LEFT(F11,3)="pos"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H11">
+    <cfRule type="cellIs" dxfId="14" priority="840" operator="equal">
+      <formula>"wall_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="839" operator="equal">
+      <formula>"wall_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="838" operator="equal">
+      <formula>"ground_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="11" priority="837" operator="equal">
+      <formula>"wall_1"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="836" operator="equal">
+      <formula>"door_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="835" operator="equal">
+      <formula>"door_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="834" operator="equal">
+      <formula>"key_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="833" operator="equal">
+      <formula>"key_1"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="832">
+      <formula>OR(LEFT(H11,5)="slime",LEFT(H11,3)="bat",LEFT(H11,8)="skeleton",LEFT(H11,5)="mummy",LEFT(H11,6)="wizard",LEFT(H11,6)="knight")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="831">
+      <formula>LEFT(H11,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="830">
+      <formula>LEFT(H11,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="5" priority="829">
+      <formula>LEFT(H11,3)="gem"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="828">
+      <formula>LEFT(H11,6)="potion"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="827">
+      <formula>LEFT(H11,3)="pos"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I11">
+    <cfRule type="cellIs" dxfId="14" priority="378" operator="equal">
+      <formula>"wall_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="377" operator="equal">
+      <formula>"wall_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="376" operator="equal">
+      <formula>"ground_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="11" priority="375" operator="equal">
+      <formula>"wall_1"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="374" operator="equal">
+      <formula>"door_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="373" operator="equal">
+      <formula>"door_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="372" operator="equal">
+      <formula>"key_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="371" operator="equal">
+      <formula>"key_1"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="370">
+      <formula>OR(LEFT(I11,5)="slime",LEFT(I11,3)="bat",LEFT(I11,8)="skeleton",LEFT(I11,5)="mummy",LEFT(I11,6)="wizard",LEFT(I11,6)="knight")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="369">
+      <formula>LEFT(I11,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="368">
+      <formula>LEFT(I11,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="5" priority="367">
+      <formula>LEFT(I11,3)="gem"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="366">
+      <formula>LEFT(I11,6)="potion"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="365">
+      <formula>LEFT(I11,3)="pos"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K11">
+    <cfRule type="cellIs" dxfId="14" priority="644" operator="equal">
+      <formula>"wall_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="643" operator="equal">
+      <formula>"wall_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="642" operator="equal">
+      <formula>"ground_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="11" priority="641" operator="equal">
+      <formula>"wall_1"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="640" operator="equal">
+      <formula>"door_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="639" operator="equal">
+      <formula>"door_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="638" operator="equal">
+      <formula>"key_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="637" operator="equal">
+      <formula>"key_1"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="636">
+      <formula>OR(LEFT(K11,5)="slime",LEFT(K11,3)="bat",LEFT(K11,8)="skeleton",LEFT(K11,5)="mummy",LEFT(K11,6)="wizard",LEFT(K11,6)="knight")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="635">
+      <formula>LEFT(K11,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="634">
+      <formula>LEFT(K11,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="5" priority="633">
+      <formula>LEFT(K11,3)="gem"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="632">
+      <formula>LEFT(K11,6)="potion"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="631">
+      <formula>LEFT(K11,3)="pos"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B12">
+    <cfRule type="cellIs" dxfId="14" priority="658" operator="equal">
+      <formula>"wall_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="657" operator="equal">
+      <formula>"wall_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="656" operator="equal">
+      <formula>"ground_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="11" priority="655" operator="equal">
+      <formula>"wall_1"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="654" operator="equal">
+      <formula>"door_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="653" operator="equal">
+      <formula>"door_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="652" operator="equal">
+      <formula>"key_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="651" operator="equal">
+      <formula>"key_1"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="650">
+      <formula>OR(LEFT(B12,5)="slime",LEFT(B12,3)="bat",LEFT(B12,8)="skeleton",LEFT(B12,5)="mummy",LEFT(B12,6)="wizard",LEFT(B12,6)="knight")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="649">
+      <formula>LEFT(B12,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="648">
+      <formula>LEFT(B12,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="5" priority="647">
+      <formula>LEFT(B12,3)="gem"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="646">
+      <formula>LEFT(B12,6)="potion"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="645">
+      <formula>LEFT(B12,3)="pos"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C12">
+    <cfRule type="cellIs" dxfId="14" priority="14" operator="equal">
+      <formula>"wall_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="13" operator="equal">
+      <formula>"wall_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="12" operator="equal">
+      <formula>"ground_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="11" priority="11" operator="equal">
+      <formula>"wall_1"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="10" operator="equal">
+      <formula>"door_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="9" operator="equal">
+      <formula>"door_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="8" operator="equal">
+      <formula>"key_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="7" operator="equal">
+      <formula>"key_1"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="6">
+      <formula>OR(LEFT(C12,5)="slime",LEFT(C12,3)="bat",LEFT(C12,8)="skeleton",LEFT(C12,5)="mummy",LEFT(C12,6)="wizard",LEFT(C12,6)="knight")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="5">
+      <formula>LEFT(C12,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="4">
+      <formula>LEFT(C12,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="5" priority="3">
+      <formula>LEFT(C12,3)="gem"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="2">
+      <formula>LEFT(C12,6)="potion"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1">
+      <formula>LEFT(C12,3)="pos"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D12">
+    <cfRule type="cellIs" dxfId="14" priority="714" operator="equal">
+      <formula>"wall_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="713" operator="equal">
+      <formula>"wall_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="712" operator="equal">
+      <formula>"ground_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="11" priority="711" operator="equal">
+      <formula>"wall_1"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="710" operator="equal">
+      <formula>"door_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="709" operator="equal">
+      <formula>"door_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="708" operator="equal">
+      <formula>"key_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="707" operator="equal">
+      <formula>"key_1"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="706">
+      <formula>OR(LEFT(D12,5)="slime",LEFT(D12,3)="bat",LEFT(D12,8)="skeleton",LEFT(D12,5)="mummy",LEFT(D12,6)="wizard",LEFT(D12,6)="knight")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="705">
+      <formula>LEFT(D12,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="704">
+      <formula>LEFT(D12,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="5" priority="703">
+      <formula>LEFT(D12,3)="gem"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="702">
+      <formula>LEFT(D12,6)="potion"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="701">
+      <formula>LEFT(D12,3)="pos"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E12">
+    <cfRule type="cellIs" dxfId="14" priority="742" operator="equal">
+      <formula>"wall_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="741" operator="equal">
+      <formula>"wall_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="740" operator="equal">
+      <formula>"ground_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="11" priority="739" operator="equal">
+      <formula>"wall_1"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="738" operator="equal">
+      <formula>"door_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="737" operator="equal">
+      <formula>"door_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="736" operator="equal">
+      <formula>"key_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="735" operator="equal">
+      <formula>"key_1"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="734">
+      <formula>OR(LEFT(E12,5)="slime",LEFT(E12,3)="bat",LEFT(E12,8)="skeleton",LEFT(E12,5)="mummy",LEFT(E12,6)="wizard",LEFT(E12,6)="knight")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="733">
+      <formula>LEFT(E12,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="732">
+      <formula>LEFT(E12,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="5" priority="731">
+      <formula>LEFT(E12,3)="gem"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="730">
+      <formula>LEFT(E12,6)="potion"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="729">
+      <formula>LEFT(E12,3)="pos"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F12">
+    <cfRule type="cellIs" dxfId="14" priority="770" operator="equal">
+      <formula>"wall_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="769" operator="equal">
+      <formula>"wall_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="768" operator="equal">
+      <formula>"ground_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="11" priority="767" operator="equal">
+      <formula>"wall_1"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="766" operator="equal">
+      <formula>"door_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="765" operator="equal">
+      <formula>"door_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="764" operator="equal">
+      <formula>"key_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="763" operator="equal">
+      <formula>"key_1"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="762">
+      <formula>OR(LEFT(F12,5)="slime",LEFT(F12,3)="bat",LEFT(F12,8)="skeleton",LEFT(F12,5)="mummy",LEFT(F12,6)="wizard",LEFT(F12,6)="knight")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="761">
+      <formula>LEFT(F12,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="760">
+      <formula>LEFT(F12,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="5" priority="759">
+      <formula>LEFT(F12,3)="gem"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="758">
+      <formula>LEFT(F12,6)="potion"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="757">
+      <formula>LEFT(F12,3)="pos"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G12">
+    <cfRule type="cellIs" dxfId="14" priority="798" operator="equal">
+      <formula>"wall_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="797" operator="equal">
+      <formula>"wall_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="796" operator="equal">
+      <formula>"ground_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="11" priority="795" operator="equal">
+      <formula>"wall_1"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="794" operator="equal">
+      <formula>"door_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="793" operator="equal">
+      <formula>"door_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="792" operator="equal">
+      <formula>"key_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="791" operator="equal">
+      <formula>"key_1"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="790">
+      <formula>OR(LEFT(G12,5)="slime",LEFT(G12,3)="bat",LEFT(G12,8)="skeleton",LEFT(G12,5)="mummy",LEFT(G12,6)="wizard",LEFT(G12,6)="knight")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="789">
+      <formula>LEFT(G12,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="788">
+      <formula>LEFT(G12,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="5" priority="787">
+      <formula>LEFT(G12,3)="gem"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="786">
+      <formula>LEFT(G12,6)="potion"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="785">
+      <formula>LEFT(G12,3)="pos"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H12">
+    <cfRule type="cellIs" dxfId="14" priority="826" operator="equal">
+      <formula>"wall_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="825" operator="equal">
+      <formula>"wall_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="824" operator="equal">
+      <formula>"ground_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="11" priority="823" operator="equal">
+      <formula>"wall_1"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="822" operator="equal">
+      <formula>"door_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="821" operator="equal">
+      <formula>"door_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="820" operator="equal">
+      <formula>"key_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="819" operator="equal">
+      <formula>"key_1"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="818">
+      <formula>OR(LEFT(H12,5)="slime",LEFT(H12,3)="bat",LEFT(H12,8)="skeleton",LEFT(H12,5)="mummy",LEFT(H12,6)="wizard",LEFT(H12,6)="knight")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="817">
+      <formula>LEFT(H12,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="816">
+      <formula>LEFT(H12,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="5" priority="815">
+      <formula>LEFT(H12,3)="gem"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="814">
+      <formula>LEFT(H12,6)="potion"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="813">
+      <formula>LEFT(H12,3)="pos"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I12">
+    <cfRule type="cellIs" dxfId="14" priority="854" operator="equal">
+      <formula>"wall_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="853" operator="equal">
+      <formula>"wall_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="852" operator="equal">
+      <formula>"ground_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="11" priority="851" operator="equal">
+      <formula>"wall_1"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="850" operator="equal">
+      <formula>"door_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="849" operator="equal">
+      <formula>"door_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="848" operator="equal">
+      <formula>"key_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="847" operator="equal">
+      <formula>"key_1"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="846">
+      <formula>OR(LEFT(I12,5)="slime",LEFT(I12,3)="bat",LEFT(I12,8)="skeleton",LEFT(I12,5)="mummy",LEFT(I12,6)="wizard",LEFT(I12,6)="knight")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="845">
+      <formula>LEFT(I12,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="844">
+      <formula>LEFT(I12,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="5" priority="843">
+      <formula>LEFT(I12,3)="gem"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="842">
+      <formula>LEFT(I12,6)="potion"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="841">
+      <formula>LEFT(I12,3)="pos"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J12">
+    <cfRule type="cellIs" dxfId="14" priority="882" operator="equal">
+      <formula>"wall_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="881" operator="equal">
+      <formula>"wall_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="880" operator="equal">
+      <formula>"ground_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="11" priority="879" operator="equal">
+      <formula>"wall_1"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="878" operator="equal">
+      <formula>"door_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="877" operator="equal">
+      <formula>"door_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="876" operator="equal">
+      <formula>"key_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="875" operator="equal">
+      <formula>"key_1"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="874">
+      <formula>OR(LEFT(J12,5)="slime",LEFT(J12,3)="bat",LEFT(J12,8)="skeleton",LEFT(J12,5)="mummy",LEFT(J12,6)="wizard",LEFT(J12,6)="knight")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="873">
+      <formula>LEFT(J12,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="872">
+      <formula>LEFT(J12,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="5" priority="871">
+      <formula>LEFT(J12,3)="gem"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="870">
+      <formula>LEFT(J12,6)="potion"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="869">
+      <formula>LEFT(J12,3)="pos"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K12">
+    <cfRule type="cellIs" dxfId="14" priority="910" operator="equal">
+      <formula>"wall_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="909" operator="equal">
+      <formula>"wall_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="908" operator="equal">
+      <formula>"ground_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="11" priority="907" operator="equal">
+      <formula>"wall_1"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="906" operator="equal">
+      <formula>"door_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="905" operator="equal">
+      <formula>"door_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="904" operator="equal">
+      <formula>"key_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="903" operator="equal">
+      <formula>"key_1"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="902">
+      <formula>OR(LEFT(K12,5)="slime",LEFT(K12,3)="bat",LEFT(K12,8)="skeleton",LEFT(K12,5)="mummy",LEFT(K12,6)="wizard",LEFT(K12,6)="knight")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="901">
+      <formula>LEFT(K12,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="900">
+      <formula>LEFT(K12,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="5" priority="899">
+      <formula>LEFT(K12,3)="gem"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="898">
+      <formula>LEFT(K12,6)="potion"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="897">
+      <formula>LEFT(K12,3)="pos"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L12">
+    <cfRule type="cellIs" dxfId="14" priority="938" operator="equal">
+      <formula>"wall_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="937" operator="equal">
+      <formula>"wall_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="936" operator="equal">
+      <formula>"ground_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="11" priority="935" operator="equal">
+      <formula>"wall_1"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="934" operator="equal">
+      <formula>"door_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="933" operator="equal">
+      <formula>"door_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="932" operator="equal">
+      <formula>"key_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="931" operator="equal">
+      <formula>"key_1"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="930">
+      <formula>OR(LEFT(L12,5)="slime",LEFT(L12,3)="bat",LEFT(L12,8)="skeleton",LEFT(L12,5)="mummy",LEFT(L12,6)="wizard",LEFT(L12,6)="knight")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="929">
+      <formula>LEFT(L12,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="928">
+      <formula>LEFT(L12,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="5" priority="927">
+      <formula>LEFT(L12,3)="gem"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="926">
+      <formula>LEFT(L12,6)="potion"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="925">
+      <formula>LEFT(L12,3)="pos"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B2:B3">
+    <cfRule type="cellIs" dxfId="14" priority="1288" operator="equal">
+      <formula>"wall_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="1287" operator="equal">
+      <formula>"wall_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="1286" operator="equal">
+      <formula>"ground_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="11" priority="1285" operator="equal">
+      <formula>"wall_1"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="1284" operator="equal">
+      <formula>"door_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="1283" operator="equal">
+      <formula>"door_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="1282" operator="equal">
+      <formula>"key_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="1281" operator="equal">
+      <formula>"key_1"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="1280">
+      <formula>OR(LEFT(B2,5)="slime",LEFT(B2,3)="bat",LEFT(B2,8)="skeleton",LEFT(B2,5)="mummy",LEFT(B2,6)="wizard",LEFT(B2,6)="knight")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="1279">
+      <formula>LEFT(B2,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="1278">
+      <formula>LEFT(B2,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="5" priority="1277">
+      <formula>LEFT(B2,3)="gem"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="1276">
+      <formula>LEFT(B2,6)="potion"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1275">
+      <formula>LEFT(B2,3)="pos"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B5:B6">
+    <cfRule type="cellIs" dxfId="14" priority="980" operator="equal">
+      <formula>"wall_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="979" operator="equal">
+      <formula>"wall_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="978" operator="equal">
+      <formula>"ground_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="11" priority="977" operator="equal">
+      <formula>"wall_1"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="976" operator="equal">
+      <formula>"door_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="975" operator="equal">
+      <formula>"door_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="974" operator="equal">
+      <formula>"key_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="973" operator="equal">
+      <formula>"key_1"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="972">
+      <formula>OR(LEFT(B5,5)="slime",LEFT(B5,3)="bat",LEFT(B5,8)="skeleton",LEFT(B5,5)="mummy",LEFT(B5,6)="wizard",LEFT(B5,6)="knight")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="971">
+      <formula>LEFT(B5,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="970">
+      <formula>LEFT(B5,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="5" priority="969">
+      <formula>LEFT(B5,3)="gem"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="968">
+      <formula>LEFT(B5,6)="potion"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="967">
+      <formula>LEFT(B5,3)="pos"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B8:B9">
+    <cfRule type="cellIs" dxfId="14" priority="1596" operator="equal">
+      <formula>"wall_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="1595" operator="equal">
+      <formula>"wall_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="1594" operator="equal">
+      <formula>"ground_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="11" priority="1593" operator="equal">
+      <formula>"wall_1"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="1592" operator="equal">
+      <formula>"door_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="1591" operator="equal">
+      <formula>"door_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="1590" operator="equal">
+      <formula>"key_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="1589" operator="equal">
+      <formula>"key_1"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="1588">
+      <formula>OR(LEFT(B8,5)="slime",LEFT(B8,3)="bat",LEFT(B8,8)="skeleton",LEFT(B8,5)="mummy",LEFT(B8,6)="wizard",LEFT(B8,6)="knight")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="1587">
+      <formula>LEFT(B8,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="1586">
+      <formula>LEFT(B8,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="5" priority="1585">
+      <formula>LEFT(B8,3)="gem"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="1584">
+      <formula>LEFT(B8,6)="potion"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1583">
+      <formula>LEFT(B8,3)="pos"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B10:B11">
+    <cfRule type="cellIs" dxfId="14" priority="672" operator="equal">
+      <formula>"wall_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="671" operator="equal">
+      <formula>"wall_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="670" operator="equal">
+      <formula>"ground_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="11" priority="669" operator="equal">
+      <formula>"wall_1"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="668" operator="equal">
+      <formula>"door_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="667" operator="equal">
+      <formula>"door_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="666" operator="equal">
+      <formula>"key_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="665" operator="equal">
+      <formula>"key_1"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="664">
+      <formula>OR(LEFT(B10,5)="slime",LEFT(B10,3)="bat",LEFT(B10,8)="skeleton",LEFT(B10,5)="mummy",LEFT(B10,6)="wizard",LEFT(B10,6)="knight")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="663">
+      <formula>LEFT(B10,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="662">
+      <formula>LEFT(B10,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="5" priority="661">
+      <formula>LEFT(B10,3)="gem"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="660">
+      <formula>LEFT(B10,6)="potion"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="659">
+      <formula>LEFT(B10,3)="pos"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D2:D3">
+    <cfRule type="cellIs" dxfId="14" priority="1344" operator="equal">
+      <formula>"wall_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="1343" operator="equal">
+      <formula>"wall_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="1342" operator="equal">
+      <formula>"ground_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="11" priority="1341" operator="equal">
+      <formula>"wall_1"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="1340" operator="equal">
+      <formula>"door_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="1339" operator="equal">
+      <formula>"door_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="1338" operator="equal">
+      <formula>"key_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="1337" operator="equal">
+      <formula>"key_1"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="1336">
+      <formula>OR(LEFT(D2,5)="slime",LEFT(D2,3)="bat",LEFT(D2,8)="skeleton",LEFT(D2,5)="mummy",LEFT(D2,6)="wizard",LEFT(D2,6)="knight")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="1335">
+      <formula>LEFT(D2,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="1334">
+      <formula>LEFT(D2,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="5" priority="1333">
+      <formula>LEFT(D2,3)="gem"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="1332">
+      <formula>LEFT(D2,6)="potion"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1331">
+      <formula>LEFT(D2,3)="pos"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D5:D6">
+    <cfRule type="cellIs" dxfId="14" priority="1036" operator="equal">
+      <formula>"wall_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="1035" operator="equal">
+      <formula>"wall_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="1034" operator="equal">
+      <formula>"ground_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="11" priority="1033" operator="equal">
+      <formula>"wall_1"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="1032" operator="equal">
+      <formula>"door_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="1031" operator="equal">
+      <formula>"door_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="1030" operator="equal">
+      <formula>"key_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="1029" operator="equal">
+      <formula>"key_1"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="1028">
+      <formula>OR(LEFT(D5,5)="slime",LEFT(D5,3)="bat",LEFT(D5,8)="skeleton",LEFT(D5,5)="mummy",LEFT(D5,6)="wizard",LEFT(D5,6)="knight")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="1027">
+      <formula>LEFT(D5,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="1026">
+      <formula>LEFT(D5,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="5" priority="1025">
+      <formula>LEFT(D5,3)="gem"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="1024">
+      <formula>LEFT(D5,6)="potion"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1023">
+      <formula>LEFT(D5,3)="pos"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D8:D9">
+    <cfRule type="cellIs" dxfId="14" priority="1652" operator="equal">
+      <formula>"wall_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="1651" operator="equal">
+      <formula>"wall_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="1650" operator="equal">
+      <formula>"ground_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="11" priority="1649" operator="equal">
+      <formula>"wall_1"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="1648" operator="equal">
+      <formula>"door_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="1647" operator="equal">
+      <formula>"door_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="1646" operator="equal">
+      <formula>"key_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="1645" operator="equal">
+      <formula>"key_1"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="1644">
+      <formula>OR(LEFT(D8,5)="slime",LEFT(D8,3)="bat",LEFT(D8,8)="skeleton",LEFT(D8,5)="mummy",LEFT(D8,6)="wizard",LEFT(D8,6)="knight")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="1643">
+      <formula>LEFT(D8,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="1642">
+      <formula>LEFT(D8,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="5" priority="1641">
+      <formula>LEFT(D8,3)="gem"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="1640">
+      <formula>LEFT(D8,6)="potion"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1639">
+      <formula>LEFT(D8,3)="pos"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D10:D11">
+    <cfRule type="cellIs" dxfId="14" priority="728" operator="equal">
+      <formula>"wall_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="727" operator="equal">
+      <formula>"wall_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="726" operator="equal">
+      <formula>"ground_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="11" priority="725" operator="equal">
+      <formula>"wall_1"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="724" operator="equal">
+      <formula>"door_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="723" operator="equal">
+      <formula>"door_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="722" operator="equal">
+      <formula>"key_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="721" operator="equal">
+      <formula>"key_1"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="720">
+      <formula>OR(LEFT(D10,5)="slime",LEFT(D10,3)="bat",LEFT(D10,8)="skeleton",LEFT(D10,5)="mummy",LEFT(D10,6)="wizard",LEFT(D10,6)="knight")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="719">
+      <formula>LEFT(D10,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="718">
+      <formula>LEFT(D10,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="5" priority="717">
+      <formula>LEFT(D10,3)="gem"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="716">
+      <formula>LEFT(D10,6)="potion"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="715">
+      <formula>LEFT(D10,3)="pos"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F2:F3">
+    <cfRule type="cellIs" dxfId="14" priority="1400" operator="equal">
+      <formula>"wall_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="1399" operator="equal">
+      <formula>"wall_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="1398" operator="equal">
+      <formula>"ground_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="11" priority="1397" operator="equal">
+      <formula>"wall_1"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="1396" operator="equal">
+      <formula>"door_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="1395" operator="equal">
+      <formula>"door_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="1394" operator="equal">
+      <formula>"key_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="1393" operator="equal">
+      <formula>"key_1"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="1392">
+      <formula>OR(LEFT(F2,5)="slime",LEFT(F2,3)="bat",LEFT(F2,8)="skeleton",LEFT(F2,5)="mummy",LEFT(F2,6)="wizard",LEFT(F2,6)="knight")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="1391">
+      <formula>LEFT(F2,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="1390">
+      <formula>LEFT(F2,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="5" priority="1389">
+      <formula>LEFT(F2,3)="gem"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="1388">
+      <formula>LEFT(F2,6)="potion"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1387">
+      <formula>LEFT(F2,3)="pos"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F5:F6">
+    <cfRule type="cellIs" dxfId="14" priority="1092" operator="equal">
+      <formula>"wall_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="1091" operator="equal">
+      <formula>"wall_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="1090" operator="equal">
+      <formula>"ground_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="11" priority="1089" operator="equal">
+      <formula>"wall_1"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="1088" operator="equal">
+      <formula>"door_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="1087" operator="equal">
+      <formula>"door_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="1086" operator="equal">
+      <formula>"key_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="1085" operator="equal">
+      <formula>"key_1"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="1084">
+      <formula>OR(LEFT(F5,5)="slime",LEFT(F5,3)="bat",LEFT(F5,8)="skeleton",LEFT(F5,5)="mummy",LEFT(F5,6)="wizard",LEFT(F5,6)="knight")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="1083">
+      <formula>LEFT(F5,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="1082">
+      <formula>LEFT(F5,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="5" priority="1081">
+      <formula>LEFT(F5,3)="gem"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="1080">
+      <formula>LEFT(F5,6)="potion"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1079">
+      <formula>LEFT(F5,3)="pos"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F8:F9">
+    <cfRule type="cellIs" dxfId="14" priority="1708" operator="equal">
+      <formula>"wall_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="1707" operator="equal">
+      <formula>"wall_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="1706" operator="equal">
+      <formula>"ground_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="11" priority="1705" operator="equal">
+      <formula>"wall_1"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="1704" operator="equal">
+      <formula>"door_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="1703" operator="equal">
+      <formula>"door_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="1702" operator="equal">
+      <formula>"key_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="1701" operator="equal">
+      <formula>"key_1"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="1700">
+      <formula>OR(LEFT(F8,5)="slime",LEFT(F8,3)="bat",LEFT(F8,8)="skeleton",LEFT(F8,5)="mummy",LEFT(F8,6)="wizard",LEFT(F8,6)="knight")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="1699">
+      <formula>LEFT(F8,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="1698">
+      <formula>LEFT(F8,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="5" priority="1697">
+      <formula>LEFT(F8,3)="gem"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="1696">
+      <formula>LEFT(F8,6)="potion"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1695">
+      <formula>LEFT(F8,3)="pos"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G2:G3">
+    <cfRule type="cellIs" dxfId="14" priority="1428" operator="equal">
+      <formula>"wall_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="1427" operator="equal">
+      <formula>"wall_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="1426" operator="equal">
+      <formula>"ground_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="11" priority="1425" operator="equal">
+      <formula>"wall_1"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="1424" operator="equal">
+      <formula>"door_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="1423" operator="equal">
+      <formula>"door_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="1422" operator="equal">
+      <formula>"key_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="1421" operator="equal">
+      <formula>"key_1"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="1420">
+      <formula>OR(LEFT(G2,5)="slime",LEFT(G2,3)="bat",LEFT(G2,8)="skeleton",LEFT(G2,5)="mummy",LEFT(G2,6)="wizard",LEFT(G2,6)="knight")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="1419">
+      <formula>LEFT(G2,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="1418">
+      <formula>LEFT(G2,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="5" priority="1417">
+      <formula>LEFT(G2,3)="gem"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="1416">
+      <formula>LEFT(G2,6)="potion"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1415">
+      <formula>LEFT(G2,3)="pos"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G5:G6">
+    <cfRule type="cellIs" dxfId="14" priority="1120" operator="equal">
+      <formula>"wall_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="1119" operator="equal">
+      <formula>"wall_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="1118" operator="equal">
+      <formula>"ground_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="11" priority="1117" operator="equal">
+      <formula>"wall_1"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="1116" operator="equal">
+      <formula>"door_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="1115" operator="equal">
+      <formula>"door_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="1114" operator="equal">
+      <formula>"key_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="1113" operator="equal">
+      <formula>"key_1"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="1112">
+      <formula>OR(LEFT(G5,5)="slime",LEFT(G5,3)="bat",LEFT(G5,8)="skeleton",LEFT(G5,5)="mummy",LEFT(G5,6)="wizard",LEFT(G5,6)="knight")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="1111">
+      <formula>LEFT(G5,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="1110">
+      <formula>LEFT(G5,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="5" priority="1109">
+      <formula>LEFT(G5,3)="gem"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="1108">
+      <formula>LEFT(G5,6)="potion"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1107">
+      <formula>LEFT(G5,3)="pos"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G8:G9">
+    <cfRule type="cellIs" dxfId="14" priority="1736" operator="equal">
+      <formula>"wall_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="1735" operator="equal">
+      <formula>"wall_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="1734" operator="equal">
+      <formula>"ground_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="11" priority="1733" operator="equal">
+      <formula>"wall_1"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="1732" operator="equal">
+      <formula>"door_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="1731" operator="equal">
+      <formula>"door_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="1730" operator="equal">
+      <formula>"key_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="1729" operator="equal">
+      <formula>"key_1"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="1728">
+      <formula>OR(LEFT(G8,5)="slime",LEFT(G8,3)="bat",LEFT(G8,8)="skeleton",LEFT(G8,5)="mummy",LEFT(G8,6)="wizard",LEFT(G8,6)="knight")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="1727">
+      <formula>LEFT(G8,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="1726">
+      <formula>LEFT(G8,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="5" priority="1725">
+      <formula>LEFT(G8,3)="gem"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="1724">
+      <formula>LEFT(G8,6)="potion"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1723">
+      <formula>LEFT(G8,3)="pos"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G10:G11">
+    <cfRule type="cellIs" dxfId="14" priority="812" operator="equal">
+      <formula>"wall_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="811" operator="equal">
+      <formula>"wall_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="810" operator="equal">
+      <formula>"ground_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="11" priority="809" operator="equal">
+      <formula>"wall_1"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="808" operator="equal">
+      <formula>"door_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="807" operator="equal">
+      <formula>"door_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="806" operator="equal">
+      <formula>"key_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="805" operator="equal">
+      <formula>"key_1"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="804">
+      <formula>OR(LEFT(G10,5)="slime",LEFT(G10,3)="bat",LEFT(G10,8)="skeleton",LEFT(G10,5)="mummy",LEFT(G10,6)="wizard",LEFT(G10,6)="knight")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="803">
+      <formula>LEFT(G10,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="802">
+      <formula>LEFT(G10,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="5" priority="801">
+      <formula>LEFT(G10,3)="gem"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="800">
+      <formula>LEFT(G10,6)="potion"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="799">
+      <formula>LEFT(G10,3)="pos"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H2:H3">
+    <cfRule type="cellIs" dxfId="14" priority="1456" operator="equal">
+      <formula>"wall_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="1455" operator="equal">
+      <formula>"wall_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="1454" operator="equal">
+      <formula>"ground_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="11" priority="1453" operator="equal">
+      <formula>"wall_1"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="1452" operator="equal">
+      <formula>"door_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="1451" operator="equal">
+      <formula>"door_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="1450" operator="equal">
+      <formula>"key_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="1449" operator="equal">
+      <formula>"key_1"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="1448">
+      <formula>OR(LEFT(H2,5)="slime",LEFT(H2,3)="bat",LEFT(H2,8)="skeleton",LEFT(H2,5)="mummy",LEFT(H2,6)="wizard",LEFT(H2,6)="knight")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="1447">
+      <formula>LEFT(H2,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="1446">
+      <formula>LEFT(H2,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="5" priority="1445">
+      <formula>LEFT(H2,3)="gem"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="1444">
+      <formula>LEFT(H2,6)="potion"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1443">
+      <formula>LEFT(H2,3)="pos"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H5:H6">
+    <cfRule type="cellIs" dxfId="14" priority="1148" operator="equal">
+      <formula>"wall_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="1147" operator="equal">
+      <formula>"wall_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="1146" operator="equal">
+      <formula>"ground_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="11" priority="1145" operator="equal">
+      <formula>"wall_1"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="1144" operator="equal">
+      <formula>"door_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="1143" operator="equal">
+      <formula>"door_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="1142" operator="equal">
+      <formula>"key_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="1141" operator="equal">
+      <formula>"key_1"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="1140">
+      <formula>OR(LEFT(H5,5)="slime",LEFT(H5,3)="bat",LEFT(H5,8)="skeleton",LEFT(H5,5)="mummy",LEFT(H5,6)="wizard",LEFT(H5,6)="knight")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="1139">
+      <formula>LEFT(H5,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="1138">
+      <formula>LEFT(H5,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="5" priority="1137">
+      <formula>LEFT(H5,3)="gem"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="1136">
+      <formula>LEFT(H5,6)="potion"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1135">
+      <formula>LEFT(H5,3)="pos"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H8:H9">
+    <cfRule type="cellIs" dxfId="14" priority="1764" operator="equal">
+      <formula>"wall_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="1763" operator="equal">
+      <formula>"wall_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="1762" operator="equal">
+      <formula>"ground_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="11" priority="1761" operator="equal">
+      <formula>"wall_1"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="1760" operator="equal">
+      <formula>"door_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="1759" operator="equal">
+      <formula>"door_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="1758" operator="equal">
+      <formula>"key_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="1757" operator="equal">
+      <formula>"key_1"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="1756">
+      <formula>OR(LEFT(H8,5)="slime",LEFT(H8,3)="bat",LEFT(H8,8)="skeleton",LEFT(H8,5)="mummy",LEFT(H8,6)="wizard",LEFT(H8,6)="knight")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="1755">
+      <formula>LEFT(H8,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="1754">
+      <formula>LEFT(H8,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="5" priority="1753">
+      <formula>LEFT(H8,3)="gem"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="1752">
+      <formula>LEFT(H8,6)="potion"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1751">
+      <formula>LEFT(H8,3)="pos"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J5:J6">
+    <cfRule type="cellIs" dxfId="14" priority="1204" operator="equal">
+      <formula>"wall_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="1203" operator="equal">
+      <formula>"wall_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="1202" operator="equal">
+      <formula>"ground_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="11" priority="1201" operator="equal">
+      <formula>"wall_1"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="1200" operator="equal">
+      <formula>"door_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="1199" operator="equal">
+      <formula>"door_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="1198" operator="equal">
+      <formula>"key_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="1197" operator="equal">
+      <formula>"key_1"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="1196">
+      <formula>OR(LEFT(J5,5)="slime",LEFT(J5,3)="bat",LEFT(J5,8)="skeleton",LEFT(J5,5)="mummy",LEFT(J5,6)="wizard",LEFT(J5,6)="knight")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="1195">
+      <formula>LEFT(J5,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="1194">
+      <formula>LEFT(J5,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="5" priority="1193">
+      <formula>LEFT(J5,3)="gem"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="1192">
+      <formula>LEFT(J5,6)="potion"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1191">
+      <formula>LEFT(J5,3)="pos"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J8:J9">
+    <cfRule type="cellIs" dxfId="14" priority="1820" operator="equal">
+      <formula>"wall_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="1819" operator="equal">
+      <formula>"wall_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="1818" operator="equal">
+      <formula>"ground_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="11" priority="1817" operator="equal">
+      <formula>"wall_1"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="1816" operator="equal">
+      <formula>"door_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="1815" operator="equal">
+      <formula>"door_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="1814" operator="equal">
+      <formula>"key_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="1813" operator="equal">
+      <formula>"key_1"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="1812">
+      <formula>OR(LEFT(J8,5)="slime",LEFT(J8,3)="bat",LEFT(J8,8)="skeleton",LEFT(J8,5)="mummy",LEFT(J8,6)="wizard",LEFT(J8,6)="knight")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="1811">
+      <formula>LEFT(J8,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="1810">
+      <formula>LEFT(J8,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="5" priority="1809">
+      <formula>LEFT(J8,3)="gem"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="1808">
+      <formula>LEFT(J8,6)="potion"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1807">
+      <formula>LEFT(J8,3)="pos"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J10:J11">
+    <cfRule type="cellIs" dxfId="14" priority="896" operator="equal">
+      <formula>"wall_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="895" operator="equal">
+      <formula>"wall_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="894" operator="equal">
+      <formula>"ground_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="11" priority="893" operator="equal">
+      <formula>"wall_1"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="892" operator="equal">
+      <formula>"door_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="891" operator="equal">
+      <formula>"door_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="890" operator="equal">
+      <formula>"key_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="889" operator="equal">
+      <formula>"key_1"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="888">
+      <formula>OR(LEFT(J10,5)="slime",LEFT(J10,3)="bat",LEFT(J10,8)="skeleton",LEFT(J10,5)="mummy",LEFT(J10,6)="wizard",LEFT(J10,6)="knight")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="887">
+      <formula>LEFT(J10,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="886">
+      <formula>LEFT(J10,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="5" priority="885">
+      <formula>LEFT(J10,3)="gem"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="884">
+      <formula>LEFT(J10,6)="potion"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="883">
+      <formula>LEFT(J10,3)="pos"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L2:L3">
+    <cfRule type="cellIs" dxfId="14" priority="1568" operator="equal">
+      <formula>"wall_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="1567" operator="equal">
+      <formula>"wall_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="1566" operator="equal">
+      <formula>"ground_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="11" priority="1565" operator="equal">
+      <formula>"wall_1"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="1564" operator="equal">
+      <formula>"door_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="1563" operator="equal">
+      <formula>"door_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="1562" operator="equal">
+      <formula>"key_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="1561" operator="equal">
+      <formula>"key_1"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="1560">
+      <formula>OR(LEFT(L2,5)="slime",LEFT(L2,3)="bat",LEFT(L2,8)="skeleton",LEFT(L2,5)="mummy",LEFT(L2,6)="wizard",LEFT(L2,6)="knight")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="1559">
+      <formula>LEFT(L2,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="1558">
+      <formula>LEFT(L2,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="5" priority="1557">
+      <formula>LEFT(L2,3)="gem"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="1556">
+      <formula>LEFT(L2,6)="potion"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1555">
+      <formula>LEFT(L2,3)="pos"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L5:L6">
+    <cfRule type="cellIs" dxfId="14" priority="1260" operator="equal">
+      <formula>"wall_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="1259" operator="equal">
+      <formula>"wall_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="1258" operator="equal">
+      <formula>"ground_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="11" priority="1257" operator="equal">
+      <formula>"wall_1"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="1256" operator="equal">
+      <formula>"door_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="1255" operator="equal">
+      <formula>"door_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="1254" operator="equal">
+      <formula>"key_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="1253" operator="equal">
+      <formula>"key_1"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="1252">
+      <formula>OR(LEFT(L5,5)="slime",LEFT(L5,3)="bat",LEFT(L5,8)="skeleton",LEFT(L5,5)="mummy",LEFT(L5,6)="wizard",LEFT(L5,6)="knight")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="1251">
+      <formula>LEFT(L5,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="1250">
+      <formula>LEFT(L5,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="5" priority="1249">
+      <formula>LEFT(L5,3)="gem"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="1248">
+      <formula>LEFT(L5,6)="potion"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1247">
+      <formula>LEFT(L5,3)="pos"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L8:L9">
+    <cfRule type="cellIs" dxfId="14" priority="2661" operator="equal">
+      <formula>"wall_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="2660" operator="equal">
+      <formula>"wall_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="2659" operator="equal">
+      <formula>"ground_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="11" priority="2658" operator="equal">
+      <formula>"wall_1"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="2657" operator="equal">
+      <formula>"door_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="2656" operator="equal">
+      <formula>"door_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="2655" operator="equal">
+      <formula>"key_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="2654" operator="equal">
+      <formula>"key_1"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="2653">
+      <formula>OR(LEFT(L8,5)="slime",LEFT(L8,3)="bat",LEFT(L8,8)="skeleton",LEFT(L8,5)="mummy",LEFT(L8,6)="wizard",LEFT(L8,6)="knight")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="2652">
+      <formula>LEFT(L8,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="2651">
+      <formula>LEFT(L8,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="5" priority="2650">
+      <formula>LEFT(L8,3)="gem"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="2649">
+      <formula>LEFT(L8,6)="potion"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="2648">
+      <formula>LEFT(L8,3)="pos"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L10:L11">
+    <cfRule type="cellIs" dxfId="14" priority="952" operator="equal">
+      <formula>"wall_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="951" operator="equal">
+      <formula>"wall_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="950" operator="equal">
+      <formula>"ground_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="11" priority="949" operator="equal">
+      <formula>"wall_1"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="948" operator="equal">
+      <formula>"door_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="947" operator="equal">
+      <formula>"door_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="946" operator="equal">
+      <formula>"key_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="945" operator="equal">
+      <formula>"key_1"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="944">
+      <formula>OR(LEFT(L10,5)="slime",LEFT(L10,3)="bat",LEFT(L10,8)="skeleton",LEFT(L10,5)="mummy",LEFT(L10,6)="wizard",LEFT(L10,6)="knight")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="943">
+      <formula>LEFT(L10,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="942">
+      <formula>LEFT(L10,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="5" priority="941">
+      <formula>LEFT(L10,3)="gem"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="940">
+      <formula>LEFT(L10,6)="potion"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="939">
+      <formula>LEFT(L10,3)="pos"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1:M1 A2:A12 M2:M12 A13:M13">
+    <cfRule type="cellIs" dxfId="14" priority="2815" operator="equal">
+      <formula>"wall_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="2814" operator="equal">
+      <formula>"wall_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="2813" operator="equal">
+      <formula>"ground_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="11" priority="2812" operator="equal">
+      <formula>"wall_1"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="2811" operator="equal">
+      <formula>"door_0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="2810" operator="equal">
+      <formula>"door_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="2809" operator="equal">
+      <formula>"key_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="2808" operator="equal">
+      <formula>"key_1"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="2807">
+      <formula>OR(LEFT(A1,5)="slime",LEFT(A1,3)="bat",LEFT(A1,8)="skeleton",LEFT(A1,5)="mummy",LEFT(A1,6)="wizard",LEFT(A1,6)="knight")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="2806">
+      <formula>LEFT(A1,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="2805">
+      <formula>LEFT(A1,5)="stair"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="5" priority="2804">
+      <formula>LEFT(A1,3)="gem"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="2803">
+      <formula>LEFT(A1,6)="potion"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="2802">
+      <formula>LEFT(A1,3)="pos"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1:M13">
+    <cfRule type="containsText" dxfId="16" priority="2535" operator="between" text="key_0">
+      <formula>NOT(ISERROR(SEARCH("key_0",A1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:M13"/>
+  <sheetViews>
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
@@ -2965,60 +11400,60 @@
   <sheetData>
     <row r="1" customHeight="1" spans="1:13">
       <c r="A1" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:13">
       <c r="A2" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>10</v>
@@ -3030,159 +11465,159 @@
         <v>10</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>17</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="L2" s="1" t="s">
         <v>17</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:13">
       <c r="A3" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>10</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>10</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>17</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="L3" s="1" t="s">
         <v>17</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:13">
       <c r="A4" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>10</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>10</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>17</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="L4" s="1" t="s">
         <v>17</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:13">
       <c r="A5" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>10</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="H5" s="1" t="s">
         <v>10</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>17</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="L5" s="1" t="s">
         <v>17</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:13">
       <c r="A6" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>10</v>
@@ -3194,7 +11629,7 @@
         <v>10</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>17</v>
@@ -3206,48 +11641,48 @@
         <v>17</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:13">
       <c r="A7" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>21</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:13">
@@ -3255,25 +11690,25 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>11</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="I8" s="1" t="s">
         <v>8</v>
@@ -3282,10 +11717,10 @@
         <v>8</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="M8" s="1" t="s">
         <v>8</v>
@@ -3296,37 +11731,37 @@
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>11</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="I9" s="1" t="s">
         <v>8</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="K9" s="1" t="s">
         <v>8</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="M9" s="1" t="s">
         <v>8</v>
@@ -3337,37 +11772,37 @@
         <v>7</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>11</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="I10" s="1" t="s">
         <v>8</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="K10" s="1" t="s">
         <v>8</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="M10" s="1" t="s">
         <v>8</v>
@@ -3378,37 +11813,37 @@
         <v>7</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>11</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="I11" s="1" t="s">
         <v>8</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="K11" s="1" t="s">
         <v>8</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="M11" s="1" t="s">
         <v>8</v>
@@ -3416,37 +11851,37 @@
     </row>
     <row r="12" customHeight="1" spans="1:13">
       <c r="A12" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>11</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="I12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="L12" s="1" t="s">
         <v>8</v>
@@ -3457,48 +11892,48 @@
     </row>
     <row r="13" customHeight="1" spans="1:13">
       <c r="A13" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:M2">
-    <cfRule type="containsText" dxfId="16" priority="1392" operator="between" text="black_0">
+    <cfRule type="containsText" dxfId="17" priority="1392" operator="between" text="black_0">
       <formula>NOT(ISERROR(SEARCH("black_0",A2)))</formula>
     </cfRule>
     <cfRule type="containsText" priority="1391" operator="between" text="white_0">
@@ -3814,7 +12249,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3">
-    <cfRule type="containsText" dxfId="16" priority="930" operator="between" text="black_0">
+    <cfRule type="containsText" dxfId="17" priority="930" operator="between" text="black_0">
       <formula>NOT(ISERROR(SEARCH("black_0",B3)))</formula>
     </cfRule>
     <cfRule type="containsText" priority="929" operator="between" text="white_0">
@@ -3864,7 +12299,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3">
-    <cfRule type="containsText" dxfId="16" priority="850" operator="between" text="black_0">
+    <cfRule type="containsText" dxfId="17" priority="850" operator="between" text="black_0">
       <formula>NOT(ISERROR(SEARCH("black_0",D3)))</formula>
     </cfRule>
     <cfRule type="containsText" priority="849" operator="between" text="white_0">
@@ -3914,7 +12349,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F3">
-    <cfRule type="containsText" dxfId="16" priority="820" operator="between" text="black_0">
+    <cfRule type="containsText" dxfId="17" priority="820" operator="between" text="black_0">
       <formula>NOT(ISERROR(SEARCH("black_0",F3)))</formula>
     </cfRule>
     <cfRule type="containsText" priority="819" operator="between" text="white_0">
@@ -4006,7 +12441,7 @@
     <cfRule type="expression" dxfId="3" priority="1279">
       <formula>LEFT(G3,3)="pos"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="16" priority="1278" operator="between" text="black_0">
+    <cfRule type="containsText" dxfId="17" priority="1278" operator="between" text="black_0">
       <formula>NOT(ISERROR(SEARCH("black_0",G3)))</formula>
     </cfRule>
     <cfRule type="containsText" priority="1277" operator="between" text="white_0">
@@ -4014,7 +12449,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3">
-    <cfRule type="containsText" dxfId="16" priority="676" operator="between" text="black_0">
+    <cfRule type="containsText" dxfId="17" priority="676" operator="between" text="black_0">
       <formula>NOT(ISERROR(SEARCH("black_0",H3)))</formula>
     </cfRule>
     <cfRule type="containsText" priority="675" operator="between" text="white_0">
@@ -4064,7 +12499,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J3">
-    <cfRule type="containsText" dxfId="16" priority="632" operator="between" text="black_0">
+    <cfRule type="containsText" dxfId="17" priority="632" operator="between" text="black_0">
       <formula>NOT(ISERROR(SEARCH("black_0",J3)))</formula>
     </cfRule>
     <cfRule type="containsText" priority="631" operator="between" text="white_0">
@@ -4114,7 +12549,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L3">
-    <cfRule type="containsText" dxfId="16" priority="504" operator="between" text="black_0">
+    <cfRule type="containsText" dxfId="17" priority="504" operator="between" text="black_0">
       <formula>NOT(ISERROR(SEARCH("black_0",L3)))</formula>
     </cfRule>
     <cfRule type="containsText" priority="503" operator="between" text="white_0">
@@ -4164,7 +12599,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4">
-    <cfRule type="containsText" dxfId="16" priority="914" operator="between" text="black_0">
+    <cfRule type="containsText" dxfId="17" priority="914" operator="between" text="black_0">
       <formula>NOT(ISERROR(SEARCH("black_0",B4)))</formula>
     </cfRule>
     <cfRule type="containsText" priority="913" operator="between" text="white_0">
@@ -4214,7 +12649,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4">
-    <cfRule type="containsText" dxfId="16" priority="866" operator="between" text="black_0">
+    <cfRule type="containsText" dxfId="17" priority="866" operator="between" text="black_0">
       <formula>NOT(ISERROR(SEARCH("black_0",D4)))</formula>
     </cfRule>
     <cfRule type="containsText" priority="865" operator="between" text="white_0">
@@ -4264,7 +12699,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4">
-    <cfRule type="containsText" dxfId="16" priority="804" operator="between" text="black_0">
+    <cfRule type="containsText" dxfId="17" priority="804" operator="between" text="black_0">
       <formula>NOT(ISERROR(SEARCH("black_0",F4)))</formula>
     </cfRule>
     <cfRule type="containsText" priority="803" operator="between" text="white_0">
@@ -4358,7 +12793,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4">
-    <cfRule type="containsText" dxfId="16" priority="692" operator="between" text="black_0">
+    <cfRule type="containsText" dxfId="17" priority="692" operator="between" text="black_0">
       <formula>NOT(ISERROR(SEARCH("black_0",H4)))</formula>
     </cfRule>
     <cfRule type="containsText" priority="691" operator="between" text="white_0">
@@ -4408,7 +12843,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J4">
-    <cfRule type="containsText" dxfId="16" priority="616" operator="between" text="black_0">
+    <cfRule type="containsText" dxfId="17" priority="616" operator="between" text="black_0">
       <formula>NOT(ISERROR(SEARCH("black_0",J4)))</formula>
     </cfRule>
     <cfRule type="containsText" priority="615" operator="between" text="white_0">
@@ -4458,7 +12893,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L4">
-    <cfRule type="containsText" dxfId="16" priority="520" operator="between" text="black_0">
+    <cfRule type="containsText" dxfId="17" priority="520" operator="between" text="black_0">
       <formula>NOT(ISERROR(SEARCH("black_0",L4)))</formula>
     </cfRule>
     <cfRule type="containsText" priority="519" operator="between" text="white_0">
@@ -4552,7 +12987,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C5">
-    <cfRule type="containsText" dxfId="16" priority="898" operator="between" text="black_0">
+    <cfRule type="containsText" dxfId="17" priority="898" operator="between" text="black_0">
       <formula>NOT(ISERROR(SEARCH("black_0",C5)))</formula>
     </cfRule>
     <cfRule type="containsText" priority="897" operator="between" text="white_0">
@@ -4646,7 +13081,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F5">
-    <cfRule type="containsText" dxfId="16" priority="788" operator="between" text="black_0">
+    <cfRule type="containsText" dxfId="17" priority="788" operator="between" text="black_0">
       <formula>NOT(ISERROR(SEARCH("black_0",F5)))</formula>
     </cfRule>
     <cfRule type="containsText" priority="787" operator="between" text="white_0">
@@ -4740,7 +13175,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H5">
-    <cfRule type="containsText" dxfId="16" priority="708" operator="between" text="black_0">
+    <cfRule type="containsText" dxfId="17" priority="708" operator="between" text="black_0">
       <formula>NOT(ISERROR(SEARCH("black_0",H5)))</formula>
     </cfRule>
     <cfRule type="containsText" priority="707" operator="between" text="white_0">
@@ -4790,7 +13225,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J5">
-    <cfRule type="containsText" dxfId="16" priority="600" operator="between" text="black_0">
+    <cfRule type="containsText" dxfId="17" priority="600" operator="between" text="black_0">
       <formula>NOT(ISERROR(SEARCH("black_0",J5)))</formula>
     </cfRule>
     <cfRule type="containsText" priority="599" operator="between" text="white_0">
@@ -4884,7 +13319,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L5">
-    <cfRule type="containsText" dxfId="16" priority="536" operator="between" text="black_0">
+    <cfRule type="containsText" dxfId="17" priority="536" operator="between" text="black_0">
       <formula>NOT(ISERROR(SEARCH("black_0",L5)))</formula>
     </cfRule>
     <cfRule type="containsText" priority="535" operator="between" text="white_0">
@@ -4934,7 +13369,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C6">
-    <cfRule type="containsText" dxfId="16" priority="882" operator="between" text="black_0">
+    <cfRule type="containsText" dxfId="17" priority="882" operator="between" text="black_0">
       <formula>NOT(ISERROR(SEARCH("black_0",C6)))</formula>
     </cfRule>
     <cfRule type="containsText" priority="881" operator="between" text="white_0">
@@ -4984,7 +13419,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F6">
-    <cfRule type="containsText" dxfId="16" priority="772" operator="between" text="black_0">
+    <cfRule type="containsText" dxfId="17" priority="772" operator="between" text="black_0">
       <formula>NOT(ISERROR(SEARCH("black_0",F6)))</formula>
     </cfRule>
     <cfRule type="containsText" priority="771" operator="between" text="white_0">
@@ -5034,7 +13469,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G6">
-    <cfRule type="containsText" dxfId="16" priority="756" operator="between" text="black_0">
+    <cfRule type="containsText" dxfId="17" priority="756" operator="between" text="black_0">
       <formula>NOT(ISERROR(SEARCH("black_0",G6)))</formula>
     </cfRule>
     <cfRule type="containsText" priority="755" operator="between" text="white_0">
@@ -5084,7 +13519,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H6">
-    <cfRule type="containsText" dxfId="16" priority="740" operator="between" text="black_0">
+    <cfRule type="containsText" dxfId="17" priority="740" operator="between" text="black_0">
       <formula>NOT(ISERROR(SEARCH("black_0",H6)))</formula>
     </cfRule>
     <cfRule type="containsText" priority="739" operator="between" text="white_0">
@@ -5134,7 +13569,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J6">
-    <cfRule type="containsText" dxfId="16" priority="584" operator="between" text="black_0">
+    <cfRule type="containsText" dxfId="17" priority="584" operator="between" text="black_0">
       <formula>NOT(ISERROR(SEARCH("black_0",J6)))</formula>
     </cfRule>
     <cfRule type="containsText" priority="583" operator="between" text="white_0">
@@ -5184,7 +13619,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K6">
-    <cfRule type="containsText" dxfId="16" priority="568" operator="between" text="black_0">
+    <cfRule type="containsText" dxfId="17" priority="568" operator="between" text="black_0">
       <formula>NOT(ISERROR(SEARCH("black_0",K6)))</formula>
     </cfRule>
     <cfRule type="containsText" priority="567" operator="between" text="white_0">
@@ -5234,7 +13669,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L6">
-    <cfRule type="containsText" dxfId="16" priority="552" operator="between" text="black_0">
+    <cfRule type="containsText" dxfId="17" priority="552" operator="between" text="black_0">
       <formula>NOT(ISERROR(SEARCH("black_0",L6)))</formula>
     </cfRule>
     <cfRule type="containsText" priority="551" operator="between" text="white_0">
@@ -5284,7 +13719,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A7:M7">
-    <cfRule type="containsText" dxfId="16" priority="2328" operator="between" text="black_0">
+    <cfRule type="containsText" dxfId="17" priority="2328" operator="between" text="black_0">
       <formula>NOT(ISERROR(SEARCH("black_0",A7)))</formula>
     </cfRule>
     <cfRule type="containsText" priority="2327" operator="between" text="white_0">
@@ -5468,7 +13903,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I8">
-    <cfRule type="containsText" dxfId="16" priority="332" operator="between" text="black_0">
+    <cfRule type="containsText" dxfId="17" priority="332" operator="between" text="black_0">
       <formula>NOT(ISERROR(SEARCH("black_0",I8)))</formula>
     </cfRule>
     <cfRule type="containsText" priority="331" operator="between" text="white_0">
@@ -5518,7 +13953,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J8">
-    <cfRule type="containsText" dxfId="16" priority="348" operator="between" text="black_0">
+    <cfRule type="containsText" dxfId="17" priority="348" operator="between" text="black_0">
       <formula>NOT(ISERROR(SEARCH("black_0",J8)))</formula>
     </cfRule>
     <cfRule type="containsText" priority="347" operator="between" text="white_0">
@@ -5832,7 +14267,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I9">
-    <cfRule type="containsText" dxfId="16" priority="316" operator="between" text="black_0">
+    <cfRule type="containsText" dxfId="17" priority="316" operator="between" text="black_0">
       <formula>NOT(ISERROR(SEARCH("black_0",I9)))</formula>
     </cfRule>
     <cfRule type="containsText" priority="315" operator="between" text="white_0">
@@ -5926,7 +14361,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K9">
-    <cfRule type="containsText" dxfId="16" priority="364" operator="between" text="black_0">
+    <cfRule type="containsText" dxfId="17" priority="364" operator="between" text="black_0">
       <formula>NOT(ISERROR(SEARCH("black_0",K9)))</formula>
     </cfRule>
     <cfRule type="containsText" priority="363" operator="between" text="white_0">
@@ -6284,7 +14719,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I10">
-    <cfRule type="containsText" dxfId="16" priority="300" operator="between" text="black_0">
+    <cfRule type="containsText" dxfId="17" priority="300" operator="between" text="black_0">
       <formula>NOT(ISERROR(SEARCH("black_0",I10)))</formula>
     </cfRule>
     <cfRule type="containsText" priority="299" operator="between" text="white_0">
@@ -6334,7 +14769,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K10">
-    <cfRule type="containsText" dxfId="16" priority="380" operator="between" text="black_0">
+    <cfRule type="containsText" dxfId="17" priority="380" operator="between" text="black_0">
       <formula>NOT(ISERROR(SEARCH("black_0",K10)))</formula>
     </cfRule>
     <cfRule type="containsText" priority="379" operator="between" text="white_0">
@@ -6384,7 +14819,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M10">
-    <cfRule type="containsText" dxfId="16" priority="460" operator="between" text="black_0">
+    <cfRule type="containsText" dxfId="17" priority="460" operator="between" text="black_0">
       <formula>NOT(ISERROR(SEARCH("black_0",M10)))</formula>
     </cfRule>
     <cfRule type="containsText" priority="459" operator="between" text="white_0">
@@ -6434,7 +14869,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A11">
-    <cfRule type="containsText" dxfId="16" priority="164" operator="between" text="black_0">
+    <cfRule type="containsText" dxfId="17" priority="164" operator="between" text="black_0">
       <formula>NOT(ISERROR(SEARCH("black_0",A11)))</formula>
     </cfRule>
     <cfRule type="containsText" priority="163" operator="between" text="white_0">
@@ -6528,7 +14963,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C11">
-    <cfRule type="containsText" dxfId="16" priority="132" operator="between" text="black_0">
+    <cfRule type="containsText" dxfId="17" priority="132" operator="between" text="black_0">
       <formula>NOT(ISERROR(SEARCH("black_0",C11)))</formula>
     </cfRule>
     <cfRule type="containsText" priority="131" operator="between" text="white_0">
@@ -6622,7 +15057,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E11">
-    <cfRule type="containsText" dxfId="16" priority="32" operator="between" text="black_0">
+    <cfRule type="containsText" dxfId="17" priority="32" operator="between" text="black_0">
       <formula>NOT(ISERROR(SEARCH("black_0",E11)))</formula>
     </cfRule>
     <cfRule type="containsText" priority="31" operator="between" text="white_0">
@@ -6672,7 +15107,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G11">
-    <cfRule type="containsText" dxfId="16" priority="224" operator="between" text="black_0">
+    <cfRule type="containsText" dxfId="17" priority="224" operator="between" text="black_0">
       <formula>NOT(ISERROR(SEARCH("black_0",G11)))</formula>
     </cfRule>
     <cfRule type="containsText" priority="223" operator="between" text="white_0">
@@ -6722,7 +15157,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I11">
-    <cfRule type="containsText" dxfId="16" priority="284" operator="between" text="black_0">
+    <cfRule type="containsText" dxfId="17" priority="284" operator="between" text="black_0">
       <formula>NOT(ISERROR(SEARCH("black_0",I11)))</formula>
     </cfRule>
     <cfRule type="containsText" priority="283" operator="between" text="white_0">
@@ -6816,7 +15251,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K11">
-    <cfRule type="containsText" dxfId="16" priority="396" operator="between" text="black_0">
+    <cfRule type="containsText" dxfId="17" priority="396" operator="between" text="black_0">
       <formula>NOT(ISERROR(SEARCH("black_0",K11)))</formula>
     </cfRule>
     <cfRule type="containsText" priority="395" operator="between" text="white_0">
@@ -6908,7 +15343,7 @@
     <cfRule type="expression" dxfId="3" priority="1073">
       <formula>LEFT(L11,3)="pos"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="16" priority="1072" operator="between" text="black_0">
+    <cfRule type="containsText" dxfId="17" priority="1072" operator="between" text="black_0">
       <formula>NOT(ISERROR(SEARCH("black_0",L11)))</formula>
     </cfRule>
     <cfRule type="containsText" priority="1071" operator="between" text="white_0">
@@ -6916,7 +15351,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M11">
-    <cfRule type="containsText" dxfId="16" priority="444" operator="between" text="black_0">
+    <cfRule type="containsText" dxfId="17" priority="444" operator="between" text="black_0">
       <formula>NOT(ISERROR(SEARCH("black_0",M11)))</formula>
     </cfRule>
     <cfRule type="containsText" priority="443" operator="between" text="white_0">
@@ -6966,7 +15401,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B12">
-    <cfRule type="containsText" dxfId="16" priority="148" operator="between" text="black_0">
+    <cfRule type="containsText" dxfId="17" priority="148" operator="between" text="black_0">
       <formula>NOT(ISERROR(SEARCH("black_0",B12)))</formula>
     </cfRule>
     <cfRule type="containsText" priority="147" operator="between" text="white_0">
@@ -7016,7 +15451,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D12">
-    <cfRule type="containsText" dxfId="16" priority="16" operator="between" text="black_0">
+    <cfRule type="containsText" dxfId="17" priority="16" operator="between" text="black_0">
       <formula>NOT(ISERROR(SEARCH("black_0",D12)))</formula>
     </cfRule>
     <cfRule type="containsText" priority="15" operator="between" text="white_0">
@@ -7066,7 +15501,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G12">
-    <cfRule type="containsText" dxfId="16" priority="208" operator="between" text="black_0">
+    <cfRule type="containsText" dxfId="17" priority="208" operator="between" text="black_0">
       <formula>NOT(ISERROR(SEARCH("black_0",G12)))</formula>
     </cfRule>
     <cfRule type="containsText" priority="207" operator="between" text="white_0">
@@ -7116,7 +15551,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I12">
-    <cfRule type="containsText" dxfId="16" priority="268" operator="between" text="black_0">
+    <cfRule type="containsText" dxfId="17" priority="268" operator="between" text="black_0">
       <formula>NOT(ISERROR(SEARCH("black_0",I12)))</formula>
     </cfRule>
     <cfRule type="containsText" priority="267" operator="between" text="white_0">
@@ -7254,7 +15689,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L12">
-    <cfRule type="containsText" dxfId="16" priority="412" operator="between" text="black_0">
+    <cfRule type="containsText" dxfId="17" priority="412" operator="between" text="black_0">
       <formula>NOT(ISERROR(SEARCH("black_0",L12)))</formula>
     </cfRule>
     <cfRule type="containsText" priority="411" operator="between" text="white_0">
@@ -7304,7 +15739,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M12">
-    <cfRule type="containsText" dxfId="16" priority="428" operator="between" text="black_0">
+    <cfRule type="containsText" dxfId="17" priority="428" operator="between" text="black_0">
       <formula>NOT(ISERROR(SEARCH("black_0",M12)))</formula>
     </cfRule>
     <cfRule type="containsText" priority="427" operator="between" text="white_0">
@@ -7440,7 +15875,7 @@
     <cfRule type="expression" dxfId="3" priority="2909">
       <formula>LEFT(L8,3)="pos"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="16" priority="2908" operator="between" text="black_0">
+    <cfRule type="containsText" dxfId="17" priority="2908" operator="between" text="black_0">
       <formula>NOT(ISERROR(SEARCH("black_0",L8)))</formula>
     </cfRule>
     <cfRule type="containsText" priority="2907" operator="between" text="white_0">
@@ -7448,7 +15883,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M8:M9">
-    <cfRule type="containsText" dxfId="16" priority="1918" operator="between" text="black_0">
+    <cfRule type="containsText" dxfId="17" priority="1918" operator="between" text="black_0">
       <formula>NOT(ISERROR(SEARCH("black_0",M8)))</formula>
     </cfRule>
     <cfRule type="containsText" priority="1917" operator="between" text="white_0">
@@ -7503,7 +15938,7 @@
     <cfRule type="containsText" priority="3875" operator="between" text="white_0">
       <formula>NOT(ISERROR(SEARCH("white_0",A1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="16" priority="3876" operator="between" text="black_0">
+    <cfRule type="containsText" dxfId="17" priority="3876" operator="between" text="black_0">
       <formula>NOT(ISERROR(SEARCH("black_0",A1)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7860,7 +16295,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B11 D11 F11 H11 J11">
-    <cfRule type="containsText" dxfId="16" priority="1088" operator="between" text="black_0">
+    <cfRule type="containsText" dxfId="17" priority="1088" operator="between" text="black_0">
       <formula>NOT(ISERROR(SEARCH("black_0",B11)))</formula>
     </cfRule>
     <cfRule type="containsText" priority="1087" operator="between" text="white_0">
@@ -7956,7 +16391,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A12 C12 E12:F12 H12 J12:K12">
-    <cfRule type="containsText" dxfId="16" priority="1234" operator="between" text="black_0">
+    <cfRule type="containsText" dxfId="17" priority="1234" operator="between" text="black_0">
       <formula>NOT(ISERROR(SEARCH("black_0",A12)))</formula>
     </cfRule>
     <cfRule type="containsText" priority="1233" operator="between" text="white_0">
